--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>707700</v>
+        <v>518600</v>
       </c>
       <c r="E8" s="3">
-        <v>611300</v>
+        <v>601700</v>
       </c>
       <c r="F8" s="3">
-        <v>593600</v>
+        <v>560800</v>
       </c>
       <c r="G8" s="3">
-        <v>567300</v>
+        <v>484400</v>
       </c>
       <c r="H8" s="3">
-        <v>564100</v>
+        <v>470300</v>
       </c>
       <c r="I8" s="3">
+        <v>454300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>447000</v>
+      </c>
+      <c r="K8" s="3">
         <v>465700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>511900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>560500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>510700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>440200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>466000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>451700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>288900</v>
+        <v>227100</v>
       </c>
       <c r="E9" s="3">
-        <v>261400</v>
+        <v>229500</v>
       </c>
       <c r="F9" s="3">
-        <v>243900</v>
+        <v>228900</v>
       </c>
       <c r="G9" s="3">
-        <v>346800</v>
+        <v>207100</v>
       </c>
       <c r="H9" s="3">
-        <v>249800</v>
+        <v>193400</v>
       </c>
       <c r="I9" s="3">
+        <v>187600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>197900</v>
+      </c>
+      <c r="K9" s="3">
         <v>201200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>218700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>307600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>287100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>265500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>270700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>267400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>418800</v>
+        <v>291500</v>
       </c>
       <c r="E10" s="3">
-        <v>349900</v>
+        <v>372200</v>
       </c>
       <c r="F10" s="3">
-        <v>349700</v>
+        <v>331900</v>
       </c>
       <c r="G10" s="3">
-        <v>220500</v>
+        <v>277200</v>
       </c>
       <c r="H10" s="3">
-        <v>314300</v>
+        <v>277000</v>
       </c>
       <c r="I10" s="3">
+        <v>266700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>249100</v>
+      </c>
+      <c r="K10" s="3">
         <v>264400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>293100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>252800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>223600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>174700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>195300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>184300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1052,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>87900</v>
+        <v>88900</v>
       </c>
       <c r="E15" s="3">
-        <v>91800</v>
+        <v>464900</v>
       </c>
       <c r="F15" s="3">
-        <v>90700</v>
+        <v>69700</v>
       </c>
       <c r="G15" s="3">
-        <v>16700</v>
+        <v>72800</v>
       </c>
       <c r="H15" s="3">
-        <v>76200</v>
+        <v>69800</v>
       </c>
       <c r="I15" s="3">
+        <v>62800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K15" s="3">
         <v>75200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>69200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>13600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>22900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>20700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>19000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>18700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>577100</v>
+        <v>486500</v>
       </c>
       <c r="E17" s="3">
-        <v>531900</v>
+        <v>1051300</v>
       </c>
       <c r="F17" s="3">
-        <v>515200</v>
+        <v>457300</v>
       </c>
       <c r="G17" s="3">
-        <v>567400</v>
+        <v>421500</v>
       </c>
       <c r="H17" s="3">
-        <v>464700</v>
+        <v>406100</v>
       </c>
       <c r="I17" s="3">
+        <v>418300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>368200</v>
+      </c>
+      <c r="K17" s="3">
         <v>419000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>424700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>484200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>448400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>414900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>414100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>409500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>130600</v>
+        <v>32100</v>
       </c>
       <c r="E18" s="3">
-        <v>79400</v>
+        <v>-449600</v>
       </c>
       <c r="F18" s="3">
-        <v>78400</v>
+        <v>103500</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>62900</v>
       </c>
       <c r="H18" s="3">
-        <v>99400</v>
+        <v>64200</v>
       </c>
       <c r="I18" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K18" s="3">
         <v>46700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>87200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>76200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>62300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>25300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>51900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>42200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-234400</v>
+        <v>-1213700</v>
       </c>
       <c r="E20" s="3">
-        <v>-9500</v>
+        <v>-7000</v>
       </c>
       <c r="F20" s="3">
-        <v>-60500</v>
+        <v>-185700</v>
       </c>
       <c r="G20" s="3">
-        <v>-25100</v>
+        <v>-7500</v>
       </c>
       <c r="H20" s="3">
-        <v>-103500</v>
+        <v>-52300</v>
       </c>
       <c r="I20" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-221400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-42100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>18600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-11700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-38300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-35900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-35300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-107700</v>
+        <v>-1092600</v>
       </c>
       <c r="E21" s="3">
-        <v>71000</v>
+        <v>-61500</v>
       </c>
       <c r="F21" s="3">
-        <v>108700</v>
+        <v>-85300</v>
       </c>
       <c r="G21" s="3">
-        <v>-84700</v>
+        <v>58400</v>
       </c>
       <c r="H21" s="3">
-        <v>-3100</v>
+        <v>81700</v>
       </c>
       <c r="I21" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-168700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>114300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>85500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>52900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>35000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>25600</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-103800</v>
+        <v>-1181600</v>
       </c>
       <c r="E23" s="3">
-        <v>69900</v>
+        <v>-456600</v>
       </c>
       <c r="F23" s="3">
-        <v>17900</v>
+        <v>-82200</v>
       </c>
       <c r="G23" s="3">
-        <v>-25200</v>
+        <v>55400</v>
       </c>
       <c r="H23" s="3">
-        <v>-4100</v>
+        <v>11900</v>
       </c>
       <c r="I23" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-174700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>45100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>94800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>50600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>16000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1500</v>
+        <v>-46300</v>
       </c>
       <c r="E24" s="3">
-        <v>-10800</v>
+        <v>-3600</v>
       </c>
       <c r="F24" s="3">
-        <v>-14200</v>
+        <v>-1200</v>
       </c>
       <c r="G24" s="3">
-        <v>8700</v>
+        <v>-8500</v>
       </c>
       <c r="H24" s="3">
-        <v>7100</v>
+        <v>-11300</v>
       </c>
       <c r="I24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K24" s="3">
         <v>10100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>18600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-102300</v>
+        <v>-1135300</v>
       </c>
       <c r="E26" s="3">
-        <v>80700</v>
+        <v>-453000</v>
       </c>
       <c r="F26" s="3">
-        <v>32200</v>
+        <v>-81000</v>
       </c>
       <c r="G26" s="3">
-        <v>-33900</v>
+        <v>63900</v>
       </c>
       <c r="H26" s="3">
-        <v>-11200</v>
+        <v>23200</v>
       </c>
       <c r="I26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-184800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>40200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>76200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>51100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-9900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>14500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-102300</v>
+        <v>-1135300</v>
       </c>
       <c r="E27" s="3">
-        <v>80700</v>
+        <v>-453000</v>
       </c>
       <c r="F27" s="3">
-        <v>32200</v>
+        <v>-81000</v>
       </c>
       <c r="G27" s="3">
-        <v>-33900</v>
+        <v>63900</v>
       </c>
       <c r="H27" s="3">
-        <v>-11200</v>
+        <v>23200</v>
       </c>
       <c r="I27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-184800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>40200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>76200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>51000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-9900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>14500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>234400</v>
+        <v>1213700</v>
       </c>
       <c r="E32" s="3">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="F32" s="3">
-        <v>60500</v>
+        <v>185700</v>
       </c>
       <c r="G32" s="3">
-        <v>25100</v>
+        <v>7500</v>
       </c>
       <c r="H32" s="3">
-        <v>103500</v>
+        <v>52300</v>
       </c>
       <c r="I32" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K32" s="3">
         <v>221400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>42100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-18600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>11700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>38300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>35900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>35300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-102300</v>
+        <v>-1135300</v>
       </c>
       <c r="E33" s="3">
-        <v>80700</v>
+        <v>-453000</v>
       </c>
       <c r="F33" s="3">
-        <v>32200</v>
+        <v>-81000</v>
       </c>
       <c r="G33" s="3">
-        <v>-33900</v>
+        <v>63900</v>
       </c>
       <c r="H33" s="3">
-        <v>-11200</v>
+        <v>23200</v>
       </c>
       <c r="I33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-184800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>40200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>76200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>51000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-9900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>14500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-102300</v>
+        <v>-1135300</v>
       </c>
       <c r="E35" s="3">
-        <v>80700</v>
+        <v>-453000</v>
       </c>
       <c r="F35" s="3">
-        <v>32200</v>
+        <v>-81000</v>
       </c>
       <c r="G35" s="3">
-        <v>-33900</v>
+        <v>63900</v>
       </c>
       <c r="H35" s="3">
-        <v>-11200</v>
+        <v>23200</v>
       </c>
       <c r="I35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-184800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>40200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>76200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>51000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-9900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>14500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>355400</v>
+        <v>97900</v>
       </c>
       <c r="E41" s="3">
-        <v>283300</v>
+        <v>304900</v>
       </c>
       <c r="F41" s="3">
-        <v>212100</v>
+        <v>281600</v>
       </c>
       <c r="G41" s="3">
-        <v>273000</v>
+        <v>224400</v>
       </c>
       <c r="H41" s="3">
-        <v>208700</v>
+        <v>168100</v>
       </c>
       <c r="I41" s="3">
+        <v>432700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K41" s="3">
         <v>198300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>172500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>195400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>124600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>128400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>107900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>136200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9600</v>
+        <v>136600</v>
       </c>
       <c r="E42" s="3">
-        <v>61100</v>
+        <v>11500</v>
       </c>
       <c r="F42" s="3">
-        <v>92700</v>
+        <v>7600</v>
       </c>
       <c r="G42" s="3">
-        <v>120800</v>
+        <v>48400</v>
       </c>
       <c r="H42" s="3">
-        <v>155900</v>
+        <v>73400</v>
       </c>
       <c r="I42" s="3">
+        <v>191500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K42" s="3">
         <v>169400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>146600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>265600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>239200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>227400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>50800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>82200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>436400</v>
+        <v>198300</v>
       </c>
       <c r="E43" s="3">
-        <v>424700</v>
+        <v>255400</v>
       </c>
       <c r="F43" s="3">
-        <v>401900</v>
+        <v>345800</v>
       </c>
       <c r="G43" s="3">
-        <v>315900</v>
+        <v>336500</v>
       </c>
       <c r="H43" s="3">
-        <v>390100</v>
+        <v>318400</v>
       </c>
       <c r="I43" s="3">
+        <v>264000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>309100</v>
+      </c>
+      <c r="K43" s="3">
         <v>332300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>313500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>263200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>233900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>222000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>167900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>178100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61600</v>
+        <v>70300</v>
       </c>
       <c r="E44" s="3">
-        <v>53600</v>
+        <v>48300</v>
       </c>
       <c r="F44" s="3">
-        <v>52500</v>
+        <v>48800</v>
       </c>
       <c r="G44" s="3">
-        <v>46700</v>
+        <v>42500</v>
       </c>
       <c r="H44" s="3">
-        <v>46300</v>
+        <v>41600</v>
       </c>
       <c r="I44" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K44" s="3">
         <v>40000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>40900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>38600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>34500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>33200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>28500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>26600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84000</v>
+        <v>157900</v>
       </c>
       <c r="E45" s="3">
-        <v>85400</v>
+        <v>145700</v>
       </c>
       <c r="F45" s="3">
-        <v>78200</v>
+        <v>66600</v>
       </c>
       <c r="G45" s="3">
-        <v>65900</v>
+        <v>67600</v>
       </c>
       <c r="H45" s="3">
-        <v>51200</v>
+        <v>60900</v>
       </c>
       <c r="I45" s="3">
+        <v>69700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K45" s="3">
         <v>67100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>79000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>84100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>50600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>65700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>65500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>50900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>947100</v>
+        <v>661000</v>
       </c>
       <c r="E46" s="3">
-        <v>908100</v>
+        <v>765800</v>
       </c>
       <c r="F46" s="3">
-        <v>837300</v>
+        <v>750400</v>
       </c>
       <c r="G46" s="3">
-        <v>822400</v>
+        <v>719500</v>
       </c>
       <c r="H46" s="3">
-        <v>852300</v>
+        <v>662400</v>
       </c>
       <c r="I46" s="3">
+        <v>682800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>675300</v>
+      </c>
+      <c r="K46" s="3">
         <v>807100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>734800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>847000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>682700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>676700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>420500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>473900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>322300</v>
+        <v>234000</v>
       </c>
       <c r="E47" s="3">
-        <v>311100</v>
+        <v>303900</v>
       </c>
       <c r="F47" s="3">
-        <v>373400</v>
+        <v>255400</v>
       </c>
       <c r="G47" s="3">
-        <v>300700</v>
+        <v>246500</v>
       </c>
       <c r="H47" s="3">
-        <v>361400</v>
+        <v>295900</v>
       </c>
       <c r="I47" s="3">
+        <v>238300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>286400</v>
+      </c>
+      <c r="K47" s="3">
         <v>333000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>280800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>216800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>209500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>200600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>188600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>189100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2093200</v>
+        <v>1775400</v>
       </c>
       <c r="E48" s="3">
-        <v>2017000</v>
+        <v>1767700</v>
       </c>
       <c r="F48" s="3">
-        <v>1872000</v>
+        <v>1658600</v>
       </c>
       <c r="G48" s="3">
-        <v>768100</v>
+        <v>1598200</v>
       </c>
       <c r="H48" s="3">
-        <v>1627600</v>
+        <v>1512800</v>
       </c>
       <c r="I48" s="3">
+        <v>1369500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1289600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1538300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1619300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>852600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>834400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>893200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>840600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>853400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>245400</v>
+        <v>201500</v>
       </c>
       <c r="E49" s="3">
-        <v>244300</v>
+        <v>201200</v>
       </c>
       <c r="F49" s="3">
-        <v>239900</v>
+        <v>194400</v>
       </c>
       <c r="G49" s="3">
-        <v>237400</v>
+        <v>193600</v>
       </c>
       <c r="H49" s="3">
-        <v>233100</v>
+        <v>190100</v>
       </c>
       <c r="I49" s="3">
+        <v>188100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>184700</v>
+      </c>
+      <c r="K49" s="3">
         <v>227000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>224300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>246400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>243600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>244100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>233900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>233800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>737500</v>
+        <v>609700</v>
       </c>
       <c r="E52" s="3">
-        <v>661200</v>
+        <v>513500</v>
       </c>
       <c r="F52" s="3">
-        <v>587000</v>
+        <v>584400</v>
       </c>
       <c r="G52" s="3">
-        <v>625300</v>
+        <v>523900</v>
       </c>
       <c r="H52" s="3">
-        <v>553700</v>
+        <v>515500</v>
       </c>
       <c r="I52" s="3">
+        <v>499300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>438800</v>
+      </c>
+      <c r="K52" s="3">
         <v>529700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>452100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>482000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>339700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>340000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>318200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>333700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4345500</v>
+        <v>3481700</v>
       </c>
       <c r="E54" s="3">
-        <v>4141700</v>
+        <v>3552100</v>
       </c>
       <c r="F54" s="3">
-        <v>3909600</v>
+        <v>3443200</v>
       </c>
       <c r="G54" s="3">
-        <v>2753900</v>
+        <v>3281700</v>
       </c>
       <c r="H54" s="3">
-        <v>3625200</v>
+        <v>3126200</v>
       </c>
       <c r="I54" s="3">
+        <v>2977900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2872400</v>
+      </c>
+      <c r="K54" s="3">
         <v>3432500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3311400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2644800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2309900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2354700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2001800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2084000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>372000</v>
+        <v>390300</v>
       </c>
       <c r="E57" s="3">
-        <v>331600</v>
+        <v>301000</v>
       </c>
       <c r="F57" s="3">
-        <v>329500</v>
+        <v>294800</v>
       </c>
       <c r="G57" s="3">
-        <v>310400</v>
+        <v>262800</v>
       </c>
       <c r="H57" s="3">
-        <v>304900</v>
+        <v>303800</v>
       </c>
       <c r="I57" s="3">
+        <v>268400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K57" s="3">
         <v>280900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>244800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>244500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>224200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>230000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>256500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>256600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>412500</v>
+        <v>792200</v>
       </c>
       <c r="E58" s="3">
-        <v>351900</v>
+        <v>382400</v>
       </c>
       <c r="F58" s="3">
-        <v>340200</v>
+        <v>326900</v>
       </c>
       <c r="G58" s="3">
-        <v>78200</v>
+        <v>278800</v>
       </c>
       <c r="H58" s="3">
-        <v>362000</v>
+        <v>268900</v>
       </c>
       <c r="I58" s="3">
+        <v>258400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>286900</v>
+      </c>
+      <c r="K58" s="3">
         <v>368300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>340600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>145700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>259200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>282300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>252900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>255500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>631100</v>
+        <v>622200</v>
       </c>
       <c r="E59" s="3">
-        <v>655700</v>
+        <v>586400</v>
       </c>
       <c r="F59" s="3">
-        <v>543000</v>
+        <v>500000</v>
       </c>
       <c r="G59" s="3">
-        <v>558700</v>
+        <v>519600</v>
       </c>
       <c r="H59" s="3">
-        <v>521500</v>
+        <v>437300</v>
       </c>
       <c r="I59" s="3">
+        <v>449400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>413200</v>
+      </c>
+      <c r="K59" s="3">
         <v>462600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>417400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>480800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>492600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>417300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>378600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>385400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1415600</v>
+        <v>1804800</v>
       </c>
       <c r="E60" s="3">
-        <v>1339300</v>
+        <v>1269700</v>
       </c>
       <c r="F60" s="3">
-        <v>1212800</v>
+        <v>1121700</v>
       </c>
       <c r="G60" s="3">
-        <v>947300</v>
+        <v>1061200</v>
       </c>
       <c r="H60" s="3">
-        <v>1188400</v>
+        <v>970200</v>
       </c>
       <c r="I60" s="3">
+        <v>976200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>941600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1111800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1002800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>870900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>976000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>929600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>888000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>897500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2853000</v>
+        <v>3029500</v>
       </c>
       <c r="E61" s="3">
-        <v>2598900</v>
+        <v>2508700</v>
       </c>
       <c r="F61" s="3">
-        <v>2569300</v>
+        <v>2260600</v>
       </c>
       <c r="G61" s="3">
-        <v>787200</v>
+        <v>2059200</v>
       </c>
       <c r="H61" s="3">
-        <v>2425200</v>
+        <v>2034700</v>
       </c>
       <c r="I61" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1921600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2315500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2019000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>749100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>485500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>651400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>668900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>756500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>227500</v>
+        <v>432400</v>
       </c>
       <c r="E62" s="3">
-        <v>224200</v>
+        <v>424900</v>
       </c>
       <c r="F62" s="3">
-        <v>237700</v>
+        <v>180200</v>
       </c>
       <c r="G62" s="3">
-        <v>280600</v>
+        <v>177600</v>
       </c>
       <c r="H62" s="3">
-        <v>266000</v>
+        <v>315300</v>
       </c>
       <c r="I62" s="3">
+        <v>312600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>210700</v>
+      </c>
+      <c r="K62" s="3">
         <v>238300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>235200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>309000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>203000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>187100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>181300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>181500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4496100</v>
+        <v>5266600</v>
       </c>
       <c r="E66" s="3">
-        <v>4162400</v>
+        <v>4203300</v>
       </c>
       <c r="F66" s="3">
-        <v>4019800</v>
+        <v>3562500</v>
       </c>
       <c r="G66" s="3">
-        <v>2015200</v>
+        <v>3298000</v>
       </c>
       <c r="H66" s="3">
-        <v>3879600</v>
+        <v>3320200</v>
       </c>
       <c r="I66" s="3">
+        <v>3190700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3074000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3665500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3257000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1929000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1664500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1768000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1738200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1835400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-621200</v>
+        <v>-2171100</v>
       </c>
       <c r="E72" s="3">
-        <v>-513900</v>
+        <v>-1033900</v>
       </c>
       <c r="F72" s="3">
-        <v>-583700</v>
+        <v>-492200</v>
       </c>
       <c r="G72" s="3">
-        <v>252700</v>
+        <v>-407200</v>
       </c>
       <c r="H72" s="3">
-        <v>-714500</v>
+        <v>-569100</v>
       </c>
       <c r="I72" s="3">
+        <v>-591200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-566100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-703100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-451000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>164700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>96400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>39100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-97500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-112300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-150600</v>
+        <v>-1784900</v>
       </c>
       <c r="E76" s="3">
-        <v>-20600</v>
+        <v>-651200</v>
       </c>
       <c r="F76" s="3">
-        <v>-110200</v>
+        <v>-119300</v>
       </c>
       <c r="G76" s="3">
-        <v>738800</v>
+        <v>-16400</v>
       </c>
       <c r="H76" s="3">
-        <v>-254300</v>
+        <v>-193900</v>
       </c>
       <c r="I76" s="3">
+        <v>-212800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-201500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-233100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>54400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>715800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>645500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>586600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>263500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>248600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-102300</v>
+        <v>-1135300</v>
       </c>
       <c r="E81" s="3">
-        <v>80700</v>
+        <v>-453000</v>
       </c>
       <c r="F81" s="3">
-        <v>32200</v>
+        <v>-81000</v>
       </c>
       <c r="G81" s="3">
-        <v>-33900</v>
+        <v>63900</v>
       </c>
       <c r="H81" s="3">
-        <v>-11200</v>
+        <v>23200</v>
       </c>
       <c r="I81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-184800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>40200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>76200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>51000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-9900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>14500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,17 +4060,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>172000</v>
+        <v>7900</v>
       </c>
       <c r="E89" s="3">
-        <v>175200</v>
+        <v>165000</v>
       </c>
       <c r="F89" s="3">
-        <v>50400</v>
+        <v>136300</v>
       </c>
       <c r="G89" s="3">
-        <v>-147600</v>
+        <v>125600</v>
       </c>
       <c r="H89" s="3">
-        <v>140600</v>
+        <v>53200</v>
       </c>
       <c r="I89" s="3">
+        <v>127600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K89" s="3">
         <v>88000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>22500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>108600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-49800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>79300</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-79000</v>
+        <v>-41200</v>
       </c>
       <c r="E91" s="3">
-        <v>-52300</v>
+        <v>-85800</v>
       </c>
       <c r="F91" s="3">
-        <v>-93800</v>
+        <v>-62600</v>
       </c>
       <c r="G91" s="3">
-        <v>-50000</v>
+        <v>-41400</v>
       </c>
       <c r="H91" s="3">
-        <v>-34600</v>
+        <v>-74300</v>
       </c>
       <c r="I91" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-70800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-20700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-30600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-32600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-50600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-77000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-32900</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18300</v>
+        <v>-171700</v>
       </c>
       <c r="E94" s="3">
-        <v>-40000</v>
+        <v>-99600</v>
       </c>
       <c r="F94" s="3">
-        <v>-93100</v>
+        <v>-14500</v>
       </c>
       <c r="G94" s="3">
-        <v>-20800</v>
+        <v>-31700</v>
       </c>
       <c r="H94" s="3">
-        <v>9800</v>
+        <v>-73800</v>
       </c>
       <c r="I94" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-61200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>85800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-52300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-208400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>31300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-70100</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71500</v>
+        <v>-30700</v>
       </c>
       <c r="E100" s="3">
-        <v>-65700</v>
+        <v>-46400</v>
       </c>
       <c r="F100" s="3">
-        <v>-17600</v>
+        <v>-56600</v>
       </c>
       <c r="G100" s="3">
-        <v>20300</v>
+        <v>-52000</v>
       </c>
       <c r="H100" s="3">
-        <v>-52200</v>
+        <v>-13900</v>
       </c>
       <c r="I100" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="K100" s="3">
         <v>25700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-31400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>102700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-86100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>270200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-65000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>20400</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10000</v>
+        <v>-12500</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="F101" s="3">
-        <v>-600</v>
+        <v>-7900</v>
       </c>
       <c r="G101" s="3">
-        <v>-5400</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
-        <v>6300</v>
+        <v>-500</v>
       </c>
       <c r="I101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K101" s="3">
         <v>13900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>4800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>72200</v>
+        <v>-207000</v>
       </c>
       <c r="E102" s="3">
-        <v>71100</v>
+        <v>23300</v>
       </c>
       <c r="F102" s="3">
-        <v>-60900</v>
+        <v>57200</v>
       </c>
       <c r="G102" s="3">
-        <v>64300</v>
+        <v>56400</v>
       </c>
       <c r="H102" s="3">
-        <v>10500</v>
+        <v>-48200</v>
       </c>
       <c r="I102" s="3">
+        <v>51000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K102" s="3">
         <v>25700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>70900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-28300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>29600</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>518600</v>
+        <v>71600</v>
       </c>
       <c r="E8" s="3">
-        <v>601700</v>
+        <v>500000</v>
       </c>
       <c r="F8" s="3">
-        <v>560800</v>
+        <v>580100</v>
       </c>
       <c r="G8" s="3">
-        <v>484400</v>
+        <v>540700</v>
       </c>
       <c r="H8" s="3">
-        <v>470300</v>
+        <v>467000</v>
       </c>
       <c r="I8" s="3">
-        <v>454300</v>
+        <v>453500</v>
       </c>
       <c r="J8" s="3">
+        <v>438000</v>
+      </c>
+      <c r="K8" s="3">
         <v>447000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>465700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>511900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>560500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>510700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>440200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>466000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>451700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>227100</v>
+        <v>41300</v>
       </c>
       <c r="E9" s="3">
-        <v>229500</v>
+        <v>219000</v>
       </c>
       <c r="F9" s="3">
-        <v>228900</v>
+        <v>221300</v>
       </c>
       <c r="G9" s="3">
-        <v>207100</v>
+        <v>220700</v>
       </c>
       <c r="H9" s="3">
-        <v>193400</v>
+        <v>199700</v>
       </c>
       <c r="I9" s="3">
-        <v>187600</v>
+        <v>186400</v>
       </c>
       <c r="J9" s="3">
+        <v>180800</v>
+      </c>
+      <c r="K9" s="3">
         <v>197900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>201200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>218700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>307600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>287100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>265500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>270700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>267400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>291500</v>
+        <v>30300</v>
       </c>
       <c r="E10" s="3">
-        <v>372200</v>
+        <v>281100</v>
       </c>
       <c r="F10" s="3">
-        <v>331900</v>
+        <v>358900</v>
       </c>
       <c r="G10" s="3">
-        <v>277200</v>
+        <v>320000</v>
       </c>
       <c r="H10" s="3">
-        <v>277000</v>
+        <v>267300</v>
       </c>
       <c r="I10" s="3">
-        <v>266700</v>
+        <v>267100</v>
       </c>
       <c r="J10" s="3">
+        <v>257200</v>
+      </c>
+      <c r="K10" s="3">
         <v>249100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>264400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>293100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>252800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>223600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>174700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>195300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>184300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>88900</v>
+        <v>88500</v>
       </c>
       <c r="E15" s="3">
-        <v>464900</v>
+        <v>85800</v>
       </c>
       <c r="F15" s="3">
-        <v>69700</v>
+        <v>448200</v>
       </c>
       <c r="G15" s="3">
-        <v>72800</v>
+        <v>67200</v>
       </c>
       <c r="H15" s="3">
-        <v>69800</v>
+        <v>68300</v>
       </c>
       <c r="I15" s="3">
-        <v>62800</v>
+        <v>67300</v>
       </c>
       <c r="J15" s="3">
+        <v>60500</v>
+      </c>
+      <c r="K15" s="3">
         <v>60400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>75200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>69200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>18700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>486500</v>
+        <v>218000</v>
       </c>
       <c r="E17" s="3">
-        <v>1051300</v>
+        <v>469000</v>
       </c>
       <c r="F17" s="3">
-        <v>457300</v>
+        <v>1013700</v>
       </c>
       <c r="G17" s="3">
-        <v>421500</v>
+        <v>440900</v>
       </c>
       <c r="H17" s="3">
-        <v>406100</v>
+        <v>404500</v>
       </c>
       <c r="I17" s="3">
-        <v>418300</v>
+        <v>391600</v>
       </c>
       <c r="J17" s="3">
+        <v>403300</v>
+      </c>
+      <c r="K17" s="3">
         <v>368200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>419000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>424700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>484200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>448400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>414900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>414100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>409500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32100</v>
+        <v>-146300</v>
       </c>
       <c r="E18" s="3">
-        <v>-449600</v>
+        <v>31000</v>
       </c>
       <c r="F18" s="3">
-        <v>103500</v>
+        <v>-433500</v>
       </c>
       <c r="G18" s="3">
-        <v>62900</v>
+        <v>99800</v>
       </c>
       <c r="H18" s="3">
-        <v>64200</v>
+        <v>62500</v>
       </c>
       <c r="I18" s="3">
-        <v>36000</v>
+        <v>61900</v>
       </c>
       <c r="J18" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K18" s="3">
         <v>78800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>62300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,131 +1278,138 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1213700</v>
+        <v>-377700</v>
       </c>
       <c r="E20" s="3">
-        <v>-7000</v>
+        <v>-1170200</v>
       </c>
       <c r="F20" s="3">
-        <v>-185700</v>
+        <v>-6800</v>
       </c>
       <c r="G20" s="3">
-        <v>-7500</v>
+        <v>-179000</v>
       </c>
       <c r="H20" s="3">
-        <v>-52300</v>
+        <v>-8000</v>
       </c>
       <c r="I20" s="3">
-        <v>-13800</v>
+        <v>-50500</v>
       </c>
       <c r="J20" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-82000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-221400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-38300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1092600</v>
+        <v>-435500</v>
       </c>
       <c r="E21" s="3">
-        <v>-61500</v>
+        <v>-1053500</v>
       </c>
       <c r="F21" s="3">
-        <v>-85300</v>
+        <v>-59300</v>
       </c>
       <c r="G21" s="3">
-        <v>58400</v>
+        <v>-82200</v>
       </c>
       <c r="H21" s="3">
-        <v>81700</v>
+        <v>57400</v>
       </c>
       <c r="I21" s="3">
-        <v>24500</v>
+        <v>78700</v>
       </c>
       <c r="J21" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-168700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>85500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>52900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25600</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1181600</v>
+        <v>-525600</v>
       </c>
       <c r="E23" s="3">
-        <v>-456600</v>
+        <v>-1139200</v>
       </c>
       <c r="F23" s="3">
-        <v>-82200</v>
+        <v>-440300</v>
       </c>
       <c r="G23" s="3">
-        <v>55400</v>
+        <v>-79300</v>
       </c>
       <c r="H23" s="3">
-        <v>11900</v>
+        <v>54500</v>
       </c>
       <c r="I23" s="3">
-        <v>22200</v>
+        <v>11500</v>
       </c>
       <c r="J23" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-174700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>94800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-46300</v>
+        <v>-1700</v>
       </c>
       <c r="E24" s="3">
-        <v>-3600</v>
+        <v>-44600</v>
       </c>
       <c r="F24" s="3">
-        <v>-1200</v>
+        <v>-3500</v>
       </c>
       <c r="G24" s="3">
-        <v>-8500</v>
+        <v>-1100</v>
       </c>
       <c r="H24" s="3">
-        <v>-11300</v>
+        <v>-8200</v>
       </c>
       <c r="I24" s="3">
-        <v>16400</v>
+        <v>-10900</v>
       </c>
       <c r="J24" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1135300</v>
+        <v>-523900</v>
       </c>
       <c r="E26" s="3">
-        <v>-453000</v>
+        <v>-1094600</v>
       </c>
       <c r="F26" s="3">
-        <v>-81000</v>
+        <v>-436800</v>
       </c>
       <c r="G26" s="3">
-        <v>63900</v>
+        <v>-78100</v>
       </c>
       <c r="H26" s="3">
-        <v>23200</v>
+        <v>62700</v>
       </c>
       <c r="I26" s="3">
-        <v>5700</v>
+        <v>22400</v>
       </c>
       <c r="J26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-184800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1135300</v>
+        <v>-523900</v>
       </c>
       <c r="E27" s="3">
-        <v>-453000</v>
+        <v>-1094600</v>
       </c>
       <c r="F27" s="3">
-        <v>-81000</v>
+        <v>-436800</v>
       </c>
       <c r="G27" s="3">
-        <v>63900</v>
+        <v>-78100</v>
       </c>
       <c r="H27" s="3">
-        <v>23200</v>
+        <v>62700</v>
       </c>
       <c r="I27" s="3">
-        <v>5700</v>
+        <v>22400</v>
       </c>
       <c r="J27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-184800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1213700</v>
+        <v>377700</v>
       </c>
       <c r="E32" s="3">
-        <v>7000</v>
+        <v>1170200</v>
       </c>
       <c r="F32" s="3">
-        <v>185700</v>
+        <v>6800</v>
       </c>
       <c r="G32" s="3">
-        <v>7500</v>
+        <v>179000</v>
       </c>
       <c r="H32" s="3">
-        <v>52300</v>
+        <v>8000</v>
       </c>
       <c r="I32" s="3">
-        <v>13800</v>
+        <v>50500</v>
       </c>
       <c r="J32" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K32" s="3">
         <v>82000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>221400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>38300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1135300</v>
+        <v>-523900</v>
       </c>
       <c r="E33" s="3">
-        <v>-453000</v>
+        <v>-1094600</v>
       </c>
       <c r="F33" s="3">
-        <v>-81000</v>
+        <v>-436800</v>
       </c>
       <c r="G33" s="3">
-        <v>63900</v>
+        <v>-78100</v>
       </c>
       <c r="H33" s="3">
-        <v>23200</v>
+        <v>62700</v>
       </c>
       <c r="I33" s="3">
-        <v>5700</v>
+        <v>22400</v>
       </c>
       <c r="J33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-184800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>76200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1135300</v>
+        <v>-523900</v>
       </c>
       <c r="E35" s="3">
-        <v>-453000</v>
+        <v>-1094600</v>
       </c>
       <c r="F35" s="3">
-        <v>-81000</v>
+        <v>-436800</v>
       </c>
       <c r="G35" s="3">
-        <v>63900</v>
+        <v>-78100</v>
       </c>
       <c r="H35" s="3">
-        <v>23200</v>
+        <v>62700</v>
       </c>
       <c r="I35" s="3">
-        <v>5700</v>
+        <v>22400</v>
       </c>
       <c r="J35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-184800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>76200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97900</v>
+        <v>279400</v>
       </c>
       <c r="E41" s="3">
-        <v>304900</v>
+        <v>94400</v>
       </c>
       <c r="F41" s="3">
-        <v>281600</v>
+        <v>294000</v>
       </c>
       <c r="G41" s="3">
-        <v>224400</v>
+        <v>271500</v>
       </c>
       <c r="H41" s="3">
-        <v>168100</v>
+        <v>216400</v>
       </c>
       <c r="I41" s="3">
-        <v>432700</v>
+        <v>162100</v>
       </c>
       <c r="J41" s="3">
+        <v>417100</v>
+      </c>
+      <c r="K41" s="3">
         <v>165400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>198300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>172500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>195400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>124600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>128400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>107900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>136200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>136600</v>
+        <v>11500</v>
       </c>
       <c r="E42" s="3">
-        <v>11500</v>
+        <v>131700</v>
       </c>
       <c r="F42" s="3">
-        <v>7600</v>
+        <v>11100</v>
       </c>
       <c r="G42" s="3">
-        <v>48400</v>
+        <v>7300</v>
       </c>
       <c r="H42" s="3">
-        <v>73400</v>
+        <v>46700</v>
       </c>
       <c r="I42" s="3">
-        <v>191500</v>
+        <v>70800</v>
       </c>
       <c r="J42" s="3">
+        <v>184600</v>
+      </c>
+      <c r="K42" s="3">
         <v>123500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>169400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>146600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>265600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>239200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>227400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>82200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>198300</v>
+        <v>145300</v>
       </c>
       <c r="E43" s="3">
-        <v>255400</v>
+        <v>191200</v>
       </c>
       <c r="F43" s="3">
-        <v>345800</v>
+        <v>246300</v>
       </c>
       <c r="G43" s="3">
-        <v>336500</v>
+        <v>333400</v>
       </c>
       <c r="H43" s="3">
-        <v>318400</v>
+        <v>324400</v>
       </c>
       <c r="I43" s="3">
-        <v>264000</v>
+        <v>307000</v>
       </c>
       <c r="J43" s="3">
+        <v>254500</v>
+      </c>
+      <c r="K43" s="3">
         <v>309100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>332300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>313500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>263200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>233900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>222000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>167900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>178100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>70300</v>
+        <v>71200</v>
       </c>
       <c r="E44" s="3">
-        <v>48300</v>
+        <v>67800</v>
       </c>
       <c r="F44" s="3">
-        <v>48800</v>
+        <v>46500</v>
       </c>
       <c r="G44" s="3">
-        <v>42500</v>
+        <v>47100</v>
       </c>
       <c r="H44" s="3">
-        <v>41600</v>
+        <v>41000</v>
       </c>
       <c r="I44" s="3">
-        <v>37000</v>
+        <v>40100</v>
       </c>
       <c r="J44" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K44" s="3">
         <v>36700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>38600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>34500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>33200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>157900</v>
+        <v>115000</v>
       </c>
       <c r="E45" s="3">
-        <v>145700</v>
+        <v>152200</v>
       </c>
       <c r="F45" s="3">
-        <v>66600</v>
+        <v>140500</v>
       </c>
       <c r="G45" s="3">
-        <v>67600</v>
+        <v>64200</v>
       </c>
       <c r="H45" s="3">
-        <v>60900</v>
+        <v>64200</v>
       </c>
       <c r="I45" s="3">
-        <v>69700</v>
+        <v>58700</v>
       </c>
       <c r="J45" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K45" s="3">
         <v>40600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>67100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>79000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>84100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>65500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>661000</v>
+        <v>622500</v>
       </c>
       <c r="E46" s="3">
-        <v>765800</v>
+        <v>637300</v>
       </c>
       <c r="F46" s="3">
-        <v>750400</v>
+        <v>738300</v>
       </c>
       <c r="G46" s="3">
-        <v>719500</v>
+        <v>723600</v>
       </c>
       <c r="H46" s="3">
-        <v>662400</v>
+        <v>692700</v>
       </c>
       <c r="I46" s="3">
-        <v>682800</v>
+        <v>638700</v>
       </c>
       <c r="J46" s="3">
+        <v>658300</v>
+      </c>
+      <c r="K46" s="3">
         <v>675300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>807100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>734800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>847000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>682700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>676700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>420500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>473900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>234000</v>
+        <v>193000</v>
       </c>
       <c r="E47" s="3">
-        <v>303900</v>
+        <v>225700</v>
       </c>
       <c r="F47" s="3">
-        <v>255400</v>
+        <v>293000</v>
       </c>
       <c r="G47" s="3">
-        <v>246500</v>
+        <v>246200</v>
       </c>
       <c r="H47" s="3">
-        <v>295900</v>
+        <v>237700</v>
       </c>
       <c r="I47" s="3">
-        <v>238300</v>
+        <v>285300</v>
       </c>
       <c r="J47" s="3">
+        <v>229700</v>
+      </c>
+      <c r="K47" s="3">
         <v>286400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>333000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>280800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>216800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>209500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>200600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>188600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>189100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1775400</v>
+        <v>1181000</v>
       </c>
       <c r="E48" s="3">
-        <v>1767700</v>
+        <v>1711800</v>
       </c>
       <c r="F48" s="3">
-        <v>1658600</v>
+        <v>1704400</v>
       </c>
       <c r="G48" s="3">
-        <v>1598200</v>
+        <v>1599100</v>
       </c>
       <c r="H48" s="3">
-        <v>1512800</v>
+        <v>1584200</v>
       </c>
       <c r="I48" s="3">
-        <v>1369500</v>
+        <v>1458600</v>
       </c>
       <c r="J48" s="3">
+        <v>1320400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1289600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1538300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1619300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>852600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>834400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>893200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>840600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>853400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>201500</v>
+        <v>204100</v>
       </c>
       <c r="E49" s="3">
-        <v>201200</v>
+        <v>194300</v>
       </c>
       <c r="F49" s="3">
-        <v>194400</v>
+        <v>194000</v>
       </c>
       <c r="G49" s="3">
-        <v>193600</v>
+        <v>187500</v>
       </c>
       <c r="H49" s="3">
-        <v>190100</v>
+        <v>186600</v>
       </c>
       <c r="I49" s="3">
-        <v>188100</v>
+        <v>183300</v>
       </c>
       <c r="J49" s="3">
+        <v>181400</v>
+      </c>
+      <c r="K49" s="3">
         <v>184700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>227000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>224300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>246400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>243600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>244100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>233900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>233800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>609700</v>
+        <v>504600</v>
       </c>
       <c r="E52" s="3">
-        <v>513500</v>
+        <v>587900</v>
       </c>
       <c r="F52" s="3">
-        <v>584400</v>
+        <v>495100</v>
       </c>
       <c r="G52" s="3">
-        <v>523900</v>
+        <v>563400</v>
       </c>
       <c r="H52" s="3">
-        <v>515500</v>
+        <v>505100</v>
       </c>
       <c r="I52" s="3">
-        <v>499300</v>
+        <v>497000</v>
       </c>
       <c r="J52" s="3">
+        <v>481400</v>
+      </c>
+      <c r="K52" s="3">
         <v>438800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>529700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>452100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>482000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>339700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>340000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>318200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>333700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3481700</v>
+        <v>2705300</v>
       </c>
       <c r="E54" s="3">
-        <v>3552100</v>
+        <v>3356900</v>
       </c>
       <c r="F54" s="3">
-        <v>3443200</v>
+        <v>3424800</v>
       </c>
       <c r="G54" s="3">
-        <v>3281700</v>
+        <v>3319800</v>
       </c>
       <c r="H54" s="3">
-        <v>3126200</v>
+        <v>3206300</v>
       </c>
       <c r="I54" s="3">
-        <v>2977900</v>
+        <v>3014200</v>
       </c>
       <c r="J54" s="3">
+        <v>2871200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2872400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3432500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3311400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2644800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2309900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2354700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2001800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2084000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>390300</v>
+        <v>463700</v>
       </c>
       <c r="E57" s="3">
-        <v>301000</v>
+        <v>376300</v>
       </c>
       <c r="F57" s="3">
-        <v>294800</v>
+        <v>290200</v>
       </c>
       <c r="G57" s="3">
-        <v>262800</v>
+        <v>284200</v>
       </c>
       <c r="H57" s="3">
-        <v>303800</v>
+        <v>287700</v>
       </c>
       <c r="I57" s="3">
-        <v>268400</v>
+        <v>293000</v>
       </c>
       <c r="J57" s="3">
+        <v>258800</v>
+      </c>
+      <c r="K57" s="3">
         <v>241600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>280900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>244800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>244500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>224200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>230000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>256500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>256600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>792200</v>
+        <v>602000</v>
       </c>
       <c r="E58" s="3">
-        <v>382400</v>
+        <v>763900</v>
       </c>
       <c r="F58" s="3">
-        <v>326900</v>
+        <v>368700</v>
       </c>
       <c r="G58" s="3">
-        <v>278800</v>
+        <v>315200</v>
       </c>
       <c r="H58" s="3">
-        <v>268900</v>
+        <v>268800</v>
       </c>
       <c r="I58" s="3">
-        <v>258400</v>
+        <v>259300</v>
       </c>
       <c r="J58" s="3">
+        <v>249200</v>
+      </c>
+      <c r="K58" s="3">
         <v>286900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>368300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>340600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>145700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>259200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>282300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>252900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>255500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>622200</v>
+        <v>676900</v>
       </c>
       <c r="E59" s="3">
-        <v>586400</v>
+        <v>599900</v>
       </c>
       <c r="F59" s="3">
-        <v>500000</v>
+        <v>565300</v>
       </c>
       <c r="G59" s="3">
-        <v>519600</v>
+        <v>482100</v>
       </c>
       <c r="H59" s="3">
-        <v>437300</v>
+        <v>507900</v>
       </c>
       <c r="I59" s="3">
-        <v>449400</v>
+        <v>421600</v>
       </c>
       <c r="J59" s="3">
+        <v>433300</v>
+      </c>
+      <c r="K59" s="3">
         <v>413200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>462600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>417400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>480800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>492600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>417300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>378600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>385400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1804800</v>
+        <v>1742500</v>
       </c>
       <c r="E60" s="3">
-        <v>1269700</v>
+        <v>1740100</v>
       </c>
       <c r="F60" s="3">
-        <v>1121700</v>
+        <v>1224200</v>
       </c>
       <c r="G60" s="3">
-        <v>1061200</v>
+        <v>1081500</v>
       </c>
       <c r="H60" s="3">
-        <v>970200</v>
+        <v>1032800</v>
       </c>
       <c r="I60" s="3">
-        <v>976200</v>
+        <v>935400</v>
       </c>
       <c r="J60" s="3">
+        <v>941200</v>
+      </c>
+      <c r="K60" s="3">
         <v>941600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1111800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1002800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>870900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>976000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>929600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>888000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>897500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3029500</v>
+        <v>2829100</v>
       </c>
       <c r="E61" s="3">
-        <v>2508700</v>
+        <v>2920900</v>
       </c>
       <c r="F61" s="3">
-        <v>2260600</v>
+        <v>2418800</v>
       </c>
       <c r="G61" s="3">
-        <v>2059200</v>
+        <v>2179600</v>
       </c>
       <c r="H61" s="3">
-        <v>2034700</v>
+        <v>1984200</v>
       </c>
       <c r="I61" s="3">
-        <v>1902000</v>
+        <v>1961800</v>
       </c>
       <c r="J61" s="3">
+        <v>1833800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1921600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2315500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2019000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>749100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>485500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>651400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>668900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>756500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>432400</v>
+        <v>390100</v>
       </c>
       <c r="E62" s="3">
-        <v>424900</v>
+        <v>416900</v>
       </c>
       <c r="F62" s="3">
-        <v>180200</v>
+        <v>409700</v>
       </c>
       <c r="G62" s="3">
-        <v>177600</v>
+        <v>173800</v>
       </c>
       <c r="H62" s="3">
-        <v>315300</v>
+        <v>298700</v>
       </c>
       <c r="I62" s="3">
-        <v>312600</v>
+        <v>304000</v>
       </c>
       <c r="J62" s="3">
+        <v>301400</v>
+      </c>
+      <c r="K62" s="3">
         <v>210700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>238300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>235200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>309000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>203000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>187100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>181300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>181500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5266600</v>
+        <v>4961700</v>
       </c>
       <c r="E66" s="3">
-        <v>4203300</v>
+        <v>5077900</v>
       </c>
       <c r="F66" s="3">
-        <v>3562500</v>
+        <v>4052700</v>
       </c>
       <c r="G66" s="3">
-        <v>3298000</v>
+        <v>3434800</v>
       </c>
       <c r="H66" s="3">
-        <v>3320200</v>
+        <v>3315700</v>
       </c>
       <c r="I66" s="3">
-        <v>3190700</v>
+        <v>3201200</v>
       </c>
       <c r="J66" s="3">
+        <v>3076400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3074000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3665500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3257000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1929000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1664500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1768000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1738200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1835400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2171100</v>
+        <v>-2652800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1033900</v>
+        <v>-2093300</v>
       </c>
       <c r="F72" s="3">
-        <v>-492200</v>
+        <v>-996800</v>
       </c>
       <c r="G72" s="3">
-        <v>-407200</v>
+        <v>-474500</v>
       </c>
       <c r="H72" s="3">
-        <v>-569100</v>
+        <v>-486200</v>
       </c>
       <c r="I72" s="3">
-        <v>-591200</v>
+        <v>-548700</v>
       </c>
       <c r="J72" s="3">
+        <v>-570000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-566100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-703100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-451000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>164700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>96400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-97500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-112300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1784900</v>
+        <v>-2256400</v>
       </c>
       <c r="E76" s="3">
-        <v>-651200</v>
+        <v>-1721000</v>
       </c>
       <c r="F76" s="3">
-        <v>-119300</v>
+        <v>-627800</v>
       </c>
       <c r="G76" s="3">
-        <v>-16400</v>
+        <v>-115000</v>
       </c>
       <c r="H76" s="3">
-        <v>-193900</v>
+        <v>-109400</v>
       </c>
       <c r="I76" s="3">
-        <v>-212800</v>
+        <v>-187000</v>
       </c>
       <c r="J76" s="3">
+        <v>-205200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-201500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-233100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>715800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>645500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>586600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>263500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>248600</v>
       </c>
       <c r="R76" s="3">
         <v>248600</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>248600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1135300</v>
+        <v>-523900</v>
       </c>
       <c r="E81" s="3">
-        <v>-453000</v>
+        <v>-1094600</v>
       </c>
       <c r="F81" s="3">
-        <v>-81000</v>
+        <v>-436800</v>
       </c>
       <c r="G81" s="3">
-        <v>63900</v>
+        <v>-78100</v>
       </c>
       <c r="H81" s="3">
-        <v>23200</v>
+        <v>62700</v>
       </c>
       <c r="I81" s="3">
-        <v>5700</v>
+        <v>22400</v>
       </c>
       <c r="J81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-184800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>76200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4066,17 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18700</v>
       </c>
-      <c r="R83" s="3" t="s">
+      <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7900</v>
+        <v>90700</v>
       </c>
       <c r="E89" s="3">
-        <v>165000</v>
+        <v>7700</v>
       </c>
       <c r="F89" s="3">
-        <v>136300</v>
+        <v>159100</v>
       </c>
       <c r="G89" s="3">
-        <v>125600</v>
+        <v>131400</v>
       </c>
       <c r="H89" s="3">
-        <v>53200</v>
+        <v>121100</v>
       </c>
       <c r="I89" s="3">
-        <v>127600</v>
+        <v>51300</v>
       </c>
       <c r="J89" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K89" s="3">
         <v>111400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>108600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-49800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79300</v>
       </c>
-      <c r="R89" s="3" t="s">
+      <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41200</v>
+        <v>-7500</v>
       </c>
       <c r="E91" s="3">
-        <v>-85800</v>
+        <v>-39700</v>
       </c>
       <c r="F91" s="3">
-        <v>-62600</v>
+        <v>-82800</v>
       </c>
       <c r="G91" s="3">
-        <v>-41400</v>
+        <v>-60400</v>
       </c>
       <c r="H91" s="3">
-        <v>-74300</v>
+        <v>-39900</v>
       </c>
       <c r="I91" s="3">
-        <v>-39600</v>
+        <v>-71700</v>
       </c>
       <c r="J91" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-27400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32900</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-171700</v>
+        <v>109500</v>
       </c>
       <c r="E94" s="3">
-        <v>-99600</v>
+        <v>-165600</v>
       </c>
       <c r="F94" s="3">
-        <v>-14500</v>
+        <v>-96000</v>
       </c>
       <c r="G94" s="3">
-        <v>-31700</v>
+        <v>-14000</v>
       </c>
       <c r="H94" s="3">
-        <v>-73800</v>
+        <v>-30600</v>
       </c>
       <c r="I94" s="3">
-        <v>-16500</v>
+        <v>-71100</v>
       </c>
       <c r="J94" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K94" s="3">
         <v>7700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>85800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-52300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-208400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>31300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70100</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-30700</v>
+        <v>-9600</v>
       </c>
       <c r="E100" s="3">
-        <v>-46400</v>
+        <v>-29600</v>
       </c>
       <c r="F100" s="3">
-        <v>-56600</v>
+        <v>-44800</v>
       </c>
       <c r="G100" s="3">
-        <v>-52000</v>
+        <v>-54600</v>
       </c>
       <c r="H100" s="3">
-        <v>-13900</v>
+        <v>-50200</v>
       </c>
       <c r="I100" s="3">
-        <v>16100</v>
+        <v>-13400</v>
       </c>
       <c r="J100" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-41400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>102700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-86100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>270200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>20400</v>
       </c>
-      <c r="R100" s="3" t="s">
+      <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12500</v>
+        <v>-5600</v>
       </c>
       <c r="E101" s="3">
-        <v>4300</v>
+        <v>-12100</v>
       </c>
       <c r="F101" s="3">
-        <v>-7900</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>-7700</v>
       </c>
       <c r="H101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-207000</v>
+        <v>185000</v>
       </c>
       <c r="E102" s="3">
-        <v>23300</v>
+        <v>-199600</v>
       </c>
       <c r="F102" s="3">
-        <v>57200</v>
+        <v>22400</v>
       </c>
       <c r="G102" s="3">
-        <v>56400</v>
+        <v>55100</v>
       </c>
       <c r="H102" s="3">
-        <v>-48200</v>
+        <v>54300</v>
       </c>
       <c r="I102" s="3">
-        <v>51000</v>
+        <v>-46500</v>
       </c>
       <c r="J102" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K102" s="3">
         <v>8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>70900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>29600</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>71600</v>
+        <v>75200</v>
       </c>
       <c r="E8" s="3">
-        <v>500000</v>
+        <v>524500</v>
       </c>
       <c r="F8" s="3">
-        <v>580100</v>
+        <v>608500</v>
       </c>
       <c r="G8" s="3">
-        <v>540700</v>
+        <v>567100</v>
       </c>
       <c r="H8" s="3">
-        <v>467000</v>
+        <v>489900</v>
       </c>
       <c r="I8" s="3">
-        <v>453500</v>
+        <v>475700</v>
       </c>
       <c r="J8" s="3">
-        <v>438000</v>
+        <v>459400</v>
       </c>
       <c r="K8" s="3">
         <v>447000</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41300</v>
+        <v>43400</v>
       </c>
       <c r="E9" s="3">
-        <v>219000</v>
+        <v>229700</v>
       </c>
       <c r="F9" s="3">
-        <v>221300</v>
+        <v>242800</v>
       </c>
       <c r="G9" s="3">
-        <v>220700</v>
+        <v>231500</v>
       </c>
       <c r="H9" s="3">
-        <v>199700</v>
+        <v>209500</v>
       </c>
       <c r="I9" s="3">
-        <v>186400</v>
+        <v>195600</v>
       </c>
       <c r="J9" s="3">
-        <v>180800</v>
+        <v>189700</v>
       </c>
       <c r="K9" s="3">
         <v>197900</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30300</v>
+        <v>31800</v>
       </c>
       <c r="E10" s="3">
-        <v>281100</v>
+        <v>294800</v>
       </c>
       <c r="F10" s="3">
-        <v>358900</v>
+        <v>365700</v>
       </c>
       <c r="G10" s="3">
-        <v>320000</v>
+        <v>335600</v>
       </c>
       <c r="H10" s="3">
-        <v>267300</v>
+        <v>280400</v>
       </c>
       <c r="I10" s="3">
-        <v>267100</v>
+        <v>280100</v>
       </c>
       <c r="J10" s="3">
-        <v>257200</v>
+        <v>269800</v>
       </c>
       <c r="K10" s="3">
         <v>249100</v>
@@ -1034,25 +1034,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1087,25 +1087,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>88500</v>
+        <v>89800</v>
       </c>
       <c r="E15" s="3">
-        <v>85800</v>
+        <v>90000</v>
       </c>
       <c r="F15" s="3">
-        <v>448200</v>
+        <v>470100</v>
       </c>
       <c r="G15" s="3">
-        <v>67200</v>
+        <v>70500</v>
       </c>
       <c r="H15" s="3">
-        <v>68300</v>
+        <v>71700</v>
       </c>
       <c r="I15" s="3">
-        <v>67300</v>
+        <v>70500</v>
       </c>
       <c r="J15" s="3">
-        <v>60500</v>
+        <v>63500</v>
       </c>
       <c r="K15" s="3">
         <v>60400</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>218000</v>
+        <v>228600</v>
       </c>
       <c r="E17" s="3">
-        <v>469000</v>
+        <v>492000</v>
       </c>
       <c r="F17" s="3">
-        <v>1013700</v>
+        <v>1063300</v>
       </c>
       <c r="G17" s="3">
-        <v>440900</v>
+        <v>462500</v>
       </c>
       <c r="H17" s="3">
-        <v>404500</v>
+        <v>424300</v>
       </c>
       <c r="I17" s="3">
-        <v>391600</v>
+        <v>410700</v>
       </c>
       <c r="J17" s="3">
-        <v>403300</v>
+        <v>423000</v>
       </c>
       <c r="K17" s="3">
         <v>368200</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-146300</v>
+        <v>-153500</v>
       </c>
       <c r="E18" s="3">
-        <v>31000</v>
+        <v>32500</v>
       </c>
       <c r="F18" s="3">
-        <v>-433500</v>
+        <v>-454700</v>
       </c>
       <c r="G18" s="3">
-        <v>99800</v>
+        <v>104700</v>
       </c>
       <c r="H18" s="3">
-        <v>62500</v>
+        <v>65500</v>
       </c>
       <c r="I18" s="3">
-        <v>61900</v>
+        <v>65000</v>
       </c>
       <c r="J18" s="3">
-        <v>34700</v>
+        <v>36400</v>
       </c>
       <c r="K18" s="3">
         <v>78800</v>
@@ -1285,25 +1285,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-377700</v>
+        <v>-396100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1170200</v>
+        <v>-1227500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="G20" s="3">
-        <v>-179000</v>
+        <v>-187800</v>
       </c>
       <c r="H20" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="I20" s="3">
-        <v>-50500</v>
+        <v>-52900</v>
       </c>
       <c r="J20" s="3">
-        <v>-13300</v>
+        <v>-14000</v>
       </c>
       <c r="K20" s="3">
         <v>-82000</v>
@@ -1338,25 +1338,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-435500</v>
+        <v>-456800</v>
       </c>
       <c r="E21" s="3">
-        <v>-1053500</v>
+        <v>-1105000</v>
       </c>
       <c r="F21" s="3">
-        <v>-59300</v>
+        <v>-62200</v>
       </c>
       <c r="G21" s="3">
-        <v>-82200</v>
+        <v>-86300</v>
       </c>
       <c r="H21" s="3">
-        <v>57400</v>
+        <v>60200</v>
       </c>
       <c r="I21" s="3">
-        <v>78700</v>
+        <v>82600</v>
       </c>
       <c r="J21" s="3">
-        <v>23700</v>
+        <v>24800</v>
       </c>
       <c r="K21" s="3">
         <v>-2500</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-525600</v>
+        <v>-551400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1139200</v>
+        <v>-1195000</v>
       </c>
       <c r="F23" s="3">
-        <v>-440300</v>
+        <v>-461800</v>
       </c>
       <c r="G23" s="3">
-        <v>-79300</v>
+        <v>-83100</v>
       </c>
       <c r="H23" s="3">
-        <v>54500</v>
+        <v>57200</v>
       </c>
       <c r="I23" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="J23" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="K23" s="3">
         <v>-3300</v>
@@ -1497,25 +1497,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E24" s="3">
-        <v>-44600</v>
+        <v>-46800</v>
       </c>
       <c r="F24" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="G24" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H24" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="I24" s="3">
-        <v>-10900</v>
+        <v>-11400</v>
       </c>
       <c r="J24" s="3">
-        <v>15800</v>
+        <v>16600</v>
       </c>
       <c r="K24" s="3">
         <v>5600</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-523900</v>
+        <v>-549600</v>
       </c>
       <c r="E26" s="3">
-        <v>-1094600</v>
+        <v>-1148200</v>
       </c>
       <c r="F26" s="3">
-        <v>-436800</v>
+        <v>-458100</v>
       </c>
       <c r="G26" s="3">
-        <v>-78100</v>
+        <v>-81900</v>
       </c>
       <c r="H26" s="3">
-        <v>62700</v>
+        <v>65800</v>
       </c>
       <c r="I26" s="3">
-        <v>22400</v>
+        <v>23400</v>
       </c>
       <c r="J26" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K26" s="3">
         <v>-8800</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-523900</v>
+        <v>-549600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1094600</v>
+        <v>-1148200</v>
       </c>
       <c r="F27" s="3">
-        <v>-436800</v>
+        <v>-458100</v>
       </c>
       <c r="G27" s="3">
-        <v>-78100</v>
+        <v>-82000</v>
       </c>
       <c r="H27" s="3">
-        <v>62700</v>
+        <v>65800</v>
       </c>
       <c r="I27" s="3">
-        <v>22400</v>
+        <v>23400</v>
       </c>
       <c r="J27" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K27" s="3">
         <v>-8800</v>
@@ -1921,25 +1921,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>377700</v>
+        <v>396100</v>
       </c>
       <c r="E32" s="3">
-        <v>1170200</v>
+        <v>1227500</v>
       </c>
       <c r="F32" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="G32" s="3">
-        <v>179000</v>
+        <v>187800</v>
       </c>
       <c r="H32" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="I32" s="3">
-        <v>50500</v>
+        <v>52900</v>
       </c>
       <c r="J32" s="3">
-        <v>13300</v>
+        <v>14000</v>
       </c>
       <c r="K32" s="3">
         <v>82000</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-523900</v>
+        <v>-549600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1094600</v>
+        <v>-1148200</v>
       </c>
       <c r="F33" s="3">
-        <v>-436800</v>
+        <v>-458100</v>
       </c>
       <c r="G33" s="3">
-        <v>-78100</v>
+        <v>-82000</v>
       </c>
       <c r="H33" s="3">
-        <v>62700</v>
+        <v>65800</v>
       </c>
       <c r="I33" s="3">
-        <v>22400</v>
+        <v>23400</v>
       </c>
       <c r="J33" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K33" s="3">
         <v>-8800</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-523900</v>
+        <v>-549600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1094600</v>
+        <v>-1148200</v>
       </c>
       <c r="F35" s="3">
-        <v>-436800</v>
+        <v>-458100</v>
       </c>
       <c r="G35" s="3">
-        <v>-78100</v>
+        <v>-82000</v>
       </c>
       <c r="H35" s="3">
-        <v>62700</v>
+        <v>65800</v>
       </c>
       <c r="I35" s="3">
-        <v>22400</v>
+        <v>23400</v>
       </c>
       <c r="J35" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K35" s="3">
         <v>-8800</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>279400</v>
+        <v>293100</v>
       </c>
       <c r="E41" s="3">
-        <v>94400</v>
+        <v>99000</v>
       </c>
       <c r="F41" s="3">
-        <v>294000</v>
+        <v>308400</v>
       </c>
       <c r="G41" s="3">
-        <v>271500</v>
+        <v>284800</v>
       </c>
       <c r="H41" s="3">
-        <v>216400</v>
+        <v>227000</v>
       </c>
       <c r="I41" s="3">
-        <v>162100</v>
+        <v>170000</v>
       </c>
       <c r="J41" s="3">
-        <v>417100</v>
+        <v>437600</v>
       </c>
       <c r="K41" s="3">
         <v>165400</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11500</v>
+        <v>12100</v>
       </c>
       <c r="E42" s="3">
-        <v>131700</v>
+        <v>138100</v>
       </c>
       <c r="F42" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="G42" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="H42" s="3">
-        <v>46700</v>
+        <v>49000</v>
       </c>
       <c r="I42" s="3">
-        <v>70800</v>
+        <v>74300</v>
       </c>
       <c r="J42" s="3">
-        <v>184600</v>
+        <v>193700</v>
       </c>
       <c r="K42" s="3">
         <v>123500</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>145300</v>
+        <v>152400</v>
       </c>
       <c r="E43" s="3">
-        <v>191200</v>
+        <v>200500</v>
       </c>
       <c r="F43" s="3">
-        <v>246300</v>
+        <v>258300</v>
       </c>
       <c r="G43" s="3">
-        <v>333400</v>
+        <v>349700</v>
       </c>
       <c r="H43" s="3">
-        <v>324400</v>
+        <v>340300</v>
       </c>
       <c r="I43" s="3">
-        <v>307000</v>
+        <v>322000</v>
       </c>
       <c r="J43" s="3">
-        <v>254500</v>
+        <v>267000</v>
       </c>
       <c r="K43" s="3">
         <v>309100</v>
@@ -2392,25 +2392,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>71200</v>
+        <v>74700</v>
       </c>
       <c r="E44" s="3">
-        <v>67800</v>
+        <v>71100</v>
       </c>
       <c r="F44" s="3">
-        <v>46500</v>
+        <v>48800</v>
       </c>
       <c r="G44" s="3">
-        <v>47100</v>
+        <v>49400</v>
       </c>
       <c r="H44" s="3">
-        <v>41000</v>
+        <v>43000</v>
       </c>
       <c r="I44" s="3">
-        <v>40100</v>
+        <v>42100</v>
       </c>
       <c r="J44" s="3">
-        <v>35700</v>
+        <v>37500</v>
       </c>
       <c r="K44" s="3">
         <v>36700</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>115000</v>
+        <v>120600</v>
       </c>
       <c r="E45" s="3">
-        <v>152200</v>
+        <v>159700</v>
       </c>
       <c r="F45" s="3">
-        <v>140500</v>
+        <v>147300</v>
       </c>
       <c r="G45" s="3">
-        <v>64200</v>
+        <v>67300</v>
       </c>
       <c r="H45" s="3">
-        <v>64200</v>
+        <v>67300</v>
       </c>
       <c r="I45" s="3">
-        <v>58700</v>
+        <v>61600</v>
       </c>
       <c r="J45" s="3">
-        <v>67200</v>
+        <v>70500</v>
       </c>
       <c r="K45" s="3">
         <v>40600</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>622500</v>
+        <v>652900</v>
       </c>
       <c r="E46" s="3">
-        <v>637300</v>
+        <v>668500</v>
       </c>
       <c r="F46" s="3">
-        <v>738300</v>
+        <v>774500</v>
       </c>
       <c r="G46" s="3">
-        <v>723600</v>
+        <v>759000</v>
       </c>
       <c r="H46" s="3">
-        <v>692700</v>
+        <v>726600</v>
       </c>
       <c r="I46" s="3">
-        <v>638700</v>
+        <v>669900</v>
       </c>
       <c r="J46" s="3">
-        <v>658300</v>
+        <v>690500</v>
       </c>
       <c r="K46" s="3">
         <v>675300</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>193000</v>
+        <v>202500</v>
       </c>
       <c r="E47" s="3">
-        <v>225700</v>
+        <v>236700</v>
       </c>
       <c r="F47" s="3">
-        <v>293000</v>
+        <v>307300</v>
       </c>
       <c r="G47" s="3">
-        <v>246200</v>
+        <v>258300</v>
       </c>
       <c r="H47" s="3">
-        <v>237700</v>
+        <v>249300</v>
       </c>
       <c r="I47" s="3">
-        <v>285300</v>
+        <v>299200</v>
       </c>
       <c r="J47" s="3">
-        <v>229700</v>
+        <v>241000</v>
       </c>
       <c r="K47" s="3">
         <v>286400</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1181000</v>
+        <v>1238800</v>
       </c>
       <c r="E48" s="3">
-        <v>1711800</v>
+        <v>1795600</v>
       </c>
       <c r="F48" s="3">
-        <v>1704400</v>
+        <v>1787800</v>
       </c>
       <c r="G48" s="3">
-        <v>1599100</v>
+        <v>1677400</v>
       </c>
       <c r="H48" s="3">
-        <v>1584200</v>
+        <v>1661700</v>
       </c>
       <c r="I48" s="3">
-        <v>1458600</v>
+        <v>1529900</v>
       </c>
       <c r="J48" s="3">
-        <v>1320400</v>
+        <v>1385000</v>
       </c>
       <c r="K48" s="3">
         <v>1289600</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>204100</v>
+        <v>214100</v>
       </c>
       <c r="E49" s="3">
-        <v>194300</v>
+        <v>203800</v>
       </c>
       <c r="F49" s="3">
-        <v>194000</v>
+        <v>203500</v>
       </c>
       <c r="G49" s="3">
-        <v>187500</v>
+        <v>196600</v>
       </c>
       <c r="H49" s="3">
-        <v>186600</v>
+        <v>195800</v>
       </c>
       <c r="I49" s="3">
-        <v>183300</v>
+        <v>192200</v>
       </c>
       <c r="J49" s="3">
-        <v>181400</v>
+        <v>190200</v>
       </c>
       <c r="K49" s="3">
         <v>184700</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>504600</v>
+        <v>529300</v>
       </c>
       <c r="E52" s="3">
-        <v>587900</v>
+        <v>616600</v>
       </c>
       <c r="F52" s="3">
-        <v>495100</v>
+        <v>519300</v>
       </c>
       <c r="G52" s="3">
-        <v>563400</v>
+        <v>591000</v>
       </c>
       <c r="H52" s="3">
-        <v>505100</v>
+        <v>529900</v>
       </c>
       <c r="I52" s="3">
-        <v>497000</v>
+        <v>521300</v>
       </c>
       <c r="J52" s="3">
-        <v>481400</v>
+        <v>505000</v>
       </c>
       <c r="K52" s="3">
         <v>438800</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2705300</v>
+        <v>2837700</v>
       </c>
       <c r="E54" s="3">
-        <v>3356900</v>
+        <v>3521200</v>
       </c>
       <c r="F54" s="3">
-        <v>3424800</v>
+        <v>3592400</v>
       </c>
       <c r="G54" s="3">
-        <v>3319800</v>
+        <v>3482200</v>
       </c>
       <c r="H54" s="3">
-        <v>3206300</v>
+        <v>3363200</v>
       </c>
       <c r="I54" s="3">
-        <v>3014200</v>
+        <v>3161700</v>
       </c>
       <c r="J54" s="3">
-        <v>2871200</v>
+        <v>3011700</v>
       </c>
       <c r="K54" s="3">
         <v>2872400</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>463700</v>
+        <v>486400</v>
       </c>
       <c r="E57" s="3">
-        <v>376300</v>
+        <v>394700</v>
       </c>
       <c r="F57" s="3">
-        <v>290200</v>
+        <v>304400</v>
       </c>
       <c r="G57" s="3">
-        <v>284200</v>
+        <v>298100</v>
       </c>
       <c r="H57" s="3">
-        <v>287700</v>
+        <v>301800</v>
       </c>
       <c r="I57" s="3">
-        <v>293000</v>
+        <v>307300</v>
       </c>
       <c r="J57" s="3">
-        <v>258800</v>
+        <v>271400</v>
       </c>
       <c r="K57" s="3">
         <v>241600</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>602000</v>
+        <v>631500</v>
       </c>
       <c r="E58" s="3">
-        <v>763900</v>
+        <v>801200</v>
       </c>
       <c r="F58" s="3">
-        <v>368700</v>
+        <v>386700</v>
       </c>
       <c r="G58" s="3">
-        <v>315200</v>
+        <v>330600</v>
       </c>
       <c r="H58" s="3">
-        <v>268800</v>
+        <v>282000</v>
       </c>
       <c r="I58" s="3">
-        <v>259300</v>
+        <v>271900</v>
       </c>
       <c r="J58" s="3">
-        <v>249200</v>
+        <v>261400</v>
       </c>
       <c r="K58" s="3">
         <v>286900</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>676900</v>
+        <v>710000</v>
       </c>
       <c r="E59" s="3">
-        <v>599900</v>
+        <v>629300</v>
       </c>
       <c r="F59" s="3">
-        <v>565300</v>
+        <v>593000</v>
       </c>
       <c r="G59" s="3">
-        <v>482100</v>
+        <v>505700</v>
       </c>
       <c r="H59" s="3">
-        <v>507900</v>
+        <v>532700</v>
       </c>
       <c r="I59" s="3">
-        <v>421600</v>
+        <v>442300</v>
       </c>
       <c r="J59" s="3">
-        <v>433300</v>
+        <v>454500</v>
       </c>
       <c r="K59" s="3">
         <v>413200</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1742500</v>
+        <v>1827800</v>
       </c>
       <c r="E60" s="3">
-        <v>1740100</v>
+        <v>1825200</v>
       </c>
       <c r="F60" s="3">
-        <v>1224200</v>
+        <v>1284100</v>
       </c>
       <c r="G60" s="3">
-        <v>1081500</v>
+        <v>1134400</v>
       </c>
       <c r="H60" s="3">
-        <v>1032800</v>
+        <v>1083300</v>
       </c>
       <c r="I60" s="3">
-        <v>935400</v>
+        <v>981200</v>
       </c>
       <c r="J60" s="3">
-        <v>941200</v>
+        <v>987300</v>
       </c>
       <c r="K60" s="3">
         <v>941600</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2829100</v>
+        <v>2967600</v>
       </c>
       <c r="E61" s="3">
-        <v>2920900</v>
+        <v>3063900</v>
       </c>
       <c r="F61" s="3">
-        <v>2418800</v>
+        <v>2537200</v>
       </c>
       <c r="G61" s="3">
-        <v>2179600</v>
+        <v>2286200</v>
       </c>
       <c r="H61" s="3">
-        <v>1984200</v>
+        <v>2081300</v>
       </c>
       <c r="I61" s="3">
-        <v>1961800</v>
+        <v>2057800</v>
       </c>
       <c r="J61" s="3">
-        <v>1833800</v>
+        <v>1923500</v>
       </c>
       <c r="K61" s="3">
         <v>1921600</v>
@@ -3282,25 +3282,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>390100</v>
+        <v>409200</v>
       </c>
       <c r="E62" s="3">
-        <v>416900</v>
+        <v>437300</v>
       </c>
       <c r="F62" s="3">
-        <v>409700</v>
+        <v>429700</v>
       </c>
       <c r="G62" s="3">
-        <v>173800</v>
+        <v>182300</v>
       </c>
       <c r="H62" s="3">
-        <v>298700</v>
+        <v>313300</v>
       </c>
       <c r="I62" s="3">
-        <v>304000</v>
+        <v>318900</v>
       </c>
       <c r="J62" s="3">
-        <v>301400</v>
+        <v>316100</v>
       </c>
       <c r="K62" s="3">
         <v>210700</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4961700</v>
+        <v>5204500</v>
       </c>
       <c r="E66" s="3">
-        <v>5077900</v>
+        <v>5326400</v>
       </c>
       <c r="F66" s="3">
-        <v>4052700</v>
+        <v>4251000</v>
       </c>
       <c r="G66" s="3">
-        <v>3434800</v>
+        <v>3602900</v>
       </c>
       <c r="H66" s="3">
-        <v>3315700</v>
+        <v>3478000</v>
       </c>
       <c r="I66" s="3">
-        <v>3201200</v>
+        <v>3357800</v>
       </c>
       <c r="J66" s="3">
-        <v>3076400</v>
+        <v>3227000</v>
       </c>
       <c r="K66" s="3">
         <v>3074000</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2652800</v>
+        <v>-2782600</v>
       </c>
       <c r="E72" s="3">
-        <v>-2093300</v>
+        <v>-2195800</v>
       </c>
       <c r="F72" s="3">
-        <v>-996800</v>
+        <v>-1045600</v>
       </c>
       <c r="G72" s="3">
-        <v>-474500</v>
+        <v>-497800</v>
       </c>
       <c r="H72" s="3">
-        <v>-486200</v>
+        <v>-510000</v>
       </c>
       <c r="I72" s="3">
-        <v>-548700</v>
+        <v>-575600</v>
       </c>
       <c r="J72" s="3">
-        <v>-570000</v>
+        <v>-597900</v>
       </c>
       <c r="K72" s="3">
         <v>-566100</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2256400</v>
+        <v>-2366900</v>
       </c>
       <c r="E76" s="3">
-        <v>-1721000</v>
+        <v>-1805200</v>
       </c>
       <c r="F76" s="3">
-        <v>-627800</v>
+        <v>-658500</v>
       </c>
       <c r="G76" s="3">
-        <v>-115000</v>
+        <v>-120700</v>
       </c>
       <c r="H76" s="3">
-        <v>-109400</v>
+        <v>-114700</v>
       </c>
       <c r="I76" s="3">
-        <v>-187000</v>
+        <v>-196100</v>
       </c>
       <c r="J76" s="3">
-        <v>-205200</v>
+        <v>-215200</v>
       </c>
       <c r="K76" s="3">
         <v>-201500</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-523900</v>
+        <v>-549600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1094600</v>
+        <v>-1148200</v>
       </c>
       <c r="F81" s="3">
-        <v>-436800</v>
+        <v>-458100</v>
       </c>
       <c r="G81" s="3">
-        <v>-78100</v>
+        <v>-82000</v>
       </c>
       <c r="H81" s="3">
-        <v>62700</v>
+        <v>65800</v>
       </c>
       <c r="I81" s="3">
-        <v>22400</v>
+        <v>23400</v>
       </c>
       <c r="J81" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K81" s="3">
         <v>-8800</v>
@@ -4548,25 +4548,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>90700</v>
+        <v>95200</v>
       </c>
       <c r="E89" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F89" s="3">
-        <v>159100</v>
+        <v>166900</v>
       </c>
       <c r="G89" s="3">
-        <v>131400</v>
+        <v>137800</v>
       </c>
       <c r="H89" s="3">
-        <v>121100</v>
+        <v>127100</v>
       </c>
       <c r="I89" s="3">
-        <v>51300</v>
+        <v>53800</v>
       </c>
       <c r="J89" s="3">
-        <v>123000</v>
+        <v>129100</v>
       </c>
       <c r="K89" s="3">
         <v>111400</v>
@@ -4622,25 +4622,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7500</v>
+        <v>-7900</v>
       </c>
       <c r="E91" s="3">
-        <v>-39700</v>
+        <v>-41700</v>
       </c>
       <c r="F91" s="3">
-        <v>-82800</v>
+        <v>-86800</v>
       </c>
       <c r="G91" s="3">
-        <v>-60400</v>
+        <v>-63300</v>
       </c>
       <c r="H91" s="3">
-        <v>-39900</v>
+        <v>-41900</v>
       </c>
       <c r="I91" s="3">
-        <v>-71700</v>
+        <v>-75200</v>
       </c>
       <c r="J91" s="3">
-        <v>-38200</v>
+        <v>-40100</v>
       </c>
       <c r="K91" s="3">
         <v>-27400</v>
@@ -4781,25 +4781,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>109500</v>
+        <v>114900</v>
       </c>
       <c r="E94" s="3">
-        <v>-165600</v>
+        <v>-173700</v>
       </c>
       <c r="F94" s="3">
-        <v>-96000</v>
+        <v>-100700</v>
       </c>
       <c r="G94" s="3">
-        <v>-14000</v>
+        <v>-14700</v>
       </c>
       <c r="H94" s="3">
-        <v>-30600</v>
+        <v>-32100</v>
       </c>
       <c r="I94" s="3">
-        <v>-71100</v>
+        <v>-74600</v>
       </c>
       <c r="J94" s="3">
-        <v>-15900</v>
+        <v>-16700</v>
       </c>
       <c r="K94" s="3">
         <v>7700</v>
@@ -5067,25 +5067,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9600</v>
+        <v>-10100</v>
       </c>
       <c r="E100" s="3">
-        <v>-29600</v>
+        <v>-31000</v>
       </c>
       <c r="F100" s="3">
-        <v>-44800</v>
+        <v>-47000</v>
       </c>
       <c r="G100" s="3">
-        <v>-54600</v>
+        <v>-57300</v>
       </c>
       <c r="H100" s="3">
-        <v>-50200</v>
+        <v>-52600</v>
       </c>
       <c r="I100" s="3">
-        <v>-13400</v>
+        <v>-14100</v>
       </c>
       <c r="J100" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="K100" s="3">
         <v>-41400</v>
@@ -5120,25 +5120,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="E101" s="3">
-        <v>-12100</v>
+        <v>-12700</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G101" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="3">
         <v>-500</v>
       </c>
       <c r="J101" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -5173,25 +5173,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>185000</v>
+        <v>194100</v>
       </c>
       <c r="E102" s="3">
-        <v>-199600</v>
+        <v>-209300</v>
       </c>
       <c r="F102" s="3">
-        <v>22400</v>
+        <v>23500</v>
       </c>
       <c r="G102" s="3">
-        <v>55100</v>
+        <v>57800</v>
       </c>
       <c r="H102" s="3">
-        <v>54300</v>
+        <v>57000</v>
       </c>
       <c r="I102" s="3">
-        <v>-46500</v>
+        <v>-48800</v>
       </c>
       <c r="J102" s="3">
-        <v>49100</v>
+        <v>51500</v>
       </c>
       <c r="K102" s="3">
         <v>8300</v>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75200</v>
+        <v>315800</v>
       </c>
       <c r="E8" s="3">
-        <v>524500</v>
+        <v>710000</v>
       </c>
       <c r="F8" s="3">
-        <v>608500</v>
+        <v>567400</v>
       </c>
       <c r="G8" s="3">
-        <v>567100</v>
+        <v>496300</v>
       </c>
       <c r="H8" s="3">
-        <v>489900</v>
+        <v>575800</v>
       </c>
       <c r="I8" s="3">
+        <v>536600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>913600</v>
+      </c>
+      <c r="K8" s="3">
         <v>475700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>459400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>447000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>465700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>511900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>560500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>510700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>440200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>466000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>451700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43400</v>
+        <v>140900</v>
       </c>
       <c r="E9" s="3">
-        <v>229700</v>
+        <v>339400</v>
       </c>
       <c r="F9" s="3">
-        <v>242800</v>
+        <v>260900</v>
       </c>
       <c r="G9" s="3">
-        <v>231500</v>
+        <v>217300</v>
       </c>
       <c r="H9" s="3">
-        <v>209500</v>
+        <v>229800</v>
       </c>
       <c r="I9" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>379900</v>
+      </c>
+      <c r="K9" s="3">
         <v>195600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>189700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>197900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>201200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>218700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>307600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>287100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>265500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>270700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>267400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31800</v>
+        <v>174900</v>
       </c>
       <c r="E10" s="3">
-        <v>294800</v>
+        <v>370600</v>
       </c>
       <c r="F10" s="3">
-        <v>365700</v>
+        <v>306400</v>
       </c>
       <c r="G10" s="3">
-        <v>335600</v>
+        <v>279000</v>
       </c>
       <c r="H10" s="3">
-        <v>280400</v>
+        <v>346000</v>
       </c>
       <c r="I10" s="3">
+        <v>317600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>533700</v>
+      </c>
+      <c r="K10" s="3">
         <v>280100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>269800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>249100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>264400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>293100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>252800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>223600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>174700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>195300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>184300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1061,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1054,11 +1093,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1081,61 +1120,73 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>89800</v>
+        <v>59500</v>
       </c>
       <c r="E15" s="3">
-        <v>90000</v>
+        <v>325200</v>
       </c>
       <c r="F15" s="3">
-        <v>470100</v>
+        <v>255100</v>
       </c>
       <c r="G15" s="3">
+        <v>85100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>444900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>136300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K15" s="3">
         <v>70500</v>
       </c>
-      <c r="H15" s="3">
-        <v>71700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>70500</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>63500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>60400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>75200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>69200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>13600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>22900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>20700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>19000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>18700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>228600</v>
+        <v>341200</v>
       </c>
       <c r="E17" s="3">
-        <v>492000</v>
+        <v>943400</v>
       </c>
       <c r="F17" s="3">
-        <v>1063300</v>
+        <v>720600</v>
       </c>
       <c r="G17" s="3">
-        <v>462500</v>
+        <v>465500</v>
       </c>
       <c r="H17" s="3">
-        <v>424300</v>
+        <v>1006100</v>
       </c>
       <c r="I17" s="3">
+        <v>443400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>793100</v>
+      </c>
+      <c r="K17" s="3">
         <v>410700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>423000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>368200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>419000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>424700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>484200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>448400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>414900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>414100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>409500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-153500</v>
+        <v>-25400</v>
       </c>
       <c r="E18" s="3">
-        <v>32500</v>
+        <v>-233400</v>
       </c>
       <c r="F18" s="3">
-        <v>-454700</v>
+        <v>-153200</v>
       </c>
       <c r="G18" s="3">
-        <v>104700</v>
+        <v>30700</v>
       </c>
       <c r="H18" s="3">
-        <v>65500</v>
+        <v>-430300</v>
       </c>
       <c r="I18" s="3">
+        <v>93300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>120500</v>
+      </c>
+      <c r="K18" s="3">
         <v>65000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>36400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>78800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>46700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>87200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>76200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>62300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>25300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>51900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>42200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,125 +1344,139 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-396100</v>
+        <v>120700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1227500</v>
+        <v>-1704500</v>
       </c>
       <c r="F20" s="3">
-        <v>-7100</v>
+        <v>-1529400</v>
       </c>
       <c r="G20" s="3">
-        <v>-187800</v>
+        <v>-1161500</v>
       </c>
       <c r="H20" s="3">
-        <v>-8300</v>
+        <v>-6700</v>
       </c>
       <c r="I20" s="3">
+        <v>-191900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-52900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-82000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-221400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-42100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>18600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-11700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-35900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-35300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-456800</v>
+        <v>163100</v>
       </c>
       <c r="E21" s="3">
-        <v>-1105000</v>
+        <v>-1686000</v>
       </c>
       <c r="F21" s="3">
-        <v>-62200</v>
+        <v>-1509700</v>
       </c>
       <c r="G21" s="3">
-        <v>-86300</v>
+        <v>-1045600</v>
       </c>
       <c r="H21" s="3">
-        <v>60200</v>
+        <v>-199300</v>
       </c>
       <c r="I21" s="3">
+        <v>38900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>132200</v>
+      </c>
+      <c r="K21" s="3">
         <v>82600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>24800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-168700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>114300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>85500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>52900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>35000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>25600</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1411,11 +1490,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1438,114 +1517,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-551400</v>
+        <v>95300</v>
       </c>
       <c r="E23" s="3">
-        <v>-1195000</v>
+        <v>-1940800</v>
       </c>
       <c r="F23" s="3">
-        <v>-461800</v>
+        <v>-1691100</v>
       </c>
       <c r="G23" s="3">
-        <v>-83100</v>
+        <v>-1130800</v>
       </c>
       <c r="H23" s="3">
-        <v>57200</v>
+        <v>-437000</v>
       </c>
       <c r="I23" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K23" s="3">
         <v>12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>22400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-174700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>45100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>94800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>50600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>16000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1800</v>
+        <v>-900</v>
       </c>
       <c r="E24" s="3">
-        <v>-46800</v>
+        <v>-42000</v>
       </c>
       <c r="F24" s="3">
-        <v>-3700</v>
+        <v>-46000</v>
       </c>
       <c r="G24" s="3">
-        <v>-1200</v>
+        <v>-44300</v>
       </c>
       <c r="H24" s="3">
-        <v>-8600</v>
+        <v>-3500</v>
       </c>
       <c r="I24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-11400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>18600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-549600</v>
+        <v>96200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1148200</v>
+        <v>-1898700</v>
       </c>
       <c r="F26" s="3">
-        <v>-458100</v>
+        <v>-1645200</v>
       </c>
       <c r="G26" s="3">
-        <v>-81900</v>
+        <v>-1086500</v>
       </c>
       <c r="H26" s="3">
-        <v>65800</v>
+        <v>-433500</v>
       </c>
       <c r="I26" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K26" s="3">
         <v>23400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-184800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>76200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>51100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>14500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-549600</v>
+        <v>96200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1148200</v>
+        <v>-1898700</v>
       </c>
       <c r="F27" s="3">
-        <v>-458100</v>
+        <v>-1645200</v>
       </c>
       <c r="G27" s="3">
-        <v>-82000</v>
+        <v>-1086500</v>
       </c>
       <c r="H27" s="3">
-        <v>65800</v>
+        <v>-433500</v>
       </c>
       <c r="I27" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K27" s="3">
         <v>23400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-184800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>40200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>76200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>51000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>14500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>396100</v>
+        <v>-120700</v>
       </c>
       <c r="E32" s="3">
-        <v>1227500</v>
+        <v>1704500</v>
       </c>
       <c r="F32" s="3">
-        <v>7100</v>
+        <v>1529400</v>
       </c>
       <c r="G32" s="3">
-        <v>187800</v>
+        <v>1161500</v>
       </c>
       <c r="H32" s="3">
-        <v>8300</v>
+        <v>6700</v>
       </c>
       <c r="I32" s="3">
+        <v>191900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K32" s="3">
         <v>52900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>82000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>221400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>42100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-18600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>11700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>38300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>35900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>35300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-549600</v>
+        <v>96200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1148200</v>
+        <v>-1898700</v>
       </c>
       <c r="F33" s="3">
-        <v>-458100</v>
+        <v>-1645200</v>
       </c>
       <c r="G33" s="3">
-        <v>-82000</v>
+        <v>-1086500</v>
       </c>
       <c r="H33" s="3">
-        <v>65800</v>
+        <v>-433500</v>
       </c>
       <c r="I33" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K33" s="3">
         <v>23400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-184800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>40200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>76200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>51000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>14500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-549600</v>
+        <v>96200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1148200</v>
+        <v>-1898700</v>
       </c>
       <c r="F35" s="3">
-        <v>-458100</v>
+        <v>-1645200</v>
       </c>
       <c r="G35" s="3">
-        <v>-82000</v>
+        <v>-1086500</v>
       </c>
       <c r="H35" s="3">
-        <v>65800</v>
+        <v>-433500</v>
       </c>
       <c r="I35" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K35" s="3">
         <v>23400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-184800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>40200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>76200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>51000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>14500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2398,541 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>293100</v>
+        <v>542700</v>
       </c>
       <c r="E41" s="3">
-        <v>99000</v>
+        <v>254200</v>
       </c>
       <c r="F41" s="3">
-        <v>308400</v>
+        <v>277400</v>
       </c>
       <c r="G41" s="3">
-        <v>284800</v>
+        <v>93700</v>
       </c>
       <c r="H41" s="3">
-        <v>227000</v>
+        <v>291800</v>
       </c>
       <c r="I41" s="3">
+        <v>269500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K41" s="3">
         <v>170000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>437600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>165400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>198300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>172500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>195400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>124600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>128400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>107900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>136200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12100</v>
+        <v>16300</v>
       </c>
       <c r="E42" s="3">
-        <v>138100</v>
+        <v>23600</v>
       </c>
       <c r="F42" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G42" s="3">
-        <v>7700</v>
+        <v>130700</v>
       </c>
       <c r="H42" s="3">
-        <v>49000</v>
+        <v>11000</v>
       </c>
       <c r="I42" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K42" s="3">
         <v>74300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>193700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>123500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>169400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>146600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>265600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>239200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>227400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>50800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>82200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>152400</v>
+        <v>200500</v>
       </c>
       <c r="E43" s="3">
-        <v>200500</v>
+        <v>158700</v>
       </c>
       <c r="F43" s="3">
-        <v>258300</v>
+        <v>144200</v>
       </c>
       <c r="G43" s="3">
-        <v>349700</v>
+        <v>189700</v>
       </c>
       <c r="H43" s="3">
-        <v>340300</v>
+        <v>244500</v>
       </c>
       <c r="I43" s="3">
+        <v>330900</v>
+      </c>
+      <c r="J43" s="3">
         <v>322000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
+        <v>322000</v>
+      </c>
+      <c r="L43" s="3">
         <v>267000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>309100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>332300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>313500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>263200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>233900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>222000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>167900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>178100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74700</v>
+        <v>71300</v>
       </c>
       <c r="E44" s="3">
-        <v>71100</v>
+        <v>66600</v>
       </c>
       <c r="F44" s="3">
-        <v>48800</v>
+        <v>70700</v>
       </c>
       <c r="G44" s="3">
-        <v>49400</v>
+        <v>67300</v>
       </c>
       <c r="H44" s="3">
-        <v>43000</v>
+        <v>46200</v>
       </c>
       <c r="I44" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K44" s="3">
         <v>42100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>37500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>36700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>40000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>40900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>38600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>34500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>33200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>28500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>26600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>120600</v>
+        <v>128500</v>
       </c>
       <c r="E45" s="3">
-        <v>159700</v>
+        <v>135200</v>
       </c>
       <c r="F45" s="3">
-        <v>147300</v>
+        <v>114100</v>
       </c>
       <c r="G45" s="3">
-        <v>67300</v>
+        <v>151100</v>
       </c>
       <c r="H45" s="3">
-        <v>67300</v>
+        <v>139400</v>
       </c>
       <c r="I45" s="3">
+        <v>63700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K45" s="3">
         <v>61600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>70500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>40600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>67100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>79000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>84100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>50600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>65700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>65500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>50900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>652900</v>
+        <v>959300</v>
       </c>
       <c r="E46" s="3">
-        <v>668500</v>
+        <v>638400</v>
       </c>
       <c r="F46" s="3">
-        <v>774500</v>
+        <v>617800</v>
       </c>
       <c r="G46" s="3">
-        <v>759000</v>
+        <v>632600</v>
       </c>
       <c r="H46" s="3">
-        <v>726600</v>
+        <v>732800</v>
       </c>
       <c r="I46" s="3">
+        <v>718200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>687500</v>
+      </c>
+      <c r="K46" s="3">
         <v>669900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>690500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>675300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>807100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>734800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>847000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>682700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>676700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>420500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>473900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>202500</v>
+        <v>151300</v>
       </c>
       <c r="E47" s="3">
-        <v>236700</v>
+        <v>208000</v>
       </c>
       <c r="F47" s="3">
-        <v>307300</v>
+        <v>191600</v>
       </c>
       <c r="G47" s="3">
-        <v>258300</v>
+        <v>224000</v>
       </c>
       <c r="H47" s="3">
-        <v>249300</v>
+        <v>290800</v>
       </c>
       <c r="I47" s="3">
+        <v>244400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>235900</v>
+      </c>
+      <c r="K47" s="3">
         <v>299200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>241000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>286400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>333000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>280800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>216800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>209500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>200600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>188600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>189100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1238800</v>
+        <v>1135100</v>
       </c>
       <c r="E48" s="3">
-        <v>1795600</v>
+        <v>940800</v>
       </c>
       <c r="F48" s="3">
-        <v>1787800</v>
+        <v>1172200</v>
       </c>
       <c r="G48" s="3">
-        <v>1677400</v>
+        <v>1699100</v>
       </c>
       <c r="H48" s="3">
-        <v>1661700</v>
+        <v>1691700</v>
       </c>
       <c r="I48" s="3">
+        <v>1587200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1572400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1529900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1385000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1289600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1538300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1619300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>852600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>834400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>893200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>840600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>853400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>214100</v>
+        <v>207200</v>
       </c>
       <c r="E49" s="3">
-        <v>203800</v>
+        <v>203900</v>
       </c>
       <c r="F49" s="3">
-        <v>203500</v>
+        <v>202600</v>
       </c>
       <c r="G49" s="3">
-        <v>196600</v>
+        <v>192800</v>
       </c>
       <c r="H49" s="3">
-        <v>195800</v>
+        <v>192600</v>
       </c>
       <c r="I49" s="3">
+        <v>186100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>185300</v>
+      </c>
+      <c r="K49" s="3">
         <v>192200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>190200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>184700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>227000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>224300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>246400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>243600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>244100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>233900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>233800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>529300</v>
+        <v>343900</v>
       </c>
       <c r="E52" s="3">
-        <v>616600</v>
+        <v>474900</v>
       </c>
       <c r="F52" s="3">
-        <v>519300</v>
+        <v>500800</v>
       </c>
       <c r="G52" s="3">
-        <v>591000</v>
+        <v>583500</v>
       </c>
       <c r="H52" s="3">
-        <v>529900</v>
+        <v>491400</v>
       </c>
       <c r="I52" s="3">
+        <v>559200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>501400</v>
+      </c>
+      <c r="K52" s="3">
         <v>521300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>505000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>438800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>529700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>452100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>482000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>339700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>340000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>318200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>333700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2837700</v>
+        <v>2796700</v>
       </c>
       <c r="E54" s="3">
-        <v>3521200</v>
+        <v>2465900</v>
       </c>
       <c r="F54" s="3">
-        <v>3592400</v>
+        <v>2685100</v>
       </c>
       <c r="G54" s="3">
-        <v>3482200</v>
+        <v>3331900</v>
       </c>
       <c r="H54" s="3">
-        <v>3363200</v>
+        <v>3399300</v>
       </c>
       <c r="I54" s="3">
+        <v>3295000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3182400</v>
+      </c>
+      <c r="K54" s="3">
         <v>3161700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3011700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2872400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3432500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3311400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2644800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2309900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2354700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2001800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2084000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3270,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>486400</v>
+        <v>424300</v>
       </c>
       <c r="E57" s="3">
-        <v>394700</v>
+        <v>514600</v>
       </c>
       <c r="F57" s="3">
-        <v>304400</v>
+        <v>460200</v>
       </c>
       <c r="G57" s="3">
-        <v>298100</v>
+        <v>373500</v>
       </c>
       <c r="H57" s="3">
-        <v>301800</v>
+        <v>288000</v>
       </c>
       <c r="I57" s="3">
+        <v>282100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K57" s="3">
         <v>307300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>271400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>241600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>280900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>244800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>244500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>224200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>230000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>256500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>256600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>631500</v>
+        <v>554300</v>
       </c>
       <c r="E58" s="3">
-        <v>801200</v>
+        <v>648400</v>
       </c>
       <c r="F58" s="3">
-        <v>386700</v>
+        <v>597500</v>
       </c>
       <c r="G58" s="3">
-        <v>330600</v>
+        <v>758200</v>
       </c>
       <c r="H58" s="3">
-        <v>282000</v>
+        <v>365900</v>
       </c>
       <c r="I58" s="3">
+        <v>312800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>266800</v>
+      </c>
+      <c r="K58" s="3">
         <v>271900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>261400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>286900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>368300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>340600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>145700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>259200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>282300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>252900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>255500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>710000</v>
+        <v>829700</v>
       </c>
       <c r="E59" s="3">
-        <v>629300</v>
+        <v>756600</v>
       </c>
       <c r="F59" s="3">
-        <v>593000</v>
+        <v>671800</v>
       </c>
       <c r="G59" s="3">
-        <v>505700</v>
+        <v>595500</v>
       </c>
       <c r="H59" s="3">
-        <v>532700</v>
+        <v>561100</v>
       </c>
       <c r="I59" s="3">
+        <v>478500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>504100</v>
+      </c>
+      <c r="K59" s="3">
         <v>442300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>454500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>413200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>462600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>417400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>480800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>492600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>417300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>378600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>385400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1827800</v>
+        <v>1808300</v>
       </c>
       <c r="E60" s="3">
-        <v>1825200</v>
+        <v>1919700</v>
       </c>
       <c r="F60" s="3">
-        <v>1284100</v>
+        <v>1729500</v>
       </c>
       <c r="G60" s="3">
-        <v>1134400</v>
+        <v>1727100</v>
       </c>
       <c r="H60" s="3">
-        <v>1083300</v>
+        <v>1215100</v>
       </c>
       <c r="I60" s="3">
+        <v>1073400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1025100</v>
+      </c>
+      <c r="K60" s="3">
         <v>981200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>987300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>941600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1111800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1002800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>870900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>976000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>929600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>888000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>897500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2967600</v>
+        <v>2966000</v>
       </c>
       <c r="E61" s="3">
-        <v>3063900</v>
+        <v>2592900</v>
       </c>
       <c r="F61" s="3">
-        <v>2537200</v>
+        <v>2808000</v>
       </c>
       <c r="G61" s="3">
-        <v>2286200</v>
+        <v>2899100</v>
       </c>
       <c r="H61" s="3">
-        <v>2081300</v>
+        <v>2400800</v>
       </c>
       <c r="I61" s="3">
+        <v>2163300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1969400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2057800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1923500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1921600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2315500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2019000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>749100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>485500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>651400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>668900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>756500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>409200</v>
+        <v>527700</v>
       </c>
       <c r="E62" s="3">
-        <v>437300</v>
+        <v>408600</v>
       </c>
       <c r="F62" s="3">
-        <v>429700</v>
+        <v>387200</v>
       </c>
       <c r="G62" s="3">
-        <v>182300</v>
+        <v>413800</v>
       </c>
       <c r="H62" s="3">
-        <v>313300</v>
+        <v>406600</v>
       </c>
       <c r="I62" s="3">
+        <v>172500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K62" s="3">
         <v>318900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>316100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>210700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>238300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>235200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>309000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>203000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>187100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>181300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>181500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5204500</v>
+        <v>5302000</v>
       </c>
       <c r="E66" s="3">
-        <v>5326400</v>
+        <v>4921300</v>
       </c>
       <c r="F66" s="3">
-        <v>4251000</v>
+        <v>4924700</v>
       </c>
       <c r="G66" s="3">
-        <v>3602900</v>
+        <v>5040000</v>
       </c>
       <c r="H66" s="3">
-        <v>3478000</v>
+        <v>4022400</v>
       </c>
       <c r="I66" s="3">
+        <v>3409200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3291000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3357800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3227000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3074000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3665500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3257000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1929000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1664500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1768000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1738200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1835400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2782600</v>
+        <v>-2904500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2195800</v>
+        <v>-2849500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1045600</v>
+        <v>-2633000</v>
       </c>
       <c r="G72" s="3">
-        <v>-497800</v>
+        <v>-2077700</v>
       </c>
       <c r="H72" s="3">
-        <v>-510000</v>
+        <v>-989400</v>
       </c>
       <c r="I72" s="3">
+        <v>-471000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-482600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-575600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-597900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-566100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-703100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-451000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>164700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>96400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>39100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-97500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-112300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2366900</v>
+        <v>-2505300</v>
       </c>
       <c r="E76" s="3">
-        <v>-1805200</v>
+        <v>-2455300</v>
       </c>
       <c r="F76" s="3">
-        <v>-658500</v>
+        <v>-2239600</v>
       </c>
       <c r="G76" s="3">
-        <v>-120700</v>
+        <v>-1708100</v>
       </c>
       <c r="H76" s="3">
-        <v>-114700</v>
+        <v>-623100</v>
       </c>
       <c r="I76" s="3">
+        <v>-114200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-196100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-215200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-201500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-233100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>54400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>715800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>645500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>586600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>263500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>248600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-549600</v>
+        <v>96200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1148200</v>
+        <v>-1898700</v>
       </c>
       <c r="F81" s="3">
-        <v>-458100</v>
+        <v>-1645200</v>
       </c>
       <c r="G81" s="3">
-        <v>-82000</v>
+        <v>-1086500</v>
       </c>
       <c r="H81" s="3">
-        <v>65800</v>
+        <v>-433500</v>
       </c>
       <c r="I81" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K81" s="3">
         <v>23400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-184800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>40200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>76200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>51000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>14500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,31 +4619,33 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>67800</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>251900</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>172900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4268,17 +4665,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>95200</v>
+        <v>38300</v>
       </c>
       <c r="E89" s="3">
-        <v>8000</v>
+        <v>134500</v>
       </c>
       <c r="F89" s="3">
-        <v>166900</v>
+        <v>97600</v>
       </c>
       <c r="G89" s="3">
-        <v>137800</v>
+        <v>7600</v>
       </c>
       <c r="H89" s="3">
-        <v>127100</v>
+        <v>153800</v>
       </c>
       <c r="I89" s="3">
+        <v>134600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K89" s="3">
         <v>53800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>129100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>111400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>88000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>22500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>10200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>108600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-49800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>6500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>79300</v>
       </c>
-      <c r="S89" s="3" t="s">
+      <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7900</v>
+        <v>-6100</v>
       </c>
       <c r="E91" s="3">
-        <v>-41700</v>
+        <v>-54700</v>
       </c>
       <c r="F91" s="3">
-        <v>-86800</v>
+        <v>-46900</v>
       </c>
       <c r="G91" s="3">
-        <v>-63300</v>
+        <v>-39400</v>
       </c>
       <c r="H91" s="3">
-        <v>-41900</v>
+        <v>-82200</v>
       </c>
       <c r="I91" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-75200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-40100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-27400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-70800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-20700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-30600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-32600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-50600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-77000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-32900</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>114900</v>
+        <v>2900</v>
       </c>
       <c r="E94" s="3">
-        <v>-173700</v>
+        <v>-74400</v>
       </c>
       <c r="F94" s="3">
-        <v>-100700</v>
+        <v>-55600</v>
       </c>
       <c r="G94" s="3">
-        <v>-14700</v>
+        <v>-164300</v>
       </c>
       <c r="H94" s="3">
-        <v>-32100</v>
+        <v>-95300</v>
       </c>
       <c r="I94" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-74600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-16700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>7700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-61200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>85800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-52300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-21700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-208400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>31300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-70100</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10100</v>
+        <v>245300</v>
       </c>
       <c r="E100" s="3">
-        <v>-31000</v>
+        <v>-80000</v>
       </c>
       <c r="F100" s="3">
-        <v>-47000</v>
+        <v>-38900</v>
       </c>
       <c r="G100" s="3">
-        <v>-57300</v>
+        <v>-29400</v>
       </c>
       <c r="H100" s="3">
-        <v>-52600</v>
+        <v>-44400</v>
       </c>
       <c r="I100" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-14100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>16200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-41400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>25700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-31400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>102700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-86100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>270200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-65000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>20400</v>
       </c>
-      <c r="S100" s="3" t="s">
+      <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-12700</v>
+        <v>-17800</v>
       </c>
       <c r="F101" s="3">
-        <v>4300</v>
+        <v>-17600</v>
       </c>
       <c r="G101" s="3">
-        <v>-8000</v>
+        <v>-12000</v>
       </c>
       <c r="H101" s="3">
-        <v>1300</v>
+        <v>4100</v>
       </c>
       <c r="I101" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>13900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>10400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3" t="s">
+      <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>194100</v>
+        <v>288500</v>
       </c>
       <c r="E102" s="3">
-        <v>-209300</v>
+        <v>-37600</v>
       </c>
       <c r="F102" s="3">
-        <v>23500</v>
+        <v>-14400</v>
       </c>
       <c r="G102" s="3">
-        <v>57800</v>
+        <v>-198100</v>
       </c>
       <c r="H102" s="3">
-        <v>57000</v>
+        <v>22300</v>
       </c>
       <c r="I102" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-48800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>51500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>25700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>70900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>16900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-28300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>29600</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>315800</v>
+        <v>325400</v>
       </c>
       <c r="E8" s="3">
-        <v>710000</v>
+        <v>151100</v>
       </c>
       <c r="F8" s="3">
-        <v>567400</v>
+        <v>601100</v>
       </c>
       <c r="G8" s="3">
-        <v>496300</v>
+        <v>525700</v>
       </c>
       <c r="H8" s="3">
-        <v>575800</v>
+        <v>610000</v>
       </c>
       <c r="I8" s="3">
-        <v>536600</v>
+        <v>568500</v>
       </c>
       <c r="J8" s="3">
-        <v>913600</v>
+        <v>967900</v>
       </c>
       <c r="K8" s="3">
         <v>475700</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>140900</v>
+        <v>149300</v>
       </c>
       <c r="E9" s="3">
-        <v>339400</v>
+        <v>85900</v>
       </c>
       <c r="F9" s="3">
-        <v>260900</v>
+        <v>276400</v>
       </c>
       <c r="G9" s="3">
-        <v>217300</v>
+        <v>230200</v>
       </c>
       <c r="H9" s="3">
-        <v>229800</v>
+        <v>243400</v>
       </c>
       <c r="I9" s="3">
-        <v>219100</v>
+        <v>232100</v>
       </c>
       <c r="J9" s="3">
-        <v>379900</v>
+        <v>402500</v>
       </c>
       <c r="K9" s="3">
         <v>195600</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>174900</v>
+        <v>176100</v>
       </c>
       <c r="E10" s="3">
-        <v>370600</v>
+        <v>65200</v>
       </c>
       <c r="F10" s="3">
-        <v>306400</v>
+        <v>324600</v>
       </c>
       <c r="G10" s="3">
-        <v>279000</v>
+        <v>295500</v>
       </c>
       <c r="H10" s="3">
-        <v>346000</v>
+        <v>366600</v>
       </c>
       <c r="I10" s="3">
-        <v>317600</v>
+        <v>336400</v>
       </c>
       <c r="J10" s="3">
-        <v>533700</v>
+        <v>565400</v>
       </c>
       <c r="K10" s="3">
         <v>280100</v>
@@ -1072,14 +1072,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-142100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1132,25 +1132,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>59500</v>
+        <v>71900</v>
       </c>
       <c r="E15" s="3">
-        <v>325200</v>
+        <v>83600</v>
       </c>
       <c r="F15" s="3">
-        <v>255100</v>
+        <v>270200</v>
       </c>
       <c r="G15" s="3">
-        <v>85100</v>
+        <v>90200</v>
       </c>
       <c r="H15" s="3">
-        <v>444900</v>
+        <v>471300</v>
       </c>
       <c r="I15" s="3">
-        <v>136300</v>
+        <v>144400</v>
       </c>
       <c r="J15" s="3">
-        <v>211500</v>
+        <v>224100</v>
       </c>
       <c r="K15" s="3">
         <v>70500</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>341200</v>
+        <v>379100</v>
       </c>
       <c r="E17" s="3">
-        <v>943400</v>
+        <v>197500</v>
       </c>
       <c r="F17" s="3">
-        <v>720600</v>
+        <v>763300</v>
       </c>
       <c r="G17" s="3">
-        <v>465500</v>
+        <v>493200</v>
       </c>
       <c r="H17" s="3">
-        <v>1006100</v>
+        <v>1065800</v>
       </c>
       <c r="I17" s="3">
-        <v>443400</v>
+        <v>469700</v>
       </c>
       <c r="J17" s="3">
-        <v>793100</v>
+        <v>840200</v>
       </c>
       <c r="K17" s="3">
         <v>410700</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25400</v>
+        <v>-53700</v>
       </c>
       <c r="E18" s="3">
-        <v>-233400</v>
+        <v>-46500</v>
       </c>
       <c r="F18" s="3">
-        <v>-153200</v>
+        <v>-162300</v>
       </c>
       <c r="G18" s="3">
-        <v>30700</v>
+        <v>32600</v>
       </c>
       <c r="H18" s="3">
-        <v>-430300</v>
+        <v>-455800</v>
       </c>
       <c r="I18" s="3">
-        <v>93300</v>
+        <v>98800</v>
       </c>
       <c r="J18" s="3">
-        <v>120500</v>
+        <v>127700</v>
       </c>
       <c r="K18" s="3">
         <v>65000</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>120700</v>
+        <v>5600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1704500</v>
+        <v>-176400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1529400</v>
+        <v>-1620200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1161500</v>
+        <v>-1230400</v>
       </c>
       <c r="H20" s="3">
-        <v>-6700</v>
+        <v>-7100</v>
       </c>
       <c r="I20" s="3">
-        <v>-191900</v>
+        <v>-203300</v>
       </c>
       <c r="J20" s="3">
-        <v>-58000</v>
+        <v>-51300</v>
       </c>
       <c r="K20" s="3">
         <v>-52900</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>163100</v>
+        <v>23800</v>
       </c>
       <c r="E21" s="3">
-        <v>-1686000</v>
+        <v>-139200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1509700</v>
+        <v>-1599300</v>
       </c>
       <c r="G21" s="3">
-        <v>-1045600</v>
+        <v>-1107700</v>
       </c>
       <c r="H21" s="3">
-        <v>-199300</v>
+        <v>-211100</v>
       </c>
       <c r="I21" s="3">
-        <v>38900</v>
+        <v>41200</v>
       </c>
       <c r="J21" s="3">
-        <v>132200</v>
+        <v>150200</v>
       </c>
       <c r="K21" s="3">
         <v>82600</v>
@@ -1469,14 +1469,14 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>12400</v>
       </c>
       <c r="E22" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1487,8 +1487,8 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>10100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>95300</v>
+        <v>-60500</v>
       </c>
       <c r="E23" s="3">
-        <v>-1940800</v>
+        <v>-225800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1691100</v>
+        <v>-1791500</v>
       </c>
       <c r="G23" s="3">
-        <v>-1130800</v>
+        <v>-1197900</v>
       </c>
       <c r="H23" s="3">
-        <v>-437000</v>
+        <v>-462900</v>
       </c>
       <c r="I23" s="3">
-        <v>-98600</v>
+        <v>-104500</v>
       </c>
       <c r="J23" s="3">
-        <v>62600</v>
+        <v>66300</v>
       </c>
       <c r="K23" s="3">
         <v>12000</v>
@@ -1588,25 +1588,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E24" s="3">
-        <v>-42000</v>
+        <v>4200</v>
       </c>
       <c r="F24" s="3">
-        <v>-46000</v>
+        <v>-48700</v>
       </c>
       <c r="G24" s="3">
-        <v>-44300</v>
+        <v>-46900</v>
       </c>
       <c r="H24" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="I24" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="J24" s="3">
-        <v>-19000</v>
+        <v>-20100</v>
       </c>
       <c r="K24" s="3">
         <v>-11400</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>96200</v>
+        <v>-59500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1898700</v>
+        <v>-230000</v>
       </c>
       <c r="F26" s="3">
-        <v>-1645200</v>
+        <v>-1742800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1086500</v>
+        <v>-1151000</v>
       </c>
       <c r="H26" s="3">
-        <v>-433500</v>
+        <v>-459200</v>
       </c>
       <c r="I26" s="3">
-        <v>-97500</v>
+        <v>-103300</v>
       </c>
       <c r="J26" s="3">
-        <v>81500</v>
+        <v>86400</v>
       </c>
       <c r="K26" s="3">
         <v>23400</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>96200</v>
+        <v>-59500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1898700</v>
+        <v>-230000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1645200</v>
+        <v>-1742800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1086500</v>
+        <v>-1151000</v>
       </c>
       <c r="H27" s="3">
-        <v>-433500</v>
+        <v>-459200</v>
       </c>
       <c r="I27" s="3">
-        <v>-97500</v>
+        <v>-103300</v>
       </c>
       <c r="J27" s="3">
-        <v>81500</v>
+        <v>86400</v>
       </c>
       <c r="K27" s="3">
         <v>23400</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-120700</v>
+        <v>-5600</v>
       </c>
       <c r="E32" s="3">
-        <v>1704500</v>
+        <v>176400</v>
       </c>
       <c r="F32" s="3">
-        <v>1529400</v>
+        <v>1620200</v>
       </c>
       <c r="G32" s="3">
-        <v>1161500</v>
+        <v>1230400</v>
       </c>
       <c r="H32" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="I32" s="3">
-        <v>191900</v>
+        <v>203300</v>
       </c>
       <c r="J32" s="3">
-        <v>58000</v>
+        <v>51300</v>
       </c>
       <c r="K32" s="3">
         <v>52900</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96200</v>
+        <v>-59500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1898700</v>
+        <v>-230000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1645200</v>
+        <v>-1742800</v>
       </c>
       <c r="G33" s="3">
-        <v>-1086500</v>
+        <v>-1151000</v>
       </c>
       <c r="H33" s="3">
-        <v>-433500</v>
+        <v>-459200</v>
       </c>
       <c r="I33" s="3">
-        <v>-97500</v>
+        <v>-103300</v>
       </c>
       <c r="J33" s="3">
-        <v>81500</v>
+        <v>86400</v>
       </c>
       <c r="K33" s="3">
         <v>23400</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96200</v>
+        <v>-59500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1898700</v>
+        <v>-230000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1645200</v>
+        <v>-1742800</v>
       </c>
       <c r="G35" s="3">
-        <v>-1086500</v>
+        <v>-1151000</v>
       </c>
       <c r="H35" s="3">
-        <v>-433500</v>
+        <v>-459200</v>
       </c>
       <c r="I35" s="3">
-        <v>-97500</v>
+        <v>-103300</v>
       </c>
       <c r="J35" s="3">
-        <v>81500</v>
+        <v>86400</v>
       </c>
       <c r="K35" s="3">
         <v>23400</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>542700</v>
+        <v>574900</v>
       </c>
       <c r="E41" s="3">
-        <v>254200</v>
+        <v>269300</v>
       </c>
       <c r="F41" s="3">
-        <v>277400</v>
+        <v>293800</v>
       </c>
       <c r="G41" s="3">
-        <v>93700</v>
+        <v>99300</v>
       </c>
       <c r="H41" s="3">
-        <v>291800</v>
+        <v>309100</v>
       </c>
       <c r="I41" s="3">
-        <v>269500</v>
+        <v>285500</v>
       </c>
       <c r="J41" s="3">
-        <v>214800</v>
+        <v>227500</v>
       </c>
       <c r="K41" s="3">
         <v>170000</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16300</v>
+        <v>17200</v>
       </c>
       <c r="E42" s="3">
-        <v>23600</v>
+        <v>25000</v>
       </c>
       <c r="F42" s="3">
-        <v>11500</v>
+        <v>12100</v>
       </c>
       <c r="G42" s="3">
-        <v>130700</v>
+        <v>138500</v>
       </c>
       <c r="H42" s="3">
-        <v>11000</v>
+        <v>11600</v>
       </c>
       <c r="I42" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="J42" s="3">
-        <v>46400</v>
+        <v>49100</v>
       </c>
       <c r="K42" s="3">
         <v>74300</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200500</v>
+        <v>212400</v>
       </c>
       <c r="E43" s="3">
-        <v>158700</v>
+        <v>168100</v>
       </c>
       <c r="F43" s="3">
-        <v>144200</v>
+        <v>152800</v>
       </c>
       <c r="G43" s="3">
-        <v>189700</v>
+        <v>201000</v>
       </c>
       <c r="H43" s="3">
-        <v>244500</v>
+        <v>259000</v>
       </c>
       <c r="I43" s="3">
-        <v>330900</v>
+        <v>350500</v>
       </c>
       <c r="J43" s="3">
-        <v>322000</v>
+        <v>341100</v>
       </c>
       <c r="K43" s="3">
         <v>322000</v>
@@ -2583,25 +2583,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>70600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>74900</v>
+      </c>
+      <c r="G44" s="3">
         <v>71300</v>
       </c>
-      <c r="E44" s="3">
-        <v>66600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>70700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>67300</v>
-      </c>
       <c r="H44" s="3">
-        <v>46200</v>
+        <v>48900</v>
       </c>
       <c r="I44" s="3">
-        <v>46700</v>
+        <v>49500</v>
       </c>
       <c r="J44" s="3">
-        <v>40700</v>
+        <v>43100</v>
       </c>
       <c r="K44" s="3">
         <v>42100</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128500</v>
+        <v>136100</v>
       </c>
       <c r="E45" s="3">
-        <v>135200</v>
+        <v>143300</v>
       </c>
       <c r="F45" s="3">
-        <v>114100</v>
+        <v>120900</v>
       </c>
       <c r="G45" s="3">
-        <v>151100</v>
+        <v>160100</v>
       </c>
       <c r="H45" s="3">
-        <v>139400</v>
+        <v>147700</v>
       </c>
       <c r="I45" s="3">
-        <v>63700</v>
+        <v>67500</v>
       </c>
       <c r="J45" s="3">
-        <v>63700</v>
+        <v>67500</v>
       </c>
       <c r="K45" s="3">
         <v>61600</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>959300</v>
+        <v>1016200</v>
       </c>
       <c r="E46" s="3">
-        <v>638400</v>
+        <v>676300</v>
       </c>
       <c r="F46" s="3">
-        <v>617800</v>
+        <v>654500</v>
       </c>
       <c r="G46" s="3">
-        <v>632600</v>
+        <v>670100</v>
       </c>
       <c r="H46" s="3">
-        <v>732800</v>
+        <v>776300</v>
       </c>
       <c r="I46" s="3">
-        <v>718200</v>
+        <v>760800</v>
       </c>
       <c r="J46" s="3">
-        <v>687500</v>
+        <v>728400</v>
       </c>
       <c r="K46" s="3">
         <v>669900</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>151300</v>
+        <v>160300</v>
       </c>
       <c r="E47" s="3">
-        <v>208000</v>
+        <v>220300</v>
       </c>
       <c r="F47" s="3">
-        <v>191600</v>
+        <v>203000</v>
       </c>
       <c r="G47" s="3">
-        <v>224000</v>
+        <v>237300</v>
       </c>
       <c r="H47" s="3">
-        <v>290800</v>
+        <v>308100</v>
       </c>
       <c r="I47" s="3">
-        <v>244400</v>
+        <v>258900</v>
       </c>
       <c r="J47" s="3">
-        <v>235900</v>
+        <v>249900</v>
       </c>
       <c r="K47" s="3">
         <v>299200</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1135100</v>
+        <v>1202500</v>
       </c>
       <c r="E48" s="3">
-        <v>940800</v>
+        <v>996700</v>
       </c>
       <c r="F48" s="3">
-        <v>1172200</v>
+        <v>1241800</v>
       </c>
       <c r="G48" s="3">
-        <v>1699100</v>
+        <v>1799900</v>
       </c>
       <c r="H48" s="3">
-        <v>1691700</v>
+        <v>1792100</v>
       </c>
       <c r="I48" s="3">
-        <v>1587200</v>
+        <v>1681400</v>
       </c>
       <c r="J48" s="3">
-        <v>1572400</v>
+        <v>1665700</v>
       </c>
       <c r="K48" s="3">
         <v>1529900</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>207200</v>
+        <v>219500</v>
       </c>
       <c r="E49" s="3">
-        <v>203900</v>
+        <v>216000</v>
       </c>
       <c r="F49" s="3">
-        <v>202600</v>
+        <v>214600</v>
       </c>
       <c r="G49" s="3">
-        <v>192800</v>
+        <v>204300</v>
       </c>
       <c r="H49" s="3">
-        <v>192600</v>
+        <v>204000</v>
       </c>
       <c r="I49" s="3">
-        <v>186100</v>
+        <v>197100</v>
       </c>
       <c r="J49" s="3">
-        <v>185300</v>
+        <v>196200</v>
       </c>
       <c r="K49" s="3">
         <v>192200</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>343900</v>
+        <v>364300</v>
       </c>
       <c r="E52" s="3">
-        <v>474900</v>
+        <v>503100</v>
       </c>
       <c r="F52" s="3">
-        <v>500800</v>
+        <v>530600</v>
       </c>
       <c r="G52" s="3">
-        <v>583500</v>
+        <v>618100</v>
       </c>
       <c r="H52" s="3">
-        <v>491400</v>
+        <v>520600</v>
       </c>
       <c r="I52" s="3">
-        <v>559200</v>
+        <v>592400</v>
       </c>
       <c r="J52" s="3">
-        <v>501400</v>
+        <v>531100</v>
       </c>
       <c r="K52" s="3">
         <v>521300</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2796700</v>
+        <v>2962700</v>
       </c>
       <c r="E54" s="3">
-        <v>2465900</v>
+        <v>2612300</v>
       </c>
       <c r="F54" s="3">
-        <v>2685100</v>
+        <v>2844500</v>
       </c>
       <c r="G54" s="3">
-        <v>3331900</v>
+        <v>3529700</v>
       </c>
       <c r="H54" s="3">
-        <v>3399300</v>
+        <v>3601100</v>
       </c>
       <c r="I54" s="3">
-        <v>3295000</v>
+        <v>3490600</v>
       </c>
       <c r="J54" s="3">
-        <v>3182400</v>
+        <v>3371300</v>
       </c>
       <c r="K54" s="3">
         <v>3161700</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>424300</v>
+        <v>449500</v>
       </c>
       <c r="E57" s="3">
-        <v>514600</v>
+        <v>545200</v>
       </c>
       <c r="F57" s="3">
-        <v>460200</v>
+        <v>487500</v>
       </c>
       <c r="G57" s="3">
-        <v>373500</v>
+        <v>395700</v>
       </c>
       <c r="H57" s="3">
-        <v>288000</v>
+        <v>305100</v>
       </c>
       <c r="I57" s="3">
-        <v>282100</v>
+        <v>298800</v>
       </c>
       <c r="J57" s="3">
-        <v>285600</v>
+        <v>302500</v>
       </c>
       <c r="K57" s="3">
         <v>307300</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>554300</v>
+        <v>587300</v>
       </c>
       <c r="E58" s="3">
-        <v>648400</v>
+        <v>686900</v>
       </c>
       <c r="F58" s="3">
-        <v>597500</v>
+        <v>633000</v>
       </c>
       <c r="G58" s="3">
-        <v>758200</v>
+        <v>803200</v>
       </c>
       <c r="H58" s="3">
-        <v>365900</v>
+        <v>387600</v>
       </c>
       <c r="I58" s="3">
-        <v>312800</v>
+        <v>331400</v>
       </c>
       <c r="J58" s="3">
-        <v>266800</v>
+        <v>282600</v>
       </c>
       <c r="K58" s="3">
         <v>271900</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>829700</v>
+        <v>878900</v>
       </c>
       <c r="E59" s="3">
-        <v>756600</v>
+        <v>801500</v>
       </c>
       <c r="F59" s="3">
-        <v>671800</v>
+        <v>711700</v>
       </c>
       <c r="G59" s="3">
-        <v>595500</v>
+        <v>630800</v>
       </c>
       <c r="H59" s="3">
-        <v>561100</v>
+        <v>594400</v>
       </c>
       <c r="I59" s="3">
-        <v>478500</v>
+        <v>506900</v>
       </c>
       <c r="J59" s="3">
-        <v>504100</v>
+        <v>534000</v>
       </c>
       <c r="K59" s="3">
         <v>442300</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1808300</v>
+        <v>1915700</v>
       </c>
       <c r="E60" s="3">
-        <v>1919700</v>
+        <v>2033700</v>
       </c>
       <c r="F60" s="3">
-        <v>1729500</v>
+        <v>1832200</v>
       </c>
       <c r="G60" s="3">
-        <v>1727100</v>
+        <v>1829600</v>
       </c>
       <c r="H60" s="3">
-        <v>1215100</v>
+        <v>1287200</v>
       </c>
       <c r="I60" s="3">
-        <v>1073400</v>
+        <v>1137100</v>
       </c>
       <c r="J60" s="3">
-        <v>1025100</v>
+        <v>1085900</v>
       </c>
       <c r="K60" s="3">
         <v>981200</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2966000</v>
+        <v>3142100</v>
       </c>
       <c r="E61" s="3">
-        <v>2592900</v>
+        <v>2746800</v>
       </c>
       <c r="F61" s="3">
-        <v>2808000</v>
+        <v>2974700</v>
       </c>
       <c r="G61" s="3">
-        <v>2899100</v>
+        <v>3071200</v>
       </c>
       <c r="H61" s="3">
-        <v>2400800</v>
+        <v>2543300</v>
       </c>
       <c r="I61" s="3">
-        <v>2163300</v>
+        <v>2291700</v>
       </c>
       <c r="J61" s="3">
-        <v>1969400</v>
+        <v>2086300</v>
       </c>
       <c r="K61" s="3">
         <v>2057800</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>527700</v>
+        <v>559000</v>
       </c>
       <c r="E62" s="3">
-        <v>408600</v>
+        <v>432900</v>
       </c>
       <c r="F62" s="3">
-        <v>387200</v>
+        <v>410100</v>
       </c>
       <c r="G62" s="3">
-        <v>413800</v>
+        <v>438300</v>
       </c>
       <c r="H62" s="3">
-        <v>406600</v>
+        <v>430700</v>
       </c>
       <c r="I62" s="3">
-        <v>172500</v>
+        <v>182700</v>
       </c>
       <c r="J62" s="3">
-        <v>296500</v>
+        <v>314100</v>
       </c>
       <c r="K62" s="3">
         <v>318900</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5302000</v>
+        <v>5616700</v>
       </c>
       <c r="E66" s="3">
-        <v>4921300</v>
+        <v>5213400</v>
       </c>
       <c r="F66" s="3">
-        <v>4924700</v>
+        <v>5217000</v>
       </c>
       <c r="G66" s="3">
-        <v>5040000</v>
+        <v>5339200</v>
       </c>
       <c r="H66" s="3">
-        <v>4022400</v>
+        <v>4261200</v>
       </c>
       <c r="I66" s="3">
-        <v>3409200</v>
+        <v>3611600</v>
       </c>
       <c r="J66" s="3">
-        <v>3291000</v>
+        <v>3486300</v>
       </c>
       <c r="K66" s="3">
         <v>3357800</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2904500</v>
+        <v>-3076900</v>
       </c>
       <c r="E72" s="3">
-        <v>-2849500</v>
+        <v>-3018700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2633000</v>
+        <v>-2789300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2077700</v>
+        <v>-2201100</v>
       </c>
       <c r="H72" s="3">
-        <v>-989400</v>
+        <v>-1048100</v>
       </c>
       <c r="I72" s="3">
-        <v>-471000</v>
+        <v>-499000</v>
       </c>
       <c r="J72" s="3">
-        <v>-482600</v>
+        <v>-511200</v>
       </c>
       <c r="K72" s="3">
         <v>-575600</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2505300</v>
+        <v>-2654000</v>
       </c>
       <c r="E76" s="3">
-        <v>-2455300</v>
+        <v>-2601100</v>
       </c>
       <c r="F76" s="3">
-        <v>-2239600</v>
+        <v>-2372500</v>
       </c>
       <c r="G76" s="3">
-        <v>-1708100</v>
+        <v>-1809500</v>
       </c>
       <c r="H76" s="3">
-        <v>-623100</v>
+        <v>-660100</v>
       </c>
       <c r="I76" s="3">
-        <v>-114200</v>
+        <v>-121000</v>
       </c>
       <c r="J76" s="3">
-        <v>-108600</v>
+        <v>-115000</v>
       </c>
       <c r="K76" s="3">
         <v>-196100</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96200</v>
+        <v>-59500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1898700</v>
+        <v>-230000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1645200</v>
+        <v>-1742800</v>
       </c>
       <c r="G81" s="3">
-        <v>-1086500</v>
+        <v>-1151000</v>
       </c>
       <c r="H81" s="3">
-        <v>-433500</v>
+        <v>-459200</v>
       </c>
       <c r="I81" s="3">
-        <v>-97500</v>
+        <v>-103300</v>
       </c>
       <c r="J81" s="3">
-        <v>81500</v>
+        <v>86400</v>
       </c>
       <c r="K81" s="3">
         <v>23400</v>
@@ -4627,13 +4627,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>67800</v>
+        <v>71900</v>
       </c>
       <c r="E83" s="3">
-        <v>251900</v>
+        <v>83600</v>
       </c>
       <c r="F83" s="3">
-        <v>172900</v>
+        <v>183200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38300</v>
+        <v>40600</v>
       </c>
       <c r="E89" s="3">
-        <v>134500</v>
+        <v>39100</v>
       </c>
       <c r="F89" s="3">
-        <v>97600</v>
+        <v>103400</v>
       </c>
       <c r="G89" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="H89" s="3">
-        <v>153800</v>
+        <v>162900</v>
       </c>
       <c r="I89" s="3">
-        <v>134600</v>
+        <v>142600</v>
       </c>
       <c r="J89" s="3">
-        <v>171100</v>
+        <v>181300</v>
       </c>
       <c r="K89" s="3">
         <v>53800</v>
@@ -5063,25 +5063,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6100</v>
+        <v>-6400</v>
       </c>
       <c r="E91" s="3">
-        <v>-54700</v>
+        <v>-8300</v>
       </c>
       <c r="F91" s="3">
-        <v>-46900</v>
+        <v>-49600</v>
       </c>
       <c r="G91" s="3">
-        <v>-39400</v>
+        <v>-41800</v>
       </c>
       <c r="H91" s="3">
-        <v>-82200</v>
+        <v>-87000</v>
       </c>
       <c r="I91" s="3">
-        <v>-59900</v>
+        <v>-63500</v>
       </c>
       <c r="J91" s="3">
-        <v>-110800</v>
+        <v>-117400</v>
       </c>
       <c r="K91" s="3">
         <v>-75200</v>
@@ -5240,25 +5240,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E94" s="3">
-        <v>-74400</v>
+        <v>-19900</v>
       </c>
       <c r="F94" s="3">
-        <v>-55600</v>
+        <v>-58900</v>
       </c>
       <c r="G94" s="3">
-        <v>-164300</v>
+        <v>-174100</v>
       </c>
       <c r="H94" s="3">
-        <v>-95300</v>
+        <v>-101000</v>
       </c>
       <c r="I94" s="3">
-        <v>-13900</v>
+        <v>-14700</v>
       </c>
       <c r="J94" s="3">
-        <v>-100900</v>
+        <v>-106900</v>
       </c>
       <c r="K94" s="3">
         <v>-74600</v>
@@ -5558,25 +5558,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>245300</v>
+        <v>259800</v>
       </c>
       <c r="E100" s="3">
-        <v>-80000</v>
+        <v>-43500</v>
       </c>
       <c r="F100" s="3">
-        <v>-38900</v>
+        <v>-41200</v>
       </c>
       <c r="G100" s="3">
-        <v>-29400</v>
+        <v>-31100</v>
       </c>
       <c r="H100" s="3">
-        <v>-44400</v>
+        <v>-47100</v>
       </c>
       <c r="I100" s="3">
-        <v>-54200</v>
+        <v>-57400</v>
       </c>
       <c r="J100" s="3">
-        <v>-63100</v>
+        <v>-66900</v>
       </c>
       <c r="K100" s="3">
         <v>-14100</v>
@@ -5617,25 +5617,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
-        <v>-17800</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>-17600</v>
+        <v>-18600</v>
       </c>
       <c r="G101" s="3">
-        <v>-12000</v>
+        <v>-12700</v>
       </c>
       <c r="H101" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="I101" s="3">
-        <v>-7600</v>
+        <v>-8000</v>
       </c>
       <c r="J101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -5676,25 +5676,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>288500</v>
+        <v>305600</v>
       </c>
       <c r="E102" s="3">
-        <v>-37600</v>
+        <v>-24500</v>
       </c>
       <c r="F102" s="3">
-        <v>-14400</v>
+        <v>-15300</v>
       </c>
       <c r="G102" s="3">
-        <v>-198100</v>
+        <v>-209800</v>
       </c>
       <c r="H102" s="3">
-        <v>22300</v>
+        <v>23600</v>
       </c>
       <c r="I102" s="3">
-        <v>54700</v>
+        <v>58000</v>
       </c>
       <c r="J102" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="K102" s="3">
         <v>-48800</v>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>325400</v>
+        <v>314400</v>
       </c>
       <c r="E8" s="3">
-        <v>151100</v>
+        <v>337200</v>
       </c>
       <c r="F8" s="3">
-        <v>601100</v>
+        <v>320400</v>
       </c>
       <c r="G8" s="3">
-        <v>525700</v>
+        <v>148700</v>
       </c>
       <c r="H8" s="3">
-        <v>610000</v>
+        <v>591800</v>
       </c>
       <c r="I8" s="3">
+        <v>517700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>600600</v>
+      </c>
+      <c r="K8" s="3">
         <v>568500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>967900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>475700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>459400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>447000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>465700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>511900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>560500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>510700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>440200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>466000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>451700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>149300</v>
+        <v>179100</v>
       </c>
       <c r="E9" s="3">
-        <v>85900</v>
+        <v>171300</v>
       </c>
       <c r="F9" s="3">
-        <v>276400</v>
+        <v>147000</v>
       </c>
       <c r="G9" s="3">
-        <v>230200</v>
+        <v>84500</v>
       </c>
       <c r="H9" s="3">
-        <v>243400</v>
+        <v>272200</v>
       </c>
       <c r="I9" s="3">
+        <v>226700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>239700</v>
+      </c>
+      <c r="K9" s="3">
         <v>232100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>402500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>195600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>189700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>197900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>201200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>218700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>307600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>287100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>265500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>270700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>267400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>176100</v>
+        <v>135400</v>
       </c>
       <c r="E10" s="3">
-        <v>65200</v>
+        <v>165900</v>
       </c>
       <c r="F10" s="3">
-        <v>324600</v>
+        <v>173400</v>
       </c>
       <c r="G10" s="3">
-        <v>295500</v>
+        <v>64200</v>
       </c>
       <c r="H10" s="3">
-        <v>366600</v>
+        <v>319600</v>
       </c>
       <c r="I10" s="3">
+        <v>291000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>360900</v>
+      </c>
+      <c r="K10" s="3">
         <v>336400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>565400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>280100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>269800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>249100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>264400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>293100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>252800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>223600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>174700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>195300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>184300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,25 +1101,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-142100</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="F14" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1099,11 +1139,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1126,67 +1166,79 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>71900</v>
+        <v>64500</v>
       </c>
       <c r="E15" s="3">
-        <v>83600</v>
+        <v>63500</v>
       </c>
       <c r="F15" s="3">
-        <v>270200</v>
+        <v>70700</v>
       </c>
       <c r="G15" s="3">
-        <v>90200</v>
+        <v>82400</v>
       </c>
       <c r="H15" s="3">
-        <v>471300</v>
+        <v>266100</v>
       </c>
       <c r="I15" s="3">
+        <v>88800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>464000</v>
+      </c>
+      <c r="K15" s="3">
         <v>144400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>224100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>70500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>63500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>60400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>75200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>69200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>13600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>22900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>20700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>19000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>18700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>379100</v>
+        <v>388400</v>
       </c>
       <c r="E17" s="3">
-        <v>197500</v>
+        <v>376800</v>
       </c>
       <c r="F17" s="3">
-        <v>763300</v>
+        <v>373300</v>
       </c>
       <c r="G17" s="3">
-        <v>493200</v>
+        <v>194500</v>
       </c>
       <c r="H17" s="3">
-        <v>1065800</v>
+        <v>751600</v>
       </c>
       <c r="I17" s="3">
+        <v>485600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1049500</v>
+      </c>
+      <c r="K17" s="3">
         <v>469700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>840200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>410700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>423000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>368200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>419000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>424700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>484200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>448400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>414900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>414100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>409500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-53700</v>
+        <v>-73900</v>
       </c>
       <c r="E18" s="3">
-        <v>-46500</v>
+        <v>-39500</v>
       </c>
       <c r="F18" s="3">
-        <v>-162300</v>
+        <v>-52900</v>
       </c>
       <c r="G18" s="3">
-        <v>32600</v>
+        <v>-45800</v>
       </c>
       <c r="H18" s="3">
-        <v>-455800</v>
+        <v>-159800</v>
       </c>
       <c r="I18" s="3">
+        <v>32100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-448800</v>
+      </c>
+      <c r="K18" s="3">
         <v>98800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>127700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>65000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>36400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>78800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>46700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>87200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>76200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>62300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>25300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>51900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>42200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,161 +1412,175 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5600</v>
+        <v>276500</v>
       </c>
       <c r="E20" s="3">
-        <v>-176400</v>
+        <v>-447600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1620200</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
-        <v>-1230400</v>
+        <v>-173700</v>
       </c>
       <c r="H20" s="3">
-        <v>-7100</v>
+        <v>-1595300</v>
       </c>
       <c r="I20" s="3">
+        <v>-1211500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-203300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-51300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-52900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-82000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-221400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-42100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>18600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-11700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-38300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-35900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-35300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23800</v>
+        <v>267100</v>
       </c>
       <c r="E21" s="3">
-        <v>-139200</v>
+        <v>-423700</v>
       </c>
       <c r="F21" s="3">
-        <v>-1599300</v>
+        <v>23400</v>
       </c>
       <c r="G21" s="3">
-        <v>-1107700</v>
+        <v>-137100</v>
       </c>
       <c r="H21" s="3">
-        <v>-211100</v>
+        <v>-1574700</v>
       </c>
       <c r="I21" s="3">
+        <v>-1090700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="K21" s="3">
         <v>41200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>150200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>82600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>24800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-168700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>114300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>85500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>52900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-11900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>35000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>25600</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12400</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>8900</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>10100</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1523,126 +1603,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-60500</v>
+        <v>198200</v>
       </c>
       <c r="E23" s="3">
-        <v>-225800</v>
+        <v>-489900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1791500</v>
+        <v>-59600</v>
       </c>
       <c r="G23" s="3">
-        <v>-1197900</v>
+        <v>-222400</v>
       </c>
       <c r="H23" s="3">
-        <v>-462900</v>
+        <v>-1764000</v>
       </c>
       <c r="I23" s="3">
+        <v>-1179500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-455800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-104500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>66300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>22400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-174700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>45100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>94800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>50600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-13000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>16000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-48700</v>
-      </c>
       <c r="G24" s="3">
-        <v>-46900</v>
+        <v>4100</v>
       </c>
       <c r="H24" s="3">
-        <v>-3700</v>
+        <v>-48000</v>
       </c>
       <c r="I24" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-20100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-11400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>16600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>18600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>10400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-59500</v>
+        <v>198200</v>
       </c>
       <c r="E26" s="3">
-        <v>-230000</v>
+        <v>-489900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1742800</v>
+        <v>-58600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1151000</v>
+        <v>-226500</v>
       </c>
       <c r="H26" s="3">
-        <v>-459200</v>
+        <v>-1716000</v>
       </c>
       <c r="I26" s="3">
+        <v>-1133300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-452200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-103300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>86400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>23400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-184800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>40200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>76200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>51100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-9900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>14500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-59500</v>
+        <v>198200</v>
       </c>
       <c r="E27" s="3">
-        <v>-230000</v>
+        <v>-489900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1742800</v>
+        <v>-58600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1151000</v>
+        <v>-226500</v>
       </c>
       <c r="H27" s="3">
-        <v>-459200</v>
+        <v>-1716000</v>
       </c>
       <c r="I27" s="3">
+        <v>-1133300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-452200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-103300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>86400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>23400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-184800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>40200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>76200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>51000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-9900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>14500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5600</v>
+        <v>-276500</v>
       </c>
       <c r="E32" s="3">
-        <v>176400</v>
+        <v>447600</v>
       </c>
       <c r="F32" s="3">
-        <v>1620200</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
-        <v>1230400</v>
+        <v>173700</v>
       </c>
       <c r="H32" s="3">
-        <v>7100</v>
+        <v>1595300</v>
       </c>
       <c r="I32" s="3">
+        <v>1211500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K32" s="3">
         <v>203300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>51300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>52900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>82000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>221400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>42100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>11700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>38300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>35900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>35300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-59500</v>
+        <v>198200</v>
       </c>
       <c r="E33" s="3">
-        <v>-230000</v>
+        <v>-489900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1742800</v>
+        <v>-58600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1151000</v>
+        <v>-226500</v>
       </c>
       <c r="H33" s="3">
-        <v>-459200</v>
+        <v>-1716000</v>
       </c>
       <c r="I33" s="3">
+        <v>-1133300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-452200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-103300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>86400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>23400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-184800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>40200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>76200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>51000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-9900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>14500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-59500</v>
+        <v>198200</v>
       </c>
       <c r="E35" s="3">
-        <v>-230000</v>
+        <v>-489900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1742800</v>
+        <v>-58600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1151000</v>
+        <v>-226500</v>
       </c>
       <c r="H35" s="3">
-        <v>-459200</v>
+        <v>-1716000</v>
       </c>
       <c r="I35" s="3">
+        <v>-1133300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-452200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-103300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>86400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>23400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-184800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>40200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>76200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>51000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-9900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>14500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2572,595 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>574900</v>
+        <v>801400</v>
       </c>
       <c r="E41" s="3">
-        <v>269300</v>
+        <v>420300</v>
       </c>
       <c r="F41" s="3">
-        <v>293800</v>
+        <v>566100</v>
       </c>
       <c r="G41" s="3">
-        <v>99300</v>
+        <v>265200</v>
       </c>
       <c r="H41" s="3">
-        <v>309100</v>
+        <v>289300</v>
       </c>
       <c r="I41" s="3">
+        <v>97700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>304400</v>
+      </c>
+      <c r="K41" s="3">
         <v>285500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>227500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>170000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>437600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>165400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>198300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>172500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>195400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>124600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>128400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>107900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>136200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17200</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="F42" s="3">
-        <v>12100</v>
+        <v>17000</v>
       </c>
       <c r="G42" s="3">
-        <v>138500</v>
+        <v>24700</v>
       </c>
       <c r="H42" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="I42" s="3">
+        <v>136300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K42" s="3">
         <v>7700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>49100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>74300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>193700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>123500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>169400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>146600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>265600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>239200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>227400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>50800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>82200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>212400</v>
+        <v>242900</v>
       </c>
       <c r="E43" s="3">
-        <v>168100</v>
+        <v>213600</v>
       </c>
       <c r="F43" s="3">
-        <v>152800</v>
+        <v>209200</v>
       </c>
       <c r="G43" s="3">
-        <v>201000</v>
+        <v>165500</v>
       </c>
       <c r="H43" s="3">
-        <v>259000</v>
+        <v>150400</v>
       </c>
       <c r="I43" s="3">
+        <v>197900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>255000</v>
+      </c>
+      <c r="K43" s="3">
         <v>350500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>341100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>322000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>267000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>309100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>332300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>313500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>263200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>233900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>222000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>167900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>178100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75500</v>
+        <v>88500</v>
       </c>
       <c r="E44" s="3">
-        <v>70600</v>
+        <v>83900</v>
       </c>
       <c r="F44" s="3">
-        <v>74900</v>
+        <v>74400</v>
       </c>
       <c r="G44" s="3">
-        <v>71300</v>
+        <v>69500</v>
       </c>
       <c r="H44" s="3">
-        <v>48900</v>
+        <v>73800</v>
       </c>
       <c r="I44" s="3">
+        <v>70200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K44" s="3">
         <v>49500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>43100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>42100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>37500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>36700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>40000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>40900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>38600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>34500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>33200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>28500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>26600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>136100</v>
+        <v>114700</v>
       </c>
       <c r="E45" s="3">
-        <v>143300</v>
+        <v>123100</v>
       </c>
       <c r="F45" s="3">
-        <v>120900</v>
+        <v>134000</v>
       </c>
       <c r="G45" s="3">
-        <v>160100</v>
+        <v>141100</v>
       </c>
       <c r="H45" s="3">
-        <v>147700</v>
+        <v>119000</v>
       </c>
       <c r="I45" s="3">
+        <v>157600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K45" s="3">
         <v>67500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>67500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>61600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>70500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>40600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>67100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>79000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>84100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>50600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>65700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>65500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>50900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1016200</v>
+        <v>1247700</v>
       </c>
       <c r="E46" s="3">
-        <v>676300</v>
+        <v>842700</v>
       </c>
       <c r="F46" s="3">
-        <v>654500</v>
+        <v>1000600</v>
       </c>
       <c r="G46" s="3">
-        <v>670100</v>
+        <v>665900</v>
       </c>
       <c r="H46" s="3">
-        <v>776300</v>
+        <v>644500</v>
       </c>
       <c r="I46" s="3">
+        <v>659800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>764400</v>
+      </c>
+      <c r="K46" s="3">
         <v>760800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>728400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>669900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>690500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>675300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>807100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>734800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>847000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>682700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>676700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>420500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>473900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>160300</v>
+        <v>189600</v>
       </c>
       <c r="E47" s="3">
-        <v>220300</v>
+        <v>207600</v>
       </c>
       <c r="F47" s="3">
-        <v>203000</v>
+        <v>157800</v>
       </c>
       <c r="G47" s="3">
-        <v>237300</v>
+        <v>216900</v>
       </c>
       <c r="H47" s="3">
-        <v>308100</v>
+        <v>199800</v>
       </c>
       <c r="I47" s="3">
+        <v>233600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>303300</v>
+      </c>
+      <c r="K47" s="3">
         <v>258900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>249900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>299200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>241000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>286400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>333000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>280800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>216800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>209500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>200600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>188600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>189100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1202500</v>
+        <v>1182800</v>
       </c>
       <c r="E48" s="3">
-        <v>996700</v>
+        <v>1159700</v>
       </c>
       <c r="F48" s="3">
-        <v>1241800</v>
+        <v>1184000</v>
       </c>
       <c r="G48" s="3">
-        <v>1799900</v>
+        <v>981300</v>
       </c>
       <c r="H48" s="3">
-        <v>1792100</v>
+        <v>1222800</v>
       </c>
       <c r="I48" s="3">
+        <v>1772300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1764600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1681400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1665700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1529900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1385000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1289600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1538300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1619300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>852600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>834400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>893200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>840600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>853400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>219500</v>
+        <v>244400</v>
       </c>
       <c r="E49" s="3">
-        <v>216000</v>
+        <v>219200</v>
       </c>
       <c r="F49" s="3">
-        <v>214600</v>
+        <v>216100</v>
       </c>
       <c r="G49" s="3">
-        <v>204300</v>
+        <v>212600</v>
       </c>
       <c r="H49" s="3">
-        <v>204000</v>
+        <v>211400</v>
       </c>
       <c r="I49" s="3">
+        <v>201100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K49" s="3">
         <v>197100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>196200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>192200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>190200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>184700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>227000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>224300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>246400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>243600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>244100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>233900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>233800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>364300</v>
+        <v>346800</v>
       </c>
       <c r="E52" s="3">
-        <v>503100</v>
+        <v>376700</v>
       </c>
       <c r="F52" s="3">
-        <v>530600</v>
+        <v>358700</v>
       </c>
       <c r="G52" s="3">
-        <v>618100</v>
+        <v>495300</v>
       </c>
       <c r="H52" s="3">
-        <v>520600</v>
+        <v>522400</v>
       </c>
       <c r="I52" s="3">
+        <v>608600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>512600</v>
+      </c>
+      <c r="K52" s="3">
         <v>592400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>531100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>521300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>505000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>438800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>529700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>452100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>482000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>339700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>340000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>318200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>333700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2962700</v>
+        <v>3211300</v>
       </c>
       <c r="E54" s="3">
-        <v>2612300</v>
+        <v>2806100</v>
       </c>
       <c r="F54" s="3">
-        <v>2844500</v>
+        <v>2917200</v>
       </c>
       <c r="G54" s="3">
-        <v>3529700</v>
+        <v>2572200</v>
       </c>
       <c r="H54" s="3">
-        <v>3601100</v>
+        <v>2800800</v>
       </c>
       <c r="I54" s="3">
+        <v>3475500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3545800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3490600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3371300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3161700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3011700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2872400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3432500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3311400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2644800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2309900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2354700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2001800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2084000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3532,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>449500</v>
+        <v>409400</v>
       </c>
       <c r="E57" s="3">
-        <v>545200</v>
+        <v>440800</v>
       </c>
       <c r="F57" s="3">
-        <v>487500</v>
+        <v>442600</v>
       </c>
       <c r="G57" s="3">
-        <v>395700</v>
+        <v>536800</v>
       </c>
       <c r="H57" s="3">
-        <v>305100</v>
+        <v>480000</v>
       </c>
       <c r="I57" s="3">
+        <v>389600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>300400</v>
+      </c>
+      <c r="K57" s="3">
         <v>298800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>302500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>307300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>271400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>241600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>280900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>244800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>244500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>224200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>230000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>256500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>256600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>587300</v>
+        <v>628500</v>
       </c>
       <c r="E58" s="3">
-        <v>686900</v>
+        <v>652000</v>
       </c>
       <c r="F58" s="3">
-        <v>633000</v>
+        <v>578200</v>
       </c>
       <c r="G58" s="3">
-        <v>803200</v>
+        <v>676400</v>
       </c>
       <c r="H58" s="3">
-        <v>387600</v>
+        <v>623300</v>
       </c>
       <c r="I58" s="3">
+        <v>790800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>381700</v>
+      </c>
+      <c r="K58" s="3">
         <v>331400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>282600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>271900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>261400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>286900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>368300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>340600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>145700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>259200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>282300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>252900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>255500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>878900</v>
+        <v>876200</v>
       </c>
       <c r="E59" s="3">
-        <v>801500</v>
+        <v>800700</v>
       </c>
       <c r="F59" s="3">
-        <v>711700</v>
+        <v>865400</v>
       </c>
       <c r="G59" s="3">
-        <v>630800</v>
+        <v>789200</v>
       </c>
       <c r="H59" s="3">
-        <v>594400</v>
+        <v>700800</v>
       </c>
       <c r="I59" s="3">
+        <v>621100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>585300</v>
+      </c>
+      <c r="K59" s="3">
         <v>506900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>534000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>442300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>454500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>413200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>462600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>417400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>480800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>492600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>417300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>378600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>385400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1915700</v>
+        <v>1914000</v>
       </c>
       <c r="E60" s="3">
-        <v>2033700</v>
+        <v>1893500</v>
       </c>
       <c r="F60" s="3">
-        <v>1832200</v>
+        <v>1886300</v>
       </c>
       <c r="G60" s="3">
-        <v>1829600</v>
+        <v>2002400</v>
       </c>
       <c r="H60" s="3">
-        <v>1287200</v>
+        <v>1804100</v>
       </c>
       <c r="I60" s="3">
+        <v>1801500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1267400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1137100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1085900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>981200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>987300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>941600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1111800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1002800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>870900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>976000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>929600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>888000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>897500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3142100</v>
+        <v>3587400</v>
       </c>
       <c r="E61" s="3">
-        <v>2746800</v>
+        <v>3396400</v>
       </c>
       <c r="F61" s="3">
-        <v>2974700</v>
+        <v>3093800</v>
       </c>
       <c r="G61" s="3">
-        <v>3071200</v>
+        <v>2704600</v>
       </c>
       <c r="H61" s="3">
-        <v>2543300</v>
+        <v>2929000</v>
       </c>
       <c r="I61" s="3">
+        <v>3024100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2504200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2291700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2086300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2057800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1923500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1921600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2315500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2019000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>749100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>485500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>651400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>668900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>756500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>559000</v>
+        <v>617600</v>
       </c>
       <c r="E62" s="3">
-        <v>432900</v>
+        <v>639200</v>
       </c>
       <c r="F62" s="3">
-        <v>410100</v>
+        <v>550400</v>
       </c>
       <c r="G62" s="3">
-        <v>438300</v>
+        <v>426300</v>
       </c>
       <c r="H62" s="3">
-        <v>430700</v>
+        <v>403800</v>
       </c>
       <c r="I62" s="3">
+        <v>431600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>424100</v>
+      </c>
+      <c r="K62" s="3">
         <v>182700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>314100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>318900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>316100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>210700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>238300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>235200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>309000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>203000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>187100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>181300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>181500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5616700</v>
+        <v>6119000</v>
       </c>
       <c r="E66" s="3">
-        <v>5213400</v>
+        <v>5929100</v>
       </c>
       <c r="F66" s="3">
-        <v>5217000</v>
+        <v>5530500</v>
       </c>
       <c r="G66" s="3">
-        <v>5339200</v>
+        <v>5133300</v>
       </c>
       <c r="H66" s="3">
-        <v>4261200</v>
+        <v>5136900</v>
       </c>
       <c r="I66" s="3">
+        <v>5257200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4195800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3611600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3486300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3357800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3227000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3074000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3665500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3257000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1929000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1664500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1768000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1738200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1835400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3076900</v>
+        <v>-3327600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3018700</v>
+        <v>-3543300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2789300</v>
+        <v>-3029700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2201100</v>
+        <v>-2972300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1048100</v>
+        <v>-2746400</v>
       </c>
       <c r="I72" s="3">
+        <v>-2167300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1032000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-499000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-511200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-575600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-597900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-566100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-703100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-451000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>164700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>96400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>39100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-97500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-112300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2654000</v>
+        <v>-2907600</v>
       </c>
       <c r="E76" s="3">
-        <v>-2601100</v>
+        <v>-3123100</v>
       </c>
       <c r="F76" s="3">
-        <v>-2372500</v>
+        <v>-2613300</v>
       </c>
       <c r="G76" s="3">
-        <v>-1809500</v>
+        <v>-2561100</v>
       </c>
       <c r="H76" s="3">
-        <v>-660100</v>
+        <v>-2336100</v>
       </c>
       <c r="I76" s="3">
+        <v>-1781700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-650000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-121000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-115000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-196100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-215200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-201500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-233100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>54400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>715800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>645500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>586600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>263500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>248600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-59500</v>
+        <v>198200</v>
       </c>
       <c r="E81" s="3">
-        <v>-230000</v>
+        <v>-489900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1742800</v>
+        <v>-58600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1151000</v>
+        <v>-226500</v>
       </c>
       <c r="H81" s="3">
-        <v>-459200</v>
+        <v>-1716000</v>
       </c>
       <c r="I81" s="3">
+        <v>-1133300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-452200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-103300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>86400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>23400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-184800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>40200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>76200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>51000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-9900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>14500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,25 +5017,27 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71900</v>
+        <v>64500</v>
       </c>
       <c r="E83" s="3">
-        <v>83600</v>
+        <v>63500</v>
       </c>
       <c r="F83" s="3">
-        <v>183200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
+        <v>70700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>82400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>180400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -4647,11 +5045,11 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4671,17 +5069,23 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40600</v>
+        <v>-40500</v>
       </c>
       <c r="E89" s="3">
-        <v>39100</v>
+        <v>-66200</v>
       </c>
       <c r="F89" s="3">
-        <v>103400</v>
+        <v>40000</v>
       </c>
       <c r="G89" s="3">
-        <v>8000</v>
+        <v>38500</v>
       </c>
       <c r="H89" s="3">
-        <v>162900</v>
+        <v>101800</v>
       </c>
       <c r="I89" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K89" s="3">
         <v>142600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>181300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>53800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>129100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>111400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>88000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>22500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>10200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>108600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-49800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>6500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>79300</v>
       </c>
-      <c r="U89" s="3" t="s">
+      <c r="W89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6400</v>
+        <v>-19500</v>
       </c>
       <c r="E91" s="3">
-        <v>-8300</v>
+        <v>-32600</v>
       </c>
       <c r="F91" s="3">
-        <v>-49600</v>
+        <v>-6300</v>
       </c>
       <c r="G91" s="3">
-        <v>-41800</v>
+        <v>-8100</v>
       </c>
       <c r="H91" s="3">
-        <v>-87000</v>
+        <v>-48900</v>
       </c>
       <c r="I91" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-63500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-117400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-75200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-40100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-27400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-70800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-20700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-32600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-50600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-77000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-32900</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="F94" s="3">
         <v>3000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-58900</v>
-      </c>
       <c r="G94" s="3">
-        <v>-174100</v>
+        <v>-19600</v>
       </c>
       <c r="H94" s="3">
-        <v>-101000</v>
+        <v>-58000</v>
       </c>
       <c r="I94" s="3">
+        <v>-171400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-106900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-74600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-16700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>7700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-61200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>85800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-52300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-21700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-208400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>31300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-70100</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>259800</v>
+        <v>456400</v>
       </c>
       <c r="E100" s="3">
-        <v>-43500</v>
+        <v>-54900</v>
       </c>
       <c r="F100" s="3">
-        <v>-41200</v>
+        <v>255800</v>
       </c>
       <c r="G100" s="3">
-        <v>-31100</v>
+        <v>-42900</v>
       </c>
       <c r="H100" s="3">
-        <v>-47100</v>
+        <v>-40600</v>
       </c>
       <c r="I100" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-57400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-66900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>16200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-41400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>25700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-31400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>102700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-86100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>270200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-65000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>20400</v>
       </c>
-      <c r="U100" s="3" t="s">
+      <c r="W100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-12700</v>
-      </c>
       <c r="H101" s="3">
-        <v>4400</v>
+        <v>-18300</v>
       </c>
       <c r="I101" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>13900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>10400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3" t="s">
+      <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>305600</v>
+        <v>381100</v>
       </c>
       <c r="E102" s="3">
-        <v>-24500</v>
+        <v>-145800</v>
       </c>
       <c r="F102" s="3">
-        <v>-15300</v>
+        <v>300900</v>
       </c>
       <c r="G102" s="3">
-        <v>-209800</v>
+        <v>-24100</v>
       </c>
       <c r="H102" s="3">
-        <v>23600</v>
+        <v>-15100</v>
       </c>
       <c r="I102" s="3">
+        <v>-206600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K102" s="3">
         <v>58000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-48800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>51500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>25700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-5500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>70900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>16900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-28300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>29600</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>314400</v>
+        <v>485200</v>
       </c>
       <c r="E8" s="3">
-        <v>337200</v>
+        <v>303900</v>
       </c>
       <c r="F8" s="3">
-        <v>320400</v>
+        <v>325900</v>
       </c>
       <c r="G8" s="3">
-        <v>148700</v>
+        <v>309600</v>
       </c>
       <c r="H8" s="3">
-        <v>591800</v>
+        <v>143800</v>
       </c>
       <c r="I8" s="3">
-        <v>517700</v>
+        <v>572000</v>
       </c>
       <c r="J8" s="3">
+        <v>500300</v>
+      </c>
+      <c r="K8" s="3">
         <v>600600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>568500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>967900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>475700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>459400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>447000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>465700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>511900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>560500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>510700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>440200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>466000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>451700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>179100</v>
+        <v>235000</v>
       </c>
       <c r="E9" s="3">
-        <v>171300</v>
+        <v>173100</v>
       </c>
       <c r="F9" s="3">
-        <v>147000</v>
+        <v>165600</v>
       </c>
       <c r="G9" s="3">
-        <v>84500</v>
+        <v>142100</v>
       </c>
       <c r="H9" s="3">
-        <v>272200</v>
+        <v>81700</v>
       </c>
       <c r="I9" s="3">
-        <v>226700</v>
+        <v>263100</v>
       </c>
       <c r="J9" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K9" s="3">
         <v>239700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>232100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>402500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>195600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>189700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>197900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>201200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>218700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>307600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>287100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>265500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>270700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>267400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>135400</v>
+        <v>250200</v>
       </c>
       <c r="E10" s="3">
-        <v>165900</v>
+        <v>130800</v>
       </c>
       <c r="F10" s="3">
-        <v>173400</v>
+        <v>160300</v>
       </c>
       <c r="G10" s="3">
-        <v>64200</v>
+        <v>167600</v>
       </c>
       <c r="H10" s="3">
-        <v>319600</v>
+        <v>62100</v>
       </c>
       <c r="I10" s="3">
-        <v>291000</v>
+        <v>308900</v>
       </c>
       <c r="J10" s="3">
+        <v>281200</v>
+      </c>
+      <c r="K10" s="3">
         <v>360900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>336400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>565400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>280100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>269800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>249100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>264400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>293100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>252800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>223600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>174700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>195300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>184300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,28 +1124,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>5900</v>
-      </c>
       <c r="F14" s="3">
-        <v>-139900</v>
+        <v>5700</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-135200</v>
       </c>
       <c r="H14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>64500</v>
+        <v>62400</v>
       </c>
       <c r="E15" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>61400</v>
+      </c>
+      <c r="G15" s="3">
+        <v>68400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>79600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>257200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>464000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>144400</v>
+      </c>
+      <c r="M15" s="3">
+        <v>224100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>70500</v>
+      </c>
+      <c r="O15" s="3">
         <v>63500</v>
       </c>
-      <c r="F15" s="3">
-        <v>70700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>82400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>266100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>88800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>464000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>144400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>224100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>70500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>63500</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>60400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>75200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>69200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>20700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>19000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>18700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>388400</v>
+        <v>460800</v>
       </c>
       <c r="E17" s="3">
-        <v>376800</v>
+        <v>375400</v>
       </c>
       <c r="F17" s="3">
-        <v>373300</v>
+        <v>364200</v>
       </c>
       <c r="G17" s="3">
-        <v>194500</v>
+        <v>360800</v>
       </c>
       <c r="H17" s="3">
-        <v>751600</v>
+        <v>188000</v>
       </c>
       <c r="I17" s="3">
-        <v>485600</v>
+        <v>726500</v>
       </c>
       <c r="J17" s="3">
+        <v>469300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1049500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>469700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>840200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>410700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>423000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>368200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>419000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>424700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>484200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>448400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>414900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>414100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>409500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-73900</v>
+        <v>24300</v>
       </c>
       <c r="E18" s="3">
-        <v>-39500</v>
+        <v>-71400</v>
       </c>
       <c r="F18" s="3">
-        <v>-52900</v>
+        <v>-38200</v>
       </c>
       <c r="G18" s="3">
-        <v>-45800</v>
+        <v>-51100</v>
       </c>
       <c r="H18" s="3">
-        <v>-159800</v>
+        <v>-44200</v>
       </c>
       <c r="I18" s="3">
-        <v>32100</v>
+        <v>-154400</v>
       </c>
       <c r="J18" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-448800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>98800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>65000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>87200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>62300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>51900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>42200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,158 +1447,165 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>276500</v>
+        <v>-416000</v>
       </c>
       <c r="E20" s="3">
-        <v>-447600</v>
+        <v>267200</v>
       </c>
       <c r="F20" s="3">
-        <v>5500</v>
+        <v>-432700</v>
       </c>
       <c r="G20" s="3">
-        <v>-173700</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1595300</v>
+        <v>-167900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1211500</v>
+        <v>-1542000</v>
       </c>
       <c r="J20" s="3">
+        <v>-1171000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-203300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-52900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-82000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-221400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-42100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-38300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>267100</v>
+        <v>-329300</v>
       </c>
       <c r="E21" s="3">
-        <v>-423700</v>
+        <v>258200</v>
       </c>
       <c r="F21" s="3">
-        <v>23400</v>
+        <v>-409500</v>
       </c>
       <c r="G21" s="3">
-        <v>-137100</v>
+        <v>22600</v>
       </c>
       <c r="H21" s="3">
-        <v>-1574700</v>
+        <v>-132500</v>
       </c>
       <c r="I21" s="3">
-        <v>-1090700</v>
+        <v>-1522000</v>
       </c>
       <c r="J21" s="3">
+        <v>-1054200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-207800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>150200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>82600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-168700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>114300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>52900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>35000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25600</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4400</v>
+        <v>8900</v>
       </c>
       <c r="E22" s="3">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>2700</v>
       </c>
       <c r="G22" s="3">
-        <v>3000</v>
+        <v>11800</v>
       </c>
       <c r="H22" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>2900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1573,17 +1613,17 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>10100</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>198200</v>
+        <v>-400500</v>
       </c>
       <c r="E23" s="3">
-        <v>-489900</v>
+        <v>191600</v>
       </c>
       <c r="F23" s="3">
-        <v>-59600</v>
+        <v>-473500</v>
       </c>
       <c r="G23" s="3">
-        <v>-222400</v>
+        <v>-57600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1764000</v>
+        <v>-214900</v>
       </c>
       <c r="I23" s="3">
-        <v>-1179500</v>
+        <v>-1705000</v>
       </c>
       <c r="J23" s="3">
+        <v>-1140000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-455800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-104500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-174700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>45100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>94800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>-1000</v>
-      </c>
       <c r="G24" s="3">
-        <v>4100</v>
+        <v>-900</v>
       </c>
       <c r="H24" s="3">
-        <v>-48000</v>
+        <v>4000</v>
       </c>
       <c r="I24" s="3">
-        <v>-46200</v>
+        <v>-46400</v>
       </c>
       <c r="J24" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-20100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>198200</v>
+        <v>-400500</v>
       </c>
       <c r="E26" s="3">
-        <v>-489900</v>
+        <v>191600</v>
       </c>
       <c r="F26" s="3">
-        <v>-58600</v>
+        <v>-473500</v>
       </c>
       <c r="G26" s="3">
-        <v>-226500</v>
+        <v>-56600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1716000</v>
+        <v>-218900</v>
       </c>
       <c r="I26" s="3">
-        <v>-1133300</v>
+        <v>-1658600</v>
       </c>
       <c r="J26" s="3">
+        <v>-1095400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-452200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-103300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>86400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-184800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>198200</v>
+        <v>-400500</v>
       </c>
       <c r="E27" s="3">
-        <v>-489900</v>
+        <v>191600</v>
       </c>
       <c r="F27" s="3">
-        <v>-58600</v>
+        <v>-473500</v>
       </c>
       <c r="G27" s="3">
-        <v>-226500</v>
+        <v>-56700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1716000</v>
+        <v>-218900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1133300</v>
+        <v>-1658600</v>
       </c>
       <c r="J27" s="3">
+        <v>-1095400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-452200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-103300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>86400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-184800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-276500</v>
+        <v>416000</v>
       </c>
       <c r="E32" s="3">
-        <v>447600</v>
+        <v>-267200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5500</v>
+        <v>432700</v>
       </c>
       <c r="G32" s="3">
-        <v>173700</v>
+        <v>-5400</v>
       </c>
       <c r="H32" s="3">
-        <v>1595300</v>
+        <v>167900</v>
       </c>
       <c r="I32" s="3">
-        <v>1211500</v>
+        <v>1542000</v>
       </c>
       <c r="J32" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>203300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>52900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>82000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>221400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>42100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>38300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>198200</v>
+        <v>-400500</v>
       </c>
       <c r="E33" s="3">
-        <v>-489900</v>
+        <v>191600</v>
       </c>
       <c r="F33" s="3">
-        <v>-58600</v>
+        <v>-473500</v>
       </c>
       <c r="G33" s="3">
-        <v>-226500</v>
+        <v>-56700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1716000</v>
+        <v>-218900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1133300</v>
+        <v>-1658600</v>
       </c>
       <c r="J33" s="3">
+        <v>-1095400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-452200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-103300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>86400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-184800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>76200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>198200</v>
+        <v>-400500</v>
       </c>
       <c r="E35" s="3">
-        <v>-489900</v>
+        <v>191600</v>
       </c>
       <c r="F35" s="3">
-        <v>-58600</v>
+        <v>-473500</v>
       </c>
       <c r="G35" s="3">
-        <v>-226500</v>
+        <v>-56700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1716000</v>
+        <v>-218900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1133300</v>
+        <v>-1658600</v>
       </c>
       <c r="J35" s="3">
+        <v>-1095400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-452200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-103300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>86400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-184800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>76200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>801400</v>
+        <v>648600</v>
       </c>
       <c r="E41" s="3">
-        <v>420300</v>
+        <v>774600</v>
       </c>
       <c r="F41" s="3">
-        <v>566100</v>
+        <v>406200</v>
       </c>
       <c r="G41" s="3">
-        <v>265200</v>
+        <v>547100</v>
       </c>
       <c r="H41" s="3">
-        <v>289300</v>
+        <v>256300</v>
       </c>
       <c r="I41" s="3">
-        <v>97700</v>
+        <v>279600</v>
       </c>
       <c r="J41" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K41" s="3">
         <v>304400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>285500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>227500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>437600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>165400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>198300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>172500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>195400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>124600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>128400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>107900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>136200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2648,519 +2738,543 @@
         <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F42" s="3">
-        <v>17000</v>
+        <v>1900</v>
       </c>
       <c r="G42" s="3">
-        <v>24700</v>
+        <v>16400</v>
       </c>
       <c r="H42" s="3">
-        <v>12000</v>
+        <v>23800</v>
       </c>
       <c r="I42" s="3">
-        <v>136300</v>
+        <v>11600</v>
       </c>
       <c r="J42" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K42" s="3">
         <v>11500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>49100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>74300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>193700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>123500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>169400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>146600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>265600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>239200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>227400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>50800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>82200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>242900</v>
+        <v>318800</v>
       </c>
       <c r="E43" s="3">
-        <v>213600</v>
+        <v>234800</v>
       </c>
       <c r="F43" s="3">
-        <v>209200</v>
+        <v>206400</v>
       </c>
       <c r="G43" s="3">
-        <v>165500</v>
+        <v>202200</v>
       </c>
       <c r="H43" s="3">
-        <v>150400</v>
+        <v>160000</v>
       </c>
       <c r="I43" s="3">
-        <v>197900</v>
+        <v>145400</v>
       </c>
       <c r="J43" s="3">
+        <v>191300</v>
+      </c>
+      <c r="K43" s="3">
         <v>255000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>350500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>341100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>322000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>267000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>309100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>332300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>313500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>263200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>233900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>222000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>167900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>178100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>88500</v>
+        <v>92800</v>
       </c>
       <c r="E44" s="3">
-        <v>83900</v>
+        <v>85500</v>
       </c>
       <c r="F44" s="3">
-        <v>74400</v>
+        <v>81100</v>
       </c>
       <c r="G44" s="3">
-        <v>69500</v>
+        <v>71900</v>
       </c>
       <c r="H44" s="3">
-        <v>73800</v>
+        <v>67200</v>
       </c>
       <c r="I44" s="3">
-        <v>70200</v>
+        <v>71300</v>
       </c>
       <c r="J44" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K44" s="3">
         <v>48200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>49500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>42100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>36700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>40000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>40900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>38600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>34500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>33200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>28500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>26600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>114700</v>
+        <v>148500</v>
       </c>
       <c r="E45" s="3">
-        <v>123100</v>
+        <v>110800</v>
       </c>
       <c r="F45" s="3">
-        <v>134000</v>
+        <v>119000</v>
       </c>
       <c r="G45" s="3">
-        <v>141100</v>
+        <v>129500</v>
       </c>
       <c r="H45" s="3">
-        <v>119000</v>
+        <v>136300</v>
       </c>
       <c r="I45" s="3">
-        <v>157600</v>
+        <v>115000</v>
       </c>
       <c r="J45" s="3">
+        <v>152300</v>
+      </c>
+      <c r="K45" s="3">
         <v>145400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>67500</v>
       </c>
       <c r="L45" s="3">
         <v>67500</v>
       </c>
       <c r="M45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="N45" s="3">
         <v>61600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>67100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>79000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>84100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>65700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>65500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1247700</v>
+        <v>1208900</v>
       </c>
       <c r="E46" s="3">
-        <v>842700</v>
+        <v>1205900</v>
       </c>
       <c r="F46" s="3">
-        <v>1000600</v>
+        <v>814600</v>
       </c>
       <c r="G46" s="3">
-        <v>665900</v>
+        <v>967100</v>
       </c>
       <c r="H46" s="3">
-        <v>644500</v>
+        <v>643600</v>
       </c>
       <c r="I46" s="3">
-        <v>659800</v>
+        <v>622900</v>
       </c>
       <c r="J46" s="3">
+        <v>637800</v>
+      </c>
+      <c r="K46" s="3">
         <v>764400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>760800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>728400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>669900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>690500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>675300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>807100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>734800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>847000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>682700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>676700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>420500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>473900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>189600</v>
+        <v>193800</v>
       </c>
       <c r="E47" s="3">
-        <v>207600</v>
+        <v>183300</v>
       </c>
       <c r="F47" s="3">
-        <v>157800</v>
+        <v>200700</v>
       </c>
       <c r="G47" s="3">
-        <v>216900</v>
+        <v>152500</v>
       </c>
       <c r="H47" s="3">
-        <v>199800</v>
+        <v>209700</v>
       </c>
       <c r="I47" s="3">
-        <v>233600</v>
+        <v>193200</v>
       </c>
       <c r="J47" s="3">
+        <v>225800</v>
+      </c>
+      <c r="K47" s="3">
         <v>303300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>258900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>249900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>299200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>241000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>286400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>333000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>280800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>216800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>209500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>200600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>188600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>189100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1182800</v>
+        <v>1146200</v>
       </c>
       <c r="E48" s="3">
-        <v>1159700</v>
+        <v>1143200</v>
       </c>
       <c r="F48" s="3">
-        <v>1184000</v>
+        <v>1120900</v>
       </c>
       <c r="G48" s="3">
-        <v>981300</v>
+        <v>1144400</v>
       </c>
       <c r="H48" s="3">
-        <v>1222800</v>
+        <v>948500</v>
       </c>
       <c r="I48" s="3">
-        <v>1772300</v>
+        <v>1181800</v>
       </c>
       <c r="J48" s="3">
+        <v>1713000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1764600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1681400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1665700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1529900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1385000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1289600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1538300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1619300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>852600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>834400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>893200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>840600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>853400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>244400</v>
+        <v>240200</v>
       </c>
       <c r="E49" s="3">
-        <v>219200</v>
+        <v>236200</v>
       </c>
       <c r="F49" s="3">
-        <v>216100</v>
+        <v>211900</v>
       </c>
       <c r="G49" s="3">
-        <v>212600</v>
+        <v>208900</v>
       </c>
       <c r="H49" s="3">
-        <v>211400</v>
+        <v>205500</v>
       </c>
       <c r="I49" s="3">
-        <v>201100</v>
+        <v>204300</v>
       </c>
       <c r="J49" s="3">
+        <v>194400</v>
+      </c>
+      <c r="K49" s="3">
         <v>200900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>197100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>196200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>192200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>190200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>184700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>227000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>224300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>246400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>243600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>244100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>233900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>233800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>346800</v>
+        <v>384700</v>
       </c>
       <c r="E52" s="3">
-        <v>376700</v>
+        <v>335200</v>
       </c>
       <c r="F52" s="3">
-        <v>358700</v>
+        <v>364100</v>
       </c>
       <c r="G52" s="3">
-        <v>495300</v>
+        <v>346700</v>
       </c>
       <c r="H52" s="3">
-        <v>522400</v>
+        <v>478800</v>
       </c>
       <c r="I52" s="3">
-        <v>608600</v>
+        <v>504900</v>
       </c>
       <c r="J52" s="3">
+        <v>588300</v>
+      </c>
+      <c r="K52" s="3">
         <v>512600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>592400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>531100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>521300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>505000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>438800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>529700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>452100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>482000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>339700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>340000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>318200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>333700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3211300</v>
+        <v>3173700</v>
       </c>
       <c r="E54" s="3">
-        <v>2806100</v>
+        <v>3103900</v>
       </c>
       <c r="F54" s="3">
-        <v>2917200</v>
+        <v>2712200</v>
       </c>
       <c r="G54" s="3">
-        <v>2572200</v>
+        <v>2819600</v>
       </c>
       <c r="H54" s="3">
-        <v>2800800</v>
+        <v>2486100</v>
       </c>
       <c r="I54" s="3">
-        <v>3475500</v>
+        <v>2707100</v>
       </c>
       <c r="J54" s="3">
+        <v>3359200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3545800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3490600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3371300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3161700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3011700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2872400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3432500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3311400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2644800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2309900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2354700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2001800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2084000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>409400</v>
+        <v>389000</v>
       </c>
       <c r="E57" s="3">
-        <v>440800</v>
+        <v>395700</v>
       </c>
       <c r="F57" s="3">
-        <v>442600</v>
+        <v>426100</v>
       </c>
       <c r="G57" s="3">
-        <v>536800</v>
+        <v>427800</v>
       </c>
       <c r="H57" s="3">
-        <v>480000</v>
+        <v>518900</v>
       </c>
       <c r="I57" s="3">
-        <v>389600</v>
+        <v>464000</v>
       </c>
       <c r="J57" s="3">
+        <v>376600</v>
+      </c>
+      <c r="K57" s="3">
         <v>300400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>298800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>302500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>307300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>271400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>241600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>280900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>244800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>244500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>224200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>230000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>256500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>256600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>628500</v>
+        <v>735800</v>
       </c>
       <c r="E58" s="3">
-        <v>652000</v>
+        <v>607500</v>
       </c>
       <c r="F58" s="3">
-        <v>578200</v>
+        <v>630100</v>
       </c>
       <c r="G58" s="3">
-        <v>676400</v>
+        <v>558900</v>
       </c>
       <c r="H58" s="3">
-        <v>623300</v>
+        <v>653800</v>
       </c>
       <c r="I58" s="3">
-        <v>790800</v>
+        <v>602400</v>
       </c>
       <c r="J58" s="3">
+        <v>764400</v>
+      </c>
+      <c r="K58" s="3">
         <v>381700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>331400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>282600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>271900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>261400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>286900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>368300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>340600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>145700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>259200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>282300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>252900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>255500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>876200</v>
+        <v>916800</v>
       </c>
       <c r="E59" s="3">
-        <v>800700</v>
+        <v>846900</v>
       </c>
       <c r="F59" s="3">
-        <v>865400</v>
+        <v>773900</v>
       </c>
       <c r="G59" s="3">
-        <v>789200</v>
+        <v>836500</v>
       </c>
       <c r="H59" s="3">
-        <v>700800</v>
+        <v>762800</v>
       </c>
       <c r="I59" s="3">
-        <v>621100</v>
+        <v>677300</v>
       </c>
       <c r="J59" s="3">
+        <v>600300</v>
+      </c>
+      <c r="K59" s="3">
         <v>585300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>506900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>534000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>442300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>454500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>413200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>462600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>417400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>480800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>492600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>417300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>378600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>385400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1914000</v>
+        <v>2041600</v>
       </c>
       <c r="E60" s="3">
-        <v>1893500</v>
+        <v>1850000</v>
       </c>
       <c r="F60" s="3">
-        <v>1886300</v>
+        <v>1830100</v>
       </c>
       <c r="G60" s="3">
-        <v>2002400</v>
+        <v>1823200</v>
       </c>
       <c r="H60" s="3">
-        <v>1804100</v>
+        <v>1935400</v>
       </c>
       <c r="I60" s="3">
-        <v>1801500</v>
+        <v>1743700</v>
       </c>
       <c r="J60" s="3">
+        <v>1741300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1267400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1137100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1085900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>981200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>987300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>941600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1111800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1002800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>870900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>976000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>929600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>888000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>897500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3587400</v>
+        <v>3618600</v>
       </c>
       <c r="E61" s="3">
-        <v>3396400</v>
+        <v>3467300</v>
       </c>
       <c r="F61" s="3">
-        <v>3093800</v>
+        <v>3282800</v>
       </c>
       <c r="G61" s="3">
-        <v>2704600</v>
+        <v>2990300</v>
       </c>
       <c r="H61" s="3">
-        <v>2929000</v>
+        <v>2614100</v>
       </c>
       <c r="I61" s="3">
-        <v>3024100</v>
+        <v>2831000</v>
       </c>
       <c r="J61" s="3">
+        <v>2922900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2504200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2291700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2086300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2057800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1923500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1921600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2315500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2019000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>749100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>485500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>651400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>668900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>756500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>617600</v>
+        <v>717300</v>
       </c>
       <c r="E62" s="3">
-        <v>639200</v>
+        <v>596900</v>
       </c>
       <c r="F62" s="3">
-        <v>550400</v>
+        <v>617900</v>
       </c>
       <c r="G62" s="3">
-        <v>426300</v>
+        <v>532000</v>
       </c>
       <c r="H62" s="3">
-        <v>403800</v>
+        <v>412000</v>
       </c>
       <c r="I62" s="3">
-        <v>431600</v>
+        <v>390300</v>
       </c>
       <c r="J62" s="3">
+        <v>417200</v>
+      </c>
+      <c r="K62" s="3">
         <v>424100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>182700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>314100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>318900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>316100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>210700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>238300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>235200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>309000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>203000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>187100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>181300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>181500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6119000</v>
+        <v>6377400</v>
       </c>
       <c r="E66" s="3">
-        <v>5929100</v>
+        <v>5914200</v>
       </c>
       <c r="F66" s="3">
-        <v>5530500</v>
+        <v>5730700</v>
       </c>
       <c r="G66" s="3">
-        <v>5133300</v>
+        <v>5345500</v>
       </c>
       <c r="H66" s="3">
-        <v>5136900</v>
+        <v>4961600</v>
       </c>
       <c r="I66" s="3">
-        <v>5257200</v>
+        <v>4965100</v>
       </c>
       <c r="J66" s="3">
+        <v>5081300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4195800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3611600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3486300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3357800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3227000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3074000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3665500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3257000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1929000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1664500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1768000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1738200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1835400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3327600</v>
+        <v>-3611600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3543300</v>
+        <v>-3216300</v>
       </c>
       <c r="F72" s="3">
-        <v>-3029700</v>
+        <v>-3424700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2972300</v>
+        <v>-2928300</v>
       </c>
       <c r="H72" s="3">
-        <v>-2746400</v>
+        <v>-2872900</v>
       </c>
       <c r="I72" s="3">
-        <v>-2167300</v>
+        <v>-2654500</v>
       </c>
       <c r="J72" s="3">
+        <v>-2094800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1032000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-499000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-511200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-575600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-597900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-566100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-703100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-451000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>164700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>96400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>39100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-97500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-112300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2907600</v>
+        <v>-3203700</v>
       </c>
       <c r="E76" s="3">
-        <v>-3123100</v>
+        <v>-2810400</v>
       </c>
       <c r="F76" s="3">
-        <v>-2613300</v>
+        <v>-3018600</v>
       </c>
       <c r="G76" s="3">
-        <v>-2561100</v>
+        <v>-2525800</v>
       </c>
       <c r="H76" s="3">
-        <v>-2336100</v>
+        <v>-2475400</v>
       </c>
       <c r="I76" s="3">
-        <v>-1781700</v>
+        <v>-2258000</v>
       </c>
       <c r="J76" s="3">
+        <v>-1722100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-650000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-121000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-115000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-196100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-215200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-201500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-233100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>715800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>645500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>586600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>263500</v>
-      </c>
-      <c r="V76" s="3">
-        <v>248600</v>
       </c>
       <c r="W76" s="3">
         <v>248600</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>248600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>198200</v>
+        <v>-400500</v>
       </c>
       <c r="E81" s="3">
-        <v>-489900</v>
+        <v>191600</v>
       </c>
       <c r="F81" s="3">
-        <v>-58600</v>
+        <v>-473500</v>
       </c>
       <c r="G81" s="3">
-        <v>-226500</v>
+        <v>-56700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1716000</v>
+        <v>-218900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1133300</v>
+        <v>-1658600</v>
       </c>
       <c r="J81" s="3">
+        <v>-1095400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-452200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-103300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>86400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-184800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>76200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,28 +5217,29 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>64500</v>
+        <v>62400</v>
       </c>
       <c r="E83" s="3">
-        <v>63500</v>
+        <v>62400</v>
       </c>
       <c r="F83" s="3">
-        <v>70700</v>
+        <v>61400</v>
       </c>
       <c r="G83" s="3">
-        <v>82400</v>
+        <v>68400</v>
       </c>
       <c r="H83" s="3">
-        <v>180400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+        <v>79600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>174300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -5051,8 +5250,8 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5075,17 +5274,20 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>18700</v>
       </c>
-      <c r="W83" s="3" t="s">
+      <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40500</v>
+        <v>-12500</v>
       </c>
       <c r="E89" s="3">
-        <v>-66200</v>
+        <v>-39200</v>
       </c>
       <c r="F89" s="3">
-        <v>40000</v>
+        <v>-64000</v>
       </c>
       <c r="G89" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="H89" s="3">
-        <v>101800</v>
+        <v>37200</v>
       </c>
       <c r="I89" s="3">
-        <v>7900</v>
+        <v>98400</v>
       </c>
       <c r="J89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K89" s="3">
         <v>160400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>142600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>181300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>53800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>129100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>111400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>108600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-49800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>79300</v>
       </c>
-      <c r="W89" s="3" t="s">
+      <c r="X89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19500</v>
+        <v>-16900</v>
       </c>
       <c r="E91" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-117400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="T91" s="3">
         <v>-32600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-48900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-41100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-85700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-63500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-117400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-75200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-27400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-70800</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-50600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-77000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32900</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22600</v>
+        <v>-25500</v>
       </c>
       <c r="E94" s="3">
-        <v>-28900</v>
+        <v>-21900</v>
       </c>
       <c r="F94" s="3">
-        <v>3000</v>
+        <v>-27900</v>
       </c>
       <c r="G94" s="3">
-        <v>-19600</v>
+        <v>2900</v>
       </c>
       <c r="H94" s="3">
-        <v>-58000</v>
+        <v>-18900</v>
       </c>
       <c r="I94" s="3">
-        <v>-171400</v>
+        <v>-56100</v>
       </c>
       <c r="J94" s="3">
+        <v>-165700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-99400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-106900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-74600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>85800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-52300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-208400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>31300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-70100</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>456400</v>
+        <v>-123200</v>
       </c>
       <c r="E100" s="3">
-        <v>-54900</v>
+        <v>441100</v>
       </c>
       <c r="F100" s="3">
-        <v>255800</v>
+        <v>-53100</v>
       </c>
       <c r="G100" s="3">
-        <v>-42900</v>
+        <v>247300</v>
       </c>
       <c r="H100" s="3">
-        <v>-40600</v>
+        <v>-41400</v>
       </c>
       <c r="I100" s="3">
-        <v>-30600</v>
+        <v>-39200</v>
       </c>
       <c r="J100" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-46400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-57400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-66900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>25700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>102700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-86100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>270200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-65000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>20400</v>
       </c>
-      <c r="W100" s="3" t="s">
+      <c r="X100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-12100</v>
       </c>
-      <c r="E101" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>381100</v>
+        <v>-126000</v>
       </c>
       <c r="E102" s="3">
-        <v>-145800</v>
+        <v>368400</v>
       </c>
       <c r="F102" s="3">
-        <v>300900</v>
+        <v>-140900</v>
       </c>
       <c r="G102" s="3">
-        <v>-24100</v>
+        <v>290800</v>
       </c>
       <c r="H102" s="3">
-        <v>-15100</v>
+        <v>-23300</v>
       </c>
       <c r="I102" s="3">
-        <v>-206600</v>
+        <v>-14500</v>
       </c>
       <c r="J102" s="3">
+        <v>-199700</v>
+      </c>
+      <c r="K102" s="3">
         <v>23200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>70900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-28300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>29600</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>485200</v>
+        <v>735000</v>
       </c>
       <c r="E8" s="3">
-        <v>303900</v>
+        <v>535600</v>
       </c>
       <c r="F8" s="3">
-        <v>325900</v>
+        <v>335500</v>
       </c>
       <c r="G8" s="3">
-        <v>309600</v>
+        <v>359800</v>
       </c>
       <c r="H8" s="3">
-        <v>143800</v>
+        <v>341800</v>
       </c>
       <c r="I8" s="3">
-        <v>572000</v>
+        <v>158700</v>
       </c>
       <c r="J8" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K8" s="3">
         <v>500300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>568500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>967900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>475700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>459400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>447000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>465700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>511900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>560500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>510700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>440200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>466000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>451700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>235000</v>
+        <v>326700</v>
       </c>
       <c r="E9" s="3">
-        <v>173100</v>
+        <v>259400</v>
       </c>
       <c r="F9" s="3">
-        <v>165600</v>
+        <v>191000</v>
       </c>
       <c r="G9" s="3">
-        <v>142100</v>
+        <v>182800</v>
       </c>
       <c r="H9" s="3">
-        <v>81700</v>
+        <v>156800</v>
       </c>
       <c r="I9" s="3">
-        <v>263100</v>
+        <v>90200</v>
       </c>
       <c r="J9" s="3">
+        <v>290400</v>
+      </c>
+      <c r="K9" s="3">
         <v>219100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>239700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>232100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>402500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>195600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>189700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>197900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>201200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>218700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>307600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>287100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>265500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>270700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>267400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>250200</v>
+        <v>408300</v>
       </c>
       <c r="E10" s="3">
-        <v>130800</v>
+        <v>276200</v>
       </c>
       <c r="F10" s="3">
-        <v>160300</v>
+        <v>144400</v>
       </c>
       <c r="G10" s="3">
-        <v>167600</v>
+        <v>177000</v>
       </c>
       <c r="H10" s="3">
-        <v>62100</v>
+        <v>185000</v>
       </c>
       <c r="I10" s="3">
-        <v>308900</v>
+        <v>68500</v>
       </c>
       <c r="J10" s="3">
+        <v>341000</v>
+      </c>
+      <c r="K10" s="3">
         <v>281200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>360900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>336400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>565400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>280100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>269800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>249100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>264400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>293100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>252800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>223600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>174700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>195300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>184300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,31 +1143,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11300</v>
+        <v>-20600</v>
       </c>
       <c r="E14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>5700</v>
-      </c>
       <c r="G14" s="3">
-        <v>-135200</v>
+        <v>6300</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-149300</v>
       </c>
       <c r="I14" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1168,8 +1187,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1195,76 +1214,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>62400</v>
+        <v>98900</v>
       </c>
       <c r="E15" s="3">
-        <v>62400</v>
+        <v>68800</v>
       </c>
       <c r="F15" s="3">
-        <v>61400</v>
+        <v>68800</v>
       </c>
       <c r="G15" s="3">
-        <v>68400</v>
+        <v>67700</v>
       </c>
       <c r="H15" s="3">
-        <v>79600</v>
+        <v>75500</v>
       </c>
       <c r="I15" s="3">
-        <v>257200</v>
+        <v>87900</v>
       </c>
       <c r="J15" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K15" s="3">
         <v>85800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>464000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>144400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>224100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>70500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>63500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>60400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>75200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>69200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>20700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>19000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>18700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>460800</v>
+        <v>631500</v>
       </c>
       <c r="E17" s="3">
-        <v>375400</v>
+        <v>508700</v>
       </c>
       <c r="F17" s="3">
-        <v>364200</v>
+        <v>414300</v>
       </c>
       <c r="G17" s="3">
-        <v>360800</v>
+        <v>402000</v>
       </c>
       <c r="H17" s="3">
-        <v>188000</v>
+        <v>398200</v>
       </c>
       <c r="I17" s="3">
-        <v>726500</v>
+        <v>207500</v>
       </c>
       <c r="J17" s="3">
+        <v>801900</v>
+      </c>
+      <c r="K17" s="3">
         <v>469300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1049500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>469700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>840200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>410700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>423000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>368200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>419000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>424700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>484200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>448400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>414900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>414100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>409500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24300</v>
+        <v>103400</v>
       </c>
       <c r="E18" s="3">
-        <v>-71400</v>
+        <v>26900</v>
       </c>
       <c r="F18" s="3">
-        <v>-38200</v>
+        <v>-78900</v>
       </c>
       <c r="G18" s="3">
-        <v>-51100</v>
+        <v>-42200</v>
       </c>
       <c r="H18" s="3">
-        <v>-44200</v>
+        <v>-56400</v>
       </c>
       <c r="I18" s="3">
-        <v>-154400</v>
+        <v>-48800</v>
       </c>
       <c r="J18" s="3">
+        <v>-170500</v>
+      </c>
+      <c r="K18" s="3">
         <v>31000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-448800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>98800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>127700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>65000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>46700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>87200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>62300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>51900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>42200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,167 +1480,174 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-416000</v>
+        <v>-279500</v>
       </c>
       <c r="E20" s="3">
-        <v>267200</v>
+        <v>-459200</v>
       </c>
       <c r="F20" s="3">
-        <v>-432700</v>
+        <v>295000</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>-477600</v>
       </c>
       <c r="H20" s="3">
-        <v>-167900</v>
+        <v>5900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1542000</v>
+        <v>-185300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1702100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1171000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-203300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-52900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-221400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-42100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-38300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-329300</v>
+        <v>-77100</v>
       </c>
       <c r="E21" s="3">
-        <v>258200</v>
+        <v>-363500</v>
       </c>
       <c r="F21" s="3">
-        <v>-409500</v>
+        <v>285000</v>
       </c>
       <c r="G21" s="3">
-        <v>22600</v>
+        <v>-452100</v>
       </c>
       <c r="H21" s="3">
-        <v>-132500</v>
+        <v>25000</v>
       </c>
       <c r="I21" s="3">
-        <v>-1522000</v>
+        <v>-146200</v>
       </c>
       <c r="J21" s="3">
+        <v>-1680100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1054200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-207800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>150200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>82600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-168700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>114300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>85500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>52900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>35000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25600</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8900</v>
+        <v>10300</v>
       </c>
       <c r="E22" s="3">
-        <v>4200</v>
+        <v>9800</v>
       </c>
       <c r="F22" s="3">
-        <v>2700</v>
+        <v>4700</v>
       </c>
       <c r="G22" s="3">
-        <v>11800</v>
+        <v>2900</v>
       </c>
       <c r="H22" s="3">
-        <v>2900</v>
+        <v>13000</v>
       </c>
       <c r="I22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>3200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1616,17 +1655,17 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>10100</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400500</v>
+        <v>-186400</v>
       </c>
       <c r="E23" s="3">
-        <v>191600</v>
+        <v>-442100</v>
       </c>
       <c r="F23" s="3">
-        <v>-473500</v>
+        <v>211500</v>
       </c>
       <c r="G23" s="3">
-        <v>-57600</v>
+        <v>-522700</v>
       </c>
       <c r="H23" s="3">
-        <v>-214900</v>
+        <v>-63600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1705000</v>
+        <v>-237300</v>
       </c>
       <c r="J23" s="3">
+        <v>-1882100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1140000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-455800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-104500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-174700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>45100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>94800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1731,65 +1776,68 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>-900</v>
-      </c>
       <c r="H24" s="3">
-        <v>4000</v>
+        <v>-1000</v>
       </c>
       <c r="I24" s="3">
-        <v>-46400</v>
+        <v>4400</v>
       </c>
       <c r="J24" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-44600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-20100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400500</v>
+        <v>-186400</v>
       </c>
       <c r="E26" s="3">
-        <v>191600</v>
+        <v>-442100</v>
       </c>
       <c r="F26" s="3">
-        <v>-473500</v>
+        <v>211500</v>
       </c>
       <c r="G26" s="3">
-        <v>-56600</v>
+        <v>-522700</v>
       </c>
       <c r="H26" s="3">
-        <v>-218900</v>
+        <v>-62500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1658600</v>
+        <v>-241700</v>
       </c>
       <c r="J26" s="3">
+        <v>-1830900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1095400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-452200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-103300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>86400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-184800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>76200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>51100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400500</v>
+        <v>-186400</v>
       </c>
       <c r="E27" s="3">
-        <v>191600</v>
+        <v>-442100</v>
       </c>
       <c r="F27" s="3">
-        <v>-473500</v>
+        <v>211500</v>
       </c>
       <c r="G27" s="3">
-        <v>-56700</v>
+        <v>-522700</v>
       </c>
       <c r="H27" s="3">
-        <v>-218900</v>
+        <v>-62500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1658600</v>
+        <v>-241700</v>
       </c>
       <c r="J27" s="3">
+        <v>-1830900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1095400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-452200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-103300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>86400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-184800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>76200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>51000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>416000</v>
+        <v>279500</v>
       </c>
       <c r="E32" s="3">
-        <v>-267200</v>
+        <v>459200</v>
       </c>
       <c r="F32" s="3">
-        <v>432700</v>
+        <v>-295000</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>477600</v>
       </c>
       <c r="H32" s="3">
-        <v>167900</v>
+        <v>-5900</v>
       </c>
       <c r="I32" s="3">
-        <v>1542000</v>
+        <v>185300</v>
       </c>
       <c r="J32" s="3">
+        <v>1702100</v>
+      </c>
+      <c r="K32" s="3">
         <v>1171000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>203300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>52900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>82000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>221400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>42100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>38300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400500</v>
+        <v>-186400</v>
       </c>
       <c r="E33" s="3">
-        <v>191600</v>
+        <v>-442100</v>
       </c>
       <c r="F33" s="3">
-        <v>-473500</v>
+        <v>211500</v>
       </c>
       <c r="G33" s="3">
-        <v>-56700</v>
+        <v>-522700</v>
       </c>
       <c r="H33" s="3">
-        <v>-218900</v>
+        <v>-62500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1658600</v>
+        <v>-241700</v>
       </c>
       <c r="J33" s="3">
+        <v>-1830900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1095400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-452200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-103300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>86400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-184800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>76200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>51000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400500</v>
+        <v>-186400</v>
       </c>
       <c r="E35" s="3">
-        <v>191600</v>
+        <v>-442100</v>
       </c>
       <c r="F35" s="3">
-        <v>-473500</v>
+        <v>211500</v>
       </c>
       <c r="G35" s="3">
-        <v>-56700</v>
+        <v>-522700</v>
       </c>
       <c r="H35" s="3">
-        <v>-218900</v>
+        <v>-62500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1658600</v>
+        <v>-241700</v>
       </c>
       <c r="J35" s="3">
+        <v>-1830900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1095400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-452200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-103300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>86400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-184800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>76200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>51000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>648600</v>
+        <v>605700</v>
       </c>
       <c r="E41" s="3">
-        <v>774600</v>
+        <v>716000</v>
       </c>
       <c r="F41" s="3">
-        <v>406200</v>
+        <v>855100</v>
       </c>
       <c r="G41" s="3">
-        <v>547100</v>
+        <v>448400</v>
       </c>
       <c r="H41" s="3">
-        <v>256300</v>
+        <v>604000</v>
       </c>
       <c r="I41" s="3">
-        <v>279600</v>
+        <v>282900</v>
       </c>
       <c r="J41" s="3">
+        <v>308700</v>
+      </c>
+      <c r="K41" s="3">
         <v>94500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>304400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>285500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>227500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>437600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>165400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>198300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>172500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>195400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>124600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>128400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>107900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>136200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>200</v>
       </c>
       <c r="F42" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3">
-        <v>16400</v>
+        <v>2100</v>
       </c>
       <c r="H42" s="3">
-        <v>23800</v>
+        <v>18100</v>
       </c>
       <c r="I42" s="3">
-        <v>11600</v>
+        <v>26300</v>
       </c>
       <c r="J42" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K42" s="3">
         <v>131800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>49100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>74300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>193700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>123500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>169400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>146600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>265600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>239200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>227400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>50800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>82200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>318800</v>
+        <v>233300</v>
       </c>
       <c r="E43" s="3">
-        <v>234800</v>
+        <v>351900</v>
       </c>
       <c r="F43" s="3">
-        <v>206400</v>
+        <v>259100</v>
       </c>
       <c r="G43" s="3">
-        <v>202200</v>
+        <v>227800</v>
       </c>
       <c r="H43" s="3">
-        <v>160000</v>
+        <v>223200</v>
       </c>
       <c r="I43" s="3">
-        <v>145400</v>
+        <v>176600</v>
       </c>
       <c r="J43" s="3">
+        <v>160500</v>
+      </c>
+      <c r="K43" s="3">
         <v>191300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>255000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>350500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>341100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>322000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>267000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>309100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>332300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>313500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>263200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>233900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>222000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>167900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>178100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>92800</v>
+        <v>112700</v>
       </c>
       <c r="E44" s="3">
-        <v>85500</v>
+        <v>102400</v>
       </c>
       <c r="F44" s="3">
-        <v>81100</v>
+        <v>94400</v>
       </c>
       <c r="G44" s="3">
-        <v>71900</v>
+        <v>89500</v>
       </c>
       <c r="H44" s="3">
-        <v>67200</v>
+        <v>79300</v>
       </c>
       <c r="I44" s="3">
-        <v>71300</v>
+        <v>74200</v>
       </c>
       <c r="J44" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K44" s="3">
         <v>67900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>49500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>36700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>40000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>40900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>38600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>34500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>33200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>28500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>26600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148500</v>
+        <v>200100</v>
       </c>
       <c r="E45" s="3">
-        <v>110800</v>
+        <v>163900</v>
       </c>
       <c r="F45" s="3">
-        <v>119000</v>
+        <v>122400</v>
       </c>
       <c r="G45" s="3">
-        <v>129500</v>
+        <v>131300</v>
       </c>
       <c r="H45" s="3">
-        <v>136300</v>
+        <v>143000</v>
       </c>
       <c r="I45" s="3">
-        <v>115000</v>
+        <v>150500</v>
       </c>
       <c r="J45" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K45" s="3">
         <v>152300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>145400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>67500</v>
       </c>
       <c r="M45" s="3">
         <v>67500</v>
       </c>
       <c r="N45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="O45" s="3">
         <v>61600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>70500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>67100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>79000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>84100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>50600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>65700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>65500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>50900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1208900</v>
+        <v>1152100</v>
       </c>
       <c r="E46" s="3">
-        <v>1205900</v>
+        <v>1334400</v>
       </c>
       <c r="F46" s="3">
-        <v>814600</v>
+        <v>1331200</v>
       </c>
       <c r="G46" s="3">
-        <v>967100</v>
+        <v>899100</v>
       </c>
       <c r="H46" s="3">
-        <v>643600</v>
+        <v>1067600</v>
       </c>
       <c r="I46" s="3">
-        <v>622900</v>
+        <v>710500</v>
       </c>
       <c r="J46" s="3">
+        <v>687600</v>
+      </c>
+      <c r="K46" s="3">
         <v>637800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>764400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>760800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>728400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>669900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>690500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>675300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>807100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>734800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>847000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>682700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>676700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>420500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>473900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>193800</v>
+        <v>178700</v>
       </c>
       <c r="E47" s="3">
-        <v>183300</v>
+        <v>213900</v>
       </c>
       <c r="F47" s="3">
-        <v>200700</v>
+        <v>202300</v>
       </c>
       <c r="G47" s="3">
-        <v>152500</v>
+        <v>221500</v>
       </c>
       <c r="H47" s="3">
-        <v>209700</v>
+        <v>168400</v>
       </c>
       <c r="I47" s="3">
-        <v>193200</v>
+        <v>231500</v>
       </c>
       <c r="J47" s="3">
+        <v>213200</v>
+      </c>
+      <c r="K47" s="3">
         <v>225800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>303300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>258900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>249900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>299200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>241000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>286400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>333000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>280800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>216800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>209500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>200600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>188600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>189100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1146200</v>
+        <v>1568800</v>
       </c>
       <c r="E48" s="3">
-        <v>1143200</v>
+        <v>1265200</v>
       </c>
       <c r="F48" s="3">
-        <v>1120900</v>
+        <v>1262000</v>
       </c>
       <c r="G48" s="3">
-        <v>1144400</v>
+        <v>1237300</v>
       </c>
       <c r="H48" s="3">
-        <v>948500</v>
+        <v>1263200</v>
       </c>
       <c r="I48" s="3">
-        <v>1181800</v>
+        <v>1047000</v>
       </c>
       <c r="J48" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1713000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1764600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1681400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1665700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1529900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1385000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1289600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1538300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1619300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>852600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>834400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>893200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>840600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>853400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>240200</v>
+        <v>267600</v>
       </c>
       <c r="E49" s="3">
-        <v>236200</v>
+        <v>265100</v>
       </c>
       <c r="F49" s="3">
-        <v>211900</v>
+        <v>260700</v>
       </c>
       <c r="G49" s="3">
-        <v>208900</v>
+        <v>233900</v>
       </c>
       <c r="H49" s="3">
-        <v>205500</v>
+        <v>230600</v>
       </c>
       <c r="I49" s="3">
-        <v>204300</v>
+        <v>226900</v>
       </c>
       <c r="J49" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K49" s="3">
         <v>194400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>200900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>197100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>196200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>192200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>190200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>184700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>227000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>224300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>246400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>243600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>244100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>233900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>233800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>384700</v>
+        <v>485100</v>
       </c>
       <c r="E52" s="3">
-        <v>335200</v>
+        <v>424700</v>
       </c>
       <c r="F52" s="3">
-        <v>364100</v>
+        <v>370000</v>
       </c>
       <c r="G52" s="3">
-        <v>346700</v>
+        <v>401900</v>
       </c>
       <c r="H52" s="3">
-        <v>478800</v>
+        <v>382700</v>
       </c>
       <c r="I52" s="3">
-        <v>504900</v>
+        <v>528500</v>
       </c>
       <c r="J52" s="3">
+        <v>557400</v>
+      </c>
+      <c r="K52" s="3">
         <v>588300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>512600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>592400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>531100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>521300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>505000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>438800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>529700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>452100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>482000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>339700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>340000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>318200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>333700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3173700</v>
+        <v>3652200</v>
       </c>
       <c r="E54" s="3">
-        <v>3103900</v>
+        <v>3503300</v>
       </c>
       <c r="F54" s="3">
-        <v>2712200</v>
+        <v>3426200</v>
       </c>
       <c r="G54" s="3">
-        <v>2819600</v>
+        <v>2993800</v>
       </c>
       <c r="H54" s="3">
-        <v>2486100</v>
+        <v>3112500</v>
       </c>
       <c r="I54" s="3">
-        <v>2707100</v>
+        <v>2744300</v>
       </c>
       <c r="J54" s="3">
+        <v>2988200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3359200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3545800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3490600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3371300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3161700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3011700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2872400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3432500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3311400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2644800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2309900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2354700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2001800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2084000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>389000</v>
+        <v>349900</v>
       </c>
       <c r="E57" s="3">
-        <v>395700</v>
+        <v>429400</v>
       </c>
       <c r="F57" s="3">
-        <v>426100</v>
+        <v>436700</v>
       </c>
       <c r="G57" s="3">
-        <v>427800</v>
+        <v>470300</v>
       </c>
       <c r="H57" s="3">
-        <v>518900</v>
+        <v>472200</v>
       </c>
       <c r="I57" s="3">
-        <v>464000</v>
+        <v>572700</v>
       </c>
       <c r="J57" s="3">
+        <v>512200</v>
+      </c>
+      <c r="K57" s="3">
         <v>376600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>298800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>302500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>307300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>271400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>241600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>280900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>244800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>244500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>224200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>230000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>256500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>256600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>735800</v>
+        <v>890900</v>
       </c>
       <c r="E58" s="3">
-        <v>607500</v>
+        <v>812200</v>
       </c>
       <c r="F58" s="3">
-        <v>630100</v>
+        <v>670600</v>
       </c>
       <c r="G58" s="3">
-        <v>558900</v>
+        <v>695600</v>
       </c>
       <c r="H58" s="3">
-        <v>653800</v>
+        <v>616900</v>
       </c>
       <c r="I58" s="3">
-        <v>602400</v>
+        <v>721700</v>
       </c>
       <c r="J58" s="3">
+        <v>665000</v>
+      </c>
+      <c r="K58" s="3">
         <v>764400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>381700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>331400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>282600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>271900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>261400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>286900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>368300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>340600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>145700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>259200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>282300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>252900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>255500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>916800</v>
+        <v>1066800</v>
       </c>
       <c r="E59" s="3">
-        <v>846900</v>
+        <v>1012000</v>
       </c>
       <c r="F59" s="3">
-        <v>773900</v>
+        <v>934800</v>
       </c>
       <c r="G59" s="3">
-        <v>836500</v>
+        <v>854200</v>
       </c>
       <c r="H59" s="3">
-        <v>762800</v>
+        <v>923300</v>
       </c>
       <c r="I59" s="3">
-        <v>677300</v>
+        <v>842100</v>
       </c>
       <c r="J59" s="3">
+        <v>747700</v>
+      </c>
+      <c r="K59" s="3">
         <v>600300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>585300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>506900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>534000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>442300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>454500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>413200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>462600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>417400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>480800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>492600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>417300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>378600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>385400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2041600</v>
+        <v>2307600</v>
       </c>
       <c r="E60" s="3">
-        <v>1850000</v>
+        <v>2253600</v>
       </c>
       <c r="F60" s="3">
-        <v>1830100</v>
+        <v>2042100</v>
       </c>
       <c r="G60" s="3">
-        <v>1823200</v>
+        <v>2020200</v>
       </c>
       <c r="H60" s="3">
-        <v>1935400</v>
+        <v>2012500</v>
       </c>
       <c r="I60" s="3">
-        <v>1743700</v>
+        <v>2136400</v>
       </c>
       <c r="J60" s="3">
+        <v>1924800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1741300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1267400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1137100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1085900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>981200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>987300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>941600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1111800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1002800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>870900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>976000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>929600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>888000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>897500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3618600</v>
+        <v>4017700</v>
       </c>
       <c r="E61" s="3">
-        <v>3467300</v>
+        <v>3994400</v>
       </c>
       <c r="F61" s="3">
-        <v>3282800</v>
+        <v>3827400</v>
       </c>
       <c r="G61" s="3">
-        <v>2990300</v>
+        <v>3623700</v>
       </c>
       <c r="H61" s="3">
-        <v>2614100</v>
+        <v>3300900</v>
       </c>
       <c r="I61" s="3">
-        <v>2831000</v>
+        <v>2885600</v>
       </c>
       <c r="J61" s="3">
+        <v>3125000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2922900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2504200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2291700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2086300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2057800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1923500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1921600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2315500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2019000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>749100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>485500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>651400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>668900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>756500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>717300</v>
+        <v>939600</v>
       </c>
       <c r="E62" s="3">
-        <v>596900</v>
+        <v>791800</v>
       </c>
       <c r="F62" s="3">
-        <v>617900</v>
+        <v>658900</v>
       </c>
       <c r="G62" s="3">
-        <v>532000</v>
+        <v>682000</v>
       </c>
       <c r="H62" s="3">
-        <v>412000</v>
+        <v>587200</v>
       </c>
       <c r="I62" s="3">
-        <v>390300</v>
+        <v>454800</v>
       </c>
       <c r="J62" s="3">
+        <v>430900</v>
+      </c>
+      <c r="K62" s="3">
         <v>417200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>424100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>182700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>314100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>318900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>316100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>210700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>238300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>235200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>309000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>203000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>187100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>181300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>181500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6377400</v>
+        <v>7264900</v>
       </c>
       <c r="E66" s="3">
-        <v>5914200</v>
+        <v>7039800</v>
       </c>
       <c r="F66" s="3">
-        <v>5730700</v>
+        <v>6528400</v>
       </c>
       <c r="G66" s="3">
-        <v>5345500</v>
+        <v>6325900</v>
       </c>
       <c r="H66" s="3">
-        <v>4961600</v>
+        <v>5900600</v>
       </c>
       <c r="I66" s="3">
-        <v>4965100</v>
+        <v>5476800</v>
       </c>
       <c r="J66" s="3">
+        <v>5480700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5081300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4195800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3611600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3486300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3357800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3227000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3074000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3665500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3257000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1929000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1664500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1768000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1738200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1835400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3611600</v>
+        <v>-4062900</v>
       </c>
       <c r="E72" s="3">
-        <v>-3216300</v>
+        <v>-3986700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3424700</v>
+        <v>-3550300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2928300</v>
+        <v>-3780400</v>
       </c>
       <c r="H72" s="3">
-        <v>-2872900</v>
+        <v>-3232400</v>
       </c>
       <c r="I72" s="3">
-        <v>-2654500</v>
+        <v>-3171200</v>
       </c>
       <c r="J72" s="3">
+        <v>-2930200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2094800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1032000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-499000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-511200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-575600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-597900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-566100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-703100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-451000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>164700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>96400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>39100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-97500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-112300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3203700</v>
+        <v>-3612700</v>
       </c>
       <c r="E76" s="3">
-        <v>-2810400</v>
+        <v>-3536400</v>
       </c>
       <c r="F76" s="3">
-        <v>-3018600</v>
+        <v>-3102200</v>
       </c>
       <c r="G76" s="3">
-        <v>-2525800</v>
+        <v>-3332000</v>
       </c>
       <c r="H76" s="3">
-        <v>-2475400</v>
+        <v>-2788200</v>
       </c>
       <c r="I76" s="3">
-        <v>-2258000</v>
+        <v>-2732500</v>
       </c>
       <c r="J76" s="3">
+        <v>-2492500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1722100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-650000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-121000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-115000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-196100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-215200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-201500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-233100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>54400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>715800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>645500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>586600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>263500</v>
-      </c>
-      <c r="W76" s="3">
-        <v>248600</v>
       </c>
       <c r="X76" s="3">
         <v>248600</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>248600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400500</v>
+        <v>-186400</v>
       </c>
       <c r="E81" s="3">
-        <v>191600</v>
+        <v>-442100</v>
       </c>
       <c r="F81" s="3">
-        <v>-473500</v>
+        <v>211500</v>
       </c>
       <c r="G81" s="3">
-        <v>-56700</v>
+        <v>-522700</v>
       </c>
       <c r="H81" s="3">
-        <v>-218900</v>
+        <v>-62500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1658600</v>
+        <v>-241700</v>
       </c>
       <c r="J81" s="3">
+        <v>-1830900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1095400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-452200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-103300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>86400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-184800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>76200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>51000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,31 +5415,32 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62400</v>
+        <v>98900</v>
       </c>
       <c r="E83" s="3">
-        <v>62400</v>
+        <v>68800</v>
       </c>
       <c r="F83" s="3">
-        <v>61400</v>
+        <v>68800</v>
       </c>
       <c r="G83" s="3">
-        <v>68400</v>
+        <v>67700</v>
       </c>
       <c r="H83" s="3">
-        <v>79600</v>
+        <v>75500</v>
       </c>
       <c r="I83" s="3">
-        <v>174300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>87900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>192400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -5253,8 +5451,8 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5277,17 +5475,20 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18700</v>
       </c>
-      <c r="X83" s="3" t="s">
+      <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12500</v>
+        <v>66400</v>
       </c>
       <c r="E89" s="3">
-        <v>-39200</v>
+        <v>-13800</v>
       </c>
       <c r="F89" s="3">
-        <v>-64000</v>
+        <v>-43200</v>
       </c>
       <c r="G89" s="3">
-        <v>38600</v>
+        <v>-70700</v>
       </c>
       <c r="H89" s="3">
-        <v>37200</v>
+        <v>42600</v>
       </c>
       <c r="I89" s="3">
-        <v>98400</v>
+        <v>41100</v>
       </c>
       <c r="J89" s="3">
+        <v>108700</v>
+      </c>
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>142600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>181300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>53800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>129100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>111400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>88000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>108600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-49800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>79300</v>
       </c>
-      <c r="X89" s="3" t="s">
+      <c r="Y89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16900</v>
+        <v>-48800</v>
       </c>
       <c r="E91" s="3">
-        <v>-18900</v>
+        <v>-18700</v>
       </c>
       <c r="F91" s="3">
-        <v>-31500</v>
+        <v>-20800</v>
       </c>
       <c r="G91" s="3">
-        <v>-6100</v>
+        <v>-34700</v>
       </c>
       <c r="H91" s="3">
-        <v>-7900</v>
+        <v>-6800</v>
       </c>
       <c r="I91" s="3">
-        <v>-47200</v>
+        <v>-8700</v>
       </c>
       <c r="J91" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-39700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-117400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-75200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-70800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-50600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-77000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32900</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25500</v>
+        <v>-56000</v>
       </c>
       <c r="E94" s="3">
-        <v>-21900</v>
+        <v>-28200</v>
       </c>
       <c r="F94" s="3">
-        <v>-27900</v>
+        <v>-24100</v>
       </c>
       <c r="G94" s="3">
-        <v>2900</v>
+        <v>-30800</v>
       </c>
       <c r="H94" s="3">
-        <v>-18900</v>
+        <v>3200</v>
       </c>
       <c r="I94" s="3">
-        <v>-56100</v>
+        <v>-20900</v>
       </c>
       <c r="J94" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-165700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-106900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>85800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-52300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-208400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>31300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-70100</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-123200</v>
+        <v>-128000</v>
       </c>
       <c r="E100" s="3">
-        <v>441100</v>
+        <v>-136000</v>
       </c>
       <c r="F100" s="3">
-        <v>-53100</v>
+        <v>486900</v>
       </c>
       <c r="G100" s="3">
-        <v>247300</v>
+        <v>-58600</v>
       </c>
       <c r="H100" s="3">
+        <v>273000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>16200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-41400</v>
       </c>
-      <c r="I100" s="3">
-        <v>-39200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-29600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-46400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-57400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-66900</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>16200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-41400</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>25700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-31400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>102700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-86100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>270200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-65000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>20400</v>
       </c>
-      <c r="X100" s="3" t="s">
+      <c r="Y100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>35200</v>
+        <v>7400</v>
       </c>
       <c r="E101" s="3">
-        <v>-11700</v>
+        <v>38800</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>-12900</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="H101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>-17700</v>
-      </c>
       <c r="J101" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-126000</v>
+        <v>-110200</v>
       </c>
       <c r="E102" s="3">
-        <v>368400</v>
+        <v>-139100</v>
       </c>
       <c r="F102" s="3">
-        <v>-140900</v>
+        <v>406700</v>
       </c>
       <c r="G102" s="3">
-        <v>290800</v>
+        <v>-155600</v>
       </c>
       <c r="H102" s="3">
-        <v>-23300</v>
+        <v>321000</v>
       </c>
       <c r="I102" s="3">
-        <v>-14500</v>
+        <v>-25800</v>
       </c>
       <c r="J102" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-199700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>58000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-48800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>70900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-28300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>29600</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>735000</v>
+        <v>621900</v>
       </c>
       <c r="E8" s="3">
-        <v>535600</v>
+        <v>726500</v>
       </c>
       <c r="F8" s="3">
-        <v>335500</v>
+        <v>529400</v>
       </c>
       <c r="G8" s="3">
-        <v>359800</v>
+        <v>331600</v>
       </c>
       <c r="H8" s="3">
-        <v>341800</v>
+        <v>355600</v>
       </c>
       <c r="I8" s="3">
-        <v>158700</v>
+        <v>337800</v>
       </c>
       <c r="J8" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K8" s="3">
         <v>631400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>568500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>967900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>475700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>459400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>447000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>465700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>511900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>560500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>510700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>440200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>466000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>451700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>326700</v>
+        <v>325000</v>
       </c>
       <c r="E9" s="3">
-        <v>259400</v>
+        <v>324100</v>
       </c>
       <c r="F9" s="3">
-        <v>191000</v>
+        <v>256300</v>
       </c>
       <c r="G9" s="3">
-        <v>182800</v>
+        <v>188800</v>
       </c>
       <c r="H9" s="3">
-        <v>156800</v>
+        <v>180700</v>
       </c>
       <c r="I9" s="3">
-        <v>90200</v>
+        <v>155000</v>
       </c>
       <c r="J9" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K9" s="3">
         <v>290400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>219100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>239700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>232100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>402500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>195600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>189700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>197900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>201200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>218700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>307600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>287100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>265500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>270700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>267400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>408300</v>
+        <v>297000</v>
       </c>
       <c r="E10" s="3">
-        <v>276200</v>
+        <v>402400</v>
       </c>
       <c r="F10" s="3">
-        <v>144400</v>
+        <v>273000</v>
       </c>
       <c r="G10" s="3">
-        <v>177000</v>
+        <v>142800</v>
       </c>
       <c r="H10" s="3">
-        <v>185000</v>
+        <v>175000</v>
       </c>
       <c r="I10" s="3">
-        <v>68500</v>
+        <v>182800</v>
       </c>
       <c r="J10" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K10" s="3">
         <v>341000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>281200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>360900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>336400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>565400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>280100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>269800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>249100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>264400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>293100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>252800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>223600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>174700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>195300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>184300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,34 +1163,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-20600</v>
+        <v>42900</v>
       </c>
       <c r="E14" s="3">
-        <v>12400</v>
+        <v>-229900</v>
       </c>
       <c r="F14" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>6300</v>
-      </c>
       <c r="H14" s="3">
-        <v>-149300</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-147600</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1190,8 +1210,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1217,79 +1237,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>98900</v>
+        <v>101700</v>
       </c>
       <c r="E15" s="3">
-        <v>68800</v>
+        <v>97800</v>
       </c>
       <c r="F15" s="3">
-        <v>68800</v>
+        <v>68000</v>
       </c>
       <c r="G15" s="3">
-        <v>67700</v>
+        <v>68000</v>
       </c>
       <c r="H15" s="3">
-        <v>75500</v>
+        <v>66900</v>
       </c>
       <c r="I15" s="3">
-        <v>87900</v>
+        <v>74600</v>
       </c>
       <c r="J15" s="3">
+        <v>86900</v>
+      </c>
+      <c r="K15" s="3">
         <v>283900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>85800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>464000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>144400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>224100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>70500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>63500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>60400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>75200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>69200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>22900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>20700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>19000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>18700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>631500</v>
+        <v>608200</v>
       </c>
       <c r="E17" s="3">
-        <v>508700</v>
+        <v>622700</v>
       </c>
       <c r="F17" s="3">
-        <v>414300</v>
+        <v>502800</v>
       </c>
       <c r="G17" s="3">
-        <v>402000</v>
+        <v>409500</v>
       </c>
       <c r="H17" s="3">
-        <v>398200</v>
+        <v>397300</v>
       </c>
       <c r="I17" s="3">
-        <v>207500</v>
+        <v>393600</v>
       </c>
       <c r="J17" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K17" s="3">
         <v>801900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>469300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1049500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>469700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>840200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>410700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>423000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>368200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>419000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>424700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>484200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>448400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>414900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>414100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>409500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>103400</v>
+        <v>13800</v>
       </c>
       <c r="E18" s="3">
-        <v>26900</v>
+        <v>103800</v>
       </c>
       <c r="F18" s="3">
-        <v>-78900</v>
+        <v>26500</v>
       </c>
       <c r="G18" s="3">
-        <v>-42200</v>
+        <v>-78000</v>
       </c>
       <c r="H18" s="3">
-        <v>-56400</v>
+        <v>-41700</v>
       </c>
       <c r="I18" s="3">
-        <v>-48800</v>
+        <v>-55800</v>
       </c>
       <c r="J18" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-170500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-448800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>98800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>127700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>65000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>78800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>46700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>87200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>62300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>25300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>51900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>42200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,176 +1514,183 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-279500</v>
+        <v>515900</v>
       </c>
       <c r="E20" s="3">
-        <v>-459200</v>
+        <v>-179800</v>
       </c>
       <c r="F20" s="3">
-        <v>295000</v>
+        <v>-453900</v>
       </c>
       <c r="G20" s="3">
-        <v>-477600</v>
+        <v>291600</v>
       </c>
       <c r="H20" s="3">
-        <v>5900</v>
+        <v>-472100</v>
       </c>
       <c r="I20" s="3">
-        <v>-185300</v>
+        <v>5800</v>
       </c>
       <c r="J20" s="3">
+        <v>-183200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1702100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1171000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-203300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-51300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-52900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-82000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-221400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-42100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>18600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-38300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-77100</v>
+        <v>631400</v>
       </c>
       <c r="E21" s="3">
-        <v>-363500</v>
+        <v>21800</v>
       </c>
       <c r="F21" s="3">
-        <v>285000</v>
+        <v>-359300</v>
       </c>
       <c r="G21" s="3">
-        <v>-452100</v>
+        <v>281700</v>
       </c>
       <c r="H21" s="3">
-        <v>25000</v>
+        <v>-446800</v>
       </c>
       <c r="I21" s="3">
-        <v>-146200</v>
+        <v>24700</v>
       </c>
       <c r="J21" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1680100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1054200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-207800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>82600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-168700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>114300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>52900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>35000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>25600</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>9800</v>
+        <v>11800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>4700</v>
+        <v>9700</v>
       </c>
       <c r="G22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
-        <v>13000</v>
-      </c>
       <c r="I22" s="3">
-        <v>3200</v>
+        <v>12900</v>
       </c>
       <c r="J22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K22" s="3">
         <v>9500</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1658,17 +1698,17 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>10100</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-186400</v>
+        <v>517900</v>
       </c>
       <c r="E23" s="3">
-        <v>-442100</v>
+        <v>-76000</v>
       </c>
       <c r="F23" s="3">
-        <v>211500</v>
+        <v>-437000</v>
       </c>
       <c r="G23" s="3">
-        <v>-522700</v>
+        <v>209000</v>
       </c>
       <c r="H23" s="3">
-        <v>-63600</v>
+        <v>-516700</v>
       </c>
       <c r="I23" s="3">
-        <v>-237300</v>
+        <v>-62800</v>
       </c>
       <c r="J23" s="3">
+        <v>-234500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1882100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1140000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-455800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-104500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-174700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>45100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>94800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>16000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-51200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-44600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-20100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-186400</v>
+        <v>517900</v>
       </c>
       <c r="E26" s="3">
-        <v>-442100</v>
+        <v>-76000</v>
       </c>
       <c r="F26" s="3">
-        <v>211500</v>
+        <v>-437000</v>
       </c>
       <c r="G26" s="3">
-        <v>-522700</v>
+        <v>209000</v>
       </c>
       <c r="H26" s="3">
-        <v>-62500</v>
+        <v>-516700</v>
       </c>
       <c r="I26" s="3">
-        <v>-241700</v>
+        <v>-61800</v>
       </c>
       <c r="J26" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1830900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1095400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-452200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-103300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>86400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-184800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>51100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-186400</v>
+        <v>517900</v>
       </c>
       <c r="E27" s="3">
-        <v>-442100</v>
+        <v>-76000</v>
       </c>
       <c r="F27" s="3">
-        <v>211500</v>
+        <v>-437000</v>
       </c>
       <c r="G27" s="3">
-        <v>-522700</v>
+        <v>209000</v>
       </c>
       <c r="H27" s="3">
-        <v>-62500</v>
+        <v>-516700</v>
       </c>
       <c r="I27" s="3">
-        <v>-241700</v>
+        <v>-61800</v>
       </c>
       <c r="J27" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1830900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1095400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-452200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-103300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>86400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-184800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>51000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>279500</v>
+        <v>-515900</v>
       </c>
       <c r="E32" s="3">
-        <v>459200</v>
+        <v>179800</v>
       </c>
       <c r="F32" s="3">
-        <v>-295000</v>
+        <v>453900</v>
       </c>
       <c r="G32" s="3">
-        <v>477600</v>
+        <v>-291600</v>
       </c>
       <c r="H32" s="3">
-        <v>-5900</v>
+        <v>472100</v>
       </c>
       <c r="I32" s="3">
-        <v>185300</v>
+        <v>-5800</v>
       </c>
       <c r="J32" s="3">
+        <v>183200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1702100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1171000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>203300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>51300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>52900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>82000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>221400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>42100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-18600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>38300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-186400</v>
+        <v>517900</v>
       </c>
       <c r="E33" s="3">
-        <v>-442100</v>
+        <v>-76000</v>
       </c>
       <c r="F33" s="3">
-        <v>211500</v>
+        <v>-437000</v>
       </c>
       <c r="G33" s="3">
-        <v>-522700</v>
+        <v>209000</v>
       </c>
       <c r="H33" s="3">
-        <v>-62500</v>
+        <v>-516700</v>
       </c>
       <c r="I33" s="3">
-        <v>-241700</v>
+        <v>-61800</v>
       </c>
       <c r="J33" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1830900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1095400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-452200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-103300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>86400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-184800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>76200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>51000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-186400</v>
+        <v>517900</v>
       </c>
       <c r="E35" s="3">
-        <v>-442100</v>
+        <v>-76000</v>
       </c>
       <c r="F35" s="3">
-        <v>211500</v>
+        <v>-437000</v>
       </c>
       <c r="G35" s="3">
-        <v>-522700</v>
+        <v>209000</v>
       </c>
       <c r="H35" s="3">
-        <v>-62500</v>
+        <v>-516700</v>
       </c>
       <c r="I35" s="3">
-        <v>-241700</v>
+        <v>-61800</v>
       </c>
       <c r="J35" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1830900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1095400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-452200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-103300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>86400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-184800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>76200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>51000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>605700</v>
+        <v>361900</v>
       </c>
       <c r="E41" s="3">
-        <v>716000</v>
+        <v>598700</v>
       </c>
       <c r="F41" s="3">
-        <v>855100</v>
+        <v>707700</v>
       </c>
       <c r="G41" s="3">
-        <v>448400</v>
+        <v>845200</v>
       </c>
       <c r="H41" s="3">
-        <v>604000</v>
+        <v>443200</v>
       </c>
       <c r="I41" s="3">
-        <v>282900</v>
+        <v>597000</v>
       </c>
       <c r="J41" s="3">
+        <v>279600</v>
+      </c>
+      <c r="K41" s="3">
         <v>308700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>304400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>285500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>227500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>170000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>437600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>165400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>198300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>172500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>195400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>124600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>128400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>107900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>136200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2827,567 +2917,591 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>200</v>
       </c>
       <c r="G42" s="3">
+        <v>200</v>
+      </c>
+      <c r="H42" s="3">
         <v>2100</v>
       </c>
-      <c r="H42" s="3">
-        <v>18100</v>
-      </c>
       <c r="I42" s="3">
-        <v>26300</v>
+        <v>17900</v>
       </c>
       <c r="J42" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K42" s="3">
         <v>12700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>131800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>49100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>74300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>193700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>123500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>169400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>146600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>265600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>239200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>227400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>50800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>82200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>233300</v>
+        <v>302200</v>
       </c>
       <c r="E43" s="3">
-        <v>351900</v>
+        <v>230600</v>
       </c>
       <c r="F43" s="3">
-        <v>259100</v>
+        <v>347800</v>
       </c>
       <c r="G43" s="3">
-        <v>227800</v>
+        <v>256100</v>
       </c>
       <c r="H43" s="3">
-        <v>223200</v>
+        <v>225200</v>
       </c>
       <c r="I43" s="3">
-        <v>176600</v>
+        <v>220600</v>
       </c>
       <c r="J43" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K43" s="3">
         <v>160500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>191300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>255000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>350500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>341100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>322000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>267000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>309100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>332300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>313500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>263200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>233900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>222000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>167900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>178100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>112700</v>
+        <v>117200</v>
       </c>
       <c r="E44" s="3">
-        <v>102400</v>
+        <v>111400</v>
       </c>
       <c r="F44" s="3">
-        <v>94400</v>
+        <v>101200</v>
       </c>
       <c r="G44" s="3">
-        <v>89500</v>
+        <v>93300</v>
       </c>
       <c r="H44" s="3">
-        <v>79300</v>
+        <v>88500</v>
       </c>
       <c r="I44" s="3">
-        <v>74200</v>
+        <v>78400</v>
       </c>
       <c r="J44" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K44" s="3">
         <v>78700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>49500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>43100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>36700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>40000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>40900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>38600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>34500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>33200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>28500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>26600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200100</v>
+        <v>198200</v>
       </c>
       <c r="E45" s="3">
-        <v>163900</v>
+        <v>197800</v>
       </c>
       <c r="F45" s="3">
-        <v>122400</v>
+        <v>162000</v>
       </c>
       <c r="G45" s="3">
-        <v>131300</v>
+        <v>120900</v>
       </c>
       <c r="H45" s="3">
-        <v>143000</v>
+        <v>129800</v>
       </c>
       <c r="I45" s="3">
-        <v>150500</v>
+        <v>141300</v>
       </c>
       <c r="J45" s="3">
+        <v>148800</v>
+      </c>
+      <c r="K45" s="3">
         <v>127000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>152300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>145400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>67500</v>
       </c>
       <c r="N45" s="3">
         <v>67500</v>
       </c>
       <c r="O45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="P45" s="3">
         <v>61600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>67100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>79000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>84100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>50600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>65700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>65500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>50900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1152100</v>
+        <v>979800</v>
       </c>
       <c r="E46" s="3">
-        <v>1334400</v>
+        <v>1138700</v>
       </c>
       <c r="F46" s="3">
-        <v>1331200</v>
+        <v>1319000</v>
       </c>
       <c r="G46" s="3">
-        <v>899100</v>
+        <v>1315800</v>
       </c>
       <c r="H46" s="3">
-        <v>1067600</v>
+        <v>888700</v>
       </c>
       <c r="I46" s="3">
-        <v>710500</v>
+        <v>1055200</v>
       </c>
       <c r="J46" s="3">
+        <v>702200</v>
+      </c>
+      <c r="K46" s="3">
         <v>687600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>637800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>764400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>760800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>728400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>669900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>690500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>675300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>807100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>734800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>847000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>682700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>676700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>420500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>473900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>178700</v>
+        <v>140700</v>
       </c>
       <c r="E47" s="3">
-        <v>213900</v>
+        <v>176600</v>
       </c>
       <c r="F47" s="3">
-        <v>202300</v>
+        <v>211400</v>
       </c>
       <c r="G47" s="3">
-        <v>221500</v>
+        <v>199900</v>
       </c>
       <c r="H47" s="3">
-        <v>168400</v>
+        <v>219000</v>
       </c>
       <c r="I47" s="3">
-        <v>231500</v>
+        <v>166400</v>
       </c>
       <c r="J47" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K47" s="3">
         <v>213200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>225800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>303300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>258900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>249900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>299200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>241000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>286400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>333000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>280800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>216800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>209500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>200600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>188600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>189100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1568800</v>
+        <v>1603500</v>
       </c>
       <c r="E48" s="3">
-        <v>1265200</v>
+        <v>1550600</v>
       </c>
       <c r="F48" s="3">
-        <v>1262000</v>
+        <v>1250500</v>
       </c>
       <c r="G48" s="3">
-        <v>1237300</v>
+        <v>1247400</v>
       </c>
       <c r="H48" s="3">
-        <v>1263200</v>
+        <v>1223000</v>
       </c>
       <c r="I48" s="3">
-        <v>1047000</v>
+        <v>1248600</v>
       </c>
       <c r="J48" s="3">
+        <v>1034900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1304600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1713000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1764600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1681400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1665700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1529900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1385000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1289600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1538300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1619300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>852600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>834400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>893200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>840600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>853400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>267600</v>
+        <v>267400</v>
       </c>
       <c r="E49" s="3">
-        <v>265100</v>
+        <v>264500</v>
       </c>
       <c r="F49" s="3">
-        <v>260700</v>
+        <v>262100</v>
       </c>
       <c r="G49" s="3">
+        <v>257700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>231200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>227900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>224300</v>
+      </c>
+      <c r="K49" s="3">
+        <v>225500</v>
+      </c>
+      <c r="L49" s="3">
+        <v>194400</v>
+      </c>
+      <c r="M49" s="3">
+        <v>200900</v>
+      </c>
+      <c r="N49" s="3">
+        <v>197100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>196200</v>
+      </c>
+      <c r="P49" s="3">
+        <v>192200</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>190200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>184700</v>
+      </c>
+      <c r="S49" s="3">
+        <v>227000</v>
+      </c>
+      <c r="T49" s="3">
+        <v>224300</v>
+      </c>
+      <c r="U49" s="3">
+        <v>246400</v>
+      </c>
+      <c r="V49" s="3">
+        <v>243600</v>
+      </c>
+      <c r="W49" s="3">
+        <v>244100</v>
+      </c>
+      <c r="X49" s="3">
         <v>233900</v>
       </c>
-      <c r="H49" s="3">
-        <v>230600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>226900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>225500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>194400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>200900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>197100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>196200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>192200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>190200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>184700</v>
-      </c>
-      <c r="R49" s="3">
-        <v>227000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>224300</v>
-      </c>
-      <c r="T49" s="3">
-        <v>246400</v>
-      </c>
-      <c r="U49" s="3">
-        <v>243600</v>
-      </c>
-      <c r="V49" s="3">
-        <v>244100</v>
-      </c>
-      <c r="W49" s="3">
-        <v>233900</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>233800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>485100</v>
+        <v>472900</v>
       </c>
       <c r="E52" s="3">
-        <v>424700</v>
+        <v>479500</v>
       </c>
       <c r="F52" s="3">
-        <v>370000</v>
+        <v>419800</v>
       </c>
       <c r="G52" s="3">
-        <v>401900</v>
+        <v>365800</v>
       </c>
       <c r="H52" s="3">
-        <v>382700</v>
+        <v>397300</v>
       </c>
       <c r="I52" s="3">
-        <v>528500</v>
+        <v>378200</v>
       </c>
       <c r="J52" s="3">
+        <v>522400</v>
+      </c>
+      <c r="K52" s="3">
         <v>557400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>588300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>512600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>592400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>531100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>521300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>505000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>438800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>529700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>452100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>482000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>339700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>340000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>318200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>333700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3652200</v>
+        <v>3464300</v>
       </c>
       <c r="E54" s="3">
-        <v>3503300</v>
+        <v>3609900</v>
       </c>
       <c r="F54" s="3">
-        <v>3426200</v>
+        <v>3462800</v>
       </c>
       <c r="G54" s="3">
-        <v>2993800</v>
+        <v>3386600</v>
       </c>
       <c r="H54" s="3">
-        <v>3112500</v>
+        <v>2959200</v>
       </c>
       <c r="I54" s="3">
-        <v>2744300</v>
+        <v>3076400</v>
       </c>
       <c r="J54" s="3">
+        <v>2712600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2988200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3359200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3545800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3490600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3371300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3161700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3011700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2872400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3432500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3311400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2644800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2309900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2354700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2001800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2084000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>349900</v>
+        <v>400300</v>
       </c>
       <c r="E57" s="3">
-        <v>429400</v>
+        <v>345800</v>
       </c>
       <c r="F57" s="3">
-        <v>436700</v>
+        <v>424400</v>
       </c>
       <c r="G57" s="3">
-        <v>470300</v>
+        <v>431700</v>
       </c>
       <c r="H57" s="3">
-        <v>472200</v>
+        <v>464900</v>
       </c>
       <c r="I57" s="3">
-        <v>572700</v>
+        <v>466800</v>
       </c>
       <c r="J57" s="3">
+        <v>566100</v>
+      </c>
+      <c r="K57" s="3">
         <v>512200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>376600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>298800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>302500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>307300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>271400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>241600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>280900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>244800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>244500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>224200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>230000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>256500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>256600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>890900</v>
+        <v>880500</v>
       </c>
       <c r="E58" s="3">
-        <v>812200</v>
+        <v>880600</v>
       </c>
       <c r="F58" s="3">
-        <v>670600</v>
+        <v>802800</v>
       </c>
       <c r="G58" s="3">
-        <v>695600</v>
+        <v>662800</v>
       </c>
       <c r="H58" s="3">
-        <v>616900</v>
+        <v>687500</v>
       </c>
       <c r="I58" s="3">
-        <v>721700</v>
+        <v>609800</v>
       </c>
       <c r="J58" s="3">
+        <v>713300</v>
+      </c>
+      <c r="K58" s="3">
         <v>665000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>764400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>381700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>331400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>282600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>271900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>261400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>286900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>368300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>340600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>145700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>259200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>282300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>252900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>255500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1066800</v>
+        <v>1016800</v>
       </c>
       <c r="E59" s="3">
-        <v>1012000</v>
+        <v>1054500</v>
       </c>
       <c r="F59" s="3">
-        <v>934800</v>
+        <v>1000300</v>
       </c>
       <c r="G59" s="3">
-        <v>854200</v>
+        <v>924000</v>
       </c>
       <c r="H59" s="3">
-        <v>923300</v>
+        <v>844400</v>
       </c>
       <c r="I59" s="3">
-        <v>842100</v>
+        <v>912600</v>
       </c>
       <c r="J59" s="3">
+        <v>832300</v>
+      </c>
+      <c r="K59" s="3">
         <v>747700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>585300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>506900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>534000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>442300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>454500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>413200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>462600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>417400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>480800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>492600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>417300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>378600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>385400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2307600</v>
+        <v>2297600</v>
       </c>
       <c r="E60" s="3">
-        <v>2253600</v>
+        <v>2280900</v>
       </c>
       <c r="F60" s="3">
-        <v>2042100</v>
+        <v>2227500</v>
       </c>
       <c r="G60" s="3">
-        <v>2020200</v>
+        <v>2018500</v>
       </c>
       <c r="H60" s="3">
-        <v>2012500</v>
+        <v>1996800</v>
       </c>
       <c r="I60" s="3">
-        <v>2136400</v>
+        <v>1989200</v>
       </c>
       <c r="J60" s="3">
+        <v>2111700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1924800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1741300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1267400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1137100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1085900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>981200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>987300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>941600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1111800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1002800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>870900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>976000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>929600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>888000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>897500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4017700</v>
+        <v>3349700</v>
       </c>
       <c r="E61" s="3">
-        <v>3994400</v>
+        <v>3971200</v>
       </c>
       <c r="F61" s="3">
-        <v>3827400</v>
+        <v>3948200</v>
       </c>
       <c r="G61" s="3">
-        <v>3623700</v>
+        <v>3783100</v>
       </c>
       <c r="H61" s="3">
-        <v>3300900</v>
+        <v>3581800</v>
       </c>
       <c r="I61" s="3">
-        <v>2885600</v>
+        <v>3262700</v>
       </c>
       <c r="J61" s="3">
+        <v>2852200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3125000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2922900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2504200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2291700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2086300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2057800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1923500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1921600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2315500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2019000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>749100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>485500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>651400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>668900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>756500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>939600</v>
+        <v>863100</v>
       </c>
       <c r="E62" s="3">
-        <v>791800</v>
+        <v>928700</v>
       </c>
       <c r="F62" s="3">
-        <v>658900</v>
+        <v>782600</v>
       </c>
       <c r="G62" s="3">
-        <v>682000</v>
+        <v>651300</v>
       </c>
       <c r="H62" s="3">
-        <v>587200</v>
+        <v>674100</v>
       </c>
       <c r="I62" s="3">
-        <v>454800</v>
+        <v>580400</v>
       </c>
       <c r="J62" s="3">
+        <v>449500</v>
+      </c>
+      <c r="K62" s="3">
         <v>430900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>417200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>424100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>182700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>314100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>318900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>316100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>210700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>238300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>235200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>309000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>203000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>187100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>181300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>181500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7264900</v>
+        <v>6510400</v>
       </c>
       <c r="E66" s="3">
-        <v>7039800</v>
+        <v>7180900</v>
       </c>
       <c r="F66" s="3">
-        <v>6528400</v>
+        <v>6958300</v>
       </c>
       <c r="G66" s="3">
-        <v>6325900</v>
+        <v>6452900</v>
       </c>
       <c r="H66" s="3">
-        <v>5900600</v>
+        <v>6252700</v>
       </c>
       <c r="I66" s="3">
-        <v>5476800</v>
+        <v>5832300</v>
       </c>
       <c r="J66" s="3">
+        <v>5413500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5480700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5081300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4195800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3611600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3486300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3357800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3227000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3074000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3665500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3257000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1929000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1664500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1768000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1738200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1835400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4062900</v>
+        <v>-3495600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3986700</v>
+        <v>-4015900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3550300</v>
+        <v>-3940600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3780400</v>
+        <v>-3509200</v>
       </c>
       <c r="H72" s="3">
-        <v>-3232400</v>
+        <v>-3736700</v>
       </c>
       <c r="I72" s="3">
-        <v>-3171200</v>
+        <v>-3195000</v>
       </c>
       <c r="J72" s="3">
+        <v>-3134500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2930200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2094800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1032000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-499000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-511200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-575600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-597900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-566100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-703100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-451000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>164700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>96400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>39100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-97500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-112300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3612700</v>
+        <v>-3046100</v>
       </c>
       <c r="E76" s="3">
-        <v>-3536400</v>
+        <v>-3570900</v>
       </c>
       <c r="F76" s="3">
-        <v>-3102200</v>
+        <v>-3495500</v>
       </c>
       <c r="G76" s="3">
-        <v>-3332000</v>
+        <v>-3066300</v>
       </c>
       <c r="H76" s="3">
-        <v>-2788200</v>
+        <v>-3293500</v>
       </c>
       <c r="I76" s="3">
-        <v>-2732500</v>
+        <v>-2755900</v>
       </c>
       <c r="J76" s="3">
+        <v>-2700900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2492500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1722100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-650000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-121000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-115000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-196100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-215200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-201500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-233100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>54400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>715800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>645500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>586600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>263500</v>
-      </c>
-      <c r="X76" s="3">
-        <v>248600</v>
       </c>
       <c r="Y76" s="3">
         <v>248600</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>248600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-186400</v>
+        <v>517900</v>
       </c>
       <c r="E81" s="3">
-        <v>-442100</v>
+        <v>-76000</v>
       </c>
       <c r="F81" s="3">
-        <v>211500</v>
+        <v>-437000</v>
       </c>
       <c r="G81" s="3">
-        <v>-522700</v>
+        <v>209000</v>
       </c>
       <c r="H81" s="3">
-        <v>-62500</v>
+        <v>-516700</v>
       </c>
       <c r="I81" s="3">
-        <v>-241700</v>
+        <v>-61800</v>
       </c>
       <c r="J81" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1830900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1095400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-452200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-103300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>86400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-184800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>76200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>51000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,34 +5614,35 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>98900</v>
+        <v>101700</v>
       </c>
       <c r="E83" s="3">
-        <v>68800</v>
+        <v>97800</v>
       </c>
       <c r="F83" s="3">
-        <v>68800</v>
+        <v>68000</v>
       </c>
       <c r="G83" s="3">
-        <v>67700</v>
+        <v>68000</v>
       </c>
       <c r="H83" s="3">
-        <v>75500</v>
+        <v>66900</v>
       </c>
       <c r="I83" s="3">
-        <v>87900</v>
+        <v>74600</v>
       </c>
       <c r="J83" s="3">
+        <v>86900</v>
+      </c>
+      <c r="K83" s="3">
         <v>192400</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
@@ -5454,8 +5653,8 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5478,17 +5677,20 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18700</v>
       </c>
-      <c r="Y83" s="3" t="s">
+      <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66400</v>
+        <v>-46300</v>
       </c>
       <c r="E89" s="3">
-        <v>-13800</v>
+        <v>65700</v>
       </c>
       <c r="F89" s="3">
-        <v>-43200</v>
+        <v>-13600</v>
       </c>
       <c r="G89" s="3">
-        <v>-70700</v>
+        <v>-42700</v>
       </c>
       <c r="H89" s="3">
-        <v>42600</v>
+        <v>-69800</v>
       </c>
       <c r="I89" s="3">
-        <v>41100</v>
+        <v>42200</v>
       </c>
       <c r="J89" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K89" s="3">
         <v>108700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>160400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>142600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>181300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>53800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>129100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>111400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>88000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>108600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-49800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>79300</v>
       </c>
-      <c r="Y89" s="3" t="s">
+      <c r="Z89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-48800</v>
+        <v>-35900</v>
       </c>
       <c r="E91" s="3">
-        <v>-18700</v>
+        <v>-48200</v>
       </c>
       <c r="F91" s="3">
-        <v>-20800</v>
+        <v>-18500</v>
       </c>
       <c r="G91" s="3">
-        <v>-34700</v>
+        <v>-20600</v>
       </c>
       <c r="H91" s="3">
-        <v>-6800</v>
+        <v>-34300</v>
       </c>
       <c r="I91" s="3">
-        <v>-8700</v>
+        <v>-6700</v>
       </c>
       <c r="J91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-52100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-117400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-75200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-70800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-50600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-77000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-56000</v>
+        <v>-44200</v>
       </c>
       <c r="E94" s="3">
-        <v>-28200</v>
+        <v>-55400</v>
       </c>
       <c r="F94" s="3">
-        <v>-24100</v>
+        <v>-27900</v>
       </c>
       <c r="G94" s="3">
-        <v>-30800</v>
+        <v>-23800</v>
       </c>
       <c r="H94" s="3">
-        <v>3200</v>
+        <v>-30500</v>
       </c>
       <c r="I94" s="3">
-        <v>-20900</v>
+        <v>3100</v>
       </c>
       <c r="J94" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-61900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-165700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-106900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>85800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-52300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-208400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>31300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-70100</v>
       </c>
-      <c r="Y94" s="3" t="s">
+      <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-128000</v>
+        <v>-137000</v>
       </c>
       <c r="E100" s="3">
-        <v>-136000</v>
+        <v>-126600</v>
       </c>
       <c r="F100" s="3">
-        <v>486900</v>
+        <v>-134400</v>
       </c>
       <c r="G100" s="3">
-        <v>-58600</v>
+        <v>481300</v>
       </c>
       <c r="H100" s="3">
-        <v>273000</v>
+        <v>-57900</v>
       </c>
       <c r="I100" s="3">
-        <v>-45700</v>
+        <v>269800</v>
       </c>
       <c r="J100" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-43300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-46400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-57400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-66900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>25700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>102700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-86100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>270200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-65000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>20400</v>
       </c>
-      <c r="Y100" s="3" t="s">
+      <c r="Z100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7400</v>
+        <v>-9300</v>
       </c>
       <c r="E101" s="3">
-        <v>38800</v>
+        <v>7300</v>
       </c>
       <c r="F101" s="3">
-        <v>-12900</v>
+        <v>38400</v>
       </c>
       <c r="G101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="H101" s="3">
         <v>4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-19500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-110200</v>
+        <v>-236900</v>
       </c>
       <c r="E102" s="3">
-        <v>-139100</v>
+        <v>-109000</v>
       </c>
       <c r="F102" s="3">
-        <v>406700</v>
+        <v>-137500</v>
       </c>
       <c r="G102" s="3">
-        <v>-155600</v>
+        <v>401900</v>
       </c>
       <c r="H102" s="3">
-        <v>321000</v>
+        <v>-153800</v>
       </c>
       <c r="I102" s="3">
-        <v>-25800</v>
+        <v>317300</v>
       </c>
       <c r="J102" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-16100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-199700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-48800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>70900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>16900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-28300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>29600</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>621900</v>
+        <v>768100</v>
       </c>
       <c r="E8" s="3">
-        <v>726500</v>
+        <v>624900</v>
       </c>
       <c r="F8" s="3">
-        <v>529400</v>
+        <v>729900</v>
       </c>
       <c r="G8" s="3">
-        <v>331600</v>
+        <v>531900</v>
       </c>
       <c r="H8" s="3">
-        <v>355600</v>
+        <v>333200</v>
       </c>
       <c r="I8" s="3">
-        <v>337800</v>
+        <v>357300</v>
       </c>
       <c r="J8" s="3">
+        <v>339400</v>
+      </c>
+      <c r="K8" s="3">
         <v>156900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>631400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>568500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>967900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>475700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>459400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>447000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>465700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>511900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>560500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>510700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>440200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>466000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>451700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>325000</v>
+        <v>438600</v>
       </c>
       <c r="E9" s="3">
-        <v>324100</v>
+        <v>326500</v>
       </c>
       <c r="F9" s="3">
-        <v>256300</v>
+        <v>325600</v>
       </c>
       <c r="G9" s="3">
-        <v>188800</v>
+        <v>257600</v>
       </c>
       <c r="H9" s="3">
-        <v>180700</v>
+        <v>189700</v>
       </c>
       <c r="I9" s="3">
-        <v>155000</v>
+        <v>181500</v>
       </c>
       <c r="J9" s="3">
+        <v>155700</v>
+      </c>
+      <c r="K9" s="3">
         <v>89200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>290400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>219100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>239700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>232100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>402500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>195600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>189700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>197900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>201200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>218700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>307600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>287100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>265500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>270700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>267400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>297000</v>
+        <v>329500</v>
       </c>
       <c r="E10" s="3">
-        <v>402400</v>
+        <v>298400</v>
       </c>
       <c r="F10" s="3">
-        <v>273000</v>
+        <v>404300</v>
       </c>
       <c r="G10" s="3">
-        <v>142800</v>
+        <v>274300</v>
       </c>
       <c r="H10" s="3">
-        <v>175000</v>
+        <v>143400</v>
       </c>
       <c r="I10" s="3">
-        <v>182800</v>
+        <v>175800</v>
       </c>
       <c r="J10" s="3">
+        <v>183700</v>
+      </c>
+      <c r="K10" s="3">
         <v>67700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>341000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>281200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>360900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>336400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>565400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>280100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>269800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>249100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>264400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>293100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>252800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>223600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>174700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>195300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>184300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,37 +1183,40 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>42900</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-229900</v>
+        <v>43200</v>
       </c>
       <c r="F14" s="3">
+        <v>-230900</v>
+      </c>
+      <c r="G14" s="3">
         <v>12300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6200</v>
       </c>
-      <c r="I14" s="3">
-        <v>-147600</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-148300</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1213,8 +1233,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1240,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>101700</v>
+        <v>93600</v>
       </c>
       <c r="E15" s="3">
-        <v>97800</v>
+        <v>102200</v>
       </c>
       <c r="F15" s="3">
-        <v>68000</v>
+        <v>98200</v>
       </c>
       <c r="G15" s="3">
-        <v>68000</v>
+        <v>68400</v>
       </c>
       <c r="H15" s="3">
-        <v>66900</v>
+        <v>68400</v>
       </c>
       <c r="I15" s="3">
-        <v>74600</v>
+        <v>67300</v>
       </c>
       <c r="J15" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K15" s="3">
         <v>86900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>283900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>85800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>464000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>144400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>224100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>70500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>63500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>60400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>75200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>69200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>22900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>20700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>19000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>18700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>608200</v>
+        <v>741400</v>
       </c>
       <c r="E17" s="3">
-        <v>622700</v>
+        <v>611100</v>
       </c>
       <c r="F17" s="3">
-        <v>502800</v>
+        <v>625700</v>
       </c>
       <c r="G17" s="3">
+        <v>505200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>411500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>399200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>395500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>205100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>801900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>469300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1049500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>469700</v>
+      </c>
+      <c r="P17" s="3">
+        <v>840200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>410700</v>
+      </c>
+      <c r="R17" s="3">
+        <v>423000</v>
+      </c>
+      <c r="S17" s="3">
+        <v>368200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>419000</v>
+      </c>
+      <c r="U17" s="3">
+        <v>424700</v>
+      </c>
+      <c r="V17" s="3">
+        <v>484200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>448400</v>
+      </c>
+      <c r="X17" s="3">
+        <v>414900</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>414100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>409500</v>
       </c>
-      <c r="H17" s="3">
-        <v>397300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>393600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>205100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>801900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>469300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1049500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>469700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>840200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>410700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>423000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>368200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>419000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>424700</v>
-      </c>
-      <c r="U17" s="3">
-        <v>484200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>448400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>414900</v>
-      </c>
-      <c r="X17" s="3">
-        <v>414100</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>409500</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E18" s="3">
         <v>13800</v>
       </c>
-      <c r="E18" s="3">
-        <v>103800</v>
-      </c>
       <c r="F18" s="3">
-        <v>26500</v>
+        <v>104200</v>
       </c>
       <c r="G18" s="3">
-        <v>-78000</v>
+        <v>26700</v>
       </c>
       <c r="H18" s="3">
-        <v>-41700</v>
+        <v>-78300</v>
       </c>
       <c r="I18" s="3">
-        <v>-55800</v>
+        <v>-41900</v>
       </c>
       <c r="J18" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-48200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-170500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>31000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-448800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>98800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>127700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>36400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>78800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>46700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>87200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>62300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>25300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>51900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>42200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,185 +1548,192 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>515900</v>
+        <v>-529400</v>
       </c>
       <c r="E20" s="3">
-        <v>-179800</v>
+        <v>518400</v>
       </c>
       <c r="F20" s="3">
-        <v>-453900</v>
+        <v>-180600</v>
       </c>
       <c r="G20" s="3">
-        <v>291600</v>
+        <v>-456100</v>
       </c>
       <c r="H20" s="3">
-        <v>-472100</v>
+        <v>293000</v>
       </c>
       <c r="I20" s="3">
-        <v>5800</v>
+        <v>-474300</v>
       </c>
       <c r="J20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-183200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1702100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1171000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-203300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-51300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-82000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-221400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-42100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>18600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-38300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-35300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>631400</v>
+        <v>-409100</v>
       </c>
       <c r="E21" s="3">
-        <v>21800</v>
+        <v>634300</v>
       </c>
       <c r="F21" s="3">
-        <v>-359300</v>
+        <v>21900</v>
       </c>
       <c r="G21" s="3">
-        <v>281700</v>
+        <v>-361000</v>
       </c>
       <c r="H21" s="3">
-        <v>-446800</v>
+        <v>283000</v>
       </c>
       <c r="I21" s="3">
-        <v>24700</v>
+        <v>-448900</v>
       </c>
       <c r="J21" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-144500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1680100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1054200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-207800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>82600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-168700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>114300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>85500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>52900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>35000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>25600</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11800</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>10900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9500</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1701,17 +1741,17 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>10100</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>517900</v>
+        <v>-513600</v>
       </c>
       <c r="E23" s="3">
-        <v>-76000</v>
+        <v>520300</v>
       </c>
       <c r="F23" s="3">
-        <v>-437000</v>
+        <v>-76400</v>
       </c>
       <c r="G23" s="3">
-        <v>209000</v>
+        <v>-439100</v>
       </c>
       <c r="H23" s="3">
-        <v>-516700</v>
+        <v>210000</v>
       </c>
       <c r="I23" s="3">
-        <v>-62800</v>
+        <v>-519100</v>
       </c>
       <c r="J23" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-234500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1882100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1140000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-455800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-104500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-174700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>45100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>94800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>16000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-51200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-44600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-20100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>517900</v>
+        <v>-513600</v>
       </c>
       <c r="E26" s="3">
-        <v>-76000</v>
+        <v>520300</v>
       </c>
       <c r="F26" s="3">
-        <v>-437000</v>
+        <v>-76400</v>
       </c>
       <c r="G26" s="3">
-        <v>209000</v>
+        <v>-439100</v>
       </c>
       <c r="H26" s="3">
-        <v>-516700</v>
+        <v>210000</v>
       </c>
       <c r="I26" s="3">
-        <v>-61800</v>
+        <v>-519100</v>
       </c>
       <c r="J26" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-238900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1830900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1095400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-452200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-103300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>86400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-184800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>517900</v>
+        <v>-513600</v>
       </c>
       <c r="E27" s="3">
-        <v>-76000</v>
+        <v>520300</v>
       </c>
       <c r="F27" s="3">
-        <v>-437000</v>
+        <v>-76400</v>
       </c>
       <c r="G27" s="3">
-        <v>209000</v>
+        <v>-439100</v>
       </c>
       <c r="H27" s="3">
-        <v>-516700</v>
+        <v>210000</v>
       </c>
       <c r="I27" s="3">
-        <v>-61800</v>
+        <v>-519100</v>
       </c>
       <c r="J27" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-238900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1830900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1095400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-452200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-103300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>86400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-184800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-515900</v>
+        <v>529400</v>
       </c>
       <c r="E32" s="3">
-        <v>179800</v>
+        <v>-518400</v>
       </c>
       <c r="F32" s="3">
-        <v>453900</v>
+        <v>180600</v>
       </c>
       <c r="G32" s="3">
-        <v>-291600</v>
+        <v>456100</v>
       </c>
       <c r="H32" s="3">
-        <v>472100</v>
+        <v>-293000</v>
       </c>
       <c r="I32" s="3">
-        <v>-5800</v>
+        <v>474300</v>
       </c>
       <c r="J32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K32" s="3">
         <v>183200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1702100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1171000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>203300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>51300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>52900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>82000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>221400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>42100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-18600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>38300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>35300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>517900</v>
+        <v>-513600</v>
       </c>
       <c r="E33" s="3">
-        <v>-76000</v>
+        <v>520300</v>
       </c>
       <c r="F33" s="3">
-        <v>-437000</v>
+        <v>-76400</v>
       </c>
       <c r="G33" s="3">
-        <v>209000</v>
+        <v>-439100</v>
       </c>
       <c r="H33" s="3">
-        <v>-516700</v>
+        <v>210000</v>
       </c>
       <c r="I33" s="3">
-        <v>-61800</v>
+        <v>-519100</v>
       </c>
       <c r="J33" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-238900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1830900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1095400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-452200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-103300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>86400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-184800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>40200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>76200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>517900</v>
+        <v>-513600</v>
       </c>
       <c r="E35" s="3">
-        <v>-76000</v>
+        <v>520300</v>
       </c>
       <c r="F35" s="3">
-        <v>-437000</v>
+        <v>-76400</v>
       </c>
       <c r="G35" s="3">
-        <v>209000</v>
+        <v>-439100</v>
       </c>
       <c r="H35" s="3">
-        <v>-516700</v>
+        <v>210000</v>
       </c>
       <c r="I35" s="3">
-        <v>-61800</v>
+        <v>-519100</v>
       </c>
       <c r="J35" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-238900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1830900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1095400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-452200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-103300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>86400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-184800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>40200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>76200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>361900</v>
+        <v>398000</v>
       </c>
       <c r="E41" s="3">
-        <v>598700</v>
+        <v>363600</v>
       </c>
       <c r="F41" s="3">
-        <v>707700</v>
+        <v>601500</v>
       </c>
       <c r="G41" s="3">
-        <v>845200</v>
+        <v>711000</v>
       </c>
       <c r="H41" s="3">
-        <v>443200</v>
+        <v>849200</v>
       </c>
       <c r="I41" s="3">
-        <v>597000</v>
+        <v>445300</v>
       </c>
       <c r="J41" s="3">
+        <v>599800</v>
+      </c>
+      <c r="K41" s="3">
         <v>279600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>308700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>304400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>285500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>227500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>170000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>437600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>165400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>198300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>172500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>195400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>124600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>128400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>107900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>136200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
         <v>300</v>
       </c>
       <c r="F42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G42" s="3">
         <v>200</v>
       </c>
       <c r="H42" s="3">
+        <v>200</v>
+      </c>
+      <c r="I42" s="3">
         <v>2100</v>
       </c>
-      <c r="I42" s="3">
-        <v>17900</v>
-      </c>
       <c r="J42" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K42" s="3">
         <v>26000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>131800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>49100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>74300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>193700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>123500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>169400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>146600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>265600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>239200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>227400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>50800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>82200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>302200</v>
+        <v>355700</v>
       </c>
       <c r="E43" s="3">
-        <v>230600</v>
+        <v>303600</v>
       </c>
       <c r="F43" s="3">
-        <v>347800</v>
+        <v>231700</v>
       </c>
       <c r="G43" s="3">
-        <v>256100</v>
+        <v>349500</v>
       </c>
       <c r="H43" s="3">
-        <v>225200</v>
+        <v>257300</v>
       </c>
       <c r="I43" s="3">
-        <v>220600</v>
+        <v>226300</v>
       </c>
       <c r="J43" s="3">
+        <v>221600</v>
+      </c>
+      <c r="K43" s="3">
         <v>174500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>160500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>191300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>255000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>350500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>341100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>322000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>267000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>309100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>332300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>313500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>263200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>233900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>222000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>167900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>178100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>117200</v>
+        <v>128800</v>
       </c>
       <c r="E44" s="3">
-        <v>111400</v>
+        <v>117800</v>
       </c>
       <c r="F44" s="3">
-        <v>101200</v>
+        <v>111900</v>
       </c>
       <c r="G44" s="3">
-        <v>93300</v>
+        <v>101700</v>
       </c>
       <c r="H44" s="3">
-        <v>88500</v>
+        <v>93800</v>
       </c>
       <c r="I44" s="3">
-        <v>78400</v>
+        <v>88900</v>
       </c>
       <c r="J44" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K44" s="3">
         <v>73300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>78700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>67900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>48200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>49500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>36700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>40000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>40900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>38600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>34500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>33200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>28500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>26600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>198200</v>
+        <v>236700</v>
       </c>
       <c r="E45" s="3">
-        <v>197800</v>
+        <v>199100</v>
       </c>
       <c r="F45" s="3">
-        <v>162000</v>
+        <v>198700</v>
       </c>
       <c r="G45" s="3">
-        <v>120900</v>
+        <v>162800</v>
       </c>
       <c r="H45" s="3">
-        <v>129800</v>
+        <v>121500</v>
       </c>
       <c r="I45" s="3">
-        <v>141300</v>
+        <v>130400</v>
       </c>
       <c r="J45" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K45" s="3">
         <v>148800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>127000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>152300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>145400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>67500</v>
       </c>
       <c r="O45" s="3">
         <v>67500</v>
       </c>
       <c r="P45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>61600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>70500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>40600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>67100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>79000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>84100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>65700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>65500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>50900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>979800</v>
+        <v>1119400</v>
       </c>
       <c r="E46" s="3">
-        <v>1138700</v>
+        <v>984400</v>
       </c>
       <c r="F46" s="3">
-        <v>1319000</v>
+        <v>1144100</v>
       </c>
       <c r="G46" s="3">
-        <v>1315800</v>
+        <v>1325200</v>
       </c>
       <c r="H46" s="3">
-        <v>888700</v>
+        <v>1322000</v>
       </c>
       <c r="I46" s="3">
-        <v>1055200</v>
+        <v>892900</v>
       </c>
       <c r="J46" s="3">
+        <v>1060200</v>
+      </c>
+      <c r="K46" s="3">
         <v>702200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>687600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>637800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>764400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>760800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>728400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>669900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>690500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>675300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>807100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>734800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>847000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>682700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>676700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>420500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>473900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>140700</v>
+        <v>137400</v>
       </c>
       <c r="E47" s="3">
-        <v>176600</v>
+        <v>141300</v>
       </c>
       <c r="F47" s="3">
-        <v>211400</v>
+        <v>177400</v>
       </c>
       <c r="G47" s="3">
-        <v>199900</v>
+        <v>212400</v>
       </c>
       <c r="H47" s="3">
-        <v>219000</v>
+        <v>200900</v>
       </c>
       <c r="I47" s="3">
-        <v>166400</v>
+        <v>220000</v>
       </c>
       <c r="J47" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K47" s="3">
         <v>228800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>213200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>225800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>303300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>258900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>249900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>299200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>241000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>286400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>333000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>280800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>216800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>209500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>200600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>188600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>189100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1603500</v>
+        <v>1609900</v>
       </c>
       <c r="E48" s="3">
-        <v>1550600</v>
+        <v>1611100</v>
       </c>
       <c r="F48" s="3">
-        <v>1250500</v>
+        <v>1557900</v>
       </c>
       <c r="G48" s="3">
-        <v>1247400</v>
+        <v>1256500</v>
       </c>
       <c r="H48" s="3">
-        <v>1223000</v>
+        <v>1253300</v>
       </c>
       <c r="I48" s="3">
-        <v>1248600</v>
+        <v>1228800</v>
       </c>
       <c r="J48" s="3">
+        <v>1254500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1034900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1304600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1713000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1764600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1681400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1665700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1529900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1385000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1289600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1538300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1619300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>852600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>834400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>893200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>840600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>853400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>267400</v>
+        <v>268700</v>
       </c>
       <c r="E49" s="3">
-        <v>264500</v>
+        <v>268700</v>
       </c>
       <c r="F49" s="3">
-        <v>262100</v>
+        <v>265800</v>
       </c>
       <c r="G49" s="3">
-        <v>257700</v>
+        <v>263300</v>
       </c>
       <c r="H49" s="3">
-        <v>231200</v>
+        <v>259000</v>
       </c>
       <c r="I49" s="3">
-        <v>227900</v>
+        <v>232300</v>
       </c>
       <c r="J49" s="3">
+        <v>229000</v>
+      </c>
+      <c r="K49" s="3">
         <v>224300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>225500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>194400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>200900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>197100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>196200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>192200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>190200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>184700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>227000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>224300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>246400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>243600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>244100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>233900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>233800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>472900</v>
+        <v>490900</v>
       </c>
       <c r="E52" s="3">
-        <v>479500</v>
+        <v>475200</v>
       </c>
       <c r="F52" s="3">
-        <v>419800</v>
+        <v>481700</v>
       </c>
       <c r="G52" s="3">
-        <v>365800</v>
+        <v>421700</v>
       </c>
       <c r="H52" s="3">
-        <v>397300</v>
+        <v>367500</v>
       </c>
       <c r="I52" s="3">
-        <v>378200</v>
+        <v>399100</v>
       </c>
       <c r="J52" s="3">
+        <v>380000</v>
+      </c>
+      <c r="K52" s="3">
         <v>522400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>557400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>588300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>512600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>592400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>531100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>521300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>505000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>438800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>529700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>452100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>482000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>339700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>340000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>318200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>333700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3464300</v>
+        <v>3626200</v>
       </c>
       <c r="E54" s="3">
-        <v>3609900</v>
+        <v>3480600</v>
       </c>
       <c r="F54" s="3">
-        <v>3462800</v>
+        <v>3627000</v>
       </c>
       <c r="G54" s="3">
-        <v>3386600</v>
+        <v>3479200</v>
       </c>
       <c r="H54" s="3">
-        <v>2959200</v>
+        <v>3402600</v>
       </c>
       <c r="I54" s="3">
-        <v>3076400</v>
+        <v>2973200</v>
       </c>
       <c r="J54" s="3">
+        <v>3091000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2712600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2988200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3359200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3545800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3490600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3371300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3161700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3011700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2872400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3432500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3311400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2644800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2309900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2354700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2001800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2084000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400300</v>
+        <v>353600</v>
       </c>
       <c r="E57" s="3">
-        <v>345800</v>
+        <v>402200</v>
       </c>
       <c r="F57" s="3">
-        <v>424400</v>
+        <v>347400</v>
       </c>
       <c r="G57" s="3">
-        <v>431700</v>
+        <v>426400</v>
       </c>
       <c r="H57" s="3">
-        <v>464900</v>
+        <v>433700</v>
       </c>
       <c r="I57" s="3">
-        <v>466800</v>
+        <v>467100</v>
       </c>
       <c r="J57" s="3">
+        <v>469000</v>
+      </c>
+      <c r="K57" s="3">
         <v>566100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>512200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>376600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>298800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>302500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>307300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>271400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>241600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>280900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>244800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>244500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>224200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>230000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>256500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>256600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>880500</v>
+        <v>926800</v>
       </c>
       <c r="E58" s="3">
-        <v>880600</v>
+        <v>884700</v>
       </c>
       <c r="F58" s="3">
-        <v>802800</v>
+        <v>884800</v>
       </c>
       <c r="G58" s="3">
-        <v>662800</v>
+        <v>806600</v>
       </c>
       <c r="H58" s="3">
-        <v>687500</v>
+        <v>665900</v>
       </c>
       <c r="I58" s="3">
-        <v>609800</v>
+        <v>690800</v>
       </c>
       <c r="J58" s="3">
+        <v>612700</v>
+      </c>
+      <c r="K58" s="3">
         <v>713300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>665000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>764400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>381700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>331400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>282600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>271900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>261400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>286900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>368300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>340600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>145700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>259200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>282300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>252900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>255500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1016800</v>
+        <v>1375100</v>
       </c>
       <c r="E59" s="3">
-        <v>1054500</v>
+        <v>1021700</v>
       </c>
       <c r="F59" s="3">
-        <v>1000300</v>
+        <v>1059500</v>
       </c>
       <c r="G59" s="3">
-        <v>924000</v>
+        <v>1005000</v>
       </c>
       <c r="H59" s="3">
-        <v>844400</v>
+        <v>928400</v>
       </c>
       <c r="I59" s="3">
-        <v>912600</v>
+        <v>848300</v>
       </c>
       <c r="J59" s="3">
+        <v>916900</v>
+      </c>
+      <c r="K59" s="3">
         <v>832300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>747700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>585300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>506900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>534000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>442300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>454500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>413200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>462600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>417400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>480800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>492600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>417300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>378600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>385400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2297600</v>
+        <v>2655500</v>
       </c>
       <c r="E60" s="3">
-        <v>2280900</v>
+        <v>2308500</v>
       </c>
       <c r="F60" s="3">
-        <v>2227500</v>
+        <v>2291700</v>
       </c>
       <c r="G60" s="3">
-        <v>2018500</v>
+        <v>2238000</v>
       </c>
       <c r="H60" s="3">
-        <v>1996800</v>
+        <v>2028000</v>
       </c>
       <c r="I60" s="3">
-        <v>1989200</v>
+        <v>2006200</v>
       </c>
       <c r="J60" s="3">
+        <v>1998600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2111700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1924800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1741300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1267400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1137100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1085900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>981200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>987300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>941600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1111800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1002800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>870900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>976000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>929600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>888000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>897500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3349700</v>
+        <v>3608700</v>
       </c>
       <c r="E61" s="3">
-        <v>3971200</v>
+        <v>3365500</v>
       </c>
       <c r="F61" s="3">
-        <v>3948200</v>
+        <v>3990000</v>
       </c>
       <c r="G61" s="3">
-        <v>3783100</v>
+        <v>3966800</v>
       </c>
       <c r="H61" s="3">
-        <v>3581800</v>
+        <v>3801000</v>
       </c>
       <c r="I61" s="3">
-        <v>3262700</v>
+        <v>3598700</v>
       </c>
       <c r="J61" s="3">
+        <v>3278100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2852200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3125000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2922900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2504200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2291700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2086300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2057800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1923500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1921600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2315500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2019000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>749100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>485500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>651400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>668900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>756500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>863100</v>
+        <v>907400</v>
       </c>
       <c r="E62" s="3">
-        <v>928700</v>
+        <v>867200</v>
       </c>
       <c r="F62" s="3">
-        <v>782600</v>
+        <v>933100</v>
       </c>
       <c r="G62" s="3">
-        <v>651300</v>
+        <v>786300</v>
       </c>
       <c r="H62" s="3">
-        <v>674100</v>
+        <v>654300</v>
       </c>
       <c r="I62" s="3">
-        <v>580400</v>
+        <v>677300</v>
       </c>
       <c r="J62" s="3">
+        <v>583200</v>
+      </c>
+      <c r="K62" s="3">
         <v>449500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>430900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>417200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>424100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>182700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>314100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>318900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>316100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>210700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>238300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>235200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>309000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>203000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>187100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>181300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>181500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6510400</v>
+        <v>7171700</v>
       </c>
       <c r="E66" s="3">
-        <v>7180900</v>
+        <v>6541200</v>
       </c>
       <c r="F66" s="3">
-        <v>6958300</v>
+        <v>7214800</v>
       </c>
       <c r="G66" s="3">
-        <v>6452900</v>
+        <v>6991200</v>
       </c>
       <c r="H66" s="3">
-        <v>6252700</v>
+        <v>6483400</v>
       </c>
       <c r="I66" s="3">
-        <v>5832300</v>
+        <v>6282200</v>
       </c>
       <c r="J66" s="3">
+        <v>5859900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5413500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5480700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5081300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4195800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3611600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3486300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3357800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3227000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3074000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3665500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3257000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1929000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1664500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1768000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1738200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1835400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3495600</v>
+        <v>-3996900</v>
       </c>
       <c r="E72" s="3">
-        <v>-4015900</v>
+        <v>-3512100</v>
       </c>
       <c r="F72" s="3">
-        <v>-3940600</v>
+        <v>-4034900</v>
       </c>
       <c r="G72" s="3">
-        <v>-3509200</v>
+        <v>-3959200</v>
       </c>
       <c r="H72" s="3">
-        <v>-3736700</v>
+        <v>-3525800</v>
       </c>
       <c r="I72" s="3">
-        <v>-3195000</v>
+        <v>-3754300</v>
       </c>
       <c r="J72" s="3">
+        <v>-3210100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3134500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2930200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2094800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1032000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-499000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-511200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-575600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-597900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-566100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-703100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-451000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>164700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>96400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>39100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-97500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-112300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3046100</v>
+        <v>-3545500</v>
       </c>
       <c r="E76" s="3">
-        <v>-3570900</v>
+        <v>-3060500</v>
       </c>
       <c r="F76" s="3">
-        <v>-3495500</v>
+        <v>-3587800</v>
       </c>
       <c r="G76" s="3">
-        <v>-3066300</v>
+        <v>-3512000</v>
       </c>
       <c r="H76" s="3">
-        <v>-3293500</v>
+        <v>-3080800</v>
       </c>
       <c r="I76" s="3">
-        <v>-2755900</v>
+        <v>-3309100</v>
       </c>
       <c r="J76" s="3">
+        <v>-2768900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2700900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2492500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1722100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-650000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-121000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-115000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-196100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-215200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-201500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-233100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>54400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>715800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>645500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>586600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>263500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>248600</v>
       </c>
       <c r="Z76" s="3">
         <v>248600</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>248600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>517900</v>
+        <v>-513600</v>
       </c>
       <c r="E81" s="3">
-        <v>-76000</v>
+        <v>520300</v>
       </c>
       <c r="F81" s="3">
-        <v>-437000</v>
+        <v>-76400</v>
       </c>
       <c r="G81" s="3">
-        <v>209000</v>
+        <v>-439100</v>
       </c>
       <c r="H81" s="3">
-        <v>-516700</v>
+        <v>210000</v>
       </c>
       <c r="I81" s="3">
-        <v>-61800</v>
+        <v>-519100</v>
       </c>
       <c r="J81" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-238900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1830900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1095400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-452200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-103300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>86400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-184800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>40200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>76200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,37 +5813,38 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>101700</v>
+        <v>93600</v>
       </c>
       <c r="E83" s="3">
-        <v>97800</v>
+        <v>102200</v>
       </c>
       <c r="F83" s="3">
-        <v>68000</v>
+        <v>98200</v>
       </c>
       <c r="G83" s="3">
-        <v>68000</v>
+        <v>68400</v>
       </c>
       <c r="H83" s="3">
-        <v>66900</v>
+        <v>68400</v>
       </c>
       <c r="I83" s="3">
-        <v>74600</v>
+        <v>67300</v>
       </c>
       <c r="J83" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K83" s="3">
         <v>86900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>192400</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
@@ -5656,8 +5855,8 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5680,17 +5879,20 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18700</v>
       </c>
-      <c r="Z83" s="3" t="s">
+      <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-46300</v>
+        <v>215400</v>
       </c>
       <c r="E89" s="3">
-        <v>65700</v>
+        <v>-46600</v>
       </c>
       <c r="F89" s="3">
-        <v>-13600</v>
+        <v>66000</v>
       </c>
       <c r="G89" s="3">
-        <v>-42700</v>
+        <v>-13700</v>
       </c>
       <c r="H89" s="3">
-        <v>-69800</v>
+        <v>-42900</v>
       </c>
       <c r="I89" s="3">
-        <v>42200</v>
+        <v>-70200</v>
       </c>
       <c r="J89" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K89" s="3">
         <v>40600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>108700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>160400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>142600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>181300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>53800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>129100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>111400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>88000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>22500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>108600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-49800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>79300</v>
       </c>
-      <c r="Z89" s="3" t="s">
+      <c r="AA89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35900</v>
+        <v>-53400</v>
       </c>
       <c r="E91" s="3">
-        <v>-48200</v>
+        <v>-36000</v>
       </c>
       <c r="F91" s="3">
-        <v>-18500</v>
+        <v>-48500</v>
       </c>
       <c r="G91" s="3">
-        <v>-20600</v>
+        <v>-18600</v>
       </c>
       <c r="H91" s="3">
-        <v>-34300</v>
+        <v>-20700</v>
       </c>
       <c r="I91" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-117400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-70800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-50600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32900</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44200</v>
+        <v>-65100</v>
       </c>
       <c r="E94" s="3">
-        <v>-55400</v>
+        <v>-44400</v>
       </c>
       <c r="F94" s="3">
-        <v>-27900</v>
+        <v>-55600</v>
       </c>
       <c r="G94" s="3">
-        <v>-23800</v>
+        <v>-28000</v>
       </c>
       <c r="H94" s="3">
-        <v>-30500</v>
+        <v>-24000</v>
       </c>
       <c r="I94" s="3">
-        <v>3100</v>
+        <v>-30600</v>
       </c>
       <c r="J94" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-165700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-106900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>85800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-52300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-208400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>31300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-70100</v>
       </c>
-      <c r="Z94" s="3" t="s">
+      <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-137000</v>
+        <v>-123700</v>
       </c>
       <c r="E100" s="3">
-        <v>-126600</v>
+        <v>-137700</v>
       </c>
       <c r="F100" s="3">
-        <v>-134400</v>
+        <v>-127100</v>
       </c>
       <c r="G100" s="3">
-        <v>481300</v>
+        <v>-135000</v>
       </c>
       <c r="H100" s="3">
-        <v>-57900</v>
+        <v>483600</v>
       </c>
       <c r="I100" s="3">
-        <v>269800</v>
+        <v>-58200</v>
       </c>
       <c r="J100" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-45200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-46400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-57400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-66900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>25700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-31400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>102700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-86100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>270200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-65000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>20400</v>
       </c>
-      <c r="Z100" s="3" t="s">
+      <c r="AA100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7300</v>
       </c>
-      <c r="F101" s="3">
-        <v>38400</v>
-      </c>
       <c r="G101" s="3">
+        <v>38600</v>
+      </c>
+      <c r="H101" s="3">
         <v>-12800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-19500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-236900</v>
+        <v>34400</v>
       </c>
       <c r="E102" s="3">
-        <v>-109000</v>
+        <v>-238000</v>
       </c>
       <c r="F102" s="3">
-        <v>-137500</v>
+        <v>-109500</v>
       </c>
       <c r="G102" s="3">
-        <v>401900</v>
+        <v>-138100</v>
       </c>
       <c r="H102" s="3">
-        <v>-153800</v>
+        <v>403800</v>
       </c>
       <c r="I102" s="3">
-        <v>317300</v>
+        <v>-154500</v>
       </c>
       <c r="J102" s="3">
+        <v>318800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-25500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-199700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>70900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>16900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-28300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>29600</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>768100</v>
+        <v>734300</v>
       </c>
       <c r="E8" s="3">
-        <v>624900</v>
+        <v>597400</v>
       </c>
       <c r="F8" s="3">
-        <v>729900</v>
+        <v>697800</v>
       </c>
       <c r="G8" s="3">
-        <v>531900</v>
+        <v>508500</v>
       </c>
       <c r="H8" s="3">
-        <v>333200</v>
+        <v>318500</v>
       </c>
       <c r="I8" s="3">
-        <v>357300</v>
+        <v>341600</v>
       </c>
       <c r="J8" s="3">
-        <v>339400</v>
+        <v>324500</v>
       </c>
       <c r="K8" s="3">
         <v>156900</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>438600</v>
+        <v>419300</v>
       </c>
       <c r="E9" s="3">
-        <v>326500</v>
+        <v>312100</v>
       </c>
       <c r="F9" s="3">
-        <v>325600</v>
+        <v>311300</v>
       </c>
       <c r="G9" s="3">
-        <v>257600</v>
+        <v>246200</v>
       </c>
       <c r="H9" s="3">
-        <v>189700</v>
+        <v>181400</v>
       </c>
       <c r="I9" s="3">
-        <v>181500</v>
+        <v>173500</v>
       </c>
       <c r="J9" s="3">
-        <v>155700</v>
+        <v>148900</v>
       </c>
       <c r="K9" s="3">
         <v>89200</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>329500</v>
+        <v>315000</v>
       </c>
       <c r="E10" s="3">
-        <v>298400</v>
+        <v>285300</v>
       </c>
       <c r="F10" s="3">
-        <v>404300</v>
+        <v>386500</v>
       </c>
       <c r="G10" s="3">
-        <v>274300</v>
+        <v>262200</v>
       </c>
       <c r="H10" s="3">
-        <v>143400</v>
+        <v>137100</v>
       </c>
       <c r="I10" s="3">
-        <v>175800</v>
+        <v>168000</v>
       </c>
       <c r="J10" s="3">
-        <v>183700</v>
+        <v>175600</v>
       </c>
       <c r="K10" s="3">
         <v>67700</v>
@@ -1195,22 +1195,22 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>43200</v>
+        <v>41300</v>
       </c>
       <c r="F14" s="3">
-        <v>-230900</v>
+        <v>-220800</v>
       </c>
       <c r="G14" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
       <c r="I14" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="J14" s="3">
-        <v>-148300</v>
+        <v>-141700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1269,25 +1269,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>93600</v>
+        <v>89500</v>
       </c>
       <c r="E15" s="3">
-        <v>102200</v>
+        <v>97700</v>
       </c>
       <c r="F15" s="3">
-        <v>98200</v>
+        <v>93900</v>
       </c>
       <c r="G15" s="3">
-        <v>68400</v>
+        <v>65400</v>
       </c>
       <c r="H15" s="3">
-        <v>68400</v>
+        <v>65400</v>
       </c>
       <c r="I15" s="3">
-        <v>67300</v>
+        <v>64300</v>
       </c>
       <c r="J15" s="3">
-        <v>75000</v>
+        <v>71700</v>
       </c>
       <c r="K15" s="3">
         <v>86900</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>741400</v>
+        <v>708800</v>
       </c>
       <c r="E17" s="3">
-        <v>611100</v>
+        <v>584200</v>
       </c>
       <c r="F17" s="3">
-        <v>625700</v>
+        <v>598100</v>
       </c>
       <c r="G17" s="3">
-        <v>505200</v>
+        <v>483000</v>
       </c>
       <c r="H17" s="3">
-        <v>411500</v>
+        <v>393400</v>
       </c>
       <c r="I17" s="3">
-        <v>399200</v>
+        <v>381600</v>
       </c>
       <c r="J17" s="3">
-        <v>395500</v>
+        <v>378100</v>
       </c>
       <c r="K17" s="3">
         <v>205100</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26700</v>
+        <v>25500</v>
       </c>
       <c r="E18" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="F18" s="3">
-        <v>104200</v>
+        <v>99700</v>
       </c>
       <c r="G18" s="3">
-        <v>26700</v>
+        <v>25500</v>
       </c>
       <c r="H18" s="3">
-        <v>-78300</v>
+        <v>-74900</v>
       </c>
       <c r="I18" s="3">
-        <v>-41900</v>
+        <v>-40100</v>
       </c>
       <c r="J18" s="3">
-        <v>-56000</v>
+        <v>-53600</v>
       </c>
       <c r="K18" s="3">
         <v>-48200</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-529400</v>
+        <v>-506100</v>
       </c>
       <c r="E20" s="3">
-        <v>518400</v>
+        <v>495600</v>
       </c>
       <c r="F20" s="3">
-        <v>-180600</v>
+        <v>-172700</v>
       </c>
       <c r="G20" s="3">
-        <v>-456100</v>
+        <v>-436000</v>
       </c>
       <c r="H20" s="3">
-        <v>293000</v>
+        <v>280100</v>
       </c>
       <c r="I20" s="3">
-        <v>-474300</v>
+        <v>-453400</v>
       </c>
       <c r="J20" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K20" s="3">
         <v>-183200</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-409100</v>
+        <v>-391100</v>
       </c>
       <c r="E21" s="3">
-        <v>634300</v>
+        <v>606400</v>
       </c>
       <c r="F21" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="G21" s="3">
-        <v>-361000</v>
+        <v>-345100</v>
       </c>
       <c r="H21" s="3">
-        <v>283000</v>
+        <v>270600</v>
       </c>
       <c r="I21" s="3">
-        <v>-448900</v>
+        <v>-429200</v>
       </c>
       <c r="J21" s="3">
-        <v>24800</v>
+        <v>23700</v>
       </c>
       <c r="K21" s="3">
         <v>-144500</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="E22" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="H22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J22" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="K22" s="3">
         <v>3100</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-513600</v>
+        <v>-491000</v>
       </c>
       <c r="E23" s="3">
-        <v>520300</v>
+        <v>497400</v>
       </c>
       <c r="F23" s="3">
-        <v>-76400</v>
+        <v>-73000</v>
       </c>
       <c r="G23" s="3">
-        <v>-439100</v>
+        <v>-419800</v>
       </c>
       <c r="H23" s="3">
-        <v>210000</v>
+        <v>200800</v>
       </c>
       <c r="I23" s="3">
-        <v>-519100</v>
+        <v>-496300</v>
       </c>
       <c r="J23" s="3">
-        <v>-63100</v>
+        <v>-60300</v>
       </c>
       <c r="K23" s="3">
         <v>-234500</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-513600</v>
+        <v>-491000</v>
       </c>
       <c r="E26" s="3">
-        <v>520300</v>
+        <v>497400</v>
       </c>
       <c r="F26" s="3">
-        <v>-76400</v>
+        <v>-73000</v>
       </c>
       <c r="G26" s="3">
-        <v>-439100</v>
+        <v>-419800</v>
       </c>
       <c r="H26" s="3">
-        <v>210000</v>
+        <v>200800</v>
       </c>
       <c r="I26" s="3">
-        <v>-519100</v>
+        <v>-496300</v>
       </c>
       <c r="J26" s="3">
-        <v>-62100</v>
+        <v>-59400</v>
       </c>
       <c r="K26" s="3">
         <v>-238900</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-513600</v>
+        <v>-491000</v>
       </c>
       <c r="E27" s="3">
-        <v>520300</v>
+        <v>497400</v>
       </c>
       <c r="F27" s="3">
-        <v>-76400</v>
+        <v>-73000</v>
       </c>
       <c r="G27" s="3">
-        <v>-439100</v>
+        <v>-419800</v>
       </c>
       <c r="H27" s="3">
-        <v>210000</v>
+        <v>200800</v>
       </c>
       <c r="I27" s="3">
-        <v>-519100</v>
+        <v>-496300</v>
       </c>
       <c r="J27" s="3">
-        <v>-62100</v>
+        <v>-59400</v>
       </c>
       <c r="K27" s="3">
         <v>-238900</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>529400</v>
+        <v>506100</v>
       </c>
       <c r="E32" s="3">
-        <v>-518400</v>
+        <v>-495600</v>
       </c>
       <c r="F32" s="3">
-        <v>180600</v>
+        <v>172700</v>
       </c>
       <c r="G32" s="3">
-        <v>456100</v>
+        <v>436000</v>
       </c>
       <c r="H32" s="3">
-        <v>-293000</v>
+        <v>-280100</v>
       </c>
       <c r="I32" s="3">
-        <v>474300</v>
+        <v>453400</v>
       </c>
       <c r="J32" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="K32" s="3">
         <v>183200</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-513600</v>
+        <v>-491000</v>
       </c>
       <c r="E33" s="3">
-        <v>520300</v>
+        <v>497400</v>
       </c>
       <c r="F33" s="3">
-        <v>-76400</v>
+        <v>-73000</v>
       </c>
       <c r="G33" s="3">
-        <v>-439100</v>
+        <v>-419800</v>
       </c>
       <c r="H33" s="3">
-        <v>210000</v>
+        <v>200800</v>
       </c>
       <c r="I33" s="3">
-        <v>-519100</v>
+        <v>-496300</v>
       </c>
       <c r="J33" s="3">
-        <v>-62100</v>
+        <v>-59400</v>
       </c>
       <c r="K33" s="3">
         <v>-238900</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-513600</v>
+        <v>-491000</v>
       </c>
       <c r="E35" s="3">
-        <v>520300</v>
+        <v>497400</v>
       </c>
       <c r="F35" s="3">
-        <v>-76400</v>
+        <v>-73000</v>
       </c>
       <c r="G35" s="3">
-        <v>-439100</v>
+        <v>-419800</v>
       </c>
       <c r="H35" s="3">
-        <v>210000</v>
+        <v>200800</v>
       </c>
       <c r="I35" s="3">
-        <v>-519100</v>
+        <v>-496300</v>
       </c>
       <c r="J35" s="3">
-        <v>-62100</v>
+        <v>-59400</v>
       </c>
       <c r="K35" s="3">
         <v>-238900</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>398000</v>
+        <v>380500</v>
       </c>
       <c r="E41" s="3">
-        <v>363600</v>
+        <v>347600</v>
       </c>
       <c r="F41" s="3">
-        <v>601500</v>
+        <v>575100</v>
       </c>
       <c r="G41" s="3">
-        <v>711000</v>
+        <v>679800</v>
       </c>
       <c r="H41" s="3">
-        <v>849200</v>
+        <v>811800</v>
       </c>
       <c r="I41" s="3">
-        <v>445300</v>
+        <v>425700</v>
       </c>
       <c r="J41" s="3">
-        <v>599800</v>
+        <v>573400</v>
       </c>
       <c r="K41" s="3">
         <v>279600</v>
@@ -3019,10 +3019,10 @@
         <v>200</v>
       </c>
       <c r="I42" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J42" s="3">
-        <v>18000</v>
+        <v>17200</v>
       </c>
       <c r="K42" s="3">
         <v>26000</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>355700</v>
+        <v>340100</v>
       </c>
       <c r="E43" s="3">
-        <v>303600</v>
+        <v>290300</v>
       </c>
       <c r="F43" s="3">
-        <v>231700</v>
+        <v>221500</v>
       </c>
       <c r="G43" s="3">
-        <v>349500</v>
+        <v>334100</v>
       </c>
       <c r="H43" s="3">
-        <v>257300</v>
+        <v>246000</v>
       </c>
       <c r="I43" s="3">
-        <v>226300</v>
+        <v>216300</v>
       </c>
       <c r="J43" s="3">
-        <v>221600</v>
+        <v>211900</v>
       </c>
       <c r="K43" s="3">
         <v>174500</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>128800</v>
+        <v>123100</v>
       </c>
       <c r="E44" s="3">
-        <v>117800</v>
+        <v>112600</v>
       </c>
       <c r="F44" s="3">
-        <v>111900</v>
+        <v>107000</v>
       </c>
       <c r="G44" s="3">
-        <v>101700</v>
+        <v>97200</v>
       </c>
       <c r="H44" s="3">
-        <v>93800</v>
+        <v>89700</v>
       </c>
       <c r="I44" s="3">
-        <v>88900</v>
+        <v>85000</v>
       </c>
       <c r="J44" s="3">
-        <v>78800</v>
+        <v>75300</v>
       </c>
       <c r="K44" s="3">
         <v>73300</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>236700</v>
+        <v>226300</v>
       </c>
       <c r="E45" s="3">
-        <v>199100</v>
+        <v>190400</v>
       </c>
       <c r="F45" s="3">
-        <v>198700</v>
+        <v>190000</v>
       </c>
       <c r="G45" s="3">
-        <v>162800</v>
+        <v>155600</v>
       </c>
       <c r="H45" s="3">
-        <v>121500</v>
+        <v>116200</v>
       </c>
       <c r="I45" s="3">
-        <v>130400</v>
+        <v>124700</v>
       </c>
       <c r="J45" s="3">
-        <v>142000</v>
+        <v>135800</v>
       </c>
       <c r="K45" s="3">
         <v>148800</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1119400</v>
+        <v>1070100</v>
       </c>
       <c r="E46" s="3">
-        <v>984400</v>
+        <v>941100</v>
       </c>
       <c r="F46" s="3">
-        <v>1144100</v>
+        <v>1093800</v>
       </c>
       <c r="G46" s="3">
-        <v>1325200</v>
+        <v>1266900</v>
       </c>
       <c r="H46" s="3">
-        <v>1322000</v>
+        <v>1263800</v>
       </c>
       <c r="I46" s="3">
-        <v>892900</v>
+        <v>853700</v>
       </c>
       <c r="J46" s="3">
-        <v>1060200</v>
+        <v>1013500</v>
       </c>
       <c r="K46" s="3">
         <v>702200</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>137400</v>
+        <v>131300</v>
       </c>
       <c r="E47" s="3">
-        <v>141300</v>
+        <v>135100</v>
       </c>
       <c r="F47" s="3">
-        <v>177400</v>
+        <v>169600</v>
       </c>
       <c r="G47" s="3">
-        <v>212400</v>
+        <v>203100</v>
       </c>
       <c r="H47" s="3">
-        <v>200900</v>
+        <v>192000</v>
       </c>
       <c r="I47" s="3">
-        <v>220000</v>
+        <v>210300</v>
       </c>
       <c r="J47" s="3">
-        <v>167200</v>
+        <v>159900</v>
       </c>
       <c r="K47" s="3">
         <v>228800</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1609900</v>
+        <v>1539100</v>
       </c>
       <c r="E48" s="3">
-        <v>1611100</v>
+        <v>1540200</v>
       </c>
       <c r="F48" s="3">
-        <v>1557900</v>
+        <v>1489400</v>
       </c>
       <c r="G48" s="3">
-        <v>1256500</v>
+        <v>1201200</v>
       </c>
       <c r="H48" s="3">
-        <v>1253300</v>
+        <v>1198100</v>
       </c>
       <c r="I48" s="3">
-        <v>1228800</v>
+        <v>1174700</v>
       </c>
       <c r="J48" s="3">
-        <v>1254500</v>
+        <v>1199300</v>
       </c>
       <c r="K48" s="3">
         <v>1034900</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>268700</v>
+        <v>256900</v>
       </c>
       <c r="E49" s="3">
-        <v>268700</v>
+        <v>256900</v>
       </c>
       <c r="F49" s="3">
-        <v>265800</v>
+        <v>254100</v>
       </c>
       <c r="G49" s="3">
-        <v>263300</v>
+        <v>251700</v>
       </c>
       <c r="H49" s="3">
-        <v>259000</v>
+        <v>247600</v>
       </c>
       <c r="I49" s="3">
-        <v>232300</v>
+        <v>222100</v>
       </c>
       <c r="J49" s="3">
-        <v>229000</v>
+        <v>218900</v>
       </c>
       <c r="K49" s="3">
         <v>224300</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>490900</v>
+        <v>469300</v>
       </c>
       <c r="E52" s="3">
-        <v>475200</v>
+        <v>454300</v>
       </c>
       <c r="F52" s="3">
-        <v>481700</v>
+        <v>460500</v>
       </c>
       <c r="G52" s="3">
-        <v>421700</v>
+        <v>403200</v>
       </c>
       <c r="H52" s="3">
-        <v>367500</v>
+        <v>351300</v>
       </c>
       <c r="I52" s="3">
-        <v>399100</v>
+        <v>381600</v>
       </c>
       <c r="J52" s="3">
-        <v>380000</v>
+        <v>363300</v>
       </c>
       <c r="K52" s="3">
         <v>522400</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3626200</v>
+        <v>3466700</v>
       </c>
       <c r="E54" s="3">
-        <v>3480600</v>
+        <v>3327500</v>
       </c>
       <c r="F54" s="3">
-        <v>3627000</v>
+        <v>3467400</v>
       </c>
       <c r="G54" s="3">
-        <v>3479200</v>
+        <v>3326100</v>
       </c>
       <c r="H54" s="3">
-        <v>3402600</v>
+        <v>3252900</v>
       </c>
       <c r="I54" s="3">
-        <v>2973200</v>
+        <v>2842400</v>
       </c>
       <c r="J54" s="3">
-        <v>3091000</v>
+        <v>2955000</v>
       </c>
       <c r="K54" s="3">
         <v>2712600</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>353600</v>
+        <v>338100</v>
       </c>
       <c r="E57" s="3">
-        <v>402200</v>
+        <v>384500</v>
       </c>
       <c r="F57" s="3">
-        <v>347400</v>
+        <v>332200</v>
       </c>
       <c r="G57" s="3">
-        <v>426400</v>
+        <v>407700</v>
       </c>
       <c r="H57" s="3">
-        <v>433700</v>
+        <v>414600</v>
       </c>
       <c r="I57" s="3">
-        <v>467100</v>
+        <v>446500</v>
       </c>
       <c r="J57" s="3">
-        <v>469000</v>
+        <v>448400</v>
       </c>
       <c r="K57" s="3">
         <v>566100</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>926800</v>
+        <v>886000</v>
       </c>
       <c r="E58" s="3">
-        <v>884700</v>
+        <v>845800</v>
       </c>
       <c r="F58" s="3">
-        <v>884800</v>
+        <v>845800</v>
       </c>
       <c r="G58" s="3">
-        <v>806600</v>
+        <v>771100</v>
       </c>
       <c r="H58" s="3">
-        <v>665900</v>
+        <v>636600</v>
       </c>
       <c r="I58" s="3">
-        <v>690800</v>
+        <v>660400</v>
       </c>
       <c r="J58" s="3">
-        <v>612700</v>
+        <v>585700</v>
       </c>
       <c r="K58" s="3">
         <v>713300</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1375100</v>
+        <v>1314600</v>
       </c>
       <c r="E59" s="3">
-        <v>1021700</v>
+        <v>976700</v>
       </c>
       <c r="F59" s="3">
-        <v>1059500</v>
+        <v>1012900</v>
       </c>
       <c r="G59" s="3">
-        <v>1005000</v>
+        <v>960800</v>
       </c>
       <c r="H59" s="3">
-        <v>928400</v>
+        <v>887500</v>
       </c>
       <c r="I59" s="3">
-        <v>848300</v>
+        <v>811000</v>
       </c>
       <c r="J59" s="3">
-        <v>916900</v>
+        <v>876600</v>
       </c>
       <c r="K59" s="3">
         <v>832300</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2655500</v>
+        <v>2538700</v>
       </c>
       <c r="E60" s="3">
-        <v>2308500</v>
+        <v>2206900</v>
       </c>
       <c r="F60" s="3">
-        <v>2291700</v>
+        <v>2190900</v>
       </c>
       <c r="G60" s="3">
-        <v>2238000</v>
+        <v>2139600</v>
       </c>
       <c r="H60" s="3">
-        <v>2028000</v>
+        <v>1938800</v>
       </c>
       <c r="I60" s="3">
-        <v>2006200</v>
+        <v>1918000</v>
       </c>
       <c r="J60" s="3">
-        <v>1998600</v>
+        <v>1910700</v>
       </c>
       <c r="K60" s="3">
         <v>2111700</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3608700</v>
+        <v>3450000</v>
       </c>
       <c r="E61" s="3">
-        <v>3365500</v>
+        <v>3217400</v>
       </c>
       <c r="F61" s="3">
-        <v>3990000</v>
+        <v>3814400</v>
       </c>
       <c r="G61" s="3">
-        <v>3966800</v>
+        <v>3792300</v>
       </c>
       <c r="H61" s="3">
-        <v>3801000</v>
+        <v>3633800</v>
       </c>
       <c r="I61" s="3">
-        <v>3598700</v>
+        <v>3440400</v>
       </c>
       <c r="J61" s="3">
-        <v>3278100</v>
+        <v>3133900</v>
       </c>
       <c r="K61" s="3">
         <v>2852200</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>907400</v>
+        <v>867500</v>
       </c>
       <c r="E62" s="3">
-        <v>867200</v>
+        <v>829000</v>
       </c>
       <c r="F62" s="3">
-        <v>933100</v>
+        <v>892000</v>
       </c>
       <c r="G62" s="3">
-        <v>786300</v>
+        <v>751700</v>
       </c>
       <c r="H62" s="3">
-        <v>654300</v>
+        <v>625600</v>
       </c>
       <c r="I62" s="3">
-        <v>677300</v>
+        <v>647500</v>
       </c>
       <c r="J62" s="3">
-        <v>583200</v>
+        <v>557500</v>
       </c>
       <c r="K62" s="3">
         <v>449500</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7171700</v>
+        <v>6856200</v>
       </c>
       <c r="E66" s="3">
-        <v>6541200</v>
+        <v>6253400</v>
       </c>
       <c r="F66" s="3">
-        <v>7214800</v>
+        <v>6897300</v>
       </c>
       <c r="G66" s="3">
-        <v>6991200</v>
+        <v>6683600</v>
       </c>
       <c r="H66" s="3">
-        <v>6483400</v>
+        <v>6198100</v>
       </c>
       <c r="I66" s="3">
-        <v>6282200</v>
+        <v>6005800</v>
       </c>
       <c r="J66" s="3">
-        <v>5859900</v>
+        <v>5602100</v>
       </c>
       <c r="K66" s="3">
         <v>5413500</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3996900</v>
+        <v>-3821100</v>
       </c>
       <c r="E72" s="3">
-        <v>-3512100</v>
+        <v>-3357600</v>
       </c>
       <c r="F72" s="3">
-        <v>-4034900</v>
+        <v>-3857400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3959200</v>
+        <v>-3785000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3525800</v>
+        <v>-3370700</v>
       </c>
       <c r="I72" s="3">
-        <v>-3754300</v>
+        <v>-3589100</v>
       </c>
       <c r="J72" s="3">
-        <v>-3210100</v>
+        <v>-3068900</v>
       </c>
       <c r="K72" s="3">
         <v>-3134500</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3545500</v>
+        <v>-3389500</v>
       </c>
       <c r="E76" s="3">
-        <v>-3060500</v>
+        <v>-2925900</v>
       </c>
       <c r="F76" s="3">
-        <v>-3587800</v>
+        <v>-3429900</v>
       </c>
       <c r="G76" s="3">
-        <v>-3512000</v>
+        <v>-3357500</v>
       </c>
       <c r="H76" s="3">
-        <v>-3080800</v>
+        <v>-2945300</v>
       </c>
       <c r="I76" s="3">
-        <v>-3309100</v>
+        <v>-3163500</v>
       </c>
       <c r="J76" s="3">
-        <v>-2768900</v>
+        <v>-2647100</v>
       </c>
       <c r="K76" s="3">
         <v>-2700900</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-513600</v>
+        <v>-491000</v>
       </c>
       <c r="E81" s="3">
-        <v>520300</v>
+        <v>497400</v>
       </c>
       <c r="F81" s="3">
-        <v>-76400</v>
+        <v>-73000</v>
       </c>
       <c r="G81" s="3">
-        <v>-439100</v>
+        <v>-419800</v>
       </c>
       <c r="H81" s="3">
-        <v>210000</v>
+        <v>200800</v>
       </c>
       <c r="I81" s="3">
-        <v>-519100</v>
+        <v>-496300</v>
       </c>
       <c r="J81" s="3">
-        <v>-62100</v>
+        <v>-59400</v>
       </c>
       <c r="K81" s="3">
         <v>-238900</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>93600</v>
+        <v>89500</v>
       </c>
       <c r="E83" s="3">
-        <v>102200</v>
+        <v>97700</v>
       </c>
       <c r="F83" s="3">
-        <v>98200</v>
+        <v>93900</v>
       </c>
       <c r="G83" s="3">
-        <v>68400</v>
+        <v>65400</v>
       </c>
       <c r="H83" s="3">
-        <v>68400</v>
+        <v>65400</v>
       </c>
       <c r="I83" s="3">
-        <v>67300</v>
+        <v>64300</v>
       </c>
       <c r="J83" s="3">
-        <v>75000</v>
+        <v>71700</v>
       </c>
       <c r="K83" s="3">
         <v>86900</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>215400</v>
+        <v>206000</v>
       </c>
       <c r="E89" s="3">
-        <v>-46600</v>
+        <v>-44500</v>
       </c>
       <c r="F89" s="3">
-        <v>66000</v>
+        <v>63100</v>
       </c>
       <c r="G89" s="3">
-        <v>-13700</v>
+        <v>-13100</v>
       </c>
       <c r="H89" s="3">
-        <v>-42900</v>
+        <v>-41000</v>
       </c>
       <c r="I89" s="3">
-        <v>-70200</v>
+        <v>-67100</v>
       </c>
       <c r="J89" s="3">
-        <v>42400</v>
+        <v>40500</v>
       </c>
       <c r="K89" s="3">
         <v>40600</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53400</v>
+        <v>-51100</v>
       </c>
       <c r="E91" s="3">
-        <v>-36000</v>
+        <v>-34500</v>
       </c>
       <c r="F91" s="3">
-        <v>-48500</v>
+        <v>-46300</v>
       </c>
       <c r="G91" s="3">
-        <v>-18600</v>
+        <v>-17700</v>
       </c>
       <c r="H91" s="3">
-        <v>-20700</v>
+        <v>-19800</v>
       </c>
       <c r="I91" s="3">
-        <v>-34500</v>
+        <v>-33000</v>
       </c>
       <c r="J91" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="K91" s="3">
         <v>-8600</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-65100</v>
+        <v>-62300</v>
       </c>
       <c r="E94" s="3">
-        <v>-44400</v>
+        <v>-42500</v>
       </c>
       <c r="F94" s="3">
-        <v>-55600</v>
+        <v>-53200</v>
       </c>
       <c r="G94" s="3">
-        <v>-28000</v>
+        <v>-26800</v>
       </c>
       <c r="H94" s="3">
-        <v>-24000</v>
+        <v>-22900</v>
       </c>
       <c r="I94" s="3">
-        <v>-30600</v>
+        <v>-29300</v>
       </c>
       <c r="J94" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K94" s="3">
         <v>-20600</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-123700</v>
+        <v>-118300</v>
       </c>
       <c r="E100" s="3">
-        <v>-137700</v>
+        <v>-131600</v>
       </c>
       <c r="F100" s="3">
-        <v>-127100</v>
+        <v>-121600</v>
       </c>
       <c r="G100" s="3">
-        <v>-135000</v>
+        <v>-129100</v>
       </c>
       <c r="H100" s="3">
-        <v>483600</v>
+        <v>462300</v>
       </c>
       <c r="I100" s="3">
-        <v>-58200</v>
+        <v>-55600</v>
       </c>
       <c r="J100" s="3">
-        <v>271100</v>
+        <v>259200</v>
       </c>
       <c r="K100" s="3">
         <v>-45200</v>
@@ -7110,25 +7110,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="E101" s="3">
-        <v>-9300</v>
+        <v>-8900</v>
       </c>
       <c r="F101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G101" s="3">
-        <v>38600</v>
+        <v>36900</v>
       </c>
       <c r="H101" s="3">
-        <v>-12800</v>
+        <v>-12300</v>
       </c>
       <c r="I101" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34400</v>
+        <v>32900</v>
       </c>
       <c r="E102" s="3">
-        <v>-238000</v>
+        <v>-227500</v>
       </c>
       <c r="F102" s="3">
-        <v>-109500</v>
+        <v>-104700</v>
       </c>
       <c r="G102" s="3">
-        <v>-138100</v>
+        <v>-132000</v>
       </c>
       <c r="H102" s="3">
-        <v>403800</v>
+        <v>386100</v>
       </c>
       <c r="I102" s="3">
-        <v>-154500</v>
+        <v>-147700</v>
       </c>
       <c r="J102" s="3">
-        <v>318800</v>
+        <v>304800</v>
       </c>
       <c r="K102" s="3">
         <v>-25500</v>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>734300</v>
+        <v>862300</v>
       </c>
       <c r="E8" s="3">
-        <v>597400</v>
+        <v>847500</v>
       </c>
       <c r="F8" s="3">
-        <v>697800</v>
+        <v>760000</v>
       </c>
       <c r="G8" s="3">
-        <v>508500</v>
+        <v>618300</v>
       </c>
       <c r="H8" s="3">
-        <v>318500</v>
+        <v>722200</v>
       </c>
       <c r="I8" s="3">
+        <v>526200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>329600</v>
+      </c>
+      <c r="K8" s="3">
         <v>341600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>324500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>156900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>631400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>500300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>600600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>568500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>967900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>475700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>459400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>447000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>465700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>511900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>560500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>510700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>440200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>466000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>451700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>419300</v>
+        <v>458000</v>
       </c>
       <c r="E9" s="3">
-        <v>312100</v>
+        <v>470900</v>
       </c>
       <c r="F9" s="3">
-        <v>311300</v>
+        <v>433900</v>
       </c>
       <c r="G9" s="3">
-        <v>246200</v>
+        <v>323000</v>
       </c>
       <c r="H9" s="3">
-        <v>181400</v>
+        <v>322200</v>
       </c>
       <c r="I9" s="3">
+        <v>254800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>187700</v>
+      </c>
+      <c r="K9" s="3">
         <v>173500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>148900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>89200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>290400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>219100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>239700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>232100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>402500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>195600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>189700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>197900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>201200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>218700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>307600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>287100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>265500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>270700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>267400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>315000</v>
+        <v>404300</v>
       </c>
       <c r="E10" s="3">
-        <v>285300</v>
+        <v>376600</v>
       </c>
       <c r="F10" s="3">
-        <v>386500</v>
+        <v>326000</v>
       </c>
       <c r="G10" s="3">
-        <v>262200</v>
+        <v>295200</v>
       </c>
       <c r="H10" s="3">
-        <v>137100</v>
+        <v>400000</v>
       </c>
       <c r="I10" s="3">
+        <v>271400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K10" s="3">
         <v>168000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>175600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>67700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>341000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>281200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>360900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>336400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>565400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>280100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>269800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>249100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>264400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>293100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>252800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>223600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>174700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>195300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>184300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,43 +1219,49 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>41300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-220800</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>11800</v>
+        <v>42700</v>
       </c>
       <c r="H14" s="3">
+        <v>-228500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-141700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1236,11 +1275,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1263,85 +1302,97 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>89500</v>
+        <v>110900</v>
       </c>
       <c r="E15" s="3">
-        <v>97700</v>
+        <v>100900</v>
       </c>
       <c r="F15" s="3">
-        <v>93900</v>
+        <v>92600</v>
       </c>
       <c r="G15" s="3">
-        <v>65400</v>
+        <v>101100</v>
       </c>
       <c r="H15" s="3">
-        <v>65400</v>
+        <v>97200</v>
       </c>
       <c r="I15" s="3">
+        <v>67600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K15" s="3">
         <v>64300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>71700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>86900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>283900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>85800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>464000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>144400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>224100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>70500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>63500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>60400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>75200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>69200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>13600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>22900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>20700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>19000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>18700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>708800</v>
+        <v>760700</v>
       </c>
       <c r="E17" s="3">
-        <v>584200</v>
+        <v>769300</v>
       </c>
       <c r="F17" s="3">
-        <v>598100</v>
+        <v>733500</v>
       </c>
       <c r="G17" s="3">
-        <v>483000</v>
+        <v>604600</v>
       </c>
       <c r="H17" s="3">
-        <v>393400</v>
+        <v>619000</v>
       </c>
       <c r="I17" s="3">
+        <v>499900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>407100</v>
+      </c>
+      <c r="K17" s="3">
         <v>381600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>378100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>205100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>801900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>469300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1049500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>469700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>840200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>410700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>423000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>368200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>419000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>424700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>484200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>448400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>414900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>414100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>409500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25500</v>
+        <v>101600</v>
       </c>
       <c r="E18" s="3">
-        <v>13200</v>
+        <v>78200</v>
       </c>
       <c r="F18" s="3">
-        <v>99700</v>
+        <v>26400</v>
       </c>
       <c r="G18" s="3">
-        <v>25500</v>
+        <v>13700</v>
       </c>
       <c r="H18" s="3">
-        <v>-74900</v>
+        <v>103100</v>
       </c>
       <c r="I18" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-40100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-53600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-48200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-170500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>31000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-448800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>98800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>127700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>65000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>36400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>78800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>46700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>87200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>76200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>62300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>25300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>51900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>42200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,215 +1614,229 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-506100</v>
+        <v>-56800</v>
       </c>
       <c r="E20" s="3">
-        <v>495600</v>
+        <v>-360800</v>
       </c>
       <c r="F20" s="3">
-        <v>-172700</v>
+        <v>-523800</v>
       </c>
       <c r="G20" s="3">
-        <v>-436000</v>
+        <v>512900</v>
       </c>
       <c r="H20" s="3">
-        <v>280100</v>
+        <v>-178700</v>
       </c>
       <c r="I20" s="3">
+        <v>-451200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>289900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-453400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-183200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1702100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1171000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-203300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-51300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-52900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-82000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-221400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-42100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>18600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-11700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-35900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-35300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-391100</v>
+        <v>155700</v>
       </c>
       <c r="E21" s="3">
-        <v>606400</v>
+        <v>-181700</v>
       </c>
       <c r="F21" s="3">
-        <v>20900</v>
+        <v>-404800</v>
       </c>
       <c r="G21" s="3">
-        <v>-345100</v>
+        <v>627600</v>
       </c>
       <c r="H21" s="3">
-        <v>270600</v>
+        <v>21700</v>
       </c>
       <c r="I21" s="3">
+        <v>-357200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>280000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-429200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>23700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-144500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1680100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1054200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-207800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>41200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>150200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>82600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>24800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-168700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>114300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>85500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>52900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>35000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>25600</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>10400</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>11300</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>35900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4400</v>
-      </c>
       <c r="I22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9500</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>10100</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-491000</v>
+        <v>44800</v>
       </c>
       <c r="E23" s="3">
-        <v>497400</v>
+        <v>-318500</v>
       </c>
       <c r="F23" s="3">
-        <v>-73000</v>
+        <v>-508200</v>
       </c>
       <c r="G23" s="3">
-        <v>-419800</v>
+        <v>514800</v>
       </c>
       <c r="H23" s="3">
-        <v>200800</v>
+        <v>-75600</v>
       </c>
       <c r="I23" s="3">
+        <v>-434400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-496300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-60300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-234500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1882100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1140000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-455800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-104500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>66300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>12000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>22400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-174700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>45100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>94800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>50600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>16000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>6900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-51200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-44600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-11400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>16600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>10100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>18600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>10400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-491000</v>
+        <v>44800</v>
       </c>
       <c r="E26" s="3">
-        <v>497400</v>
+        <v>-318500</v>
       </c>
       <c r="F26" s="3">
-        <v>-73000</v>
+        <v>-508200</v>
       </c>
       <c r="G26" s="3">
-        <v>-419800</v>
+        <v>514800</v>
       </c>
       <c r="H26" s="3">
-        <v>200800</v>
+        <v>-75600</v>
       </c>
       <c r="I26" s="3">
+        <v>-434400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-496300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-59400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-238900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1830900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1095400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-452200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-103300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>86400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>23400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-8800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-184800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>40200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>76200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>51100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>14500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-491000</v>
+        <v>44800</v>
       </c>
       <c r="E27" s="3">
-        <v>497400</v>
+        <v>-318500</v>
       </c>
       <c r="F27" s="3">
-        <v>-73000</v>
+        <v>-508200</v>
       </c>
       <c r="G27" s="3">
-        <v>-419800</v>
+        <v>514800</v>
       </c>
       <c r="H27" s="3">
-        <v>200800</v>
+        <v>-75600</v>
       </c>
       <c r="I27" s="3">
+        <v>-434400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-496300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-59400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-238900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1830900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1095400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-452200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-103300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>86400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>23400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-8800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-184800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>40200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>76200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>51000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>14500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>506100</v>
+        <v>56800</v>
       </c>
       <c r="E32" s="3">
-        <v>-495600</v>
+        <v>360800</v>
       </c>
       <c r="F32" s="3">
-        <v>172700</v>
+        <v>523800</v>
       </c>
       <c r="G32" s="3">
-        <v>436000</v>
+        <v>-512900</v>
       </c>
       <c r="H32" s="3">
-        <v>-280100</v>
+        <v>178700</v>
       </c>
       <c r="I32" s="3">
+        <v>451200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-289900</v>
+      </c>
+      <c r="K32" s="3">
         <v>453400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>183200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1702100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1171000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>203300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>51300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>52900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>82000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>221400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>42100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-18600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>11700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>38300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>35900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>35300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-491000</v>
+        <v>44800</v>
       </c>
       <c r="E33" s="3">
-        <v>497400</v>
+        <v>-318500</v>
       </c>
       <c r="F33" s="3">
-        <v>-73000</v>
+        <v>-508200</v>
       </c>
       <c r="G33" s="3">
-        <v>-419800</v>
+        <v>514800</v>
       </c>
       <c r="H33" s="3">
-        <v>200800</v>
+        <v>-75600</v>
       </c>
       <c r="I33" s="3">
+        <v>-434400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-496300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-59400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-238900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1830900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1095400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-452200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-103300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>86400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>23400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-8800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-184800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>40200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>76200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>51000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>14500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-491000</v>
+        <v>44800</v>
       </c>
       <c r="E35" s="3">
-        <v>497400</v>
+        <v>-318500</v>
       </c>
       <c r="F35" s="3">
-        <v>-73000</v>
+        <v>-508200</v>
       </c>
       <c r="G35" s="3">
-        <v>-419800</v>
+        <v>514800</v>
       </c>
       <c r="H35" s="3">
-        <v>200800</v>
+        <v>-75600</v>
       </c>
       <c r="I35" s="3">
+        <v>-434400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-496300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-59400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-238900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1830900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1095400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-452200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-103300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>86400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>23400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-8800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-184800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>40200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>76200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>51000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>14500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3092,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>380500</v>
+        <v>129400</v>
       </c>
       <c r="E41" s="3">
-        <v>347600</v>
+        <v>213700</v>
       </c>
       <c r="F41" s="3">
-        <v>575100</v>
+        <v>393800</v>
       </c>
       <c r="G41" s="3">
-        <v>679800</v>
+        <v>359700</v>
       </c>
       <c r="H41" s="3">
-        <v>811800</v>
+        <v>595200</v>
       </c>
       <c r="I41" s="3">
+        <v>703500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>840200</v>
+      </c>
+      <c r="K41" s="3">
         <v>425700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>573400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>279600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>308700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>94500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>304400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>285500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>227500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>170000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>437600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>165400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>198300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>172500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>195400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>124600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>128400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>107900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>136200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>17200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>26000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>12700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>131800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>11500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>7700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>49100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>74300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>193700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>123500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>169400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>146600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>265600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>239200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>227400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>50800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>82200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>340100</v>
+        <v>408400</v>
       </c>
       <c r="E43" s="3">
-        <v>290300</v>
+        <v>478900</v>
       </c>
       <c r="F43" s="3">
-        <v>221500</v>
+        <v>352000</v>
       </c>
       <c r="G43" s="3">
-        <v>334100</v>
+        <v>300400</v>
       </c>
       <c r="H43" s="3">
-        <v>246000</v>
+        <v>229200</v>
       </c>
       <c r="I43" s="3">
+        <v>345800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K43" s="3">
         <v>216300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>211900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>174500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>160500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>191300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>255000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>350500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>341100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>322000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>267000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>309100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>332300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>313500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>263200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>233900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>222000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>167900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>178100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>123100</v>
+        <v>139700</v>
       </c>
       <c r="E44" s="3">
-        <v>112600</v>
+        <v>131400</v>
       </c>
       <c r="F44" s="3">
-        <v>107000</v>
+        <v>127400</v>
       </c>
       <c r="G44" s="3">
-        <v>97200</v>
+        <v>116500</v>
       </c>
       <c r="H44" s="3">
-        <v>89700</v>
+        <v>110700</v>
       </c>
       <c r="I44" s="3">
+        <v>100600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K44" s="3">
         <v>85000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>75300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>73300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>78700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>67900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>48200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>49500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>43100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>42100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>37500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>36700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>40000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>40900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>38600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>34500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>33200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>28500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>26600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>226300</v>
+        <v>265800</v>
       </c>
       <c r="E45" s="3">
-        <v>190400</v>
+        <v>169200</v>
       </c>
       <c r="F45" s="3">
-        <v>190000</v>
+        <v>234200</v>
       </c>
       <c r="G45" s="3">
-        <v>155600</v>
+        <v>197000</v>
       </c>
       <c r="H45" s="3">
-        <v>116200</v>
+        <v>196600</v>
       </c>
       <c r="I45" s="3">
+        <v>161100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K45" s="3">
         <v>124700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>135800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>148800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>127000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>152300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>145400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>67500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>67500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>61600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>70500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>40600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>67100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>79000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>84100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>50600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>65700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>65500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>50900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1070100</v>
+        <v>943300</v>
       </c>
       <c r="E46" s="3">
-        <v>941100</v>
+        <v>993200</v>
       </c>
       <c r="F46" s="3">
-        <v>1093800</v>
+        <v>1107500</v>
       </c>
       <c r="G46" s="3">
-        <v>1266900</v>
+        <v>974000</v>
       </c>
       <c r="H46" s="3">
-        <v>1263800</v>
+        <v>1132000</v>
       </c>
       <c r="I46" s="3">
+        <v>1311200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="K46" s="3">
         <v>853700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1013500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>702200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>687600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>637800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>764400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>760800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>728400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>669900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>690500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>675300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>807100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>734800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>847000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>682700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>676700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>420500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>473900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>131300</v>
+        <v>141900</v>
       </c>
       <c r="E47" s="3">
-        <v>135100</v>
+        <v>133800</v>
       </c>
       <c r="F47" s="3">
-        <v>169600</v>
+        <v>135900</v>
       </c>
       <c r="G47" s="3">
-        <v>203100</v>
+        <v>139800</v>
       </c>
       <c r="H47" s="3">
-        <v>192000</v>
+        <v>175600</v>
       </c>
       <c r="I47" s="3">
+        <v>210200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>198800</v>
+      </c>
+      <c r="K47" s="3">
         <v>210300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>159900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>228800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>213200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>225800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>303300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>258900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>249900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>299200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>241000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>286400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>333000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>280800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>216800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>209500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>200600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>188600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>189100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1539100</v>
+        <v>1840600</v>
       </c>
       <c r="E48" s="3">
-        <v>1540200</v>
+        <v>1651800</v>
       </c>
       <c r="F48" s="3">
-        <v>1489400</v>
+        <v>1592900</v>
       </c>
       <c r="G48" s="3">
-        <v>1201200</v>
+        <v>1594000</v>
       </c>
       <c r="H48" s="3">
-        <v>1198100</v>
+        <v>1541400</v>
       </c>
       <c r="I48" s="3">
+        <v>1243200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1174700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1199300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1034900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1304600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1713000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1764600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1681400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1665700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1529900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1385000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1289600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1538300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1619300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>852600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>834400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>893200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>840600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>853400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>256900</v>
+        <v>276200</v>
       </c>
       <c r="E49" s="3">
-        <v>256900</v>
+        <v>270600</v>
       </c>
       <c r="F49" s="3">
-        <v>254100</v>
+        <v>265900</v>
       </c>
       <c r="G49" s="3">
-        <v>251700</v>
+        <v>265800</v>
       </c>
       <c r="H49" s="3">
-        <v>247600</v>
+        <v>263000</v>
       </c>
       <c r="I49" s="3">
+        <v>260500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K49" s="3">
         <v>222100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>218900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>224300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>225500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>194400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>200900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>197100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>196200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>192200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>190200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>184700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>227000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>224300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>246400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>243600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>244100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>233900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>233800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>469300</v>
+        <v>422900</v>
       </c>
       <c r="E52" s="3">
-        <v>454300</v>
+        <v>497700</v>
       </c>
       <c r="F52" s="3">
-        <v>460500</v>
+        <v>485700</v>
       </c>
       <c r="G52" s="3">
-        <v>403200</v>
+        <v>470100</v>
       </c>
       <c r="H52" s="3">
-        <v>351300</v>
+        <v>476600</v>
       </c>
       <c r="I52" s="3">
+        <v>417300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>363600</v>
+      </c>
+      <c r="K52" s="3">
         <v>381600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>363300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>522400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>557400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>588300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>512600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>592400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>531100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>521300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>505000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>438800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>529700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>452100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>482000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>339700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>340000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>318200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>333700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3466700</v>
+        <v>3625000</v>
       </c>
       <c r="E54" s="3">
-        <v>3327500</v>
+        <v>3547100</v>
       </c>
       <c r="F54" s="3">
-        <v>3467400</v>
+        <v>3587900</v>
       </c>
       <c r="G54" s="3">
-        <v>3326100</v>
+        <v>3443800</v>
       </c>
       <c r="H54" s="3">
-        <v>3252900</v>
+        <v>3588600</v>
       </c>
       <c r="I54" s="3">
+        <v>3442400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3366600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2842400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2955000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2712600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2988200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3359200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3545800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3490600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3371300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3161700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3011700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2872400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3432500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3311400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2644800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2309900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2354700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2001800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2084000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>338100</v>
+        <v>471100</v>
       </c>
       <c r="E57" s="3">
-        <v>384500</v>
+        <v>422800</v>
       </c>
       <c r="F57" s="3">
-        <v>332200</v>
+        <v>349900</v>
       </c>
       <c r="G57" s="3">
-        <v>407700</v>
+        <v>397900</v>
       </c>
       <c r="H57" s="3">
-        <v>414600</v>
+        <v>343800</v>
       </c>
       <c r="I57" s="3">
+        <v>421900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>429100</v>
+      </c>
+      <c r="K57" s="3">
         <v>446500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>448400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>566100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>512200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>376600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>298800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>302500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>307300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>271400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>241600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>280900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>244800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>244500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>224200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>230000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>256500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>256600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>886000</v>
+        <v>997900</v>
       </c>
       <c r="E58" s="3">
-        <v>845800</v>
+        <v>984400</v>
       </c>
       <c r="F58" s="3">
-        <v>845800</v>
+        <v>917000</v>
       </c>
       <c r="G58" s="3">
-        <v>771100</v>
+        <v>875300</v>
       </c>
       <c r="H58" s="3">
-        <v>636600</v>
+        <v>875400</v>
       </c>
       <c r="I58" s="3">
+        <v>798100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>658900</v>
+      </c>
+      <c r="K58" s="3">
         <v>660400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>585700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>713300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>665000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>764400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>381700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>331400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>282600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>271900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>261400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>286900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>368300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>340600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>145700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>259200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>282300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>252900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>255500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1314600</v>
+        <v>1446400</v>
       </c>
       <c r="E59" s="3">
-        <v>976700</v>
+        <v>1469700</v>
       </c>
       <c r="F59" s="3">
-        <v>1012900</v>
+        <v>1360600</v>
       </c>
       <c r="G59" s="3">
-        <v>960800</v>
+        <v>1010800</v>
       </c>
       <c r="H59" s="3">
-        <v>887500</v>
+        <v>1048300</v>
       </c>
       <c r="I59" s="3">
+        <v>994400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>918500</v>
+      </c>
+      <c r="K59" s="3">
         <v>811000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>876600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>832300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>747700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>585300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>506900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>534000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>442300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>454500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>413200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>462600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>417400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>480800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>492600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>417300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>378600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>385400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2538700</v>
+        <v>2915300</v>
       </c>
       <c r="E60" s="3">
-        <v>2206900</v>
+        <v>2876900</v>
       </c>
       <c r="F60" s="3">
-        <v>2190900</v>
+        <v>2627400</v>
       </c>
       <c r="G60" s="3">
-        <v>2139600</v>
+        <v>2284100</v>
       </c>
       <c r="H60" s="3">
-        <v>1938800</v>
+        <v>2267500</v>
       </c>
       <c r="I60" s="3">
+        <v>2214400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2006600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1918000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1910700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2111700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1924800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1741300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1267400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1137100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1085900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>981200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>987300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>941600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1111800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1002800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>870900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>976000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>929600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>888000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>897500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3450000</v>
+        <v>3498000</v>
       </c>
       <c r="E61" s="3">
-        <v>3217400</v>
+        <v>3638300</v>
       </c>
       <c r="F61" s="3">
-        <v>3814400</v>
+        <v>3570600</v>
       </c>
       <c r="G61" s="3">
-        <v>3792300</v>
+        <v>3329900</v>
       </c>
       <c r="H61" s="3">
-        <v>3633800</v>
+        <v>3947800</v>
       </c>
       <c r="I61" s="3">
+        <v>3924900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3760800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3440400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3133900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2852200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3125000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2922900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2504200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2291700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2086300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2057800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1923500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1921600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2315500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2019000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>749100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>485500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>651400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>668900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>756500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>867500</v>
+        <v>892100</v>
       </c>
       <c r="E62" s="3">
-        <v>829000</v>
+        <v>929800</v>
       </c>
       <c r="F62" s="3">
-        <v>892000</v>
+        <v>897800</v>
       </c>
       <c r="G62" s="3">
-        <v>751700</v>
+        <v>858000</v>
       </c>
       <c r="H62" s="3">
-        <v>625600</v>
+        <v>923200</v>
       </c>
       <c r="I62" s="3">
+        <v>778000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>647400</v>
+      </c>
+      <c r="K62" s="3">
         <v>647500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>557500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>449500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>430900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>417200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>424100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>182700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>314100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>318900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>316100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>210700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>238300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>235200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>309000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>203000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>187100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>181300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>181500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6856200</v>
+        <v>7305400</v>
       </c>
       <c r="E66" s="3">
-        <v>6253400</v>
+        <v>7445000</v>
       </c>
       <c r="F66" s="3">
-        <v>6897300</v>
+        <v>7095800</v>
       </c>
       <c r="G66" s="3">
-        <v>6683600</v>
+        <v>6472000</v>
       </c>
       <c r="H66" s="3">
-        <v>6198100</v>
+        <v>7138500</v>
       </c>
       <c r="I66" s="3">
+        <v>6917200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6414800</v>
+      </c>
+      <c r="K66" s="3">
         <v>6005800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5602100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5413500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5480700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5081300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4195800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3611600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3486300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3357800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3227000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3074000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3665500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3257000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1929000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1664500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1768000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1738200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1835400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3821100</v>
+        <v>-4127500</v>
       </c>
       <c r="E72" s="3">
-        <v>-3357600</v>
+        <v>-4346500</v>
       </c>
       <c r="F72" s="3">
-        <v>-3857400</v>
+        <v>-3954600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3785000</v>
+        <v>-3475000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3370700</v>
+        <v>-3992200</v>
       </c>
       <c r="I72" s="3">
+        <v>-3917300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-3488500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3589100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3068900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3134500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2930200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2094800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1032000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-499000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-511200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-575600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-597900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-566100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-703100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-451000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>164700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>96400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>39100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-97500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-112300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3389500</v>
+        <v>-3680400</v>
       </c>
       <c r="E76" s="3">
-        <v>-2925900</v>
+        <v>-3897900</v>
       </c>
       <c r="F76" s="3">
-        <v>-3429900</v>
+        <v>-3508000</v>
       </c>
       <c r="G76" s="3">
-        <v>-3357500</v>
+        <v>-3028100</v>
       </c>
       <c r="H76" s="3">
-        <v>-2945300</v>
+        <v>-3549800</v>
       </c>
       <c r="I76" s="3">
+        <v>-3474900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-3048200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3163500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2647100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2492500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1722100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-650000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-121000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-196100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-215200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-201500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-233100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>54400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>715800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>645500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>586600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>263500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>248600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-491000</v>
+        <v>44800</v>
       </c>
       <c r="E81" s="3">
-        <v>497400</v>
+        <v>-318500</v>
       </c>
       <c r="F81" s="3">
-        <v>-73000</v>
+        <v>-508200</v>
       </c>
       <c r="G81" s="3">
-        <v>-419800</v>
+        <v>514800</v>
       </c>
       <c r="H81" s="3">
-        <v>200800</v>
+        <v>-75600</v>
       </c>
       <c r="I81" s="3">
+        <v>-434400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-496300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-59400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-238900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1830900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1095400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-452200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-103300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>86400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>23400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-8800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-184800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>40200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>76200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>51000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>14500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,43 +6209,45 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89500</v>
+        <v>110900</v>
       </c>
       <c r="E83" s="3">
-        <v>97700</v>
+        <v>100900</v>
       </c>
       <c r="F83" s="3">
-        <v>93900</v>
+        <v>92600</v>
       </c>
       <c r="G83" s="3">
-        <v>65400</v>
+        <v>101100</v>
       </c>
       <c r="H83" s="3">
-        <v>65400</v>
+        <v>97200</v>
       </c>
       <c r="I83" s="3">
+        <v>67600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K83" s="3">
         <v>64300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>71700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>86900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>192400</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
@@ -5858,11 +6255,11 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5882,17 +6279,23 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>8</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>206000</v>
+        <v>293200</v>
       </c>
       <c r="E89" s="3">
-        <v>-44500</v>
+        <v>11600</v>
       </c>
       <c r="F89" s="3">
-        <v>63100</v>
+        <v>213200</v>
       </c>
       <c r="G89" s="3">
-        <v>-13100</v>
+        <v>-46100</v>
       </c>
       <c r="H89" s="3">
-        <v>-41000</v>
+        <v>65300</v>
       </c>
       <c r="I89" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-67100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>40500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>40600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>108700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>160400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>142600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>181300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>53800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>129100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>111400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>88000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>22500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>10200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>108600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-49800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>6500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>79300</v>
       </c>
-      <c r="AA89" s="3" t="s">
+      <c r="AC89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51100</v>
+        <v>-70100</v>
       </c>
       <c r="E91" s="3">
-        <v>-34500</v>
+        <v>-83900</v>
       </c>
       <c r="F91" s="3">
-        <v>-46300</v>
+        <v>-52900</v>
       </c>
       <c r="G91" s="3">
-        <v>-17700</v>
+        <v>-35700</v>
       </c>
       <c r="H91" s="3">
-        <v>-19800</v>
+        <v>-47900</v>
       </c>
       <c r="I91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-33000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-52100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-39700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-85700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-63500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-117400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-75200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-40100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-27400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-70800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-20700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-30600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-32600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-50600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-32900</v>
       </c>
-      <c r="AA91" s="3" t="s">
+      <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-62300</v>
+        <v>-43700</v>
       </c>
       <c r="E94" s="3">
-        <v>-42500</v>
+        <v>28200</v>
       </c>
       <c r="F94" s="3">
-        <v>-53200</v>
+        <v>-64500</v>
       </c>
       <c r="G94" s="3">
-        <v>-26800</v>
+        <v>-44000</v>
       </c>
       <c r="H94" s="3">
-        <v>-22900</v>
+        <v>-55000</v>
       </c>
       <c r="I94" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-29300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-20600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-61900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-165700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-99400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-14700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-106900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-74600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-16700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>7700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-61200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>85800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-52300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-21700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-208400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>31300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-70100</v>
       </c>
-      <c r="AA94" s="3" t="s">
+      <c r="AC94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-118300</v>
+        <v>-331000</v>
       </c>
       <c r="E100" s="3">
-        <v>-131600</v>
+        <v>-224200</v>
       </c>
       <c r="F100" s="3">
-        <v>-121600</v>
+        <v>-122400</v>
       </c>
       <c r="G100" s="3">
-        <v>-129100</v>
+        <v>-136200</v>
       </c>
       <c r="H100" s="3">
-        <v>462300</v>
+        <v>-125800</v>
       </c>
       <c r="I100" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>478500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-55600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>259200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-45200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-43300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-29600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-46400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-57400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-66900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-14100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>16200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-41400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>25700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-31400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>102700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-86100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>270200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-65000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>20400</v>
       </c>
-      <c r="AA100" s="3" t="s">
+      <c r="AC100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7500</v>
+        <v>-2800</v>
       </c>
       <c r="E101" s="3">
-        <v>-8900</v>
+        <v>4400</v>
       </c>
       <c r="F101" s="3">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="G101" s="3">
-        <v>36900</v>
+        <v>-9200</v>
       </c>
       <c r="H101" s="3">
-        <v>-12300</v>
+        <v>7200</v>
       </c>
       <c r="I101" s="3">
+        <v>38200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K101" s="3">
         <v>4300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-19500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-12100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-4300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>13900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>10400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-4600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>4800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z101" s="3" t="s">
+      <c r="AB101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA101" s="3" t="s">
+      <c r="AC101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32900</v>
+        <v>-84300</v>
       </c>
       <c r="E102" s="3">
-        <v>-227500</v>
+        <v>-180100</v>
       </c>
       <c r="F102" s="3">
-        <v>-104700</v>
+        <v>34100</v>
       </c>
       <c r="G102" s="3">
-        <v>-132000</v>
+        <v>-235500</v>
       </c>
       <c r="H102" s="3">
-        <v>386100</v>
+        <v>-108300</v>
       </c>
       <c r="I102" s="3">
+        <v>-136700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>399600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-147700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>304800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-25500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-16100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-199700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>23200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>58000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>8200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-48800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>51500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>8300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>25700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-5500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>70900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>16900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-28300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>29600</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>862300</v>
+        <v>901900</v>
       </c>
       <c r="E8" s="3">
-        <v>847500</v>
+        <v>896900</v>
       </c>
       <c r="F8" s="3">
-        <v>760000</v>
+        <v>881500</v>
       </c>
       <c r="G8" s="3">
-        <v>618300</v>
+        <v>790500</v>
       </c>
       <c r="H8" s="3">
-        <v>722200</v>
+        <v>643100</v>
       </c>
       <c r="I8" s="3">
-        <v>526200</v>
+        <v>751200</v>
       </c>
       <c r="J8" s="3">
+        <v>547400</v>
+      </c>
+      <c r="K8" s="3">
         <v>329600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>341600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>324500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>156900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>631400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>568500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>967900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>475700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>459400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>447000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>465700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>511900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>560500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>510700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>440200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>466000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>451700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>458000</v>
+        <v>421700</v>
       </c>
       <c r="E9" s="3">
-        <v>470900</v>
+        <v>522200</v>
       </c>
       <c r="F9" s="3">
-        <v>433900</v>
+        <v>489800</v>
       </c>
       <c r="G9" s="3">
-        <v>323000</v>
+        <v>451300</v>
       </c>
       <c r="H9" s="3">
-        <v>322200</v>
+        <v>336000</v>
       </c>
       <c r="I9" s="3">
-        <v>254800</v>
+        <v>335100</v>
       </c>
       <c r="J9" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K9" s="3">
         <v>187700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>173500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>148900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>89200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>290400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>219100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>239700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>232100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>402500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>195600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>189700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>197900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>201200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>218700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>307600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>287100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>265500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>270700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>267400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>404300</v>
+        <v>480300</v>
       </c>
       <c r="E10" s="3">
-        <v>376600</v>
+        <v>374800</v>
       </c>
       <c r="F10" s="3">
-        <v>326000</v>
+        <v>391700</v>
       </c>
       <c r="G10" s="3">
-        <v>295200</v>
+        <v>339100</v>
       </c>
       <c r="H10" s="3">
-        <v>400000</v>
+        <v>307100</v>
       </c>
       <c r="I10" s="3">
-        <v>271400</v>
+        <v>416100</v>
       </c>
       <c r="J10" s="3">
+        <v>282300</v>
+      </c>
+      <c r="K10" s="3">
         <v>141900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>168000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>175600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>341000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>281200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>360900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>336400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>565400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>280100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>269800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>249100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>264400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>293100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>252800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>223600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>174700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>195300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>184300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,46 +1242,49 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-109800</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-325700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>42700</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>-228500</v>
+        <v>44400</v>
       </c>
       <c r="I14" s="3">
-        <v>12200</v>
+        <v>-237700</v>
       </c>
       <c r="J14" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-141700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3200</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1281,8 +1301,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1308,91 +1328,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>110900</v>
+        <v>114300</v>
       </c>
       <c r="E15" s="3">
-        <v>100900</v>
+        <v>115400</v>
       </c>
       <c r="F15" s="3">
-        <v>92600</v>
+        <v>105000</v>
       </c>
       <c r="G15" s="3">
+        <v>96300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>105100</v>
+      </c>
+      <c r="I15" s="3">
         <v>101100</v>
       </c>
-      <c r="H15" s="3">
-        <v>97200</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K15" s="3">
         <v>67600</v>
       </c>
-      <c r="J15" s="3">
-        <v>67600</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>71700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>86900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>283900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>85800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>464000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>144400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>224100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>70500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>63500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>60400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>75200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>69200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>13600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>22900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>20700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>19000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>18700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>760700</v>
+        <v>808800</v>
       </c>
       <c r="E17" s="3">
-        <v>769300</v>
+        <v>732100</v>
       </c>
       <c r="F17" s="3">
-        <v>733500</v>
+        <v>800200</v>
       </c>
       <c r="G17" s="3">
-        <v>604600</v>
+        <v>763000</v>
       </c>
       <c r="H17" s="3">
-        <v>619000</v>
+        <v>628900</v>
       </c>
       <c r="I17" s="3">
-        <v>499900</v>
+        <v>643900</v>
       </c>
       <c r="J17" s="3">
+        <v>519900</v>
+      </c>
+      <c r="K17" s="3">
         <v>407100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>381600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>378100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>205100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>801900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>469300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1049500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>469700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>840200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>410700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>423000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>368200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>419000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>424700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>484200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>448400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>414900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>414100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>409500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>101600</v>
+        <v>93100</v>
       </c>
       <c r="E18" s="3">
-        <v>78200</v>
+        <v>164900</v>
       </c>
       <c r="F18" s="3">
-        <v>26400</v>
+        <v>81300</v>
       </c>
       <c r="G18" s="3">
-        <v>13700</v>
+        <v>27500</v>
       </c>
       <c r="H18" s="3">
-        <v>103100</v>
+        <v>14200</v>
       </c>
       <c r="I18" s="3">
-        <v>26400</v>
+        <v>107300</v>
       </c>
       <c r="J18" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-77500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-53600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-48200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-170500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-448800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>98800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>127700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>36400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>78800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>46700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>87200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>76200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>62300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>25300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>51900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>42200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,212 +1649,219 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-56800</v>
+        <v>-147400</v>
       </c>
       <c r="E20" s="3">
-        <v>-360800</v>
+        <v>463500</v>
       </c>
       <c r="F20" s="3">
-        <v>-523800</v>
+        <v>-375300</v>
       </c>
       <c r="G20" s="3">
-        <v>512900</v>
+        <v>-544800</v>
       </c>
       <c r="H20" s="3">
-        <v>-178700</v>
+        <v>533500</v>
       </c>
       <c r="I20" s="3">
-        <v>-451200</v>
+        <v>-185900</v>
       </c>
       <c r="J20" s="3">
+        <v>-469300</v>
+      </c>
+      <c r="K20" s="3">
         <v>289900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-453400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-183200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1702100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1171000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-203300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-51300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-52900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-82000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-221400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-42100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>18600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-38300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-35900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-35300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>155700</v>
+        <v>60100</v>
       </c>
       <c r="E21" s="3">
-        <v>-181700</v>
+        <v>743700</v>
       </c>
       <c r="F21" s="3">
-        <v>-404800</v>
+        <v>-189000</v>
       </c>
       <c r="G21" s="3">
-        <v>627600</v>
+        <v>-421000</v>
       </c>
       <c r="H21" s="3">
-        <v>21700</v>
+        <v>652800</v>
       </c>
       <c r="I21" s="3">
-        <v>-357200</v>
+        <v>22500</v>
       </c>
       <c r="J21" s="3">
+        <v>-371500</v>
+      </c>
+      <c r="K21" s="3">
         <v>280000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-429200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-144500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1680100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1054200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-207800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>41200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>82600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-168700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>114300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>85500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>52900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>35000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>25600</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>449400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>37300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>35900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>10800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9600</v>
-      </c>
       <c r="J22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9500</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1829,17 +1869,17 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>10100</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>44800</v>
+        <v>-64900</v>
       </c>
       <c r="E23" s="3">
-        <v>-318500</v>
+        <v>178900</v>
       </c>
       <c r="F23" s="3">
-        <v>-508200</v>
+        <v>-331300</v>
       </c>
       <c r="G23" s="3">
-        <v>514800</v>
+        <v>-528600</v>
       </c>
       <c r="H23" s="3">
-        <v>-75600</v>
+        <v>535500</v>
       </c>
       <c r="I23" s="3">
-        <v>-434400</v>
+        <v>-78600</v>
       </c>
       <c r="J23" s="3">
+        <v>-451900</v>
+      </c>
+      <c r="K23" s="3">
         <v>207800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-496300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-60300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-234500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1882100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1140000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-455800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-104500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-174700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>45100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>94800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>50600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>16000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-51200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-44600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-20100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44800</v>
+        <v>-64900</v>
       </c>
       <c r="E26" s="3">
-        <v>-318500</v>
+        <v>178900</v>
       </c>
       <c r="F26" s="3">
-        <v>-508200</v>
+        <v>-331300</v>
       </c>
       <c r="G26" s="3">
-        <v>514800</v>
+        <v>-528600</v>
       </c>
       <c r="H26" s="3">
-        <v>-75600</v>
+        <v>535500</v>
       </c>
       <c r="I26" s="3">
-        <v>-434400</v>
+        <v>-78600</v>
       </c>
       <c r="J26" s="3">
+        <v>-451900</v>
+      </c>
+      <c r="K26" s="3">
         <v>207800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-496300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-59400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-238900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1830900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1095400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-452200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-103300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>86400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-184800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>40200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>76200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>51100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>14500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>44800</v>
+        <v>-64900</v>
       </c>
       <c r="E27" s="3">
-        <v>-318500</v>
+        <v>178900</v>
       </c>
       <c r="F27" s="3">
-        <v>-508200</v>
+        <v>-331300</v>
       </c>
       <c r="G27" s="3">
-        <v>514800</v>
+        <v>-528600</v>
       </c>
       <c r="H27" s="3">
-        <v>-75600</v>
+        <v>535500</v>
       </c>
       <c r="I27" s="3">
-        <v>-434400</v>
+        <v>-78600</v>
       </c>
       <c r="J27" s="3">
+        <v>-451900</v>
+      </c>
+      <c r="K27" s="3">
         <v>207800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-496300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-59400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-238900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1830900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1095400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-452200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-103300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>86400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-184800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>76200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>51000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>14500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>56800</v>
+        <v>147400</v>
       </c>
       <c r="E32" s="3">
-        <v>360800</v>
+        <v>-463500</v>
       </c>
       <c r="F32" s="3">
-        <v>523800</v>
+        <v>375300</v>
       </c>
       <c r="G32" s="3">
-        <v>-512900</v>
+        <v>544800</v>
       </c>
       <c r="H32" s="3">
-        <v>178700</v>
+        <v>-533500</v>
       </c>
       <c r="I32" s="3">
-        <v>451200</v>
+        <v>185900</v>
       </c>
       <c r="J32" s="3">
+        <v>469300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-289900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>453400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>183200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1702100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1171000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>203300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>51300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>52900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>82000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>221400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>42100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-18600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>38300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>35900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>35300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44800</v>
+        <v>-64900</v>
       </c>
       <c r="E33" s="3">
-        <v>-318500</v>
+        <v>178900</v>
       </c>
       <c r="F33" s="3">
-        <v>-508200</v>
+        <v>-331300</v>
       </c>
       <c r="G33" s="3">
-        <v>514800</v>
+        <v>-528600</v>
       </c>
       <c r="H33" s="3">
-        <v>-75600</v>
+        <v>535500</v>
       </c>
       <c r="I33" s="3">
-        <v>-434400</v>
+        <v>-78600</v>
       </c>
       <c r="J33" s="3">
+        <v>-451900</v>
+      </c>
+      <c r="K33" s="3">
         <v>207800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-496300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-59400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-238900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1830900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1095400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-452200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-103300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>86400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-184800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>40200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>76200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>51000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>14500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44800</v>
+        <v>-64900</v>
       </c>
       <c r="E35" s="3">
-        <v>-318500</v>
+        <v>178900</v>
       </c>
       <c r="F35" s="3">
-        <v>-508200</v>
+        <v>-331300</v>
       </c>
       <c r="G35" s="3">
-        <v>514800</v>
+        <v>-528600</v>
       </c>
       <c r="H35" s="3">
-        <v>-75600</v>
+        <v>535500</v>
       </c>
       <c r="I35" s="3">
-        <v>-434400</v>
+        <v>-78600</v>
       </c>
       <c r="J35" s="3">
+        <v>-451900</v>
+      </c>
+      <c r="K35" s="3">
         <v>207800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-496300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-59400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-238900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1830900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1095400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-452200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-103300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>86400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-184800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>40200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>76200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>51000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>14500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129400</v>
+        <v>93900</v>
       </c>
       <c r="E41" s="3">
-        <v>213700</v>
+        <v>134600</v>
       </c>
       <c r="F41" s="3">
-        <v>393800</v>
+        <v>222300</v>
       </c>
       <c r="G41" s="3">
-        <v>359700</v>
+        <v>409600</v>
       </c>
       <c r="H41" s="3">
-        <v>595200</v>
+        <v>374200</v>
       </c>
       <c r="I41" s="3">
-        <v>703500</v>
+        <v>619100</v>
       </c>
       <c r="J41" s="3">
+        <v>731700</v>
+      </c>
+      <c r="K41" s="3">
         <v>840200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>425700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>573400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>279600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>308700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>304400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>285500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>227500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>170000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>437600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>165400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>198300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>172500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>195400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>124600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>128400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>107900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>136200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3189,660 +3279,684 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>300</v>
       </c>
       <c r="H42" s="3">
         <v>300</v>
       </c>
       <c r="I42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
       </c>
       <c r="K42" s="3">
+        <v>200</v>
+      </c>
+      <c r="L42" s="3">
         <v>2000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>131800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>49100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>74300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>193700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>123500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>169400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>146600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>265600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>239200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>227400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>50800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>82200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>408400</v>
+        <v>315700</v>
       </c>
       <c r="E43" s="3">
-        <v>478900</v>
+        <v>424800</v>
       </c>
       <c r="F43" s="3">
-        <v>352000</v>
+        <v>498100</v>
       </c>
       <c r="G43" s="3">
-        <v>300400</v>
+        <v>366100</v>
       </c>
       <c r="H43" s="3">
-        <v>229200</v>
+        <v>312500</v>
       </c>
       <c r="I43" s="3">
-        <v>345800</v>
+        <v>238400</v>
       </c>
       <c r="J43" s="3">
+        <v>359600</v>
+      </c>
+      <c r="K43" s="3">
         <v>254600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>216300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>211900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>174500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>160500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>191300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>255000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>350500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>341100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>322000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>267000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>309100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>332300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>313500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>263200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>233900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>222000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>167900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>178100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>139700</v>
+        <v>144800</v>
       </c>
       <c r="E44" s="3">
-        <v>131400</v>
+        <v>145400</v>
       </c>
       <c r="F44" s="3">
-        <v>127400</v>
+        <v>136600</v>
       </c>
       <c r="G44" s="3">
-        <v>116500</v>
+        <v>132600</v>
       </c>
       <c r="H44" s="3">
-        <v>110700</v>
+        <v>121200</v>
       </c>
       <c r="I44" s="3">
-        <v>100600</v>
+        <v>115200</v>
       </c>
       <c r="J44" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K44" s="3">
         <v>92800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>75300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>73300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>78700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>67900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>48200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>49500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>37500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>36700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>40000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>40900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>38600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>34500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>33200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>28500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>26600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>265800</v>
+        <v>241100</v>
       </c>
       <c r="E45" s="3">
-        <v>169200</v>
+        <v>276500</v>
       </c>
       <c r="F45" s="3">
-        <v>234200</v>
+        <v>176000</v>
       </c>
       <c r="G45" s="3">
-        <v>197000</v>
+        <v>243600</v>
       </c>
       <c r="H45" s="3">
-        <v>196600</v>
+        <v>204900</v>
       </c>
       <c r="I45" s="3">
-        <v>161100</v>
+        <v>204500</v>
       </c>
       <c r="J45" s="3">
+        <v>167500</v>
+      </c>
+      <c r="K45" s="3">
         <v>120200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>124700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>135800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>148800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>127000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>152300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>145400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>67500</v>
       </c>
       <c r="R45" s="3">
         <v>67500</v>
       </c>
       <c r="S45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="T45" s="3">
         <v>61600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>40600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>67100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>79000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>84100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>50600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>65700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>65500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>50900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>943300</v>
+        <v>795500</v>
       </c>
       <c r="E46" s="3">
-        <v>993200</v>
+        <v>981200</v>
       </c>
       <c r="F46" s="3">
-        <v>1107500</v>
+        <v>1033100</v>
       </c>
       <c r="G46" s="3">
-        <v>974000</v>
+        <v>1152000</v>
       </c>
       <c r="H46" s="3">
-        <v>1132000</v>
+        <v>1013100</v>
       </c>
       <c r="I46" s="3">
-        <v>1311200</v>
+        <v>1177500</v>
       </c>
       <c r="J46" s="3">
+        <v>1363800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1308000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>853700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1013500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>702200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>687600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>637800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>764400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>760800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>728400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>669900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>690500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>675300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>807100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>734800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>847000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>682700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>676700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>420500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>473900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>141900</v>
+        <v>151800</v>
       </c>
       <c r="E47" s="3">
-        <v>133800</v>
+        <v>147600</v>
       </c>
       <c r="F47" s="3">
-        <v>135900</v>
+        <v>139200</v>
       </c>
       <c r="G47" s="3">
-        <v>139800</v>
+        <v>141400</v>
       </c>
       <c r="H47" s="3">
-        <v>175600</v>
+        <v>145400</v>
       </c>
       <c r="I47" s="3">
-        <v>210200</v>
+        <v>182600</v>
       </c>
       <c r="J47" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K47" s="3">
         <v>198800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>210300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>159900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>228800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>213200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>225800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>303300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>258900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>249900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>299200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>241000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>286400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>333000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>280800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>216800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>209500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>200600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>188600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>189100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1840600</v>
+        <v>1877000</v>
       </c>
       <c r="E48" s="3">
-        <v>1651800</v>
+        <v>1914400</v>
       </c>
       <c r="F48" s="3">
-        <v>1592900</v>
+        <v>1718100</v>
       </c>
       <c r="G48" s="3">
-        <v>1594000</v>
+        <v>1656800</v>
       </c>
       <c r="H48" s="3">
-        <v>1541400</v>
+        <v>1658000</v>
       </c>
       <c r="I48" s="3">
-        <v>1243200</v>
+        <v>1603300</v>
       </c>
       <c r="J48" s="3">
+        <v>1293000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1240000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1174700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1199300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1034900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1304600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1713000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1764600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1681400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1665700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1529900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1385000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1289600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1538300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1619300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>852600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>834400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>893200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>840600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>853400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>276200</v>
+        <v>294800</v>
       </c>
       <c r="E49" s="3">
-        <v>270600</v>
+        <v>287300</v>
       </c>
       <c r="F49" s="3">
-        <v>265900</v>
+        <v>281400</v>
       </c>
       <c r="G49" s="3">
-        <v>265800</v>
+        <v>276500</v>
       </c>
       <c r="H49" s="3">
-        <v>263000</v>
+        <v>276500</v>
       </c>
       <c r="I49" s="3">
-        <v>260500</v>
+        <v>273500</v>
       </c>
       <c r="J49" s="3">
+        <v>271000</v>
+      </c>
+      <c r="K49" s="3">
         <v>256200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>222100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>218900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>224300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>225500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>194400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>200900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>197100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>196200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>192200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>190200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>184700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>227000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>224300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>246400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>243600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>244100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>233900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>233800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>422900</v>
+        <v>385700</v>
       </c>
       <c r="E52" s="3">
-        <v>497700</v>
+        <v>439900</v>
       </c>
       <c r="F52" s="3">
-        <v>485700</v>
+        <v>517700</v>
       </c>
       <c r="G52" s="3">
-        <v>470100</v>
+        <v>505200</v>
       </c>
       <c r="H52" s="3">
-        <v>476600</v>
+        <v>489000</v>
       </c>
       <c r="I52" s="3">
-        <v>417300</v>
+        <v>495800</v>
       </c>
       <c r="J52" s="3">
+        <v>434000</v>
+      </c>
+      <c r="K52" s="3">
         <v>363600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>381600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>363300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>522400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>557400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>588300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>512600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>592400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>531100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>521300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>505000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>438800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>529700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>452100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>482000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>339700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>340000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>318200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>333700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3625000</v>
+        <v>3504800</v>
       </c>
       <c r="E54" s="3">
-        <v>3547100</v>
+        <v>3770500</v>
       </c>
       <c r="F54" s="3">
-        <v>3587900</v>
+        <v>3689400</v>
       </c>
       <c r="G54" s="3">
-        <v>3443800</v>
+        <v>3731900</v>
       </c>
       <c r="H54" s="3">
-        <v>3588600</v>
+        <v>3582000</v>
       </c>
       <c r="I54" s="3">
-        <v>3442400</v>
+        <v>3732600</v>
       </c>
       <c r="J54" s="3">
+        <v>3580500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3366600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2842400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2955000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2712600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2988200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3359200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3545800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3490600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3371300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3161700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3011700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2872400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3432500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3311400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2644800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2309900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2354700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2001800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2084000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>471100</v>
+        <v>546900</v>
       </c>
       <c r="E57" s="3">
-        <v>422800</v>
+        <v>641700</v>
       </c>
       <c r="F57" s="3">
-        <v>349900</v>
+        <v>439800</v>
       </c>
       <c r="G57" s="3">
-        <v>397900</v>
+        <v>363900</v>
       </c>
       <c r="H57" s="3">
-        <v>343800</v>
+        <v>413900</v>
       </c>
       <c r="I57" s="3">
-        <v>421900</v>
+        <v>357600</v>
       </c>
       <c r="J57" s="3">
+        <v>438800</v>
+      </c>
+      <c r="K57" s="3">
         <v>429100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>446500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>448400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>566100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>512200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>376600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>298800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>302500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>307300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>271400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>241600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>280900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>244800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>244500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>224200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>230000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>256500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>256600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>997900</v>
+        <v>1212500</v>
       </c>
       <c r="E58" s="3">
-        <v>984400</v>
+        <v>1038000</v>
       </c>
       <c r="F58" s="3">
-        <v>917000</v>
+        <v>1023900</v>
       </c>
       <c r="G58" s="3">
-        <v>875300</v>
+        <v>953800</v>
       </c>
       <c r="H58" s="3">
-        <v>875400</v>
+        <v>910400</v>
       </c>
       <c r="I58" s="3">
-        <v>798100</v>
+        <v>910500</v>
       </c>
       <c r="J58" s="3">
+        <v>830100</v>
+      </c>
+      <c r="K58" s="3">
         <v>658900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>660400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>585700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>713300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>665000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>764400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>381700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>331400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>282600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>271900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>261400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>286900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>368300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>340600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>145700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>259200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>282300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>252900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>255500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1446400</v>
+        <v>1439600</v>
       </c>
       <c r="E59" s="3">
-        <v>1469700</v>
+        <v>1352600</v>
       </c>
       <c r="F59" s="3">
-        <v>1360600</v>
+        <v>1528600</v>
       </c>
       <c r="G59" s="3">
-        <v>1010800</v>
+        <v>1415200</v>
       </c>
       <c r="H59" s="3">
-        <v>1048300</v>
+        <v>1051400</v>
       </c>
       <c r="I59" s="3">
-        <v>994400</v>
+        <v>1090300</v>
       </c>
       <c r="J59" s="3">
+        <v>1034300</v>
+      </c>
+      <c r="K59" s="3">
         <v>918500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>811000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>876600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>832300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>747700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>585300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>506900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>534000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>442300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>454500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>413200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>462600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>417400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>480800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>492600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>417300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>378600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>385400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2915300</v>
+        <v>3199100</v>
       </c>
       <c r="E60" s="3">
-        <v>2876900</v>
+        <v>3032300</v>
       </c>
       <c r="F60" s="3">
-        <v>2627400</v>
+        <v>2992300</v>
       </c>
       <c r="G60" s="3">
-        <v>2284100</v>
+        <v>2732900</v>
       </c>
       <c r="H60" s="3">
-        <v>2267500</v>
+        <v>2375700</v>
       </c>
       <c r="I60" s="3">
-        <v>2214400</v>
+        <v>2358400</v>
       </c>
       <c r="J60" s="3">
+        <v>2303200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2006600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1918000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1910700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2111700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1924800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1741300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1267400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1137100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1085900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>981200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>987300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>941600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1111800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1002800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>870900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>976000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>929600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>888000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>897500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3498000</v>
+        <v>3448800</v>
       </c>
       <c r="E61" s="3">
-        <v>3638300</v>
+        <v>3638400</v>
       </c>
       <c r="F61" s="3">
-        <v>3570600</v>
+        <v>3784300</v>
       </c>
       <c r="G61" s="3">
-        <v>3329900</v>
+        <v>3713800</v>
       </c>
       <c r="H61" s="3">
-        <v>3947800</v>
+        <v>3463500</v>
       </c>
       <c r="I61" s="3">
-        <v>3924900</v>
+        <v>4106200</v>
       </c>
       <c r="J61" s="3">
+        <v>4082400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3760800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3440400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3133900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2852200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3125000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2922900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2504200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2291700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2086300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2057800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1923500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1921600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2315500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2019000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>749100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>485500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>651400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>668900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>756500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>892100</v>
+        <v>829800</v>
       </c>
       <c r="E62" s="3">
-        <v>929800</v>
+        <v>927900</v>
       </c>
       <c r="F62" s="3">
-        <v>897800</v>
+        <v>967100</v>
       </c>
       <c r="G62" s="3">
-        <v>858000</v>
+        <v>933900</v>
       </c>
       <c r="H62" s="3">
-        <v>923200</v>
+        <v>892400</v>
       </c>
       <c r="I62" s="3">
-        <v>778000</v>
+        <v>960300</v>
       </c>
       <c r="J62" s="3">
+        <v>809200</v>
+      </c>
+      <c r="K62" s="3">
         <v>647400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>647500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>557500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>449500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>430900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>417200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>424100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>182700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>314100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>318900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>316100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>210700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>238300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>235200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>309000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>203000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>187100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>181300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>181500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7305400</v>
+        <v>7477800</v>
       </c>
       <c r="E66" s="3">
-        <v>7445000</v>
+        <v>7598600</v>
       </c>
       <c r="F66" s="3">
-        <v>7095800</v>
+        <v>7743700</v>
       </c>
       <c r="G66" s="3">
-        <v>6472000</v>
+        <v>7380600</v>
       </c>
       <c r="H66" s="3">
-        <v>7138500</v>
+        <v>6731700</v>
       </c>
       <c r="I66" s="3">
-        <v>6917200</v>
+        <v>7424900</v>
       </c>
       <c r="J66" s="3">
+        <v>7194800</v>
+      </c>
+      <c r="K66" s="3">
         <v>6414800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6005800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5602100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5413500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5480700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5081300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4195800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3611600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3486300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3357800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3227000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3074000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3665500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3257000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1929000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1664500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1768000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1738200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1835400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4127500</v>
+        <v>-4437400</v>
       </c>
       <c r="E72" s="3">
-        <v>-4346500</v>
+        <v>-4293200</v>
       </c>
       <c r="F72" s="3">
-        <v>-3954600</v>
+        <v>-4520900</v>
       </c>
       <c r="G72" s="3">
-        <v>-3475000</v>
+        <v>-4113300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3992200</v>
+        <v>-3614400</v>
       </c>
       <c r="I72" s="3">
-        <v>-3917300</v>
+        <v>-4152400</v>
       </c>
       <c r="J72" s="3">
+        <v>-4074500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3488500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3589100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3068900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3134500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2930200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2094800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1032000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-499000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-511200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-575600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-597900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-566100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-703100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-451000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>164700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>96400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>39100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-97500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-112300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3680400</v>
+        <v>-3973000</v>
       </c>
       <c r="E76" s="3">
-        <v>-3897900</v>
+        <v>-3828100</v>
       </c>
       <c r="F76" s="3">
-        <v>-3508000</v>
+        <v>-4054300</v>
       </c>
       <c r="G76" s="3">
-        <v>-3028100</v>
+        <v>-3648700</v>
       </c>
       <c r="H76" s="3">
-        <v>-3549800</v>
+        <v>-3149700</v>
       </c>
       <c r="I76" s="3">
-        <v>-3474900</v>
+        <v>-3692300</v>
       </c>
       <c r="J76" s="3">
+        <v>-3614300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3048200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3163500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2647100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2700900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2492500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1722100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-650000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-121000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-115000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-196100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-215200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-201500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-233100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>54400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>715800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>645500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>586600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>263500</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>248600</v>
       </c>
       <c r="AC76" s="3">
         <v>248600</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>248600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44800</v>
+        <v>-64900</v>
       </c>
       <c r="E81" s="3">
-        <v>-318500</v>
+        <v>178900</v>
       </c>
       <c r="F81" s="3">
-        <v>-508200</v>
+        <v>-331300</v>
       </c>
       <c r="G81" s="3">
-        <v>514800</v>
+        <v>-528600</v>
       </c>
       <c r="H81" s="3">
-        <v>-75600</v>
+        <v>535500</v>
       </c>
       <c r="I81" s="3">
-        <v>-434400</v>
+        <v>-78600</v>
       </c>
       <c r="J81" s="3">
+        <v>-451900</v>
+      </c>
+      <c r="K81" s="3">
         <v>207800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-496300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-59400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-238900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1830900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1095400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-452200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-103300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>86400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-184800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>40200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>76200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>51000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>14500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,46 +6409,47 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>110900</v>
+        <v>114300</v>
       </c>
       <c r="E83" s="3">
-        <v>100900</v>
+        <v>115400</v>
       </c>
       <c r="F83" s="3">
-        <v>92600</v>
+        <v>105000</v>
       </c>
       <c r="G83" s="3">
+        <v>96300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>105100</v>
+      </c>
+      <c r="I83" s="3">
         <v>101100</v>
       </c>
-      <c r="H83" s="3">
-        <v>97200</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K83" s="3">
         <v>67600</v>
       </c>
-      <c r="J83" s="3">
-        <v>67600</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>192400</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
@@ -6261,8 +6460,8 @@
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -6285,17 +6484,20 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>18700</v>
       </c>
-      <c r="AC83" s="3" t="s">
+      <c r="AD83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>293200</v>
+        <v>210100</v>
       </c>
       <c r="E89" s="3">
-        <v>11600</v>
+        <v>305000</v>
       </c>
       <c r="F89" s="3">
-        <v>213200</v>
+        <v>12100</v>
       </c>
       <c r="G89" s="3">
-        <v>-46100</v>
+        <v>221700</v>
       </c>
       <c r="H89" s="3">
-        <v>65300</v>
+        <v>-47900</v>
       </c>
       <c r="I89" s="3">
-        <v>-13500</v>
+        <v>67900</v>
       </c>
       <c r="J89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-42500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-67100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>108700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>160400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>142600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>181300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>53800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>129100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>111400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>88000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>22500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>108600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-49800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>79300</v>
       </c>
-      <c r="AC89" s="3" t="s">
+      <c r="AD89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70100</v>
+        <v>-81800</v>
       </c>
       <c r="E91" s="3">
-        <v>-83900</v>
+        <v>-426900</v>
       </c>
       <c r="F91" s="3">
-        <v>-52900</v>
+        <v>-494000</v>
       </c>
       <c r="G91" s="3">
-        <v>-35700</v>
+        <v>-303200</v>
       </c>
       <c r="H91" s="3">
-        <v>-47900</v>
+        <v>-227000</v>
       </c>
       <c r="I91" s="3">
-        <v>-18400</v>
+        <v>-283900</v>
       </c>
       <c r="J91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-52100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-85700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-117400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-75200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-70800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-50600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-77000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-32900</v>
       </c>
-      <c r="AC91" s="3" t="s">
+      <c r="AD91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43700</v>
+        <v>-16500</v>
       </c>
       <c r="E94" s="3">
-        <v>28200</v>
+        <v>-45400</v>
       </c>
       <c r="F94" s="3">
-        <v>-64500</v>
+        <v>29300</v>
       </c>
       <c r="G94" s="3">
-        <v>-44000</v>
+        <v>-67000</v>
       </c>
       <c r="H94" s="3">
-        <v>-55000</v>
+        <v>-45700</v>
       </c>
       <c r="I94" s="3">
-        <v>-27700</v>
+        <v>-53000</v>
       </c>
       <c r="J94" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-165700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-106900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-74600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>7700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-61200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>85800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-52300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-208400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>31300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-70100</v>
       </c>
-      <c r="AC94" s="3" t="s">
+      <c r="AD94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-331000</v>
+        <v>-234200</v>
       </c>
       <c r="E100" s="3">
-        <v>-224200</v>
+        <v>-344300</v>
       </c>
       <c r="F100" s="3">
-        <v>-122400</v>
+        <v>-233200</v>
       </c>
       <c r="G100" s="3">
-        <v>-136200</v>
+        <v>-127300</v>
       </c>
       <c r="H100" s="3">
-        <v>-125800</v>
+        <v>-141700</v>
       </c>
       <c r="I100" s="3">
-        <v>-133600</v>
+        <v>-130900</v>
       </c>
       <c r="J100" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="K100" s="3">
         <v>478500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>259200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-43300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-57400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-66900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>16200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-41400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>25700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-31400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>102700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-86100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>270200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-65000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>20400</v>
       </c>
-      <c r="AC100" s="3" t="s">
+      <c r="AD100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2800</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>4400</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>7800</v>
+        <v>4600</v>
       </c>
       <c r="G101" s="3">
-        <v>-9200</v>
+        <v>8100</v>
       </c>
       <c r="H101" s="3">
-        <v>7200</v>
+        <v>-9600</v>
       </c>
       <c r="I101" s="3">
-        <v>38200</v>
+        <v>7500</v>
       </c>
       <c r="J101" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-19500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AB101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-84300</v>
+        <v>-40700</v>
       </c>
       <c r="E102" s="3">
-        <v>-180100</v>
+        <v>-87700</v>
       </c>
       <c r="F102" s="3">
-        <v>34100</v>
+        <v>-187300</v>
       </c>
       <c r="G102" s="3">
-        <v>-235500</v>
+        <v>35400</v>
       </c>
       <c r="H102" s="3">
-        <v>-108300</v>
+        <v>-244900</v>
       </c>
       <c r="I102" s="3">
-        <v>-136700</v>
+        <v>-112700</v>
       </c>
       <c r="J102" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="K102" s="3">
         <v>399600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-147700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>304800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-199700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-48800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>51500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>25700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>70900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>16900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-28300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>29600</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>AZUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>901900</v>
+        <v>861700</v>
       </c>
       <c r="E8" s="3">
-        <v>896900</v>
+        <v>903900</v>
       </c>
       <c r="F8" s="3">
-        <v>881500</v>
+        <v>898900</v>
       </c>
       <c r="G8" s="3">
-        <v>790500</v>
+        <v>883400</v>
       </c>
       <c r="H8" s="3">
-        <v>643100</v>
+        <v>792200</v>
       </c>
       <c r="I8" s="3">
-        <v>751200</v>
+        <v>644500</v>
       </c>
       <c r="J8" s="3">
+        <v>752800</v>
+      </c>
+      <c r="K8" s="3">
         <v>547400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>329600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>341600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>324500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>156900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>631400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>568500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>967900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>475700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>459400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>447000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>465700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>511900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>560500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>510700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>440200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>466000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>451700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>430900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>421700</v>
+        <v>360400</v>
       </c>
       <c r="E9" s="3">
-        <v>522200</v>
+        <v>422600</v>
       </c>
       <c r="F9" s="3">
-        <v>489800</v>
+        <v>523300</v>
       </c>
       <c r="G9" s="3">
-        <v>451300</v>
+        <v>490900</v>
       </c>
       <c r="H9" s="3">
-        <v>336000</v>
+        <v>452300</v>
       </c>
       <c r="I9" s="3">
-        <v>335100</v>
+        <v>336700</v>
       </c>
       <c r="J9" s="3">
+        <v>335800</v>
+      </c>
+      <c r="K9" s="3">
         <v>265100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>187700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>173500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>148900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>89200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>290400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>219100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>239700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>232100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>402500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>195600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>189700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>197900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>201200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>218700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>307600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>287100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>265500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>270700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>267400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>263500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>480300</v>
+        <v>501400</v>
       </c>
       <c r="E10" s="3">
-        <v>374800</v>
+        <v>481300</v>
       </c>
       <c r="F10" s="3">
-        <v>391700</v>
+        <v>375600</v>
       </c>
       <c r="G10" s="3">
-        <v>339100</v>
+        <v>392500</v>
       </c>
       <c r="H10" s="3">
-        <v>307100</v>
+        <v>339900</v>
       </c>
       <c r="I10" s="3">
-        <v>416100</v>
+        <v>307700</v>
       </c>
       <c r="J10" s="3">
+        <v>417000</v>
+      </c>
+      <c r="K10" s="3">
         <v>282300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>141900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>168000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>175600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>341000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>281200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>360900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>336400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>565400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>280100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>269800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>249100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>264400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>293100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>252800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>223600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>174700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>195300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>184300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,49 +1262,52 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-325700</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-326400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>44400</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>-237700</v>
+        <v>44500</v>
       </c>
       <c r="J14" s="3">
+        <v>-238200</v>
+      </c>
+      <c r="K14" s="3">
         <v>12700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-141700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3200</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1304,8 +1324,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1331,94 +1351,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>114300</v>
+        <v>114000</v>
       </c>
       <c r="E15" s="3">
-        <v>115400</v>
+        <v>114600</v>
       </c>
       <c r="F15" s="3">
-        <v>105000</v>
+        <v>115600</v>
       </c>
       <c r="G15" s="3">
-        <v>96300</v>
+        <v>105200</v>
       </c>
       <c r="H15" s="3">
-        <v>105100</v>
+        <v>96500</v>
       </c>
       <c r="I15" s="3">
-        <v>101100</v>
+        <v>105400</v>
       </c>
       <c r="J15" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K15" s="3">
         <v>70300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>67600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>71700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>86900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>283900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>85800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>464000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>144400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>224100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>70500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>63500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>60400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>75200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>69200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>22900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>20700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>19000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>18700</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>808800</v>
+        <v>742300</v>
       </c>
       <c r="E17" s="3">
-        <v>732100</v>
+        <v>810600</v>
       </c>
       <c r="F17" s="3">
-        <v>800200</v>
+        <v>733700</v>
       </c>
       <c r="G17" s="3">
-        <v>763000</v>
+        <v>801900</v>
       </c>
       <c r="H17" s="3">
-        <v>628900</v>
+        <v>764600</v>
       </c>
       <c r="I17" s="3">
-        <v>643900</v>
+        <v>630200</v>
       </c>
       <c r="J17" s="3">
+        <v>645300</v>
+      </c>
+      <c r="K17" s="3">
         <v>519900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>407100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>381600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>378100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>205100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>801900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>469300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1049500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>469700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>840200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>410700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>423000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>368200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>419000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>424700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>484200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>448400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>414900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>414100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>409500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>93100</v>
+        <v>119500</v>
       </c>
       <c r="E18" s="3">
-        <v>164900</v>
+        <v>93300</v>
       </c>
       <c r="F18" s="3">
-        <v>81300</v>
+        <v>165200</v>
       </c>
       <c r="G18" s="3">
+        <v>81500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>27600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K18" s="3">
         <v>27500</v>
       </c>
-      <c r="H18" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>107300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>27500</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-77500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-53600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-48200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-170500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-448800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>98800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>127700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>36400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>78800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>46700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>87200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>76200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>62300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>25300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>51900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>42200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,221 +1683,228 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-147400</v>
+        <v>-8900</v>
       </c>
       <c r="E20" s="3">
-        <v>463500</v>
+        <v>-147700</v>
       </c>
       <c r="F20" s="3">
-        <v>-375300</v>
+        <v>464500</v>
       </c>
       <c r="G20" s="3">
-        <v>-544800</v>
+        <v>-376100</v>
       </c>
       <c r="H20" s="3">
-        <v>533500</v>
+        <v>-546000</v>
       </c>
       <c r="I20" s="3">
-        <v>-185900</v>
+        <v>534600</v>
       </c>
       <c r="J20" s="3">
+        <v>-186300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-469300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>289900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-453400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-183200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1702100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-203300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-51300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-52900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-82000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-221400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-42100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-38300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-35900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-35300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>60100</v>
+        <v>237200</v>
       </c>
       <c r="E21" s="3">
-        <v>743700</v>
+        <v>60200</v>
       </c>
       <c r="F21" s="3">
-        <v>-189000</v>
+        <v>745400</v>
       </c>
       <c r="G21" s="3">
-        <v>-421000</v>
+        <v>-189400</v>
       </c>
       <c r="H21" s="3">
-        <v>652800</v>
+        <v>-422000</v>
       </c>
       <c r="I21" s="3">
-        <v>22500</v>
+        <v>654200</v>
       </c>
       <c r="J21" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-371500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>280000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-429200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-144500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1680100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1054200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-207800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>41200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>150200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>82600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-168700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>114300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>85500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>52900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>35000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>25600</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E22" s="3">
         <v>10600</v>
       </c>
-      <c r="E22" s="3">
-        <v>449400</v>
-      </c>
       <c r="F22" s="3">
-        <v>37300</v>
+        <v>450400</v>
       </c>
       <c r="G22" s="3">
-        <v>11200</v>
+        <v>37400</v>
       </c>
       <c r="H22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I22" s="3">
         <v>12200</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9500</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1872,17 +1912,17 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>10100</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-64900</v>
+        <v>100500</v>
       </c>
       <c r="E23" s="3">
-        <v>178900</v>
+        <v>-65000</v>
       </c>
       <c r="F23" s="3">
-        <v>-331300</v>
+        <v>179300</v>
       </c>
       <c r="G23" s="3">
-        <v>-528600</v>
+        <v>-332000</v>
       </c>
       <c r="H23" s="3">
-        <v>535500</v>
+        <v>-529700</v>
       </c>
       <c r="I23" s="3">
-        <v>-78600</v>
+        <v>536700</v>
       </c>
       <c r="J23" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-451900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>207800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-496300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-60300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-234500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1882100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1140000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-455800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-104500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-174700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>45100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>94800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>50600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>16000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>6900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2005,83 +2051,86 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-51200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-20100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-11400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>10400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-64900</v>
+        <v>100500</v>
       </c>
       <c r="E26" s="3">
-        <v>178900</v>
+        <v>-65000</v>
       </c>
       <c r="F26" s="3">
-        <v>-331300</v>
+        <v>179300</v>
       </c>
       <c r="G26" s="3">
-        <v>-528600</v>
+        <v>-332000</v>
       </c>
       <c r="H26" s="3">
-        <v>535500</v>
+        <v>-529700</v>
       </c>
       <c r="I26" s="3">
-        <v>-78600</v>
+        <v>536700</v>
       </c>
       <c r="J26" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-451900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>207800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-496300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-59400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-238900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1830900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1095400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-452200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-103300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>86400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-184800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>40200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>76200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>51100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>14500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-64900</v>
+        <v>100500</v>
       </c>
       <c r="E27" s="3">
-        <v>178900</v>
+        <v>-65000</v>
       </c>
       <c r="F27" s="3">
-        <v>-331300</v>
+        <v>179300</v>
       </c>
       <c r="G27" s="3">
-        <v>-528600</v>
+        <v>-332000</v>
       </c>
       <c r="H27" s="3">
-        <v>535500</v>
+        <v>-529700</v>
       </c>
       <c r="I27" s="3">
-        <v>-78600</v>
+        <v>536700</v>
       </c>
       <c r="J27" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-451900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>207800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-496300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-59400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-238900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1830900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1095400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-452200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-103300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>86400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-184800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>40200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>76200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>51000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>14500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>147400</v>
+        <v>8900</v>
       </c>
       <c r="E32" s="3">
-        <v>-463500</v>
+        <v>147700</v>
       </c>
       <c r="F32" s="3">
-        <v>375300</v>
+        <v>-464500</v>
       </c>
       <c r="G32" s="3">
-        <v>544800</v>
+        <v>376100</v>
       </c>
       <c r="H32" s="3">
-        <v>-533500</v>
+        <v>546000</v>
       </c>
       <c r="I32" s="3">
-        <v>185900</v>
+        <v>-534600</v>
       </c>
       <c r="J32" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K32" s="3">
         <v>469300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-289900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>453400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>183200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1702100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1171000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>203300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>51300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>52900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>82000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>221400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>42100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>38300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>35900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>35300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-64900</v>
+        <v>100500</v>
       </c>
       <c r="E33" s="3">
-        <v>178900</v>
+        <v>-65000</v>
       </c>
       <c r="F33" s="3">
-        <v>-331300</v>
+        <v>179300</v>
       </c>
       <c r="G33" s="3">
-        <v>-528600</v>
+        <v>-332000</v>
       </c>
       <c r="H33" s="3">
-        <v>535500</v>
+        <v>-529700</v>
       </c>
       <c r="I33" s="3">
-        <v>-78600</v>
+        <v>536700</v>
       </c>
       <c r="J33" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-451900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-496300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-59400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-238900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1830900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1095400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-452200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-103300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>86400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-184800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>40200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>76200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>51000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>14500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-64900</v>
+        <v>100500</v>
       </c>
       <c r="E35" s="3">
-        <v>178900</v>
+        <v>-65000</v>
       </c>
       <c r="F35" s="3">
-        <v>-331300</v>
+        <v>179300</v>
       </c>
       <c r="G35" s="3">
-        <v>-528600</v>
+        <v>-332000</v>
       </c>
       <c r="H35" s="3">
-        <v>535500</v>
+        <v>-529700</v>
       </c>
       <c r="I35" s="3">
-        <v>-78600</v>
+        <v>536700</v>
       </c>
       <c r="J35" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-451900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-496300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-59400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-238900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1830900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1095400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-452200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-103300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>86400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-184800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>40200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>76200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>51000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>14500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93900</v>
+        <v>124400</v>
       </c>
       <c r="E41" s="3">
-        <v>134600</v>
+        <v>94100</v>
       </c>
       <c r="F41" s="3">
-        <v>222300</v>
+        <v>134900</v>
       </c>
       <c r="G41" s="3">
-        <v>409600</v>
+        <v>222800</v>
       </c>
       <c r="H41" s="3">
-        <v>374200</v>
+        <v>410500</v>
       </c>
       <c r="I41" s="3">
-        <v>619100</v>
+        <v>375000</v>
       </c>
       <c r="J41" s="3">
+        <v>620400</v>
+      </c>
+      <c r="K41" s="3">
         <v>731700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>840200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>425700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>573400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>279600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>308700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>304400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>285500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>227500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>170000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>437600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>165400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>198300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>172500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>195400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>124600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>128400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>107900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>136200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>106600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3282,681 +3372,705 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>300</v>
       </c>
       <c r="I42" s="3">
         <v>300</v>
       </c>
       <c r="J42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
       </c>
       <c r="L42" s="3">
+        <v>200</v>
+      </c>
+      <c r="M42" s="3">
         <v>2000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>26000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>131800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>49100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>74300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>193700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>123500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>169400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>146600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>265600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>239200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>227400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>50800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>82200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>315700</v>
+        <v>324300</v>
       </c>
       <c r="E43" s="3">
-        <v>424800</v>
+        <v>316400</v>
       </c>
       <c r="F43" s="3">
-        <v>498100</v>
+        <v>425700</v>
       </c>
       <c r="G43" s="3">
-        <v>366100</v>
+        <v>499200</v>
       </c>
       <c r="H43" s="3">
-        <v>312500</v>
+        <v>366900</v>
       </c>
       <c r="I43" s="3">
-        <v>238400</v>
+        <v>313200</v>
       </c>
       <c r="J43" s="3">
+        <v>238900</v>
+      </c>
+      <c r="K43" s="3">
         <v>359600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>254600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>216300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>211900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>174500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>160500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>191300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>255000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>350500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>341100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>322000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>267000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>309100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>332300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>313500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>263200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>233900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>222000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>167900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>178100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>144800</v>
+        <v>145900</v>
       </c>
       <c r="E44" s="3">
-        <v>145400</v>
+        <v>145100</v>
       </c>
       <c r="F44" s="3">
-        <v>136600</v>
+        <v>145700</v>
       </c>
       <c r="G44" s="3">
-        <v>132600</v>
+        <v>136900</v>
       </c>
       <c r="H44" s="3">
-        <v>121200</v>
+        <v>132900</v>
       </c>
       <c r="I44" s="3">
-        <v>115200</v>
+        <v>121500</v>
       </c>
       <c r="J44" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K44" s="3">
         <v>104600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>92800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>85000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>75300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>73300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>78700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>67900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>48200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>49500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>37500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>36700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>40000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>40900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>38600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>34500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>33200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>28500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>26600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>241100</v>
+        <v>339600</v>
       </c>
       <c r="E45" s="3">
-        <v>276500</v>
+        <v>241600</v>
       </c>
       <c r="F45" s="3">
-        <v>176000</v>
+        <v>277100</v>
       </c>
       <c r="G45" s="3">
-        <v>243600</v>
+        <v>176400</v>
       </c>
       <c r="H45" s="3">
+        <v>244100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>205400</v>
+      </c>
+      <c r="J45" s="3">
         <v>204900</v>
       </c>
-      <c r="I45" s="3">
-        <v>204500</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>167500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>120200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>124700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>135800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>148800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>152300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>145400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>67500</v>
       </c>
       <c r="S45" s="3">
         <v>67500</v>
       </c>
       <c r="T45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="U45" s="3">
         <v>61600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>70500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>40600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>67100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>79000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>84100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>50600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>65700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>65500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>50900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>795500</v>
+        <v>934200</v>
       </c>
       <c r="E46" s="3">
-        <v>981200</v>
+        <v>797200</v>
       </c>
       <c r="F46" s="3">
-        <v>1033100</v>
+        <v>983400</v>
       </c>
       <c r="G46" s="3">
-        <v>1152000</v>
+        <v>1035300</v>
       </c>
       <c r="H46" s="3">
-        <v>1013100</v>
+        <v>1154500</v>
       </c>
       <c r="I46" s="3">
-        <v>1177500</v>
+        <v>1015300</v>
       </c>
       <c r="J46" s="3">
+        <v>1180000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1363800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1308000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>853700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1013500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>702200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>687600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>637800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>764400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>760800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>728400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>669900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>690500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>675300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>807100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>734800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>847000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>682700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>676700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>420500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>473900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>151800</v>
+        <v>149800</v>
       </c>
       <c r="E47" s="3">
-        <v>147600</v>
+        <v>152100</v>
       </c>
       <c r="F47" s="3">
-        <v>139200</v>
+        <v>148000</v>
       </c>
       <c r="G47" s="3">
-        <v>141400</v>
+        <v>139500</v>
       </c>
       <c r="H47" s="3">
-        <v>145400</v>
+        <v>141700</v>
       </c>
       <c r="I47" s="3">
-        <v>182600</v>
+        <v>145700</v>
       </c>
       <c r="J47" s="3">
+        <v>183000</v>
+      </c>
+      <c r="K47" s="3">
         <v>218600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>198800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>210300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>159900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>228800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>213200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>225800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>303300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>258900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>249900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>299200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>241000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>286400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>333000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>280800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>216800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>209500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>200600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>188600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>189100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1877000</v>
+        <v>1752500</v>
       </c>
       <c r="E48" s="3">
-        <v>1914400</v>
+        <v>1881100</v>
       </c>
       <c r="F48" s="3">
-        <v>1718100</v>
+        <v>1918600</v>
       </c>
       <c r="G48" s="3">
-        <v>1656800</v>
+        <v>1721800</v>
       </c>
       <c r="H48" s="3">
-        <v>1658000</v>
+        <v>1660400</v>
       </c>
       <c r="I48" s="3">
-        <v>1603300</v>
+        <v>1661600</v>
       </c>
       <c r="J48" s="3">
+        <v>1606800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1293000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1240000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1174700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1199300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1034900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1304600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1713000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1764600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1681400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1665700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1529900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1385000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1289600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1538300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1619300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>852600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>834400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>893200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>840600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>853400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>850100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>294800</v>
+        <v>296300</v>
       </c>
       <c r="E49" s="3">
-        <v>287300</v>
+        <v>295400</v>
       </c>
       <c r="F49" s="3">
-        <v>281400</v>
+        <v>287900</v>
       </c>
       <c r="G49" s="3">
-        <v>276500</v>
+        <v>282000</v>
       </c>
       <c r="H49" s="3">
-        <v>276500</v>
+        <v>277100</v>
       </c>
       <c r="I49" s="3">
-        <v>273500</v>
+        <v>277100</v>
       </c>
       <c r="J49" s="3">
+        <v>274100</v>
+      </c>
+      <c r="K49" s="3">
         <v>271000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>256200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>222100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>218900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>224300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>225500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>194400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>200900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>197100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>196200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>192200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>190200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>184700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>227000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>224300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>246400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>243600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>244100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>233900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>233800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>234300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>385700</v>
+        <v>323200</v>
       </c>
       <c r="E52" s="3">
-        <v>439900</v>
+        <v>386600</v>
       </c>
       <c r="F52" s="3">
-        <v>517700</v>
+        <v>440800</v>
       </c>
       <c r="G52" s="3">
-        <v>505200</v>
+        <v>518800</v>
       </c>
       <c r="H52" s="3">
-        <v>489000</v>
+        <v>506300</v>
       </c>
       <c r="I52" s="3">
-        <v>495800</v>
+        <v>490100</v>
       </c>
       <c r="J52" s="3">
+        <v>496900</v>
+      </c>
+      <c r="K52" s="3">
         <v>434000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>363600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>381600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>363300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>522400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>557400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>588300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>512600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>592400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>531100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>521300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>505000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>438800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>529700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>452100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>482000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>339700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>340000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>318200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>333700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>335000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3504800</v>
+        <v>3455900</v>
       </c>
       <c r="E54" s="3">
-        <v>3770500</v>
+        <v>3512500</v>
       </c>
       <c r="F54" s="3">
-        <v>3689400</v>
+        <v>3778700</v>
       </c>
       <c r="G54" s="3">
-        <v>3731900</v>
+        <v>3697500</v>
       </c>
       <c r="H54" s="3">
-        <v>3582000</v>
+        <v>3740000</v>
       </c>
       <c r="I54" s="3">
-        <v>3732600</v>
+        <v>3589800</v>
       </c>
       <c r="J54" s="3">
+        <v>3740800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3580500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3366600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2842400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2955000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2712600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2988200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3359200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3545800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3490600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3371300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3161700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3011700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2872400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3432500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3311400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2644800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2309900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2354700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2001800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2084000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1989600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>546900</v>
+        <v>587900</v>
       </c>
       <c r="E57" s="3">
-        <v>641700</v>
+        <v>548100</v>
       </c>
       <c r="F57" s="3">
-        <v>439800</v>
+        <v>643100</v>
       </c>
       <c r="G57" s="3">
-        <v>363900</v>
+        <v>440700</v>
       </c>
       <c r="H57" s="3">
-        <v>413900</v>
+        <v>364700</v>
       </c>
       <c r="I57" s="3">
-        <v>357600</v>
+        <v>414800</v>
       </c>
       <c r="J57" s="3">
+        <v>358300</v>
+      </c>
+      <c r="K57" s="3">
         <v>438800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>429100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>446500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>448400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>566100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>512200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>376600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>298800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>302500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>307300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>271400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>241600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>280900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>244800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>244500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>224200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>230000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>256500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>256600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>265300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1212500</v>
+        <v>1281400</v>
       </c>
       <c r="E58" s="3">
-        <v>1038000</v>
+        <v>1215200</v>
       </c>
       <c r="F58" s="3">
-        <v>1023900</v>
+        <v>1040200</v>
       </c>
       <c r="G58" s="3">
-        <v>953800</v>
+        <v>1026200</v>
       </c>
       <c r="H58" s="3">
-        <v>910400</v>
+        <v>955900</v>
       </c>
       <c r="I58" s="3">
-        <v>910500</v>
+        <v>912400</v>
       </c>
       <c r="J58" s="3">
+        <v>912500</v>
+      </c>
+      <c r="K58" s="3">
         <v>830100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>658900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>660400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>585700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>713300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>665000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>764400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>381700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>331400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>282600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>271900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>261400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>286900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>368300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>340600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>145700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>259200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>282300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>252900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>255500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1439600</v>
+        <v>1526300</v>
       </c>
       <c r="E59" s="3">
-        <v>1352600</v>
+        <v>1442800</v>
       </c>
       <c r="F59" s="3">
-        <v>1528600</v>
+        <v>1355600</v>
       </c>
       <c r="G59" s="3">
-        <v>1415200</v>
+        <v>1532000</v>
       </c>
       <c r="H59" s="3">
-        <v>1051400</v>
+        <v>1418300</v>
       </c>
       <c r="I59" s="3">
-        <v>1090300</v>
+        <v>1053700</v>
       </c>
       <c r="J59" s="3">
+        <v>1092700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1034300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>918500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>811000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>876600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>832300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>747700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>585300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>506900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>534000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>442300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>454500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>413200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>462600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>417400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>480800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>492600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>417300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>378600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>385400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>327700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3199100</v>
+        <v>3395600</v>
       </c>
       <c r="E60" s="3">
-        <v>3032300</v>
+        <v>3206100</v>
       </c>
       <c r="F60" s="3">
-        <v>2992300</v>
+        <v>3038900</v>
       </c>
       <c r="G60" s="3">
-        <v>2732900</v>
+        <v>2998900</v>
       </c>
       <c r="H60" s="3">
-        <v>2375700</v>
+        <v>2738800</v>
       </c>
       <c r="I60" s="3">
-        <v>2358400</v>
+        <v>2380900</v>
       </c>
       <c r="J60" s="3">
+        <v>2363600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2303200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2006600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1918000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1910700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2111700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1924800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1741300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1267400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1137100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1085900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>981200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>987300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>941600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1111800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1002800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>870900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>976000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>929600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>888000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>897500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>855500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3448800</v>
+        <v>3204100</v>
       </c>
       <c r="E61" s="3">
-        <v>3638400</v>
+        <v>3456300</v>
       </c>
       <c r="F61" s="3">
-        <v>3784300</v>
+        <v>3646400</v>
       </c>
       <c r="G61" s="3">
-        <v>3713800</v>
+        <v>3792600</v>
       </c>
       <c r="H61" s="3">
-        <v>3463500</v>
+        <v>3721900</v>
       </c>
       <c r="I61" s="3">
-        <v>4106200</v>
+        <v>3471100</v>
       </c>
       <c r="J61" s="3">
+        <v>4115200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4082400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3760800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3440400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3133900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2852200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3125000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2922900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2504200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2291700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2086300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2057800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1923500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1921600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2315500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2019000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>749100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>485500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>651400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>668900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>756500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>713000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>829800</v>
+        <v>828900</v>
       </c>
       <c r="E62" s="3">
-        <v>927900</v>
+        <v>831700</v>
       </c>
       <c r="F62" s="3">
-        <v>967100</v>
+        <v>929900</v>
       </c>
       <c r="G62" s="3">
-        <v>933900</v>
+        <v>969200</v>
       </c>
       <c r="H62" s="3">
-        <v>892400</v>
+        <v>935900</v>
       </c>
       <c r="I62" s="3">
-        <v>960300</v>
+        <v>894400</v>
       </c>
       <c r="J62" s="3">
+        <v>962400</v>
+      </c>
+      <c r="K62" s="3">
         <v>809200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>647400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>647500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>557500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>449500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>430900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>417200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>424100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>182700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>314100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>318900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>316100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>210700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>238300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>235200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>309000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>203000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>187100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>181300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>181500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>172600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7477800</v>
+        <v>7428500</v>
       </c>
       <c r="E66" s="3">
-        <v>7598600</v>
+        <v>7494100</v>
       </c>
       <c r="F66" s="3">
-        <v>7743700</v>
+        <v>7615200</v>
       </c>
       <c r="G66" s="3">
-        <v>7380600</v>
+        <v>7760600</v>
       </c>
       <c r="H66" s="3">
-        <v>6731700</v>
+        <v>7396700</v>
       </c>
       <c r="I66" s="3">
-        <v>7424900</v>
+        <v>6746400</v>
       </c>
       <c r="J66" s="3">
+        <v>7441100</v>
+      </c>
+      <c r="K66" s="3">
         <v>7194800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6414800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6005800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5602100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5413500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5480700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5081300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4195800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3611600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3486300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3357800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3227000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3074000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3665500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3257000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1929000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1664500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1768000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1738200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1835400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1741100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4437400</v>
+        <v>-4438300</v>
       </c>
       <c r="E72" s="3">
-        <v>-4293200</v>
+        <v>-4447100</v>
       </c>
       <c r="F72" s="3">
-        <v>-4520900</v>
+        <v>-4302500</v>
       </c>
       <c r="G72" s="3">
-        <v>-4113300</v>
+        <v>-4530800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3614400</v>
+        <v>-4122300</v>
       </c>
       <c r="I72" s="3">
-        <v>-4152400</v>
+        <v>-3622300</v>
       </c>
       <c r="J72" s="3">
+        <v>-4161500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4074500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3488500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3589100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3068900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3134500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2930200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2094800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1032000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-499000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-511200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-575600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-597900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-566100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-703100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-451000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>164700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>96400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>39100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-97500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-112300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-109200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3973000</v>
+        <v>-3972600</v>
       </c>
       <c r="E76" s="3">
-        <v>-3828100</v>
+        <v>-3981700</v>
       </c>
       <c r="F76" s="3">
-        <v>-4054300</v>
+        <v>-3836500</v>
       </c>
       <c r="G76" s="3">
-        <v>-3648700</v>
+        <v>-4063100</v>
       </c>
       <c r="H76" s="3">
-        <v>-3149700</v>
+        <v>-3656700</v>
       </c>
       <c r="I76" s="3">
-        <v>-3692300</v>
+        <v>-3156500</v>
       </c>
       <c r="J76" s="3">
+        <v>-3700300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3614300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3048200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3163500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2647100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2700900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2492500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1722100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-650000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-121000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-115000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-196100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-215200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-201500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-233100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>54400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>715800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>645500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>586600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>263500</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>248600</v>
       </c>
       <c r="AD76" s="3">
         <v>248600</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>248600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-64900</v>
+        <v>100500</v>
       </c>
       <c r="E81" s="3">
-        <v>178900</v>
+        <v>-65000</v>
       </c>
       <c r="F81" s="3">
-        <v>-331300</v>
+        <v>179300</v>
       </c>
       <c r="G81" s="3">
-        <v>-528600</v>
+        <v>-332000</v>
       </c>
       <c r="H81" s="3">
-        <v>535500</v>
+        <v>-529700</v>
       </c>
       <c r="I81" s="3">
-        <v>-78600</v>
+        <v>536700</v>
       </c>
       <c r="J81" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-451900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-496300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-59400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-238900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1830900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1095400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-452200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-103300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>86400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-184800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>40200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>76200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>51000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>14500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,49 +6608,50 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>114300</v>
+        <v>126600</v>
       </c>
       <c r="E83" s="3">
-        <v>115400</v>
+        <v>114600</v>
       </c>
       <c r="F83" s="3">
-        <v>105000</v>
+        <v>115600</v>
       </c>
       <c r="G83" s="3">
-        <v>96300</v>
+        <v>105200</v>
       </c>
       <c r="H83" s="3">
-        <v>105100</v>
+        <v>96500</v>
       </c>
       <c r="I83" s="3">
-        <v>101100</v>
+        <v>105400</v>
       </c>
       <c r="J83" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K83" s="3">
         <v>70300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>71700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>86900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>192400</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
@@ -6463,8 +6662,8 @@
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -6487,17 +6686,20 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>18700</v>
       </c>
-      <c r="AD83" s="3" t="s">
+      <c r="AE83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>210100</v>
+        <v>119700</v>
       </c>
       <c r="E89" s="3">
-        <v>305000</v>
+        <v>210600</v>
       </c>
       <c r="F89" s="3">
+        <v>305600</v>
+      </c>
+      <c r="G89" s="3">
         <v>12100</v>
       </c>
-      <c r="G89" s="3">
-        <v>221700</v>
-      </c>
       <c r="H89" s="3">
-        <v>-47900</v>
+        <v>222200</v>
       </c>
       <c r="I89" s="3">
-        <v>67900</v>
+        <v>-48000</v>
       </c>
       <c r="J89" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-14100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-67100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>108700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>160400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>142600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>181300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>53800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>129100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>111400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>88000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>22500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>108600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-49800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>6500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>79300</v>
       </c>
-      <c r="AD89" s="3" t="s">
+      <c r="AE89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-221800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-81800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-426900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-494000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-303200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-227000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-283900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-143000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-52100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-85700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-117400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-75200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-70800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-30600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-50600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-77000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-32900</v>
       </c>
-      <c r="AD91" s="3" t="s">
+      <c r="AE91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16500</v>
       </c>
-      <c r="E94" s="3">
-        <v>-45400</v>
-      </c>
       <c r="F94" s="3">
-        <v>29300</v>
+        <v>-45500</v>
       </c>
       <c r="G94" s="3">
-        <v>-67000</v>
+        <v>29400</v>
       </c>
       <c r="H94" s="3">
-        <v>-45700</v>
+        <v>-67200</v>
       </c>
       <c r="I94" s="3">
-        <v>-53000</v>
+        <v>-45800</v>
       </c>
       <c r="J94" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-28800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-165700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-106900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-74600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-61200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>85800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-52300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-208400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>31300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-70100</v>
       </c>
-      <c r="AD94" s="3" t="s">
+      <c r="AE94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-234200</v>
+        <v>-44400</v>
       </c>
       <c r="E100" s="3">
-        <v>-344300</v>
+        <v>-234700</v>
       </c>
       <c r="F100" s="3">
-        <v>-233200</v>
+        <v>-345100</v>
       </c>
       <c r="G100" s="3">
-        <v>-127300</v>
+        <v>-233800</v>
       </c>
       <c r="H100" s="3">
-        <v>-141700</v>
+        <v>-127600</v>
       </c>
       <c r="I100" s="3">
-        <v>-130900</v>
+        <v>-142000</v>
       </c>
       <c r="J100" s="3">
+        <v>-131100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-139000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>478500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>259200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-43300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-46400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-57400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-66900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>16200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-41400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>25700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>102700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-86100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>270200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-65000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>20400</v>
       </c>
-      <c r="AD100" s="3" t="s">
+      <c r="AE100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>39700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-19500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AC101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40700</v>
+        <v>30300</v>
       </c>
       <c r="E102" s="3">
-        <v>-87700</v>
+        <v>-40800</v>
       </c>
       <c r="F102" s="3">
-        <v>-187300</v>
+        <v>-87900</v>
       </c>
       <c r="G102" s="3">
-        <v>35400</v>
+        <v>-187700</v>
       </c>
       <c r="H102" s="3">
-        <v>-244900</v>
+        <v>35500</v>
       </c>
       <c r="I102" s="3">
-        <v>-112700</v>
+        <v>-245400</v>
       </c>
       <c r="J102" s="3">
+        <v>-112900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-142100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>399600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-147700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>304800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-199700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-48800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>51500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>25700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>70900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>16900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-28300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>29600</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZUL_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>861700</v>
+        <v>877900</v>
       </c>
       <c r="E8" s="3">
-        <v>903900</v>
+        <v>920900</v>
       </c>
       <c r="F8" s="3">
-        <v>898900</v>
+        <v>915800</v>
       </c>
       <c r="G8" s="3">
-        <v>883400</v>
+        <v>900000</v>
       </c>
       <c r="H8" s="3">
-        <v>792200</v>
+        <v>807100</v>
       </c>
       <c r="I8" s="3">
-        <v>644500</v>
+        <v>656600</v>
       </c>
       <c r="J8" s="3">
-        <v>752800</v>
+        <v>766900</v>
       </c>
       <c r="K8" s="3">
         <v>547400</v>
@@ -882,25 +882,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>360400</v>
+        <v>367200</v>
       </c>
       <c r="E9" s="3">
-        <v>422600</v>
+        <v>430500</v>
       </c>
       <c r="F9" s="3">
-        <v>523300</v>
+        <v>533100</v>
       </c>
       <c r="G9" s="3">
-        <v>490900</v>
+        <v>500100</v>
       </c>
       <c r="H9" s="3">
-        <v>452300</v>
+        <v>460800</v>
       </c>
       <c r="I9" s="3">
-        <v>336700</v>
+        <v>343100</v>
       </c>
       <c r="J9" s="3">
-        <v>335800</v>
+        <v>342100</v>
       </c>
       <c r="K9" s="3">
         <v>265100</v>
@@ -971,25 +971,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>501400</v>
+        <v>510800</v>
       </c>
       <c r="E10" s="3">
-        <v>481300</v>
+        <v>490300</v>
       </c>
       <c r="F10" s="3">
-        <v>375600</v>
+        <v>382600</v>
       </c>
       <c r="G10" s="3">
-        <v>392500</v>
+        <v>399900</v>
       </c>
       <c r="H10" s="3">
-        <v>339900</v>
+        <v>346200</v>
       </c>
       <c r="I10" s="3">
-        <v>307700</v>
+        <v>313500</v>
       </c>
       <c r="J10" s="3">
-        <v>417000</v>
+        <v>424800</v>
       </c>
       <c r="K10" s="3">
         <v>282300</v>
@@ -1277,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-326400</v>
+        <v>-332500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1286,10 +1286,10 @@
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>44500</v>
+        <v>45300</v>
       </c>
       <c r="J14" s="3">
-        <v>-238200</v>
+        <v>-242700</v>
       </c>
       <c r="K14" s="3">
         <v>12700</v>
@@ -1360,25 +1360,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>114000</v>
+        <v>116200</v>
       </c>
       <c r="E15" s="3">
-        <v>114600</v>
+        <v>116700</v>
       </c>
       <c r="F15" s="3">
-        <v>115600</v>
+        <v>117800</v>
       </c>
       <c r="G15" s="3">
-        <v>105200</v>
+        <v>107200</v>
       </c>
       <c r="H15" s="3">
-        <v>96500</v>
+        <v>98300</v>
       </c>
       <c r="I15" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="J15" s="3">
-        <v>101300</v>
+        <v>103200</v>
       </c>
       <c r="K15" s="3">
         <v>70300</v>
@@ -1479,25 +1479,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>742300</v>
+        <v>756200</v>
       </c>
       <c r="E17" s="3">
-        <v>810600</v>
+        <v>825800</v>
       </c>
       <c r="F17" s="3">
-        <v>733700</v>
+        <v>747400</v>
       </c>
       <c r="G17" s="3">
-        <v>801900</v>
+        <v>817000</v>
       </c>
       <c r="H17" s="3">
-        <v>764600</v>
+        <v>779000</v>
       </c>
       <c r="I17" s="3">
-        <v>630200</v>
+        <v>642100</v>
       </c>
       <c r="J17" s="3">
-        <v>645300</v>
+        <v>657400</v>
       </c>
       <c r="K17" s="3">
         <v>519900</v>
@@ -1568,25 +1568,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>119500</v>
+        <v>121700</v>
       </c>
       <c r="E18" s="3">
-        <v>93300</v>
+        <v>95100</v>
       </c>
       <c r="F18" s="3">
-        <v>165200</v>
+        <v>168300</v>
       </c>
       <c r="G18" s="3">
-        <v>81500</v>
+        <v>83000</v>
       </c>
       <c r="H18" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="I18" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="J18" s="3">
-        <v>107500</v>
+        <v>109500</v>
       </c>
       <c r="K18" s="3">
         <v>27500</v>
@@ -1690,25 +1690,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="E20" s="3">
-        <v>-147700</v>
+        <v>-150500</v>
       </c>
       <c r="F20" s="3">
-        <v>464500</v>
+        <v>473200</v>
       </c>
       <c r="G20" s="3">
-        <v>-376100</v>
+        <v>-383200</v>
       </c>
       <c r="H20" s="3">
-        <v>-546000</v>
+        <v>-556300</v>
       </c>
       <c r="I20" s="3">
-        <v>534600</v>
+        <v>544700</v>
       </c>
       <c r="J20" s="3">
-        <v>-186300</v>
+        <v>-189800</v>
       </c>
       <c r="K20" s="3">
         <v>-469300</v>
@@ -1779,25 +1779,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>237200</v>
+        <v>241600</v>
       </c>
       <c r="E21" s="3">
-        <v>60200</v>
+        <v>61300</v>
       </c>
       <c r="F21" s="3">
-        <v>745400</v>
+        <v>759400</v>
       </c>
       <c r="G21" s="3">
-        <v>-189400</v>
+        <v>-193000</v>
       </c>
       <c r="H21" s="3">
-        <v>-422000</v>
+        <v>-429900</v>
       </c>
       <c r="I21" s="3">
-        <v>654200</v>
+        <v>666500</v>
       </c>
       <c r="J21" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="K21" s="3">
         <v>-371500</v>
@@ -1868,22 +1868,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="E22" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="F22" s="3">
-        <v>450400</v>
+        <v>458800</v>
       </c>
       <c r="G22" s="3">
-        <v>37400</v>
+        <v>38100</v>
       </c>
       <c r="H22" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="I22" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1957,25 +1957,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100500</v>
+        <v>102400</v>
       </c>
       <c r="E23" s="3">
-        <v>-65000</v>
+        <v>-66300</v>
       </c>
       <c r="F23" s="3">
-        <v>179300</v>
+        <v>182700</v>
       </c>
       <c r="G23" s="3">
-        <v>-332000</v>
+        <v>-338300</v>
       </c>
       <c r="H23" s="3">
-        <v>-529700</v>
+        <v>-539700</v>
       </c>
       <c r="I23" s="3">
-        <v>536700</v>
+        <v>546700</v>
       </c>
       <c r="J23" s="3">
-        <v>-78800</v>
+        <v>-80200</v>
       </c>
       <c r="K23" s="3">
         <v>-451900</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100500</v>
+        <v>102400</v>
       </c>
       <c r="E26" s="3">
-        <v>-65000</v>
+        <v>-66300</v>
       </c>
       <c r="F26" s="3">
-        <v>179300</v>
+        <v>182700</v>
       </c>
       <c r="G26" s="3">
-        <v>-332000</v>
+        <v>-338300</v>
       </c>
       <c r="H26" s="3">
-        <v>-529700</v>
+        <v>-539700</v>
       </c>
       <c r="I26" s="3">
-        <v>536700</v>
+        <v>546700</v>
       </c>
       <c r="J26" s="3">
-        <v>-78800</v>
+        <v>-80200</v>
       </c>
       <c r="K26" s="3">
         <v>-451900</v>
@@ -2313,25 +2313,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100500</v>
+        <v>102400</v>
       </c>
       <c r="E27" s="3">
-        <v>-65000</v>
+        <v>-66300</v>
       </c>
       <c r="F27" s="3">
-        <v>179300</v>
+        <v>182700</v>
       </c>
       <c r="G27" s="3">
-        <v>-332000</v>
+        <v>-338300</v>
       </c>
       <c r="H27" s="3">
-        <v>-529700</v>
+        <v>-539700</v>
       </c>
       <c r="I27" s="3">
-        <v>536700</v>
+        <v>546700</v>
       </c>
       <c r="J27" s="3">
-        <v>-78800</v>
+        <v>-80200</v>
       </c>
       <c r="K27" s="3">
         <v>-451900</v>
@@ -2758,25 +2758,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="E32" s="3">
-        <v>147700</v>
+        <v>150500</v>
       </c>
       <c r="F32" s="3">
-        <v>-464500</v>
+        <v>-473200</v>
       </c>
       <c r="G32" s="3">
-        <v>376100</v>
+        <v>383200</v>
       </c>
       <c r="H32" s="3">
-        <v>546000</v>
+        <v>556300</v>
       </c>
       <c r="I32" s="3">
-        <v>-534600</v>
+        <v>-544700</v>
       </c>
       <c r="J32" s="3">
-        <v>186300</v>
+        <v>189800</v>
       </c>
       <c r="K32" s="3">
         <v>469300</v>
@@ -2847,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100500</v>
+        <v>102400</v>
       </c>
       <c r="E33" s="3">
-        <v>-65000</v>
+        <v>-66300</v>
       </c>
       <c r="F33" s="3">
-        <v>179300</v>
+        <v>182700</v>
       </c>
       <c r="G33" s="3">
-        <v>-332000</v>
+        <v>-338300</v>
       </c>
       <c r="H33" s="3">
-        <v>-529700</v>
+        <v>-539700</v>
       </c>
       <c r="I33" s="3">
-        <v>536700</v>
+        <v>546700</v>
       </c>
       <c r="J33" s="3">
-        <v>-78800</v>
+        <v>-80200</v>
       </c>
       <c r="K33" s="3">
         <v>-451900</v>
@@ -3025,25 +3025,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100500</v>
+        <v>102400</v>
       </c>
       <c r="E35" s="3">
-        <v>-65000</v>
+        <v>-66300</v>
       </c>
       <c r="F35" s="3">
-        <v>179300</v>
+        <v>182700</v>
       </c>
       <c r="G35" s="3">
-        <v>-332000</v>
+        <v>-338300</v>
       </c>
       <c r="H35" s="3">
-        <v>-529700</v>
+        <v>-539700</v>
       </c>
       <c r="I35" s="3">
-        <v>536700</v>
+        <v>546700</v>
       </c>
       <c r="J35" s="3">
-        <v>-78800</v>
+        <v>-80200</v>
       </c>
       <c r="K35" s="3">
         <v>-451900</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124400</v>
+        <v>126700</v>
       </c>
       <c r="E41" s="3">
-        <v>94100</v>
+        <v>95900</v>
       </c>
       <c r="F41" s="3">
-        <v>134900</v>
+        <v>137400</v>
       </c>
       <c r="G41" s="3">
-        <v>222800</v>
+        <v>227000</v>
       </c>
       <c r="H41" s="3">
-        <v>410500</v>
+        <v>418200</v>
       </c>
       <c r="I41" s="3">
-        <v>375000</v>
+        <v>382000</v>
       </c>
       <c r="J41" s="3">
-        <v>620400</v>
+        <v>632100</v>
       </c>
       <c r="K41" s="3">
         <v>731700</v>
@@ -3452,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>324300</v>
+        <v>330400</v>
       </c>
       <c r="E43" s="3">
-        <v>316400</v>
+        <v>322300</v>
       </c>
       <c r="F43" s="3">
-        <v>425700</v>
+        <v>433700</v>
       </c>
       <c r="G43" s="3">
-        <v>499200</v>
+        <v>508600</v>
       </c>
       <c r="H43" s="3">
-        <v>366900</v>
+        <v>373800</v>
       </c>
       <c r="I43" s="3">
-        <v>313200</v>
+        <v>319100</v>
       </c>
       <c r="J43" s="3">
-        <v>238900</v>
+        <v>243400</v>
       </c>
       <c r="K43" s="3">
         <v>359600</v>
@@ -3541,25 +3541,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>145900</v>
+        <v>148600</v>
       </c>
       <c r="E44" s="3">
-        <v>145100</v>
+        <v>147800</v>
       </c>
       <c r="F44" s="3">
-        <v>145700</v>
+        <v>148400</v>
       </c>
       <c r="G44" s="3">
-        <v>136900</v>
+        <v>139500</v>
       </c>
       <c r="H44" s="3">
-        <v>132900</v>
+        <v>135300</v>
       </c>
       <c r="I44" s="3">
-        <v>121500</v>
+        <v>123700</v>
       </c>
       <c r="J44" s="3">
-        <v>115400</v>
+        <v>117600</v>
       </c>
       <c r="K44" s="3">
         <v>104600</v>
@@ -3630,25 +3630,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>339600</v>
+        <v>346000</v>
       </c>
       <c r="E45" s="3">
-        <v>241600</v>
+        <v>246100</v>
       </c>
       <c r="F45" s="3">
-        <v>277100</v>
+        <v>282300</v>
       </c>
       <c r="G45" s="3">
-        <v>176400</v>
+        <v>179700</v>
       </c>
       <c r="H45" s="3">
-        <v>244100</v>
+        <v>248700</v>
       </c>
       <c r="I45" s="3">
-        <v>205400</v>
+        <v>209200</v>
       </c>
       <c r="J45" s="3">
-        <v>204900</v>
+        <v>208800</v>
       </c>
       <c r="K45" s="3">
         <v>167500</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>934200</v>
+        <v>951700</v>
       </c>
       <c r="E46" s="3">
-        <v>797200</v>
+        <v>812200</v>
       </c>
       <c r="F46" s="3">
-        <v>983400</v>
+        <v>1001800</v>
       </c>
       <c r="G46" s="3">
-        <v>1035300</v>
+        <v>1054800</v>
       </c>
       <c r="H46" s="3">
-        <v>1154500</v>
+        <v>1176200</v>
       </c>
       <c r="I46" s="3">
-        <v>1015300</v>
+        <v>1034400</v>
       </c>
       <c r="J46" s="3">
-        <v>1180000</v>
+        <v>1202200</v>
       </c>
       <c r="K46" s="3">
         <v>1363800</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>149800</v>
+        <v>152600</v>
       </c>
       <c r="E47" s="3">
-        <v>152100</v>
+        <v>155000</v>
       </c>
       <c r="F47" s="3">
-        <v>148000</v>
+        <v>150700</v>
       </c>
       <c r="G47" s="3">
-        <v>139500</v>
+        <v>142100</v>
       </c>
       <c r="H47" s="3">
-        <v>141700</v>
+        <v>144300</v>
       </c>
       <c r="I47" s="3">
-        <v>145700</v>
+        <v>148500</v>
       </c>
       <c r="J47" s="3">
-        <v>183000</v>
+        <v>186400</v>
       </c>
       <c r="K47" s="3">
         <v>218600</v>
@@ -3897,25 +3897,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1752500</v>
+        <v>1785400</v>
       </c>
       <c r="E48" s="3">
-        <v>1881100</v>
+        <v>1916400</v>
       </c>
       <c r="F48" s="3">
-        <v>1918600</v>
+        <v>1954600</v>
       </c>
       <c r="G48" s="3">
-        <v>1721800</v>
+        <v>1754200</v>
       </c>
       <c r="H48" s="3">
-        <v>1660400</v>
+        <v>1691600</v>
       </c>
       <c r="I48" s="3">
-        <v>1661600</v>
+        <v>1692800</v>
       </c>
       <c r="J48" s="3">
-        <v>1606800</v>
+        <v>1637000</v>
       </c>
       <c r="K48" s="3">
         <v>1293000</v>
@@ -3986,25 +3986,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>296300</v>
+        <v>301800</v>
       </c>
       <c r="E49" s="3">
-        <v>295400</v>
+        <v>301000</v>
       </c>
       <c r="F49" s="3">
-        <v>287900</v>
+        <v>293300</v>
       </c>
       <c r="G49" s="3">
-        <v>282000</v>
+        <v>287300</v>
       </c>
       <c r="H49" s="3">
-        <v>277100</v>
+        <v>282400</v>
       </c>
       <c r="I49" s="3">
-        <v>277100</v>
+        <v>282300</v>
       </c>
       <c r="J49" s="3">
-        <v>274100</v>
+        <v>279300</v>
       </c>
       <c r="K49" s="3">
         <v>271000</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>323200</v>
+        <v>329200</v>
       </c>
       <c r="E52" s="3">
-        <v>386600</v>
+        <v>393800</v>
       </c>
       <c r="F52" s="3">
-        <v>440800</v>
+        <v>449100</v>
       </c>
       <c r="G52" s="3">
-        <v>518800</v>
+        <v>528600</v>
       </c>
       <c r="H52" s="3">
-        <v>506300</v>
+        <v>515800</v>
       </c>
       <c r="I52" s="3">
-        <v>490100</v>
+        <v>499300</v>
       </c>
       <c r="J52" s="3">
-        <v>496900</v>
+        <v>506200</v>
       </c>
       <c r="K52" s="3">
         <v>434000</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3455900</v>
+        <v>3520800</v>
       </c>
       <c r="E54" s="3">
-        <v>3512500</v>
+        <v>3578400</v>
       </c>
       <c r="F54" s="3">
-        <v>3778700</v>
+        <v>3849700</v>
       </c>
       <c r="G54" s="3">
-        <v>3697500</v>
+        <v>3766900</v>
       </c>
       <c r="H54" s="3">
-        <v>3740000</v>
+        <v>3810200</v>
       </c>
       <c r="I54" s="3">
-        <v>3589800</v>
+        <v>3657300</v>
       </c>
       <c r="J54" s="3">
-        <v>3740800</v>
+        <v>3811000</v>
       </c>
       <c r="K54" s="3">
         <v>3580500</v>
@@ -4586,25 +4586,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>587900</v>
+        <v>598900</v>
       </c>
       <c r="E57" s="3">
-        <v>548100</v>
+        <v>558400</v>
       </c>
       <c r="F57" s="3">
-        <v>643100</v>
+        <v>655200</v>
       </c>
       <c r="G57" s="3">
-        <v>440700</v>
+        <v>449000</v>
       </c>
       <c r="H57" s="3">
-        <v>364700</v>
+        <v>371600</v>
       </c>
       <c r="I57" s="3">
-        <v>414800</v>
+        <v>422600</v>
       </c>
       <c r="J57" s="3">
-        <v>358300</v>
+        <v>365100</v>
       </c>
       <c r="K57" s="3">
         <v>438800</v>
@@ -4675,25 +4675,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1281400</v>
+        <v>1305500</v>
       </c>
       <c r="E58" s="3">
-        <v>1215200</v>
+        <v>1238000</v>
       </c>
       <c r="F58" s="3">
-        <v>1040200</v>
+        <v>1059800</v>
       </c>
       <c r="G58" s="3">
-        <v>1026200</v>
+        <v>1045400</v>
       </c>
       <c r="H58" s="3">
-        <v>955900</v>
+        <v>973800</v>
       </c>
       <c r="I58" s="3">
-        <v>912400</v>
+        <v>929600</v>
       </c>
       <c r="J58" s="3">
-        <v>912500</v>
+        <v>929700</v>
       </c>
       <c r="K58" s="3">
         <v>830100</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1526300</v>
+        <v>1554900</v>
       </c>
       <c r="E59" s="3">
-        <v>1442800</v>
+        <v>1469900</v>
       </c>
       <c r="F59" s="3">
-        <v>1355600</v>
+        <v>1381100</v>
       </c>
       <c r="G59" s="3">
-        <v>1532000</v>
+        <v>1560700</v>
       </c>
       <c r="H59" s="3">
-        <v>1418300</v>
+        <v>1444900</v>
       </c>
       <c r="I59" s="3">
-        <v>1053700</v>
+        <v>1073500</v>
       </c>
       <c r="J59" s="3">
-        <v>1092700</v>
+        <v>1113200</v>
       </c>
       <c r="K59" s="3">
         <v>1034300</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3395600</v>
+        <v>3459300</v>
       </c>
       <c r="E60" s="3">
-        <v>3206100</v>
+        <v>3266300</v>
       </c>
       <c r="F60" s="3">
-        <v>3038900</v>
+        <v>3096000</v>
       </c>
       <c r="G60" s="3">
-        <v>2998900</v>
+        <v>3055200</v>
       </c>
       <c r="H60" s="3">
-        <v>2738800</v>
+        <v>2790300</v>
       </c>
       <c r="I60" s="3">
-        <v>2380900</v>
+        <v>2425600</v>
       </c>
       <c r="J60" s="3">
-        <v>2363600</v>
+        <v>2408000</v>
       </c>
       <c r="K60" s="3">
         <v>2303200</v>
@@ -4942,25 +4942,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3204100</v>
+        <v>3264300</v>
       </c>
       <c r="E61" s="3">
-        <v>3456300</v>
+        <v>3521200</v>
       </c>
       <c r="F61" s="3">
-        <v>3646400</v>
+        <v>3714800</v>
       </c>
       <c r="G61" s="3">
-        <v>3792600</v>
+        <v>3863800</v>
       </c>
       <c r="H61" s="3">
-        <v>3721900</v>
+        <v>3791800</v>
       </c>
       <c r="I61" s="3">
-        <v>3471100</v>
+        <v>3536300</v>
       </c>
       <c r="J61" s="3">
-        <v>4115200</v>
+        <v>4192400</v>
       </c>
       <c r="K61" s="3">
         <v>4082400</v>
@@ -5031,25 +5031,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>828900</v>
+        <v>844400</v>
       </c>
       <c r="E62" s="3">
-        <v>831700</v>
+        <v>847300</v>
       </c>
       <c r="F62" s="3">
-        <v>929900</v>
+        <v>947400</v>
       </c>
       <c r="G62" s="3">
-        <v>969200</v>
+        <v>987400</v>
       </c>
       <c r="H62" s="3">
-        <v>935900</v>
+        <v>953500</v>
       </c>
       <c r="I62" s="3">
-        <v>894400</v>
+        <v>911200</v>
       </c>
       <c r="J62" s="3">
-        <v>962400</v>
+        <v>980400</v>
       </c>
       <c r="K62" s="3">
         <v>809200</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7428500</v>
+        <v>7568000</v>
       </c>
       <c r="E66" s="3">
-        <v>7494100</v>
+        <v>7634800</v>
       </c>
       <c r="F66" s="3">
-        <v>7615200</v>
+        <v>7758200</v>
       </c>
       <c r="G66" s="3">
-        <v>7760600</v>
+        <v>7906400</v>
       </c>
       <c r="H66" s="3">
-        <v>7396700</v>
+        <v>7535600</v>
       </c>
       <c r="I66" s="3">
-        <v>6746400</v>
+        <v>6873100</v>
       </c>
       <c r="J66" s="3">
-        <v>7441100</v>
+        <v>7580900</v>
       </c>
       <c r="K66" s="3">
         <v>7194800</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4438300</v>
+        <v>-4521600</v>
       </c>
       <c r="E72" s="3">
-        <v>-4447100</v>
+        <v>-4530600</v>
       </c>
       <c r="F72" s="3">
-        <v>-4302500</v>
+        <v>-4383300</v>
       </c>
       <c r="G72" s="3">
-        <v>-4530800</v>
+        <v>-4615800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4122300</v>
+        <v>-4199700</v>
       </c>
       <c r="I72" s="3">
-        <v>-3622300</v>
+        <v>-3690300</v>
       </c>
       <c r="J72" s="3">
-        <v>-4161500</v>
+        <v>-4239600</v>
       </c>
       <c r="K72" s="3">
         <v>-4074500</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3972600</v>
+        <v>-4047200</v>
       </c>
       <c r="E76" s="3">
-        <v>-3981700</v>
+        <v>-4056400</v>
       </c>
       <c r="F76" s="3">
-        <v>-3836500</v>
+        <v>-3908500</v>
       </c>
       <c r="G76" s="3">
-        <v>-4063100</v>
+        <v>-4139400</v>
       </c>
       <c r="H76" s="3">
-        <v>-3656700</v>
+        <v>-3725400</v>
       </c>
       <c r="I76" s="3">
-        <v>-3156500</v>
+        <v>-3215800</v>
       </c>
       <c r="J76" s="3">
-        <v>-3700300</v>
+        <v>-3769800</v>
       </c>
       <c r="K76" s="3">
         <v>-3614300</v>
@@ -6493,25 +6493,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100500</v>
+        <v>102400</v>
       </c>
       <c r="E81" s="3">
-        <v>-65000</v>
+        <v>-66300</v>
       </c>
       <c r="F81" s="3">
-        <v>179300</v>
+        <v>182700</v>
       </c>
       <c r="G81" s="3">
-        <v>-332000</v>
+        <v>-338300</v>
       </c>
       <c r="H81" s="3">
-        <v>-529700</v>
+        <v>-539700</v>
       </c>
       <c r="I81" s="3">
-        <v>536700</v>
+        <v>546700</v>
       </c>
       <c r="J81" s="3">
-        <v>-78800</v>
+        <v>-80200</v>
       </c>
       <c r="K81" s="3">
         <v>-451900</v>
@@ -6615,25 +6615,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>126600</v>
+        <v>129000</v>
       </c>
       <c r="E83" s="3">
-        <v>114600</v>
+        <v>116700</v>
       </c>
       <c r="F83" s="3">
-        <v>115600</v>
+        <v>117800</v>
       </c>
       <c r="G83" s="3">
-        <v>105200</v>
+        <v>107200</v>
       </c>
       <c r="H83" s="3">
-        <v>96500</v>
+        <v>98300</v>
       </c>
       <c r="I83" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="J83" s="3">
-        <v>101300</v>
+        <v>103200</v>
       </c>
       <c r="K83" s="3">
         <v>70300</v>
@@ -7149,25 +7149,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>119700</v>
+        <v>122000</v>
       </c>
       <c r="E89" s="3">
-        <v>210600</v>
+        <v>214500</v>
       </c>
       <c r="F89" s="3">
-        <v>305600</v>
+        <v>311400</v>
       </c>
       <c r="G89" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="H89" s="3">
-        <v>222200</v>
+        <v>226400</v>
       </c>
       <c r="I89" s="3">
-        <v>-48000</v>
+        <v>-48900</v>
       </c>
       <c r="J89" s="3">
-        <v>68100</v>
+        <v>69300</v>
       </c>
       <c r="K89" s="3">
         <v>-14100</v>
@@ -7538,25 +7538,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44800</v>
+        <v>-45600</v>
       </c>
       <c r="E94" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="F94" s="3">
-        <v>-45500</v>
+        <v>-46400</v>
       </c>
       <c r="G94" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="H94" s="3">
-        <v>-67200</v>
+        <v>-68500</v>
       </c>
       <c r="I94" s="3">
-        <v>-45800</v>
+        <v>-46700</v>
       </c>
       <c r="J94" s="3">
-        <v>-53100</v>
+        <v>-54100</v>
       </c>
       <c r="K94" s="3">
         <v>-28800</v>
@@ -8016,25 +8016,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-44400</v>
+        <v>-45200</v>
       </c>
       <c r="E100" s="3">
-        <v>-234700</v>
+        <v>-239100</v>
       </c>
       <c r="F100" s="3">
-        <v>-345100</v>
+        <v>-351600</v>
       </c>
       <c r="G100" s="3">
-        <v>-233800</v>
+        <v>-238100</v>
       </c>
       <c r="H100" s="3">
-        <v>-127600</v>
+        <v>-130000</v>
       </c>
       <c r="I100" s="3">
-        <v>-142000</v>
+        <v>-144700</v>
       </c>
       <c r="J100" s="3">
-        <v>-131100</v>
+        <v>-133600</v>
       </c>
       <c r="K100" s="3">
         <v>-139000</v>
@@ -8111,19 +8111,19 @@
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
         <v>4600</v>
       </c>
       <c r="H101" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I101" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="J101" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="K101" s="3">
         <v>39700</v>
@@ -8194,25 +8194,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30300</v>
+        <v>30800</v>
       </c>
       <c r="E102" s="3">
-        <v>-40800</v>
+        <v>-41500</v>
       </c>
       <c r="F102" s="3">
-        <v>-87900</v>
+        <v>-89500</v>
       </c>
       <c r="G102" s="3">
-        <v>-187700</v>
+        <v>-191200</v>
       </c>
       <c r="H102" s="3">
-        <v>35500</v>
+        <v>36200</v>
       </c>
       <c r="I102" s="3">
-        <v>-245400</v>
+        <v>-250000</v>
       </c>
       <c r="J102" s="3">
-        <v>-112900</v>
+        <v>-115000</v>
       </c>
       <c r="K102" s="3">
         <v>-142100</v>
